--- a/temp/0042_results.xlsx
+++ b/temp/0042_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P94"/>
+  <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,2616 +512,2616 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>89.10000000000001</v>
+        <v>90.72000274658204</v>
       </c>
       <c r="D2" t="n">
-        <v>2800</v>
+        <v>2645</v>
       </c>
       <c r="E2" t="n">
         <v>45</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="G2" t="n">
-        <v>138.253</v>
+        <v>137.733</v>
       </c>
       <c r="H2" t="n">
-        <v>4645.253521800001</v>
+        <v>4782.071438343553</v>
       </c>
       <c r="I2" t="n">
         <v>45</v>
       </c>
       <c r="J2" t="n">
-        <v>612.5625</v>
+        <v>635.0400390625</v>
       </c>
       <c r="K2" t="n">
-        <v>-11.93756103515625</v>
+        <v>-14.7000732421875</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1739999999999782</v>
+        <v>0.3019999999999925</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.06347181594079047</v>
+        <v>-0.02973834189113806</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.09685466139691878</v>
+        <v>-0.1012247131731541</v>
       </c>
       <c r="O2" t="n">
-        <v>6728.012489723789</v>
+        <v>3152.264240460634</v>
       </c>
       <c r="P2" t="n">
-        <v>4195.818006</v>
+        <v>4332.246170032252</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="B3" t="n">
         <v>0.2</v>
       </c>
       <c r="C3" t="n">
-        <v>88.84800109863282</v>
+        <v>90.36000137329101</v>
       </c>
       <c r="D3" t="n">
-        <v>2848</v>
+        <v>2700</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F3" t="n">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="G3" t="n">
-        <v>138.494</v>
+        <v>137.934</v>
       </c>
       <c r="H3" t="n">
-        <v>4624.18587438299</v>
+        <v>4751.460649633114</v>
       </c>
       <c r="I3" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J3" t="n">
-        <v>609.1024169921875</v>
+        <v>630.010009765625</v>
       </c>
       <c r="K3" t="n">
-        <v>-3.4600830078125</v>
+        <v>-5.030029296875</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2410000000000139</v>
+        <v>0.2009999999999934</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05654454758297903</v>
+        <v>-0.02615010618747723</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01042386017805643</v>
+        <v>-0.01190575518600025</v>
       </c>
       <c r="O3" t="n">
-        <v>5993.722043795778</v>
+        <v>2771.911255872586</v>
       </c>
       <c r="P3" t="n">
-        <v>4174.817505863703</v>
+        <v>4301.715724391798</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="B4" t="n">
         <v>0.4</v>
       </c>
       <c r="C4" t="n">
-        <v>88.09199752807618</v>
+        <v>89.9639991760254</v>
       </c>
       <c r="D4" t="n">
-        <v>2900</v>
+        <v>2755</v>
       </c>
       <c r="E4" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F4" t="n">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="G4" t="n">
-        <v>138.64</v>
+        <v>138.079</v>
       </c>
       <c r="H4" t="n">
-        <v>4561.329686811219</v>
+        <v>4717.925174661249</v>
       </c>
       <c r="I4" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J4" t="n">
-        <v>598.7808837890625</v>
+        <v>624.5000610351562</v>
       </c>
       <c r="K4" t="n">
-        <v>-10.321533203125</v>
+        <v>-5.50994873046875</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1459999999999866</v>
+        <v>0.1450000000000102</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.05790497346248652</v>
+        <v>-0.02662316819069582</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.0732611138907181</v>
+        <v>-0.02569164369036599</v>
       </c>
       <c r="O4" t="n">
-        <v>6137.927187023572</v>
+        <v>2822.055828213757</v>
       </c>
       <c r="P4" t="n">
-        <v>4112.173293542626</v>
+        <v>4268.272764368978</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="B5" t="n">
         <v>0.6000000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>87.98400192260742</v>
+        <v>89.10000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>2949</v>
+        <v>2800</v>
       </c>
       <c r="E5" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F5" t="n">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="G5" t="n">
-        <v>138.806</v>
+        <v>138.253</v>
       </c>
       <c r="H5" t="n">
-        <v>4552.393167198728</v>
+        <v>4645.253521800001</v>
       </c>
       <c r="I5" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J5" t="n">
-        <v>597.3135986328125</v>
+        <v>612.5625</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.46728515625</v>
+        <v>-11.93756103515625</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1660000000000252</v>
+        <v>0.1739999999999782</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.04947306516711851</v>
+        <v>-0.0435025831047366</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01638041715802363</v>
+        <v>-0.09685466139691878</v>
       </c>
       <c r="O5" t="n">
-        <v>5244.144907714562</v>
+        <v>4611.273809102079</v>
       </c>
       <c r="P5" t="n">
-        <v>4103.268344251744</v>
+        <v>4195.818006</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>563</v>
+        <v>532</v>
       </c>
       <c r="B6" t="n">
         <v>0.8</v>
       </c>
       <c r="C6" t="n">
-        <v>87.44400329589844</v>
+        <v>88.84800109863282</v>
       </c>
       <c r="D6" t="n">
-        <v>3000</v>
+        <v>2848</v>
       </c>
       <c r="E6" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F6" t="n">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="G6" t="n">
-        <v>138.985</v>
+        <v>138.494</v>
       </c>
       <c r="H6" t="n">
-        <v>4507.8683492735</v>
+        <v>4624.18587438299</v>
       </c>
       <c r="I6" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J6" t="n">
-        <v>590.004150390625</v>
+        <v>609.1024169921875</v>
       </c>
       <c r="K6" t="n">
-        <v>-7.3094482421875</v>
+        <v>-3.4600830078125</v>
       </c>
       <c r="L6" t="n">
-        <v>0.179000000000002</v>
+        <v>0.2410000000000139</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.04725117888849947</v>
+        <v>-0.03301329704530723</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.03917901532296254</v>
+        <v>0.01042386017805643</v>
       </c>
       <c r="O6" t="n">
-        <v>5008.624962180945</v>
+        <v>3499.409486802567</v>
       </c>
       <c r="P6" t="n">
-        <v>4058.906219795419</v>
+        <v>4174.817505863703</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>572</v>
+        <v>543</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>86.90399780273438</v>
+        <v>88.09199752807618</v>
       </c>
       <c r="D7" t="n">
-        <v>3047</v>
+        <v>2900</v>
       </c>
       <c r="E7" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F7" t="n">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="G7" t="n">
-        <v>139.158</v>
+        <v>138.64</v>
       </c>
       <c r="H7" t="n">
-        <v>4463.60877979846</v>
+        <v>4561.329686811219</v>
       </c>
       <c r="I7" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J7" t="n">
-        <v>582.7395629882812</v>
+        <v>598.7808837890625</v>
       </c>
       <c r="K7" t="n">
-        <v>-7.26458740234375</v>
+        <v>-10.321533203125</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1729999999999734</v>
+        <v>0.1459999999999866</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.04565053474325273</v>
+        <v>-0.04343705467749233</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.04321760986034621</v>
+        <v>-0.0732611138907181</v>
       </c>
       <c r="O7" t="n">
-        <v>4838.956682784789</v>
+        <v>4604.327795814187</v>
       </c>
       <c r="P7" t="n">
-        <v>4014.817405794777</v>
+        <v>4112.173293542626</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>584</v>
+        <v>552</v>
       </c>
       <c r="B8" t="n">
         <v>1.2</v>
       </c>
       <c r="C8" t="n">
-        <v>87.15599670410157</v>
+        <v>87.98400192260742</v>
       </c>
       <c r="D8" t="n">
-        <v>3100</v>
+        <v>2949</v>
       </c>
       <c r="E8" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="G8" t="n">
-        <v>139.218</v>
+        <v>138.806</v>
       </c>
       <c r="H8" t="n">
-        <v>4484.22986609994</v>
+        <v>4552.393167198728</v>
       </c>
       <c r="I8" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J8" t="n">
-        <v>586.1240844726562</v>
+        <v>597.3135986328125</v>
       </c>
       <c r="K8" t="n">
-        <v>3.384521484375</v>
+        <v>-1.46728515625</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06000000000000227</v>
+        <v>0.1660000000000252</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.03204331842842365</v>
+        <v>-0.03073702141428856</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04240648605764992</v>
+        <v>0.01638041715802363</v>
       </c>
       <c r="O8" t="n">
-        <v>3396.591753412907</v>
+        <v>3258.124269914587</v>
       </c>
       <c r="P8" t="n">
-        <v>4035.357804347299</v>
+        <v>4103.268344251744</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>604</v>
+        <v>563</v>
       </c>
       <c r="B9" t="n">
         <v>1.4</v>
       </c>
       <c r="C9" t="n">
-        <v>85.35599670410157</v>
+        <v>87.44400329589844</v>
       </c>
       <c r="D9" t="n">
-        <v>3148</v>
+        <v>3000</v>
       </c>
       <c r="E9" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9" t="n">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="G9" t="n">
-        <v>139.488</v>
+        <v>138.985</v>
       </c>
       <c r="H9" t="n">
-        <v>4338.205736659878</v>
+        <v>4507.8683492735</v>
       </c>
       <c r="I9" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J9" t="n">
-        <v>562.1640625</v>
+        <v>590.004150390625</v>
       </c>
       <c r="K9" t="n">
-        <v>-23.96002197265625</v>
+        <v>-7.3094482421875</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2700000000000102</v>
+        <v>0.179000000000002</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05460311842022962</v>
+        <v>-0.0329686295893079</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.1975257791962994</v>
+        <v>-0.03917901532296254</v>
       </c>
       <c r="O9" t="n">
-        <v>5787.93055254434</v>
+        <v>3494.674736466637</v>
       </c>
       <c r="P9" t="n">
-        <v>3889.948526559213</v>
+        <v>4058.906219795419</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>615</v>
+        <v>572</v>
       </c>
       <c r="B10" t="n">
         <v>1.6</v>
       </c>
       <c r="C10" t="n">
-        <v>85.5</v>
+        <v>86.90399780273438</v>
       </c>
       <c r="D10" t="n">
-        <v>3200</v>
+        <v>3047</v>
       </c>
       <c r="E10" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F10" t="n">
-        <v>500</v>
+        <v>547</v>
       </c>
       <c r="G10" t="n">
-        <v>139.661</v>
+        <v>139.158</v>
       </c>
       <c r="H10" t="n">
-        <v>4349.779245</v>
+        <v>4463.60877979846</v>
       </c>
       <c r="I10" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J10" t="n">
-        <v>564.0625</v>
+        <v>582.7395629882812</v>
       </c>
       <c r="K10" t="n">
-        <v>1.8984375</v>
+        <v>-7.26458740234375</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1730000000000018</v>
+        <v>0.1729999999999734</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.03852439576533302</v>
+        <v>-0.03580185299414405</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04904393822568973</v>
+        <v>-0.04321760986034621</v>
       </c>
       <c r="O10" t="n">
-        <v>4083.585951125301</v>
+        <v>3794.996417379269</v>
       </c>
       <c r="P10" t="n">
-        <v>3901.46955</v>
+        <v>4014.817405794777</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B11" t="n">
         <v>1.8</v>
       </c>
       <c r="C11" t="n">
-        <v>84.42000274658203</v>
+        <v>87.15599670410157</v>
       </c>
       <c r="D11" t="n">
-        <v>3249</v>
+        <v>3100</v>
       </c>
       <c r="E11" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F11" t="n">
-        <v>549</v>
+        <v>600</v>
       </c>
       <c r="G11" t="n">
-        <v>139.861</v>
+        <v>139.218</v>
       </c>
       <c r="H11" t="n">
-        <v>4263.440874610405</v>
+        <v>4484.22986609994</v>
       </c>
       <c r="I11" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J11" t="n">
-        <v>549.9025268554688</v>
+        <v>586.1240844726562</v>
       </c>
       <c r="K11" t="n">
-        <v>-14.15997314453125</v>
+        <v>3.384521484375</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1999999999999886</v>
+        <v>0.06000000000000227</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.04800903757811506</v>
+        <v>-0.01822785876782764</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.1067151668579452</v>
+        <v>0.04240648605764992</v>
       </c>
       <c r="O11" t="n">
-        <v>5088.957983280196</v>
+        <v>1932.15302938973</v>
       </c>
       <c r="P11" t="n">
-        <v>3815.538776580835</v>
+        <v>4035.357804347299</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>636</v>
+        <v>604</v>
       </c>
       <c r="B12" t="n">
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>83.91599807739259</v>
+        <v>85.35599670410157</v>
       </c>
       <c r="D12" t="n">
-        <v>3300</v>
+        <v>3148</v>
       </c>
       <c r="E12" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F12" t="n">
-        <v>600</v>
+        <v>648</v>
       </c>
       <c r="G12" t="n">
-        <v>139.985</v>
+        <v>139.488</v>
       </c>
       <c r="H12" t="n">
-        <v>4223.513028754098</v>
+        <v>4338.205736659878</v>
       </c>
       <c r="I12" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J12" t="n">
-        <v>543.3560791015625</v>
+        <v>562.1640625</v>
       </c>
       <c r="K12" t="n">
-        <v>-6.54644775390625</v>
+        <v>-23.96002197265625</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1240000000000236</v>
+        <v>0.2700000000000102</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.04654165423257695</v>
+        <v>-0.05770838441497434</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.04167919551553977</v>
+        <v>-0.1975257791962994</v>
       </c>
       <c r="O12" t="n">
-        <v>4933.415348653157</v>
+        <v>6117.08874798728</v>
       </c>
       <c r="P12" t="n">
-        <v>3775.8121780091</v>
+        <v>3889.948526559213</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>647</v>
+        <v>615</v>
       </c>
       <c r="B13" t="n">
         <v>2.2</v>
       </c>
       <c r="C13" t="n">
-        <v>83.7</v>
+        <v>85.5</v>
       </c>
       <c r="D13" t="n">
-        <v>3348</v>
+        <v>3200</v>
       </c>
       <c r="E13" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F13" t="n">
-        <v>648</v>
+        <v>700</v>
       </c>
       <c r="G13" t="n">
-        <v>140.122</v>
+        <v>139.661</v>
       </c>
       <c r="H13" t="n">
-        <v>4206.472288200001</v>
+        <v>4349.779245</v>
       </c>
       <c r="I13" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J13" t="n">
-        <v>540.5625</v>
+        <v>564.0625</v>
       </c>
       <c r="K13" t="n">
-        <v>-2.7935791015625</v>
+        <v>1.8984375</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1370000000000005</v>
+        <v>0.1730000000000018</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.03899672761599303</v>
+        <v>-0.03682574708613158</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.002685277590961488</v>
+        <v>0.04904393822568973</v>
       </c>
       <c r="O13" t="n">
-        <v>4133.653127295262</v>
+        <v>3903.529191129947</v>
       </c>
       <c r="P13" t="n">
-        <v>3758.859834</v>
+        <v>3901.46955</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>658</v>
+        <v>626</v>
       </c>
       <c r="B14" t="n">
         <v>2.4</v>
       </c>
       <c r="C14" t="n">
-        <v>83.05199890136718</v>
+        <v>84.42000274658203</v>
       </c>
       <c r="D14" t="n">
-        <v>3400</v>
+        <v>3249</v>
       </c>
       <c r="E14" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F14" t="n">
-        <v>700</v>
+        <v>749</v>
       </c>
       <c r="G14" t="n">
-        <v>140.259</v>
+        <v>139.861</v>
       </c>
       <c r="H14" t="n">
-        <v>4155.60470347177</v>
+        <v>4263.440874610405</v>
       </c>
       <c r="I14" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J14" t="n">
-        <v>532.2249145507812</v>
+        <v>549.9025268554688</v>
       </c>
       <c r="K14" t="n">
-        <v>-8.33758544921875</v>
+        <v>-14.15997314453125</v>
       </c>
       <c r="L14" t="n">
-        <v>0.136999999999972</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.04064632460517704</v>
+        <v>-0.05208660320491321</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.05578647111912576</v>
+        <v>-0.1067151668579452</v>
       </c>
       <c r="O14" t="n">
-        <v>4308.510408148766</v>
+        <v>5521.179939720801</v>
       </c>
       <c r="P14" t="n">
-        <v>3708.26517915362</v>
+        <v>3815.538776580835</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="B15" t="n">
         <v>2.6</v>
       </c>
       <c r="C15" t="n">
-        <v>82.83600082397462</v>
+        <v>83.91599807739259</v>
       </c>
       <c r="D15" t="n">
-        <v>3450</v>
+        <v>3300</v>
       </c>
       <c r="E15" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F15" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="G15" t="n">
-        <v>140.388</v>
+        <v>139.985</v>
       </c>
       <c r="H15" t="n">
-        <v>4138.734080214655</v>
+        <v>4223.513028754098</v>
       </c>
       <c r="I15" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J15" t="n">
-        <v>529.4600830078125</v>
+        <v>543.3560791015625</v>
       </c>
       <c r="K15" t="n">
-        <v>-2.76483154296875</v>
+        <v>-6.54644775390625</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1290000000000191</v>
+        <v>0.1240000000000236</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0340432451930783</v>
+        <v>-0.05163188855021991</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.003771145618363212</v>
+        <v>-0.04167919551553977</v>
       </c>
       <c r="O15" t="n">
-        <v>3608.5839904663</v>
+        <v>5472.98018632331</v>
       </c>
       <c r="P15" t="n">
-        <v>3691.488110678029</v>
+        <v>3775.8121780091</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>679</v>
+        <v>647</v>
       </c>
       <c r="B16" t="n">
         <v>2.8</v>
       </c>
       <c r="C16" t="n">
-        <v>82.4759994506836</v>
+        <v>83.7</v>
       </c>
       <c r="D16" t="n">
-        <v>3500</v>
+        <v>3348</v>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F16" t="n">
-        <v>800</v>
+        <v>848</v>
       </c>
       <c r="G16" t="n">
-        <v>140.546</v>
+        <v>140.122</v>
       </c>
       <c r="H16" t="n">
-        <v>4110.710528059029</v>
+        <v>4206.472288200001</v>
       </c>
       <c r="I16" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J16" t="n">
-        <v>524.8681030273438</v>
+        <v>540.5625</v>
       </c>
       <c r="K16" t="n">
-        <v>-4.59197998046875</v>
+        <v>-2.7935791015625</v>
       </c>
       <c r="L16" t="n">
-        <v>0.157999999999987</v>
+        <v>0.1370000000000005</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.0301795775405427</v>
+        <v>-0.04355433585761116</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.01667489414431254</v>
+        <v>-0.002685277590961488</v>
       </c>
       <c r="O16" t="n">
-        <v>3199.035219297526</v>
+        <v>4616.759600906783</v>
       </c>
       <c r="P16" t="n">
-        <v>3663.623350864379</v>
+        <v>3758.859834</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>691</v>
+        <v>658</v>
       </c>
       <c r="B17" t="n">
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>81.75599670410156</v>
+        <v>83.05199890136718</v>
       </c>
       <c r="D17" t="n">
-        <v>3548</v>
+        <v>3400</v>
       </c>
       <c r="E17" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F17" t="n">
-        <v>848</v>
+        <v>900</v>
       </c>
       <c r="G17" t="n">
-        <v>140.682</v>
+        <v>140.259</v>
       </c>
       <c r="H17" t="n">
-        <v>4055.01784097975</v>
+        <v>4155.60470347177</v>
       </c>
       <c r="I17" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J17" t="n">
-        <v>515.7440795898438</v>
+        <v>532.2249145507812</v>
       </c>
       <c r="K17" t="n">
-        <v>-9.1240234375</v>
+        <v>-8.33758544921875</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1359999999999957</v>
+        <v>0.136999999999972</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.03464942465097293</v>
+        <v>-0.04665419834202311</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06882021269408495</v>
+        <v>-0.05578647111912576</v>
       </c>
       <c r="O17" t="n">
-        <v>3672.83901300313</v>
+        <v>4945.34502425445</v>
       </c>
       <c r="P17" t="n">
-        <v>3608.25899498304</v>
+        <v>3708.26517915362</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>702</v>
+        <v>669</v>
       </c>
       <c r="B18" t="n">
         <v>3.2</v>
       </c>
       <c r="C18" t="n">
-        <v>81.43200302124023</v>
+        <v>82.83600082397462</v>
       </c>
       <c r="D18" t="n">
-        <v>3600</v>
+        <v>3450</v>
       </c>
       <c r="E18" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F18" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="G18" t="n">
-        <v>140.821</v>
+        <v>140.388</v>
       </c>
       <c r="H18" t="n">
-        <v>4030.110882817889</v>
+        <v>4138.734080214655</v>
       </c>
       <c r="I18" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J18" t="n">
-        <v>511.6644287109375</v>
+        <v>529.4600830078125</v>
       </c>
       <c r="K18" t="n">
-        <v>-4.07965087890625</v>
+        <v>-2.76483154296875</v>
       </c>
       <c r="L18" t="n">
-        <v>0.13900000000001</v>
+        <v>0.1290000000000191</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.03068941348779345</v>
+        <v>-0.03985006423745532</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.01448884190530142</v>
+        <v>-0.003771145618363212</v>
       </c>
       <c r="O18" t="n">
-        <v>3253.077829706106</v>
+        <v>4224.106809170265</v>
       </c>
       <c r="P18" t="n">
-        <v>3583.504457006723</v>
+        <v>3691.488110678029</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>713</v>
+        <v>679</v>
       </c>
       <c r="B19" t="n">
         <v>3.4</v>
       </c>
       <c r="C19" t="n">
-        <v>80.74800109863281</v>
+        <v>82.4759994506836</v>
       </c>
       <c r="D19" t="n">
-        <v>3651</v>
+        <v>3500</v>
       </c>
       <c r="E19" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" t="n">
-        <v>951</v>
+        <v>1000</v>
       </c>
       <c r="G19" t="n">
-        <v>140.954</v>
+        <v>140.546</v>
       </c>
       <c r="H19" t="n">
-        <v>3977.842600743084</v>
+        <v>4110.710528059029</v>
       </c>
       <c r="I19" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J19" t="n">
-        <v>503.1049194335938</v>
+        <v>524.8681030273438</v>
       </c>
       <c r="K19" t="n">
-        <v>-8.55950927734375</v>
+        <v>-4.59197998046875</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1330000000000098</v>
+        <v>0.157999999999987</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.03369988327404489</v>
+        <v>-0.0362600211705449</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.0597819074545337</v>
+        <v>-0.01667489414431254</v>
       </c>
       <c r="O19" t="n">
-        <v>3572.187627048758</v>
+        <v>3843.562244077759</v>
       </c>
       <c r="P19" t="n">
-        <v>3531.567486545831</v>
+        <v>3663.623350864379</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>725</v>
+        <v>691</v>
       </c>
       <c r="B20" t="n">
         <v>3.6</v>
       </c>
       <c r="C20" t="n">
-        <v>79.7759994506836</v>
+        <v>81.75599670410156</v>
       </c>
       <c r="D20" t="n">
-        <v>3700</v>
+        <v>3548</v>
       </c>
       <c r="E20" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" t="n">
-        <v>1000</v>
+        <v>1048</v>
       </c>
       <c r="G20" t="n">
-        <v>141.118</v>
+        <v>140.682</v>
       </c>
       <c r="H20" t="n">
-        <v>3904.300344699013</v>
+        <v>4055.01784097975</v>
       </c>
       <c r="I20" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J20" t="n">
-        <v>491.0655822753906</v>
+        <v>515.7440795898438</v>
       </c>
       <c r="K20" t="n">
-        <v>-12.03933715820312</v>
+        <v>-9.1240234375</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1639999999999873</v>
+        <v>0.1359999999999957</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.04089040712769147</v>
+        <v>-0.04190719549436302</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.09187540804481673</v>
+        <v>-0.06882021269408495</v>
       </c>
       <c r="O20" t="n">
-        <v>4334.383155535296</v>
+        <v>4442.16272240248</v>
       </c>
       <c r="P20" t="n">
-        <v>3458.518286417358</v>
+        <v>3608.25899498304</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>735</v>
+        <v>702</v>
       </c>
       <c r="B21" t="n">
         <v>3.8</v>
       </c>
       <c r="C21" t="n">
-        <v>79.41599807739259</v>
+        <v>81.43200302124023</v>
       </c>
       <c r="D21" t="n">
-        <v>3752</v>
+        <v>3600</v>
       </c>
       <c r="E21" t="n">
         <v>52</v>
       </c>
       <c r="F21" t="n">
-        <v>1052</v>
+        <v>1100</v>
       </c>
       <c r="G21" t="n">
-        <v>141.233</v>
+        <v>140.821</v>
       </c>
       <c r="H21" t="n">
-        <v>3877.280971320672</v>
+        <v>4030.110882817889</v>
       </c>
       <c r="I21" t="n">
         <v>52</v>
       </c>
       <c r="J21" t="n">
-        <v>486.6435852050781</v>
+        <v>511.6644287109375</v>
       </c>
       <c r="K21" t="n">
-        <v>-4.4219970703125</v>
+        <v>-4.07965087890625</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1150000000000091</v>
+        <v>0.13900000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.03783442090587109</v>
+        <v>-0.03799412554258972</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.02205204004473033</v>
+        <v>-0.01448884190530142</v>
       </c>
       <c r="O21" t="n">
-        <v>4010.448616022336</v>
+        <v>4027.37730751451</v>
       </c>
       <c r="P21" t="n">
-        <v>3431.688153734808</v>
+        <v>3583.504457006723</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>747</v>
+        <v>713</v>
       </c>
       <c r="B22" t="n">
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>79.1639991760254</v>
+        <v>80.74800109863281</v>
       </c>
       <c r="D22" t="n">
-        <v>3800</v>
+        <v>3651</v>
       </c>
       <c r="E22" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F22" t="n">
-        <v>1100</v>
+        <v>1151</v>
       </c>
       <c r="G22" t="n">
-        <v>141.32</v>
+        <v>140.954</v>
       </c>
       <c r="H22" t="n">
-        <v>3858.437856501154</v>
+        <v>3977.842600743084</v>
       </c>
       <c r="I22" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J22" t="n">
-        <v>483.5600891113281</v>
+        <v>503.1049194335938</v>
       </c>
       <c r="K22" t="n">
-        <v>-3.08349609375</v>
+        <v>-8.55950927734375</v>
       </c>
       <c r="L22" t="n">
-        <v>0.08699999999998909</v>
+        <v>0.1330000000000098</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.03423952287906677</v>
+        <v>-0.04164656329974713</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.01534557644826272</v>
+        <v>-0.0597819074545337</v>
       </c>
       <c r="O22" t="n">
-        <v>3629.389425181078</v>
+        <v>4414.535709773195</v>
       </c>
       <c r="P22" t="n">
-        <v>3412.979637686849</v>
+        <v>3531.567486545831</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>758</v>
+        <v>725</v>
       </c>
       <c r="B23" t="n">
         <v>4.2</v>
       </c>
       <c r="C23" t="n">
-        <v>78.62400054931641</v>
+        <v>79.7759994506836</v>
       </c>
       <c r="D23" t="n">
-        <v>3851</v>
+        <v>3700</v>
       </c>
       <c r="E23" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F23" t="n">
-        <v>1151</v>
+        <v>1200</v>
       </c>
       <c r="G23" t="n">
-        <v>141.478</v>
+        <v>141.118</v>
       </c>
       <c r="H23" t="n">
-        <v>3818.254606854701</v>
+        <v>3904.300344699013</v>
       </c>
       <c r="I23" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J23" t="n">
-        <v>476.985595703125</v>
+        <v>491.0655822753906</v>
       </c>
       <c r="K23" t="n">
-        <v>-6.574493408203125</v>
+        <v>-12.03933715820312</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1580000000000155</v>
+        <v>0.1639999999999873</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.03366995685992926</v>
+        <v>-0.04964446931092469</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.03578434158985395</v>
+        <v>-0.09187540804481673</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.015427152502</v>
+        <v>5262.313746958016</v>
       </c>
       <c r="P23" t="n">
-        <v>3373.090725007506</v>
+        <v>3458.518286417358</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>770</v>
+        <v>735</v>
       </c>
       <c r="B24" t="n">
         <v>4.4</v>
       </c>
       <c r="C24" t="n">
-        <v>77.93999862670898</v>
+        <v>79.41599807739259</v>
       </c>
       <c r="D24" t="n">
-        <v>3900</v>
+        <v>3752</v>
       </c>
       <c r="E24" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F24" t="n">
-        <v>1200</v>
+        <v>1252</v>
       </c>
       <c r="G24" t="n">
-        <v>141.694</v>
+        <v>141.233</v>
       </c>
       <c r="H24" t="n">
-        <v>3767.737139010705</v>
+        <v>3877.280971320672</v>
       </c>
       <c r="I24" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J24" t="n">
-        <v>468.7224731445312</v>
+        <v>486.6435852050781</v>
       </c>
       <c r="K24" t="n">
-        <v>-8.26312255859375</v>
+        <v>-4.4219970703125</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2159999999999798</v>
+        <v>0.1150000000000091</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.03414356116465599</v>
+        <v>-0.04648343016193585</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.04352127370148029</v>
+        <v>-0.02205204004473033</v>
       </c>
       <c r="O24" t="n">
-        <v>3619.217483453535</v>
+        <v>4927.243597165199</v>
       </c>
       <c r="P24" t="n">
-        <v>3322.957656347457</v>
+        <v>3431.688153734808</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>781</v>
+        <v>747</v>
       </c>
       <c r="B25" t="n">
         <v>4.600000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>77.40000000000001</v>
+        <v>79.1639991760254</v>
       </c>
       <c r="D25" t="n">
-        <v>3950</v>
+        <v>3800</v>
       </c>
       <c r="E25" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F25" t="n">
-        <v>1250</v>
+        <v>1300</v>
       </c>
       <c r="G25" t="n">
-        <v>141.99</v>
+        <v>141.32</v>
       </c>
       <c r="H25" t="n">
-        <v>3728.156392800001</v>
+        <v>3858.437856501154</v>
       </c>
       <c r="I25" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J25" t="n">
-        <v>462.25</v>
+        <v>483.5600891113281</v>
       </c>
       <c r="K25" t="n">
-        <v>-6.47247314453125</v>
+        <v>-3.08349609375</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2960000000000207</v>
+        <v>0.08699999999998909</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.03050550103148506</v>
+        <v>-0.04274706417297417</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.009936806917006784</v>
+        <v>-0.01534557644826272</v>
       </c>
       <c r="O25" t="n">
-        <v>3233.583109337416</v>
+        <v>4531.188802335262</v>
       </c>
       <c r="P25" t="n">
-        <v>3283.689516000001</v>
+        <v>3412.979637686849</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>793</v>
+        <v>758</v>
       </c>
       <c r="B26" t="n">
         <v>4.800000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>76.75199890136719</v>
+        <v>78.62400054931641</v>
       </c>
       <c r="D26" t="n">
-        <v>4000</v>
+        <v>3851</v>
       </c>
       <c r="E26" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F26" t="n">
-        <v>1300</v>
+        <v>1351</v>
       </c>
       <c r="G26" t="n">
-        <v>142.209</v>
+        <v>141.478</v>
       </c>
       <c r="H26" t="n">
-        <v>3681.01016692503</v>
+        <v>3818.254606854701</v>
       </c>
       <c r="I26" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J26" t="n">
-        <v>454.5423889160156</v>
+        <v>476.985595703125</v>
       </c>
       <c r="K26" t="n">
-        <v>-7.707611083984375</v>
+        <v>-6.574493408203125</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2189999999999941</v>
+        <v>0.1580000000000155</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.03039209404188498</v>
+        <v>-0.04221795877282312</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.03654045046248635</v>
+        <v>-0.03578434158985395</v>
       </c>
       <c r="O26" t="n">
-        <v>3221.561968439808</v>
+        <v>4475.103629919251</v>
       </c>
       <c r="P26" t="n">
-        <v>3236.929057734186</v>
+        <v>3373.090725007506</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>806</v>
+        <v>770</v>
       </c>
       <c r="B27" t="n">
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>76.10399780273438</v>
+        <v>77.93999862670898</v>
       </c>
       <c r="D27" t="n">
-        <v>4052</v>
+        <v>3900</v>
       </c>
       <c r="E27" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F27" t="n">
-        <v>1352</v>
+        <v>1400</v>
       </c>
       <c r="G27" t="n">
-        <v>142.327</v>
+        <v>141.694</v>
       </c>
       <c r="H27" t="n">
-        <v>3634.246710038206</v>
+        <v>3767.737139010705</v>
       </c>
       <c r="I27" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J27" t="n">
-        <v>446.8995666503906</v>
+        <v>468.7224731445312</v>
       </c>
       <c r="K27" t="n">
-        <v>-7.642822265625</v>
+        <v>-8.26312255859375</v>
       </c>
       <c r="L27" t="n">
-        <v>0.117999999999995</v>
+        <v>0.2159999999999798</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.03213812116750074</v>
+        <v>-0.04276027352337985</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.05248758709690311</v>
+        <v>-0.04352127370148029</v>
       </c>
       <c r="O27" t="n">
-        <v>3406.640843755079</v>
+        <v>4532.588993478264</v>
       </c>
       <c r="P27" t="n">
-        <v>3190.562974642433</v>
+        <v>3322.957656347457</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>818</v>
+        <v>781</v>
       </c>
       <c r="B28" t="n">
         <v>5.2</v>
       </c>
       <c r="C28" t="n">
-        <v>75.67200164794922</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>4100</v>
+        <v>3950</v>
       </c>
       <c r="E28" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F28" t="n">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="G28" t="n">
-        <v>142.445</v>
+        <v>141.99</v>
       </c>
       <c r="H28" t="n">
-        <v>3603.284048745276</v>
+        <v>3728.156392800001</v>
       </c>
       <c r="I28" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J28" t="n">
-        <v>441.8404235839844</v>
+        <v>462.25</v>
       </c>
       <c r="K28" t="n">
-        <v>-5.05914306640625</v>
+        <v>-6.47247314453125</v>
       </c>
       <c r="L28" t="n">
-        <v>0.117999999999995</v>
+        <v>0.2960000000000207</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.03120570498582565</v>
+        <v>-0.03894692997011315</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.02994822769644971</v>
+        <v>-0.009936806917006784</v>
       </c>
       <c r="O28" t="n">
-        <v>3307.804728497519</v>
+        <v>4128.374576831995</v>
       </c>
       <c r="P28" t="n">
-        <v>3159.871674191149</v>
+        <v>3283.689516000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>829</v>
+        <v>793</v>
       </c>
       <c r="B29" t="n">
         <v>5.4</v>
       </c>
       <c r="C29" t="n">
-        <v>75.34800109863282</v>
+        <v>76.75199890136719</v>
       </c>
       <c r="D29" t="n">
-        <v>4151</v>
+        <v>4000</v>
       </c>
       <c r="E29" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F29" t="n">
-        <v>1451</v>
+        <v>1500</v>
       </c>
       <c r="G29" t="n">
-        <v>142.538</v>
+        <v>142.209</v>
       </c>
       <c r="H29" t="n">
-        <v>3580.173446983148</v>
+        <v>3681.01016692503</v>
       </c>
       <c r="I29" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J29" t="n">
-        <v>438.0649108886719</v>
+        <v>454.5423889160156</v>
       </c>
       <c r="K29" t="n">
-        <v>-3.7755126953125</v>
+        <v>-7.707611083984375</v>
       </c>
       <c r="L29" t="n">
-        <v>0.09300000000001774</v>
+        <v>0.2189999999999941</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.02930340017927473</v>
+        <v>-0.03883509375697371</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.02013858173354515</v>
+        <v>-0.03654045046248635</v>
       </c>
       <c r="O29" t="n">
-        <v>3106.160419003122</v>
+        <v>4116.519938239214</v>
       </c>
       <c r="P29" t="n">
-        <v>3136.967980333918</v>
+        <v>3236.929057734186</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>841</v>
+        <v>806</v>
       </c>
       <c r="B30" t="n">
         <v>5.600000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>74.6639991760254</v>
+        <v>76.10399780273438</v>
       </c>
       <c r="D30" t="n">
-        <v>4200</v>
+        <v>4052</v>
       </c>
       <c r="E30" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F30" t="n">
-        <v>1500</v>
+        <v>1552</v>
       </c>
       <c r="G30" t="n">
-        <v>142.712</v>
+        <v>142.327</v>
       </c>
       <c r="H30" t="n">
-        <v>3531.698593601115</v>
+        <v>3634.246710038206</v>
       </c>
       <c r="I30" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J30" t="n">
-        <v>430.1475830078125</v>
+        <v>446.8995666503906</v>
       </c>
       <c r="K30" t="n">
-        <v>-7.917327880859375</v>
+        <v>-7.642822265625</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1739999999999782</v>
+        <v>0.117999999999995</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.03053915619338768</v>
+        <v>-0.04065037821334742</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.04792537113699813</v>
+        <v>-0.05248758709690311</v>
       </c>
       <c r="O30" t="n">
-        <v>3237.150556499094</v>
+        <v>4308.940090614827</v>
       </c>
       <c r="P30" t="n">
-        <v>3088.939461569295</v>
+        <v>3190.562974642433</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>853</v>
+        <v>818</v>
       </c>
       <c r="B31" t="n">
         <v>5.800000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>74.0879997253418</v>
+        <v>75.67200164794922</v>
       </c>
       <c r="D31" t="n">
-        <v>4252</v>
+        <v>4100</v>
       </c>
       <c r="E31" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F31" t="n">
-        <v>1552</v>
+        <v>1600</v>
       </c>
       <c r="G31" t="n">
-        <v>142.852</v>
+        <v>142.445</v>
       </c>
       <c r="H31" t="n">
-        <v>3491.208605045276</v>
+        <v>3603.284048745276</v>
       </c>
       <c r="I31" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J31" t="n">
-        <v>423.5364074707031</v>
+        <v>441.8404235839844</v>
       </c>
       <c r="K31" t="n">
-        <v>-6.611175537109375</v>
+        <v>-5.05914306640625</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1400000000000148</v>
+        <v>0.117999999999995</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.03071360969814555</v>
+        <v>-0.03964200073600635</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.03865244983069346</v>
+        <v>-0.02994822769644971</v>
       </c>
       <c r="O31" t="n">
-        <v>3255.642628003429</v>
+        <v>4202.052078016673</v>
       </c>
       <c r="P31" t="n">
-        <v>3048.835362333549</v>
+        <v>3159.871674191149</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>865</v>
+        <v>829</v>
       </c>
       <c r="B32" t="n">
         <v>6</v>
       </c>
       <c r="C32" t="n">
-        <v>73.72799835205079</v>
+        <v>75.34800109863282</v>
       </c>
       <c r="D32" t="n">
-        <v>4300</v>
+        <v>4151</v>
       </c>
       <c r="E32" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F32" t="n">
-        <v>1600</v>
+        <v>1651</v>
       </c>
       <c r="G32" t="n">
-        <v>143.007</v>
+        <v>142.538</v>
       </c>
       <c r="H32" t="n">
-        <v>3466.055821878052</v>
+        <v>3580.173446983148</v>
       </c>
       <c r="I32" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J32" t="n">
-        <v>419.4303894042969</v>
+        <v>438.0649108886719</v>
       </c>
       <c r="K32" t="n">
-        <v>-4.10601806640625</v>
+        <v>-3.7755126953125</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1550000000000011</v>
+        <v>0.09300000000001774</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.02828008611821315</v>
+        <v>-0.03761446867163654</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.01288599794015922</v>
+        <v>-0.02013858173354515</v>
       </c>
       <c r="O32" t="n">
-        <v>2997.689128530594</v>
+        <v>3987.133679193474</v>
       </c>
       <c r="P32" t="n">
-        <v>3023.928417950488</v>
+        <v>3136.967980333918</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>877</v>
+        <v>841</v>
       </c>
       <c r="B33" t="n">
         <v>6.2</v>
       </c>
       <c r="C33" t="n">
-        <v>73.22400054931641</v>
+        <v>74.6639991760254</v>
       </c>
       <c r="D33" t="n">
-        <v>4354</v>
+        <v>4200</v>
       </c>
       <c r="E33" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F33" t="n">
-        <v>1654</v>
+        <v>1700</v>
       </c>
       <c r="G33" t="n">
-        <v>143.176</v>
+        <v>142.712</v>
       </c>
       <c r="H33" t="n">
-        <v>3431.040684374734</v>
+        <v>3531.698593601115</v>
       </c>
       <c r="I33" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J33" t="n">
-        <v>413.7156066894531</v>
+        <v>430.1475830078125</v>
       </c>
       <c r="K33" t="n">
-        <v>-5.71478271484375</v>
+        <v>-7.917327880859375</v>
       </c>
       <c r="L33" t="n">
-        <v>0.1689999999999827</v>
+        <v>0.1739999999999782</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.02715587311540651</v>
+        <v>-0.03885518455230925</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.0239508182890873</v>
+        <v>-0.04792537113699813</v>
       </c>
       <c r="O33" t="n">
-        <v>2878.52255023309</v>
+        <v>4118.649562544781</v>
       </c>
       <c r="P33" t="n">
-        <v>2989.26346990155</v>
+        <v>3088.939461569295</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>890</v>
+        <v>853</v>
       </c>
       <c r="B34" t="n">
         <v>6.4</v>
       </c>
       <c r="C34" t="n">
-        <v>72.17999725341797</v>
+        <v>74.0879997253418</v>
       </c>
       <c r="D34" t="n">
-        <v>4400</v>
+        <v>4252</v>
       </c>
       <c r="E34" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F34" t="n">
-        <v>1700</v>
+        <v>1752</v>
       </c>
       <c r="G34" t="n">
-        <v>143.343</v>
+        <v>142.852</v>
       </c>
       <c r="H34" t="n">
-        <v>3359.245377298575</v>
+        <v>3491.208605045276</v>
       </c>
       <c r="I34" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J34" t="n">
-        <v>402.0024719238281</v>
+        <v>423.5364074707031</v>
       </c>
       <c r="K34" t="n">
-        <v>-11.713134765625</v>
+        <v>-6.611175537109375</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1670000000000016</v>
+        <v>0.1400000000000148</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.03284581103180468</v>
+        <v>-0.03897803865095647</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.09371803580355278</v>
+        <v>-0.03865244983069346</v>
       </c>
       <c r="O34" t="n">
-        <v>3481.655969371296</v>
+        <v>4131.672097001386</v>
       </c>
       <c r="P34" t="n">
-        <v>2918.215895473352</v>
+        <v>3048.835362333549</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>902</v>
+        <v>865</v>
       </c>
       <c r="B35" t="n">
         <v>6.600000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>71.9639991760254</v>
+        <v>73.72799835205079</v>
       </c>
       <c r="D35" t="n">
-        <v>4451</v>
+        <v>4300</v>
       </c>
       <c r="E35" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F35" t="n">
-        <v>1751</v>
+        <v>1800</v>
       </c>
       <c r="G35" t="n">
-        <v>143.518</v>
+        <v>143.007</v>
       </c>
       <c r="H35" t="n">
-        <v>3344.515399061091</v>
+        <v>3466.055821878052</v>
       </c>
       <c r="I35" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J35" t="n">
-        <v>399.60009765625</v>
+        <v>419.4303894042969</v>
       </c>
       <c r="K35" t="n">
-        <v>-2.402374267578125</v>
+        <v>-4.10601806640625</v>
       </c>
       <c r="L35" t="n">
-        <v>0.1750000000000114</v>
+        <v>0.1550000000000011</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.02849933990904881</v>
+        <v>-0.03638108015462214</v>
       </c>
       <c r="N35" t="n">
-        <v>0.008203692900179528</v>
+        <v>-0.01288599794015922</v>
       </c>
       <c r="O35" t="n">
-        <v>3020.930030359174</v>
+        <v>3856.394496389947</v>
       </c>
       <c r="P35" t="n">
-        <v>2903.644379898763</v>
+        <v>3023.928417950488</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>914</v>
+        <v>877</v>
       </c>
       <c r="B36" t="n">
         <v>6.800000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>71.63999862670899</v>
+        <v>73.22400054931641</v>
       </c>
       <c r="D36" t="n">
-        <v>4500</v>
+        <v>4354</v>
       </c>
       <c r="E36" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F36" t="n">
-        <v>1800</v>
+        <v>1854</v>
       </c>
       <c r="G36" t="n">
-        <v>143.724</v>
+        <v>143.176</v>
       </c>
       <c r="H36" t="n">
-        <v>3322.49994077728</v>
+        <v>3431.040684374734</v>
       </c>
       <c r="I36" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J36" t="n">
-        <v>396.0099792480469</v>
+        <v>413.7156066894531</v>
       </c>
       <c r="K36" t="n">
-        <v>-3.590118408203125</v>
+        <v>-5.71478271484375</v>
       </c>
       <c r="L36" t="n">
-        <v>0.2059999999999889</v>
+        <v>0.1689999999999827</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.02505524154967497</v>
+        <v>-0.03514794007530812</v>
       </c>
       <c r="N36" t="n">
-        <v>0.002273724367582484</v>
+        <v>-0.0239508182890873</v>
       </c>
       <c r="O36" t="n">
-        <v>2655.855604265547</v>
+        <v>3725.68164798266</v>
       </c>
       <c r="P36" t="n">
-        <v>2881.869036073165</v>
+        <v>2989.26346990155</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>927</v>
+        <v>890</v>
       </c>
       <c r="B37" t="n">
         <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>70.95599670410157</v>
+        <v>72.17999725341797</v>
       </c>
       <c r="D37" t="n">
-        <v>4551</v>
+        <v>4400</v>
       </c>
       <c r="E37" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F37" t="n">
-        <v>1851</v>
+        <v>1900</v>
       </c>
       <c r="G37" t="n">
-        <v>143.901</v>
+        <v>143.343</v>
       </c>
       <c r="H37" t="n">
-        <v>3276.337059539369</v>
+        <v>3359.245377298575</v>
       </c>
       <c r="I37" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J37" t="n">
-        <v>388.4840698242188</v>
+        <v>402.0024719238281</v>
       </c>
       <c r="K37" t="n">
-        <v>-7.525909423828125</v>
+        <v>-11.713134765625</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1770000000000209</v>
+        <v>0.1670000000000016</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.02583356996583151</v>
+        <v>-0.04099495301668348</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.04166411384810768</v>
+        <v>-0.09371803580355278</v>
       </c>
       <c r="O37" t="n">
-        <v>2738.35841637814</v>
+        <v>4345.46501976845</v>
       </c>
       <c r="P37" t="n">
-        <v>2836.222592254525</v>
+        <v>2918.215895473352</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>940</v>
+        <v>902</v>
       </c>
       <c r="B38" t="n">
         <v>7.2</v>
       </c>
       <c r="C38" t="n">
-        <v>70.2</v>
+        <v>71.9639991760254</v>
       </c>
       <c r="D38" t="n">
-        <v>4600</v>
+        <v>4451</v>
       </c>
       <c r="E38" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F38" t="n">
-        <v>1900</v>
+        <v>1951</v>
       </c>
       <c r="G38" t="n">
-        <v>144.083</v>
+        <v>143.518</v>
       </c>
       <c r="H38" t="n">
-        <v>3225.8114712</v>
+        <v>3344.515399061091</v>
       </c>
       <c r="I38" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J38" t="n">
-        <v>380.25</v>
+        <v>399.60009765625</v>
       </c>
       <c r="K38" t="n">
-        <v>-8.23406982421875</v>
+        <v>-2.402374267578125</v>
       </c>
       <c r="L38" t="n">
-        <v>0.1819999999999879</v>
+        <v>0.1750000000000114</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.027259780174077</v>
+        <v>-0.0363977257292147</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.04964645758251936</v>
+        <v>0.008203692900179528</v>
       </c>
       <c r="O38" t="n">
-        <v>2889.536698452162</v>
+        <v>3858.158927296759</v>
       </c>
       <c r="P38" t="n">
-        <v>2786.282844</v>
+        <v>2903.644379898763</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>953</v>
+        <v>914</v>
       </c>
       <c r="B39" t="n">
         <v>7.4</v>
       </c>
       <c r="C39" t="n">
-        <v>69.51599807739258</v>
+        <v>71.63999862670899</v>
       </c>
       <c r="D39" t="n">
-        <v>4653</v>
+        <v>4500</v>
       </c>
       <c r="E39" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F39" t="n">
-        <v>1953</v>
+        <v>2000</v>
       </c>
       <c r="G39" t="n">
-        <v>144.292</v>
+        <v>143.724</v>
       </c>
       <c r="H39" t="n">
-        <v>3180.546441767135</v>
+        <v>3322.49994077728</v>
       </c>
       <c r="I39" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J39" t="n">
-        <v>372.8760681152344</v>
+        <v>396.0099792480469</v>
       </c>
       <c r="K39" t="n">
-        <v>-7.373931884765625</v>
+        <v>-3.590118408203125</v>
       </c>
       <c r="L39" t="n">
-        <v>0.2090000000000032</v>
+        <v>0.2059999999999889</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.02716163230232113</v>
+        <v>-0.03274575994752254</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.03307037911936187</v>
+        <v>0.002273724367582484</v>
       </c>
       <c r="O39" t="n">
-        <v>2879.13302404604</v>
+        <v>3471.050554437389</v>
       </c>
       <c r="P39" t="n">
-        <v>2741.561476331365</v>
+        <v>2881.869036073165</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>966</v>
+        <v>927</v>
       </c>
       <c r="B40" t="n">
         <v>7.600000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>69.33600082397462</v>
+        <v>70.95599670410157</v>
       </c>
       <c r="D40" t="n">
-        <v>4700</v>
+        <v>4551</v>
       </c>
       <c r="E40" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F40" t="n">
-        <v>2000</v>
+        <v>2051</v>
       </c>
       <c r="G40" t="n">
-        <v>144.393</v>
+        <v>143.901</v>
       </c>
       <c r="H40" t="n">
-        <v>3168.705688914774</v>
+        <v>3276.337059539369</v>
       </c>
       <c r="I40" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J40" t="n">
-        <v>370.9476013183594</v>
+        <v>388.4840698242188</v>
       </c>
       <c r="K40" t="n">
-        <v>-1.928466796875</v>
+        <v>-7.525909423828125</v>
       </c>
       <c r="L40" t="n">
-        <v>0.1009999999999991</v>
+        <v>0.1770000000000209</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.02435079888634677</v>
+        <v>-0.03348448595945205</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.0006278081562376344</v>
+        <v>-0.04166411384810768</v>
       </c>
       <c r="O40" t="n">
-        <v>2581.184681952758</v>
+        <v>3549.355511701918</v>
       </c>
       <c r="P40" t="n">
-        <v>2729.86593903069</v>
+        <v>2836.222592254525</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>978</v>
+        <v>940</v>
       </c>
       <c r="B41" t="n">
         <v>7.800000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>68.61599807739258</v>
+        <v>70.2</v>
       </c>
       <c r="D41" t="n">
-        <v>4752</v>
+        <v>4600</v>
       </c>
       <c r="E41" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F41" t="n">
-        <v>2052</v>
+        <v>2100</v>
       </c>
       <c r="G41" t="n">
-        <v>144.518</v>
+        <v>144.083</v>
       </c>
       <c r="H41" t="n">
-        <v>3121.637120680449</v>
+        <v>3225.8114712</v>
       </c>
       <c r="I41" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J41" t="n">
-        <v>363.2835693359375</v>
+        <v>380.25</v>
       </c>
       <c r="K41" t="n">
-        <v>-7.664031982421875</v>
+        <v>-8.23406982421875</v>
       </c>
       <c r="L41" t="n">
-        <v>0.125</v>
+        <v>0.1819999999999879</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.02593261698072856</v>
+        <v>-0.03489310900856325</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.05144569939556592</v>
+        <v>-0.04964645758251936</v>
       </c>
       <c r="O41" t="n">
-        <v>2748.857399957227</v>
+        <v>3698.669554907704</v>
       </c>
       <c r="P41" t="n">
-        <v>2683.387199476506</v>
+        <v>2786.282844</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>992</v>
+        <v>953</v>
       </c>
       <c r="B42" t="n">
         <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>68.22000274658204</v>
+        <v>69.51599807739258</v>
       </c>
       <c r="D42" t="n">
-        <v>4800</v>
+        <v>4653</v>
       </c>
       <c r="E42" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F42" t="n">
-        <v>2100</v>
+        <v>2153</v>
       </c>
       <c r="G42" t="n">
-        <v>144.642</v>
+        <v>144.292</v>
       </c>
       <c r="H42" t="n">
-        <v>3095.951235010881</v>
+        <v>3180.546441767135</v>
       </c>
       <c r="I42" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J42" t="n">
-        <v>359.1025390625</v>
+        <v>372.8760681152344</v>
       </c>
       <c r="K42" t="n">
-        <v>-4.1810302734375</v>
+        <v>-7.373931884765625</v>
       </c>
       <c r="L42" t="n">
-        <v>0.1239999999999952</v>
+        <v>0.2090000000000032</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.02484425309056009</v>
+        <v>-0.03471504723369947</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.01964437981371702</v>
+        <v>-0.03307037911936187</v>
       </c>
       <c r="O42" t="n">
-        <v>2633.49082759937</v>
+        <v>3679.795006772144</v>
       </c>
       <c r="P42" t="n">
-        <v>2658.03182199148</v>
+        <v>2741.561476331365</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>1004</v>
+        <v>966</v>
       </c>
       <c r="B43" t="n">
         <v>8.200000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>67.71599807739258</v>
+        <v>69.33600082397462</v>
       </c>
       <c r="D43" t="n">
-        <v>4853</v>
+        <v>4700</v>
       </c>
       <c r="E43" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F43" t="n">
-        <v>2153</v>
+        <v>2200</v>
       </c>
       <c r="G43" t="n">
-        <v>144.681</v>
+        <v>144.393</v>
       </c>
       <c r="H43" t="n">
-        <v>3063.466163193764</v>
+        <v>3168.705688914774</v>
       </c>
       <c r="I43" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J43" t="n">
-        <v>353.8160705566406</v>
+        <v>370.9476013183594</v>
       </c>
       <c r="K43" t="n">
-        <v>-5.286468505859375</v>
+        <v>-1.928466796875</v>
       </c>
       <c r="L43" t="n">
-        <v>0.03900000000001569</v>
+        <v>0.1009999999999991</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.02568777736742645</v>
+        <v>-0.03171876106238033</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.04306226963519607</v>
+        <v>-0.0006278081562376344</v>
       </c>
       <c r="O43" t="n">
-        <v>2722.904400947204</v>
+        <v>3362.188672612315</v>
       </c>
       <c r="P43" t="n">
-        <v>2625.973674621648</v>
+        <v>2729.86593903069</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>1018</v>
+        <v>978</v>
       </c>
       <c r="B44" t="n">
         <v>8.4</v>
       </c>
       <c r="C44" t="n">
-        <v>67.32000274658203</v>
+        <v>68.61599807739258</v>
       </c>
       <c r="D44" t="n">
-        <v>4900</v>
+        <v>4752</v>
       </c>
       <c r="E44" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F44" t="n">
-        <v>2200</v>
+        <v>2252</v>
       </c>
       <c r="G44" t="n">
-        <v>144.884</v>
+        <v>144.518</v>
       </c>
       <c r="H44" t="n">
-        <v>3038.105153677574</v>
+        <v>3121.637120680449</v>
       </c>
       <c r="I44" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J44" t="n">
-        <v>349.6900329589844</v>
+        <v>363.2835693359375</v>
       </c>
       <c r="K44" t="n">
-        <v>-4.12603759765625</v>
+        <v>-7.664031982421875</v>
       </c>
       <c r="L44" t="n">
-        <v>0.2029999999999745</v>
+        <v>0.125</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.02344759531600163</v>
+        <v>-0.03329027545140328</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.003921515992735094</v>
+        <v>-0.05144569939556592</v>
       </c>
       <c r="O44" t="n">
-        <v>2485.445103496173</v>
+        <v>3528.769197848747</v>
       </c>
       <c r="P44" t="n">
-        <v>2600.953024069849</v>
+        <v>2683.387199476506</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>1031</v>
+        <v>992</v>
       </c>
       <c r="B45" t="n">
         <v>8.6</v>
       </c>
       <c r="C45" t="n">
-        <v>66.77999725341797</v>
+        <v>68.22000274658204</v>
       </c>
       <c r="D45" t="n">
-        <v>4953</v>
+        <v>4800</v>
       </c>
       <c r="E45" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F45" t="n">
-        <v>2253</v>
+        <v>2300</v>
       </c>
       <c r="G45" t="n">
-        <v>145.002</v>
+        <v>144.642</v>
       </c>
       <c r="H45" t="n">
-        <v>3003.751571298418</v>
+        <v>3095.951235010881</v>
       </c>
       <c r="I45" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J45" t="n">
-        <v>344.1024780273438</v>
+        <v>359.1025390625</v>
       </c>
       <c r="K45" t="n">
-        <v>-5.587554931640625</v>
+        <v>-4.1810302734375</v>
       </c>
       <c r="L45" t="n">
-        <v>0.1180000000000234</v>
+        <v>0.1239999999999952</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.02350450172006239</v>
+        <v>-0.03208457177017562</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.03210794079333039</v>
+        <v>-0.01964437981371702</v>
       </c>
       <c r="O45" t="n">
-        <v>2491.477182326613</v>
+        <v>3400.964607638615</v>
       </c>
       <c r="P45" t="n">
-        <v>2567.070563003138</v>
+        <v>2658.03182199148</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>1047</v>
+        <v>1004</v>
       </c>
       <c r="B46" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>66.3120002746582</v>
+        <v>67.71599807739258</v>
       </c>
       <c r="D46" t="n">
-        <v>5000</v>
+        <v>4853</v>
       </c>
       <c r="E46" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F46" t="n">
-        <v>2300</v>
+        <v>2353</v>
       </c>
       <c r="G46" t="n">
-        <v>145.083</v>
+        <v>144.681</v>
       </c>
       <c r="H46" t="n">
-        <v>2974.193972256507</v>
+        <v>3063.466163193764</v>
       </c>
       <c r="I46" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J46" t="n">
-        <v>339.2964172363281</v>
+        <v>353.8160705566406</v>
       </c>
       <c r="K46" t="n">
-        <v>-4.806060791015625</v>
+        <v>-5.286468505859375</v>
       </c>
       <c r="L46" t="n">
-        <v>0.08099999999998886</v>
+        <v>0.03900000000001569</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.02379189832433841</v>
+        <v>-0.0328888291314758</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.03517868766034505</v>
+        <v>-0.04306226963519607</v>
       </c>
       <c r="O46" t="n">
-        <v>2521.941222379871</v>
+        <v>3486.215887936435</v>
       </c>
       <c r="P46" t="n">
-        <v>2537.927781785362</v>
+        <v>2625.973674621648</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>1074</v>
+        <v>1018</v>
       </c>
       <c r="B47" t="n">
         <v>9</v>
       </c>
       <c r="C47" t="n">
-        <v>65.05199890136718</v>
+        <v>67.32000274658203</v>
       </c>
       <c r="D47" t="n">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="E47" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="F47" t="n">
         <v>2400</v>
       </c>
       <c r="G47" t="n">
-        <v>145.447</v>
+        <v>144.884</v>
       </c>
       <c r="H47" t="n">
-        <v>2895.607581338226</v>
+        <v>3038.105153677574</v>
       </c>
       <c r="I47" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="J47" t="n">
-        <v>326.52490234375</v>
+        <v>349.6900329589844</v>
       </c>
       <c r="K47" t="n">
-        <v>-12.77151489257812</v>
+        <v>-4.12603759765625</v>
       </c>
       <c r="L47" t="n">
-        <v>0.3640000000000043</v>
+        <v>0.2029999999999745</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.02369950705847134</v>
+        <v>-0.0304853555608613</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.03017040465156947</v>
+        <v>-0.003921515992735094</v>
       </c>
       <c r="O47" t="n">
-        <v>2512.147748197962</v>
+        <v>3231.447689451298</v>
       </c>
       <c r="P47" t="n">
-        <v>2460.488306526666</v>
+        <v>2600.953024069849</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>1101</v>
+        <v>1031</v>
       </c>
       <c r="B48" t="n">
         <v>9.200000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>63.97200164794922</v>
+        <v>66.77999725341797</v>
       </c>
       <c r="D48" t="n">
-        <v>5200</v>
+        <v>4953</v>
       </c>
       <c r="E48" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="F48" t="n">
-        <v>2500</v>
+        <v>2453</v>
       </c>
       <c r="G48" t="n">
-        <v>145.728</v>
+        <v>145.002</v>
       </c>
       <c r="H48" t="n">
-        <v>2829.399906025483</v>
+        <v>3003.751571298418</v>
       </c>
       <c r="I48" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="J48" t="n">
-        <v>315.7729187011719</v>
+        <v>344.1024780273438</v>
       </c>
       <c r="K48" t="n">
-        <v>-10.75198364257812</v>
+        <v>-5.587554931640625</v>
       </c>
       <c r="L48" t="n">
-        <v>0.2810000000000059</v>
+        <v>0.1180000000000234</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.02344436573604452</v>
+        <v>-0.03047476233688348</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.02775416349590895</v>
+        <v>-0.03210794079333039</v>
       </c>
       <c r="O48" t="n">
-        <v>2485.102768020719</v>
+        <v>3230.324807709649</v>
       </c>
       <c r="P48" t="n">
-        <v>2395.298624002428</v>
+        <v>2567.070563003138</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>1114</v>
+        <v>1047</v>
       </c>
       <c r="B49" t="n">
         <v>9.4</v>
       </c>
       <c r="C49" t="n">
-        <v>63.50399780273438</v>
+        <v>66.3120002746582</v>
       </c>
       <c r="D49" t="n">
-        <v>5253</v>
+        <v>5000</v>
       </c>
       <c r="E49" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F49" t="n">
-        <v>2553</v>
+        <v>2500</v>
       </c>
       <c r="G49" t="n">
-        <v>145.816</v>
+        <v>145.083</v>
       </c>
       <c r="H49" t="n">
-        <v>2801.039803851243</v>
+        <v>2974.193972256507</v>
       </c>
       <c r="I49" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J49" t="n">
-        <v>311.1695861816406</v>
+        <v>339.2964172363281</v>
       </c>
       <c r="K49" t="n">
-        <v>-4.60333251953125</v>
+        <v>-4.806060791015625</v>
       </c>
       <c r="L49" t="n">
-        <v>0.08799999999999386</v>
+        <v>0.08099999999998886</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.02323150160103752</v>
+        <v>-0.03070467756134163</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.02806134274388791</v>
+        <v>-0.03517868766034505</v>
       </c>
       <c r="O49" t="n">
-        <v>2462.539169709978</v>
+        <v>3254.695821502213</v>
       </c>
       <c r="P49" t="n">
-        <v>2367.389668964698</v>
+        <v>2537.927781785362</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>1129</v>
+        <v>1074</v>
       </c>
       <c r="B50" t="n">
         <v>9.600000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>63.07200164794922</v>
+        <v>65.05199890136718</v>
       </c>
       <c r="D50" t="n">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="E50" t="n">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="F50" t="n">
         <v>2600</v>
       </c>
       <c r="G50" t="n">
-        <v>146.023</v>
+        <v>145.447</v>
       </c>
       <c r="H50" t="n">
-        <v>2775.038901785498</v>
+        <v>2895.607581338226</v>
       </c>
       <c r="I50" t="n">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="J50" t="n">
-        <v>306.9504089355469</v>
+        <v>326.52490234375</v>
       </c>
       <c r="K50" t="n">
-        <v>-4.21917724609375</v>
+        <v>-12.77151489257812</v>
       </c>
       <c r="L50" t="n">
-        <v>0.2069999999999936</v>
+        <v>0.3640000000000043</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.02137816615377581</v>
+        <v>-0.030539483321116</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.004124727828778606</v>
+        <v>-0.03017040465156947</v>
       </c>
       <c r="O50" t="n">
-        <v>2266.085612300236</v>
+        <v>3237.185232038296</v>
       </c>
       <c r="P50" t="n">
-        <v>2341.81057644945</v>
+        <v>2460.488306526666</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>1142</v>
+        <v>1101</v>
       </c>
       <c r="B51" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>62.20800247192383</v>
+        <v>63.97200164794922</v>
       </c>
       <c r="D51" t="n">
-        <v>5352</v>
+        <v>5200</v>
       </c>
       <c r="E51" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F51" t="n">
-        <v>2652</v>
+        <v>2700</v>
       </c>
       <c r="G51" t="n">
-        <v>146.254</v>
+        <v>145.728</v>
       </c>
       <c r="H51" t="n">
-        <v>2723.547038972031</v>
+        <v>2829.399906025483</v>
       </c>
       <c r="I51" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="J51" t="n">
-        <v>298.5984191894531</v>
+        <v>315.7729187011719</v>
       </c>
       <c r="K51" t="n">
-        <v>-8.35198974609375</v>
+        <v>-10.75198364257812</v>
       </c>
       <c r="L51" t="n">
-        <v>0.2309999999999945</v>
+        <v>0.2810000000000059</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.02202841486910658</v>
+        <v>-0.03020552404108547</v>
       </c>
       <c r="N51" t="n">
-        <v>-0.03919529327702723</v>
+        <v>-0.02775416349590895</v>
       </c>
       <c r="O51" t="n">
-        <v>2335.011976125298</v>
+        <v>3201.785548355059</v>
       </c>
       <c r="P51" t="n">
-        <v>2291.177814233086</v>
+        <v>2395.298624002428</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>1159</v>
+        <v>1114</v>
       </c>
       <c r="B52" t="n">
         <v>10</v>
       </c>
       <c r="C52" t="n">
-        <v>61.4879997253418</v>
+        <v>63.50399780273438</v>
       </c>
       <c r="D52" t="n">
-        <v>5400</v>
+        <v>5253</v>
       </c>
       <c r="E52" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F52" t="n">
-        <v>2700</v>
+        <v>2753</v>
       </c>
       <c r="G52" t="n">
-        <v>146.494</v>
+        <v>145.816</v>
       </c>
       <c r="H52" t="n">
-        <v>2681.156759271906</v>
+        <v>2801.039803851243</v>
       </c>
       <c r="I52" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J52" t="n">
-        <v>291.7264099121094</v>
+        <v>311.1695861816406</v>
       </c>
       <c r="K52" t="n">
-        <v>-6.87200927734375</v>
+        <v>-4.60333251953125</v>
       </c>
       <c r="L52" t="n">
-        <v>0.2400000000000091</v>
+        <v>0.08799999999999386</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.02171547111071038</v>
+        <v>-0.02991667881742207</v>
       </c>
       <c r="N52" t="n">
-        <v>-0.0253098450666686</v>
+        <v>-0.02806134274388791</v>
       </c>
       <c r="O52" t="n">
-        <v>2301.839937735301</v>
+        <v>3171.16795464674</v>
       </c>
       <c r="P52" t="n">
-        <v>2249.519216623833</v>
+        <v>2367.389668964698</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>1187</v>
+        <v>1129</v>
       </c>
       <c r="B53" t="n">
         <v>10.2</v>
       </c>
       <c r="C53" t="n">
-        <v>59.57999725341797</v>
+        <v>63.07200164794922</v>
       </c>
       <c r="D53" t="n">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="E53" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="F53" t="n">
         <v>2800</v>
       </c>
       <c r="G53" t="n">
-        <v>146.98</v>
+        <v>146.023</v>
       </c>
       <c r="H53" t="n">
-        <v>2571.108191564873</v>
+        <v>2775.038901785498</v>
       </c>
       <c r="I53" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="J53" t="n">
-        <v>273.9024658203125</v>
+        <v>306.9504089355469</v>
       </c>
       <c r="K53" t="n">
-        <v>-17.82394409179688</v>
+        <v>-4.21917724609375</v>
       </c>
       <c r="L53" t="n">
-        <v>0.48599999999999</v>
+        <v>0.2069999999999936</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.02266392698363338</v>
+        <v>-0.02791671139935663</v>
       </c>
       <c r="N53" t="n">
-        <v>-0.04414179593068341</v>
+        <v>-0.004124727828778606</v>
       </c>
       <c r="O53" t="n">
-        <v>2402.376260265138</v>
+        <v>2959.171408331803</v>
       </c>
       <c r="P53" t="n">
-        <v>2141.478898376184</v>
+        <v>2341.81057644945</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>1202</v>
+        <v>1142</v>
       </c>
       <c r="B54" t="n">
         <v>10.4</v>
       </c>
       <c r="C54" t="n">
-        <v>58.86000137329102</v>
+        <v>62.20800247192383</v>
       </c>
       <c r="D54" t="n">
-        <v>5552</v>
+        <v>5352</v>
       </c>
       <c r="E54" t="n">
         <v>52</v>
@@ -3130,48 +3130,48 @@
         <v>2852</v>
       </c>
       <c r="G54" t="n">
-        <v>147.295</v>
+        <v>146.254</v>
       </c>
       <c r="H54" t="n">
-        <v>2530.443124800244</v>
+        <v>2723.547038972031</v>
       </c>
       <c r="I54" t="n">
         <v>52</v>
       </c>
       <c r="J54" t="n">
-        <v>267.322509765625</v>
+        <v>298.5984191894531</v>
       </c>
       <c r="K54" t="n">
-        <v>-6.5799560546875</v>
+        <v>-8.35198974609375</v>
       </c>
       <c r="L54" t="n">
-        <v>0.3149999999999977</v>
+        <v>0.2309999999999945</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.02117210516860305</v>
+        <v>-0.02853356621620485</v>
       </c>
       <c r="N54" t="n">
-        <v>-0.007206580351676291</v>
+        <v>-0.03919529327702723</v>
       </c>
       <c r="O54" t="n">
-        <v>2244.243147871924</v>
+        <v>3024.558018917714</v>
       </c>
       <c r="P54" t="n">
-        <v>2101.597805763259</v>
+        <v>2291.177814233086</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>1218</v>
+        <v>1159</v>
       </c>
       <c r="B55" t="n">
         <v>10.6</v>
       </c>
       <c r="C55" t="n">
-        <v>57.8879997253418</v>
+        <v>61.4879997253418</v>
       </c>
       <c r="D55" t="n">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="E55" t="n">
         <v>48</v>
@@ -3180,1448 +3180,1448 @@
         <v>2900</v>
       </c>
       <c r="G55" t="n">
-        <v>147.555</v>
+        <v>146.494</v>
       </c>
       <c r="H55" t="n">
-        <v>2476.294464365229</v>
+        <v>2681.156759271906</v>
       </c>
       <c r="I55" t="n">
         <v>48</v>
       </c>
       <c r="J55" t="n">
-        <v>258.56640625</v>
+        <v>291.7264099121094</v>
       </c>
       <c r="K55" t="n">
-        <v>-8.756103515625</v>
+        <v>-6.87200927734375</v>
       </c>
       <c r="L55" t="n">
-        <v>0.2600000000000193</v>
+        <v>0.2400000000000091</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.02192455128347879</v>
+        <v>-0.02814430334976285</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.04107969463995795</v>
+        <v>-0.0253098450666686</v>
       </c>
       <c r="O55" t="n">
-        <v>2324.002436048752</v>
+        <v>2983.296155074862</v>
       </c>
       <c r="P55" t="n">
-        <v>2048.530246992485</v>
+        <v>2249.519216623833</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>1234</v>
+        <v>1187</v>
       </c>
       <c r="B56" t="n">
         <v>10.8</v>
       </c>
       <c r="C56" t="n">
-        <v>56.73600082397461</v>
+        <v>59.57999725341797</v>
       </c>
       <c r="D56" t="n">
-        <v>5654</v>
+        <v>5500</v>
       </c>
       <c r="E56" t="n">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F56" t="n">
-        <v>2954</v>
+        <v>3000</v>
       </c>
       <c r="G56" t="n">
-        <v>147.847</v>
+        <v>146.98</v>
       </c>
       <c r="H56" t="n">
-        <v>2413.233667834885</v>
+        <v>2571.108191564873</v>
       </c>
       <c r="I56" t="n">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="J56" t="n">
-        <v>248.3776092529297</v>
+        <v>273.9024658203125</v>
       </c>
       <c r="K56" t="n">
-        <v>-10.18879699707031</v>
+        <v>-17.82394409179688</v>
       </c>
       <c r="L56" t="n">
-        <v>0.2920000000000016</v>
+        <v>0.48599999999999</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.02284050647262102</v>
+        <v>-0.0290759689641289</v>
       </c>
       <c r="N56" t="n">
-        <v>-0.04429668777860325</v>
+        <v>-0.04414179593068341</v>
       </c>
       <c r="O56" t="n">
-        <v>2421.093686097828</v>
+        <v>3082.052710197664</v>
       </c>
       <c r="P56" t="n">
-        <v>1986.784568159841</v>
+        <v>2141.478898376184</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>1251</v>
+        <v>1202</v>
       </c>
       <c r="B57" t="n">
         <v>11</v>
       </c>
       <c r="C57" t="n">
-        <v>56.33999862670898</v>
+        <v>58.86000137329102</v>
       </c>
       <c r="D57" t="n">
-        <v>5700</v>
+        <v>5552</v>
       </c>
       <c r="E57" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F57" t="n">
-        <v>3000</v>
+        <v>3052</v>
       </c>
       <c r="G57" t="n">
-        <v>148.112</v>
+        <v>147.295</v>
       </c>
       <c r="H57" t="n">
-        <v>2391.835776610387</v>
+        <v>2530.443124800244</v>
       </c>
       <c r="I57" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J57" t="n">
-        <v>244.9224853515625</v>
+        <v>267.322509765625</v>
       </c>
       <c r="K57" t="n">
-        <v>-3.455123901367188</v>
+        <v>-6.5799560546875</v>
       </c>
       <c r="L57" t="n">
-        <v>0.2649999999999864</v>
+        <v>0.3149999999999977</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.02000710565087315</v>
+        <v>-0.0274528152497397</v>
       </c>
       <c r="N57" t="n">
-        <v>0.01575952281122348</v>
+        <v>-0.007206580351676291</v>
       </c>
       <c r="O57" t="n">
-        <v>2120.753198992554</v>
+        <v>2909.998416472408</v>
       </c>
       <c r="P57" t="n">
-        <v>1965.847223407026</v>
+        <v>2101.597805763259</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>1265</v>
+        <v>1218</v>
       </c>
       <c r="B58" t="n">
         <v>11.2</v>
       </c>
       <c r="C58" t="n">
-        <v>55.8</v>
+        <v>57.8879997253418</v>
       </c>
       <c r="D58" t="n">
-        <v>5753</v>
+        <v>5600</v>
       </c>
       <c r="E58" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F58" t="n">
-        <v>3053</v>
+        <v>3100</v>
       </c>
       <c r="G58" t="n">
-        <v>148.308</v>
+        <v>147.555</v>
       </c>
       <c r="H58" t="n">
-        <v>2362.8874392</v>
+        <v>2476.294464365229</v>
       </c>
       <c r="I58" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J58" t="n">
-        <v>240.25</v>
+        <v>258.56640625</v>
       </c>
       <c r="K58" t="n">
-        <v>-4.6724853515625</v>
+        <v>-8.756103515625</v>
       </c>
       <c r="L58" t="n">
-        <v>0.195999999999998</v>
+        <v>0.2600000000000193</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.01888455796991616</v>
+        <v>-0.02818364700638444</v>
       </c>
       <c r="N58" t="n">
-        <v>-0.009855059386403436</v>
+        <v>-0.04107969463995795</v>
       </c>
       <c r="O58" t="n">
-        <v>2001.763144811113</v>
+        <v>2987.46658267675</v>
       </c>
       <c r="P58" t="n">
-        <v>1937.533884</v>
+        <v>2048.530246992485</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>1281</v>
+        <v>1234</v>
       </c>
       <c r="B59" t="n">
         <v>11.4</v>
       </c>
       <c r="C59" t="n">
-        <v>54.79200096130371</v>
+        <v>56.73600082397461</v>
       </c>
       <c r="D59" t="n">
-        <v>5800</v>
+        <v>5654</v>
       </c>
       <c r="E59" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F59" t="n">
-        <v>3100</v>
+        <v>3154</v>
       </c>
       <c r="G59" t="n">
-        <v>148.539</v>
+        <v>147.847</v>
       </c>
       <c r="H59" t="n">
-        <v>2309.561646879759</v>
+        <v>2413.233667834885</v>
       </c>
       <c r="I59" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J59" t="n">
-        <v>231.6484069824219</v>
+        <v>248.3776092529297</v>
       </c>
       <c r="K59" t="n">
-        <v>-8.601593017578125</v>
+        <v>-10.18879699707031</v>
       </c>
       <c r="L59" t="n">
-        <v>0.2309999999999945</v>
+        <v>0.2920000000000016</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.01998707564239464</v>
+        <v>-0.0290871320417108</v>
       </c>
       <c r="N59" t="n">
-        <v>-0.04602035927973624</v>
+        <v>-0.04429668777860325</v>
       </c>
       <c r="O59" t="n">
-        <v>2118.630018093832</v>
+        <v>3083.235996421345</v>
       </c>
       <c r="P59" t="n">
-        <v>1885.414987623861</v>
+        <v>1986.784568159841</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>1298</v>
+        <v>1251</v>
       </c>
       <c r="B60" t="n">
         <v>11.6</v>
       </c>
       <c r="C60" t="n">
-        <v>54.03600082397461</v>
+        <v>56.33999862670898</v>
       </c>
       <c r="D60" t="n">
-        <v>5847</v>
+        <v>5700</v>
       </c>
       <c r="E60" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F60" t="n">
-        <v>3147</v>
+        <v>3200</v>
       </c>
       <c r="G60" t="n">
-        <v>148.801</v>
+        <v>148.112</v>
       </c>
       <c r="H60" t="n">
-        <v>2270.175077974908</v>
+        <v>2391.835776610387</v>
       </c>
       <c r="I60" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J60" t="n">
-        <v>225.3001098632812</v>
+        <v>244.9224853515625</v>
       </c>
       <c r="K60" t="n">
-        <v>-6.348297119140625</v>
+        <v>-3.455123901367188</v>
       </c>
       <c r="L60" t="n">
-        <v>0.2620000000000005</v>
+        <v>0.2649999999999864</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.01926475007599538</v>
+        <v>-0.02605256515857207</v>
       </c>
       <c r="N60" t="n">
-        <v>-0.01594495128752563</v>
+        <v>0.01575952281122348</v>
       </c>
       <c r="O60" t="n">
-        <v>2042.06350805551</v>
+        <v>2761.571906808639</v>
       </c>
       <c r="P60" t="n">
-        <v>1846.952021830372</v>
+        <v>1965.847223407026</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>1315</v>
+        <v>1265</v>
       </c>
       <c r="B61" t="n">
         <v>11.8</v>
       </c>
       <c r="C61" t="n">
-        <v>53.13600082397461</v>
+        <v>55.8</v>
       </c>
       <c r="D61" t="n">
-        <v>5900</v>
+        <v>5753</v>
       </c>
       <c r="E61" t="n">
         <v>53</v>
       </c>
       <c r="F61" t="n">
-        <v>3200</v>
+        <v>3253</v>
       </c>
       <c r="G61" t="n">
-        <v>149.048</v>
+        <v>148.308</v>
       </c>
       <c r="H61" t="n">
-        <v>2223.965608554917</v>
+        <v>2362.8874392</v>
       </c>
       <c r="I61" t="n">
         <v>53</v>
       </c>
       <c r="J61" t="n">
-        <v>217.8576049804688</v>
+        <v>240.25</v>
       </c>
       <c r="K61" t="n">
-        <v>-7.4425048828125</v>
+        <v>-4.6724853515625</v>
       </c>
       <c r="L61" t="n">
-        <v>0.2470000000000141</v>
+        <v>0.195999999999998</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.01922903573662074</v>
+        <v>-0.02481829888804374</v>
       </c>
       <c r="N61" t="n">
-        <v>-0.02708183673710371</v>
+        <v>-0.009855059386403436</v>
       </c>
       <c r="O61" t="n">
-        <v>2038.277788081798</v>
+        <v>2630.739682132637</v>
       </c>
       <c r="P61" t="n">
-        <v>1801.862677053884</v>
+        <v>1937.533884</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>1335</v>
+        <v>1281</v>
       </c>
       <c r="B62" t="n">
         <v>12</v>
       </c>
       <c r="C62" t="n">
-        <v>51.76800041198731</v>
+        <v>54.79200096130371</v>
       </c>
       <c r="D62" t="n">
-        <v>5952</v>
+        <v>5800</v>
       </c>
       <c r="E62" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F62" t="n">
-        <v>3252</v>
+        <v>3300</v>
       </c>
       <c r="G62" t="n">
-        <v>149.412</v>
+        <v>148.539</v>
       </c>
       <c r="H62" t="n">
-        <v>2155.141308532984</v>
+        <v>2309.561646879759</v>
       </c>
       <c r="I62" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J62" t="n">
-        <v>206.7844085693359</v>
+        <v>231.6484069824219</v>
       </c>
       <c r="K62" t="n">
-        <v>-11.07319641113281</v>
+        <v>-8.601593017578125</v>
       </c>
       <c r="L62" t="n">
-        <v>0.3640000000000043</v>
+        <v>0.2309999999999945</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.02003357432744594</v>
+        <v>-0.02592834279453896</v>
       </c>
       <c r="N62" t="n">
-        <v>-0.04169002354681328</v>
+        <v>-0.04602035927973624</v>
       </c>
       <c r="O62" t="n">
-        <v>2123.558878709269</v>
+        <v>2748.40433622113</v>
       </c>
       <c r="P62" t="n">
-        <v>1734.78384528721</v>
+        <v>1885.414987623861</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>1351</v>
+        <v>1298</v>
       </c>
       <c r="B63" t="n">
         <v>12.2</v>
       </c>
       <c r="C63" t="n">
-        <v>51.3</v>
+        <v>54.03600082397461</v>
       </c>
       <c r="D63" t="n">
-        <v>6000</v>
+        <v>5847</v>
       </c>
       <c r="E63" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F63" t="n">
-        <v>3300</v>
+        <v>3347</v>
       </c>
       <c r="G63" t="n">
-        <v>149.643</v>
+        <v>148.801</v>
       </c>
       <c r="H63" t="n">
-        <v>2131.9877682</v>
+        <v>2270.175077974908</v>
       </c>
       <c r="I63" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J63" t="n">
-        <v>203.0625</v>
+        <v>225.3001098632812</v>
       </c>
       <c r="K63" t="n">
-        <v>-3.721908569335938</v>
+        <v>-6.348297119140625</v>
       </c>
       <c r="L63" t="n">
-        <v>0.2309999999999945</v>
+        <v>0.2620000000000005</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.01812700867298403</v>
+        <v>-0.02511552665852867</v>
       </c>
       <c r="N63" t="n">
-        <v>0.005768444541114377</v>
+        <v>-0.01594495128752563</v>
       </c>
       <c r="O63" t="n">
-        <v>1921.462919336307</v>
+        <v>2662.245825804039</v>
       </c>
       <c r="P63" t="n">
-        <v>1712.239314</v>
+        <v>1846.952021830372</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>1386</v>
+        <v>1315</v>
       </c>
       <c r="B64" t="n">
         <v>12.4</v>
       </c>
       <c r="C64" t="n">
-        <v>50.29200096130371</v>
+        <v>53.13600082397461</v>
       </c>
       <c r="D64" t="n">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="E64" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="F64" t="n">
         <v>3400</v>
       </c>
       <c r="G64" t="n">
-        <v>149.847</v>
+        <v>149.048</v>
       </c>
       <c r="H64" t="n">
-        <v>2082.796808096472</v>
+        <v>2223.965608554917</v>
       </c>
       <c r="I64" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="J64" t="n">
-        <v>195.1609039306641</v>
+        <v>217.8576049804688</v>
       </c>
       <c r="K64" t="n">
-        <v>-7.901596069335938</v>
+        <v>-7.4425048828125</v>
       </c>
       <c r="L64" t="n">
-        <v>0.2040000000000077</v>
+        <v>0.2470000000000141</v>
       </c>
       <c r="M64" t="n">
-        <v>-0.0177837356850931</v>
+        <v>-0.02502864083333945</v>
       </c>
       <c r="N64" t="n">
-        <v>-0.02062835770516954</v>
+        <v>-0.02708183673710371</v>
       </c>
       <c r="O64" t="n">
-        <v>1885.075982619869</v>
+        <v>2653.035928333981</v>
       </c>
       <c r="P64" t="n">
-        <v>1664.380624761007</v>
+        <v>1801.862677053884</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>1402</v>
+        <v>1335</v>
       </c>
       <c r="B65" t="n">
         <v>12.6</v>
       </c>
       <c r="C65" t="n">
-        <v>49.86000137329102</v>
+        <v>51.76800041198731</v>
       </c>
       <c r="D65" t="n">
-        <v>6154</v>
+        <v>5952</v>
       </c>
       <c r="E65" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F65" t="n">
-        <v>3454</v>
+        <v>3452</v>
       </c>
       <c r="G65" t="n">
-        <v>149.983</v>
+        <v>149.412</v>
       </c>
       <c r="H65" t="n">
-        <v>2061.998499133709</v>
+        <v>2155.141308532984</v>
       </c>
       <c r="I65" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J65" t="n">
-        <v>191.822509765625</v>
+        <v>206.7844085693359</v>
       </c>
       <c r="K65" t="n">
-        <v>-3.338394165039062</v>
+        <v>-11.07319641113281</v>
       </c>
       <c r="L65" t="n">
-        <v>0.1359999999999957</v>
+        <v>0.3640000000000043</v>
       </c>
       <c r="M65" t="n">
-        <v>-0.01674683339749221</v>
+        <v>-0.02583147274033303</v>
       </c>
       <c r="N65" t="n">
-        <v>-0.007602880983066833</v>
+        <v>-0.04169002354681328</v>
       </c>
       <c r="O65" t="n">
-        <v>1775.164340134175</v>
+        <v>2738.136110475301</v>
       </c>
       <c r="P65" t="n">
-        <v>1644.161886155104</v>
+        <v>1734.78384528721</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>1418</v>
+        <v>1351</v>
       </c>
       <c r="B66" t="n">
         <v>12.8</v>
       </c>
       <c r="C66" t="n">
-        <v>49.42799835205079</v>
+        <v>51.3</v>
       </c>
       <c r="D66" t="n">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="E66" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F66" t="n">
         <v>3500</v>
       </c>
       <c r="G66" t="n">
-        <v>149.987</v>
+        <v>149.643</v>
       </c>
       <c r="H66" t="n">
-        <v>2041.370145557624</v>
+        <v>2131.9877682</v>
       </c>
       <c r="I66" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J66" t="n">
-        <v>188.5128936767578</v>
+        <v>203.0625</v>
       </c>
       <c r="K66" t="n">
-        <v>-3.309616088867188</v>
+        <v>-3.721908569335938</v>
       </c>
       <c r="L66" t="n">
-        <v>0.003999999999990678</v>
+        <v>0.2309999999999945</v>
       </c>
       <c r="M66" t="n">
-        <v>-0.01725189163322612</v>
+        <v>-0.02376458471490298</v>
       </c>
       <c r="N66" t="n">
-        <v>-0.03516932992411199</v>
+        <v>0.005768444541114377</v>
       </c>
       <c r="O66" t="n">
-        <v>1828.700513121969</v>
+        <v>2519.045979779715</v>
       </c>
       <c r="P66" t="n">
-        <v>1624.118265880908</v>
+        <v>1712.239314</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>1441</v>
+        <v>1386</v>
       </c>
       <c r="B67" t="n">
         <v>13</v>
       </c>
       <c r="C67" t="n">
-        <v>48.92400054931641</v>
+        <v>50.29200096130371</v>
       </c>
       <c r="D67" t="n">
-        <v>6245</v>
+        <v>6100</v>
       </c>
       <c r="E67" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="F67" t="n">
-        <v>3545</v>
+        <v>3600</v>
       </c>
       <c r="G67" t="n">
-        <v>150.114</v>
+        <v>149.847</v>
       </c>
       <c r="H67" t="n">
-        <v>2017.519017014876</v>
+        <v>2082.796808096472</v>
       </c>
       <c r="I67" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="J67" t="n">
-        <v>184.6881103515625</v>
+        <v>195.1609039306641</v>
       </c>
       <c r="K67" t="n">
-        <v>-3.824783325195312</v>
+        <v>-7.901596069335938</v>
       </c>
       <c r="L67" t="n">
-        <v>0.1270000000000095</v>
+        <v>0.2040000000000077</v>
       </c>
       <c r="M67" t="n">
-        <v>-0.01673487725471284</v>
+        <v>-0.0233558922211092</v>
       </c>
       <c r="N67" t="n">
-        <v>-0.01637872457763987</v>
+        <v>-0.02062835770516954</v>
       </c>
       <c r="O67" t="n">
-        <v>1773.896988999561</v>
+        <v>2475.724575437575</v>
       </c>
       <c r="P67" t="n">
-        <v>1600.955837924742</v>
+        <v>1664.380624761007</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>1459</v>
+        <v>1402</v>
       </c>
       <c r="B68" t="n">
         <v>13.2</v>
       </c>
       <c r="C68" t="n">
-        <v>48.34800109863281</v>
+        <v>49.86000137329102</v>
       </c>
       <c r="D68" t="n">
-        <v>6300</v>
+        <v>6154</v>
       </c>
       <c r="E68" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F68" t="n">
-        <v>3600</v>
+        <v>3654</v>
       </c>
       <c r="G68" t="n">
-        <v>150.245</v>
+        <v>149.983</v>
       </c>
       <c r="H68" t="n">
-        <v>1990.544022183465</v>
+        <v>2061.998499133709</v>
       </c>
       <c r="I68" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J68" t="n">
-        <v>180.3649139404297</v>
+        <v>191.822509765625</v>
       </c>
       <c r="K68" t="n">
-        <v>-4.323196411132812</v>
+        <v>-3.338394165039062</v>
       </c>
       <c r="L68" t="n">
-        <v>0.1310000000000002</v>
+        <v>0.1359999999999957</v>
       </c>
       <c r="M68" t="n">
-        <v>-0.0162911932306211</v>
+        <v>-0.02221119516351945</v>
       </c>
       <c r="N68" t="n">
-        <v>-0.01725873238251095</v>
+        <v>-0.007602880983066833</v>
       </c>
       <c r="O68" t="n">
-        <v>1726.866482445836</v>
+        <v>2354.386687333062</v>
       </c>
       <c r="P68" t="n">
-        <v>1574.776529274347</v>
+        <v>1644.161886155104</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>1479</v>
+        <v>1418</v>
       </c>
       <c r="B69" t="n">
         <v>13.4</v>
       </c>
       <c r="C69" t="n">
-        <v>47.37599945068359</v>
+        <v>49.42799835205079</v>
       </c>
       <c r="D69" t="n">
-        <v>6348</v>
+        <v>6200</v>
       </c>
       <c r="E69" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F69" t="n">
-        <v>3648</v>
+        <v>3700</v>
       </c>
       <c r="G69" t="n">
-        <v>150.541</v>
+        <v>149.987</v>
       </c>
       <c r="H69" t="n">
-        <v>1945.709391578822</v>
+        <v>2041.370145557624</v>
       </c>
       <c r="I69" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J69" t="n">
-        <v>173.1855926513672</v>
+        <v>188.5128936767578</v>
       </c>
       <c r="K69" t="n">
-        <v>-7.1793212890625</v>
+        <v>-3.309616088867188</v>
       </c>
       <c r="L69" t="n">
-        <v>0.2959999999999923</v>
+        <v>0.003999999999990678</v>
       </c>
       <c r="M69" t="n">
-        <v>-0.01589445648781503</v>
+        <v>-0.0227080227656814</v>
       </c>
       <c r="N69" t="n">
-        <v>-0.01771384204408806</v>
+        <v>-0.03516932992411199</v>
       </c>
       <c r="O69" t="n">
-        <v>1684.812387708393</v>
+        <v>2407.050413162228</v>
       </c>
       <c r="P69" t="n">
-        <v>1531.305417053099</v>
+        <v>1624.118265880908</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>1498</v>
+        <v>1441</v>
       </c>
       <c r="B70" t="n">
         <v>13.6</v>
       </c>
       <c r="C70" t="n">
-        <v>46.54800109863282</v>
+        <v>48.92400054931641</v>
       </c>
       <c r="D70" t="n">
-        <v>6400</v>
+        <v>6245</v>
       </c>
       <c r="E70" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F70" t="n">
-        <v>3700</v>
+        <v>3745</v>
       </c>
       <c r="G70" t="n">
-        <v>150.703</v>
+        <v>150.114</v>
       </c>
       <c r="H70" t="n">
-        <v>1908.196362396819</v>
+        <v>2017.519017014876</v>
       </c>
       <c r="I70" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J70" t="n">
-        <v>167.1849060058594</v>
+        <v>184.6881103515625</v>
       </c>
       <c r="K70" t="n">
-        <v>-6.000686645507812</v>
+        <v>-3.824783325195312</v>
       </c>
       <c r="L70" t="n">
-        <v>0.1620000000000061</v>
+        <v>0.1270000000000095</v>
       </c>
       <c r="M70" t="n">
-        <v>-0.01608972078405421</v>
+        <v>-0.02211682045333547</v>
       </c>
       <c r="N70" t="n">
-        <v>-0.02886690715020102</v>
+        <v>-0.01637872457763987</v>
       </c>
       <c r="O70" t="n">
-        <v>1705.510403109746</v>
+        <v>2344.38296805356</v>
       </c>
       <c r="P70" t="n">
-        <v>1494.974496537043</v>
+        <v>1600.955837924742</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>1518</v>
+        <v>1459</v>
       </c>
       <c r="B71" t="n">
         <v>13.8</v>
       </c>
       <c r="C71" t="n">
-        <v>45.68399848937988</v>
+        <v>48.34800109863281</v>
       </c>
       <c r="D71" t="n">
-        <v>6449</v>
+        <v>6300</v>
       </c>
       <c r="E71" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F71" t="n">
-        <v>3749</v>
+        <v>3800</v>
       </c>
       <c r="G71" t="n">
-        <v>150.927</v>
+        <v>150.245</v>
       </c>
       <c r="H71" t="n">
-        <v>1869.718437527841</v>
+        <v>1990.544022183465</v>
       </c>
       <c r="I71" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J71" t="n">
-        <v>161.0360870361328</v>
+        <v>180.3649139404297</v>
       </c>
       <c r="K71" t="n">
-        <v>-6.148818969726562</v>
+        <v>-4.323196411132812</v>
       </c>
       <c r="L71" t="n">
-        <v>0.2239999999999895</v>
+        <v>0.1310000000000002</v>
       </c>
       <c r="M71" t="n">
-        <v>-0.01585290249504374</v>
+        <v>-0.02160466552139652</v>
       </c>
       <c r="N71" t="n">
-        <v>-0.02043577308346516</v>
+        <v>-0.01725873238251095</v>
       </c>
       <c r="O71" t="n">
-        <v>1680.407664474637</v>
+        <v>2290.094545268032</v>
       </c>
       <c r="P71" t="n">
-        <v>1457.750285907789</v>
+        <v>1574.776529274347</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>1538</v>
+        <v>1479</v>
       </c>
       <c r="B72" t="n">
         <v>14</v>
       </c>
       <c r="C72" t="n">
-        <v>44.96399917602539</v>
+        <v>47.37599945068359</v>
       </c>
       <c r="D72" t="n">
-        <v>6500</v>
+        <v>6348</v>
       </c>
       <c r="E72" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F72" t="n">
-        <v>3800</v>
+        <v>3848</v>
       </c>
       <c r="G72" t="n">
-        <v>151.136</v>
+        <v>150.541</v>
       </c>
       <c r="H72" t="n">
-        <v>1838.173435660852</v>
+        <v>1945.709391578822</v>
       </c>
       <c r="I72" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J72" t="n">
-        <v>156.0000915527344</v>
+        <v>173.1855926513672</v>
       </c>
       <c r="K72" t="n">
-        <v>-5.035995483398438</v>
+        <v>-7.1793212890625</v>
       </c>
       <c r="L72" t="n">
-        <v>0.2090000000000032</v>
+        <v>0.2959999999999923</v>
       </c>
       <c r="M72" t="n">
-        <v>-0.01518065650605837</v>
+        <v>-0.02114352632490069</v>
       </c>
       <c r="N72" t="n">
-        <v>-0.01144631162044285</v>
+        <v>-0.01771384204408806</v>
       </c>
       <c r="O72" t="n">
-        <v>1609.149589642187</v>
+        <v>2241.213790439473</v>
       </c>
       <c r="P72" t="n">
-        <v>1427.26580319344</v>
+        <v>1531.305417053099</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>1558</v>
+        <v>1498</v>
       </c>
       <c r="B73" t="n">
         <v>14.2</v>
       </c>
       <c r="C73" t="n">
-        <v>44.31600151062012</v>
+        <v>46.54800109863282</v>
       </c>
       <c r="D73" t="n">
-        <v>6551</v>
+        <v>6400</v>
       </c>
       <c r="E73" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F73" t="n">
-        <v>3851</v>
+        <v>3900</v>
       </c>
       <c r="G73" t="n">
-        <v>151.268</v>
+        <v>150.703</v>
       </c>
       <c r="H73" t="n">
-        <v>1810.187039403757</v>
+        <v>1908.196362396819</v>
       </c>
       <c r="I73" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J73" t="n">
-        <v>151.5361175537109</v>
+        <v>167.1849060058594</v>
       </c>
       <c r="K73" t="n">
-        <v>-4.463973999023438</v>
+        <v>-6.000686645507812</v>
       </c>
       <c r="L73" t="n">
-        <v>0.132000000000005</v>
+        <v>0.1620000000000061</v>
       </c>
       <c r="M73" t="n">
-        <v>-0.01495266380090243</v>
+        <v>-0.02131804307013007</v>
       </c>
       <c r="N73" t="n">
-        <v>-0.01981106584318115</v>
+        <v>-0.02886690715020102</v>
       </c>
       <c r="O73" t="n">
-        <v>1584.982362895657</v>
+        <v>2259.712565433788</v>
       </c>
       <c r="P73" t="n">
-        <v>1400.246122506529</v>
+        <v>1494.974496537043</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>1579</v>
+        <v>1518</v>
       </c>
       <c r="B74" t="n">
         <v>14.4</v>
       </c>
       <c r="C74" t="n">
-        <v>43.3439998626709</v>
+        <v>45.68399848937988</v>
       </c>
       <c r="D74" t="n">
-        <v>6600</v>
+        <v>6449</v>
       </c>
       <c r="E74" t="n">
         <v>49</v>
       </c>
       <c r="F74" t="n">
-        <v>3900</v>
+        <v>3949</v>
       </c>
       <c r="G74" t="n">
-        <v>151.472</v>
+        <v>150.927</v>
       </c>
       <c r="H74" t="n">
-        <v>1768.924912933206</v>
+        <v>1869.718437527841</v>
       </c>
       <c r="I74" t="n">
         <v>49</v>
       </c>
       <c r="J74" t="n">
-        <v>144.9615936279297</v>
+        <v>161.0360870361328</v>
       </c>
       <c r="K74" t="n">
-        <v>-6.57452392578125</v>
+        <v>-6.148818969726562</v>
       </c>
       <c r="L74" t="n">
-        <v>0.2040000000000077</v>
+        <v>0.2239999999999895</v>
       </c>
       <c r="M74" t="n">
-        <v>-0.01516285321194588</v>
+        <v>-0.0210297342067095</v>
       </c>
       <c r="N74" t="n">
-        <v>-0.02855713670897163</v>
+        <v>-0.02043577308346516</v>
       </c>
       <c r="O74" t="n">
-        <v>1607.262440466263</v>
+        <v>2229.151825911207</v>
       </c>
       <c r="P74" t="n">
-        <v>1360.45583862652</v>
+        <v>1457.750285907789</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>1600</v>
+        <v>1538</v>
       </c>
       <c r="B75" t="n">
         <v>14.6</v>
       </c>
       <c r="C75" t="n">
-        <v>42.5879997253418</v>
+        <v>44.96399917602539</v>
       </c>
       <c r="D75" t="n">
-        <v>6650</v>
+        <v>6500</v>
       </c>
       <c r="E75" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F75" t="n">
-        <v>3950</v>
+        <v>4000</v>
       </c>
       <c r="G75" t="n">
-        <v>151.683</v>
+        <v>151.136</v>
       </c>
       <c r="H75" t="n">
-        <v>1737.42761361185</v>
+        <v>1838.173435660852</v>
       </c>
       <c r="I75" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J75" t="n">
-        <v>139.9488983154297</v>
+        <v>156.0000915527344</v>
       </c>
       <c r="K75" t="n">
-        <v>-5.0126953125</v>
+        <v>-5.035995483398438</v>
       </c>
       <c r="L75" t="n">
-        <v>0.2109999999999843</v>
+        <v>0.2090000000000032</v>
       </c>
       <c r="M75" t="n">
-        <v>-0.01452607010905974</v>
+        <v>-0.02027340750755308</v>
       </c>
       <c r="N75" t="n">
-        <v>-0.01107204746462555</v>
+        <v>-0.01144631162044285</v>
       </c>
       <c r="O75" t="n">
-        <v>1539.763431560332</v>
+        <v>2148.981195800626</v>
       </c>
       <c r="P75" t="n">
-        <v>1330.121358059257</v>
+        <v>1427.26580319344</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>1622</v>
+        <v>1558</v>
       </c>
       <c r="B76" t="n">
         <v>14.8</v>
       </c>
       <c r="C76" t="n">
-        <v>41.6879997253418</v>
+        <v>44.31600151062012</v>
       </c>
       <c r="D76" t="n">
-        <v>6700</v>
+        <v>6551</v>
       </c>
       <c r="E76" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F76" t="n">
-        <v>4000</v>
+        <v>4051</v>
       </c>
       <c r="G76" t="n">
-        <v>151.892</v>
+        <v>151.268</v>
       </c>
       <c r="H76" t="n">
-        <v>1700.610130085181</v>
+        <v>1810.187039403757</v>
       </c>
       <c r="I76" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J76" t="n">
-        <v>134.0964050292969</v>
+        <v>151.5361175537109</v>
       </c>
       <c r="K76" t="n">
-        <v>-5.852493286132812</v>
+        <v>-4.463973999023438</v>
       </c>
       <c r="L76" t="n">
-        <v>0.2090000000000032</v>
+        <v>0.132000000000005</v>
       </c>
       <c r="M76" t="n">
-        <v>-0.01433504571535667</v>
+        <v>-0.01999686920958059</v>
       </c>
       <c r="N76" t="n">
-        <v>-0.01984021588019546</v>
+        <v>-0.01981106584318115</v>
       </c>
       <c r="O76" t="n">
-        <v>1519.514845827807</v>
+        <v>2119.668136215542</v>
       </c>
       <c r="P76" t="n">
-        <v>1294.70877965142</v>
+        <v>1400.246122506529</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>1644</v>
+        <v>1579</v>
       </c>
       <c r="B77" t="n">
         <v>15</v>
       </c>
       <c r="C77" t="n">
-        <v>40.89599876403809</v>
+        <v>43.3439998626709</v>
       </c>
       <c r="D77" t="n">
-        <v>6749</v>
+        <v>6600</v>
       </c>
       <c r="E77" t="n">
         <v>49</v>
       </c>
       <c r="F77" t="n">
-        <v>4049</v>
+        <v>4100</v>
       </c>
       <c r="G77" t="n">
-        <v>152.065</v>
+        <v>151.472</v>
       </c>
       <c r="H77" t="n">
-        <v>1668.821480714665</v>
+        <v>1768.924912933206</v>
       </c>
       <c r="I77" t="n">
         <v>49</v>
       </c>
       <c r="J77" t="n">
-        <v>129.0495910644531</v>
+        <v>144.9615936279297</v>
       </c>
       <c r="K77" t="n">
-        <v>-5.04681396484375</v>
+        <v>-6.57452392578125</v>
       </c>
       <c r="L77" t="n">
-        <v>0.1730000000000018</v>
+        <v>0.2040000000000077</v>
       </c>
       <c r="M77" t="n">
-        <v>-0.0141067367483853</v>
+        <v>-0.02019530686356996</v>
       </c>
       <c r="N77" t="n">
-        <v>-0.01882328458542876</v>
+        <v>-0.02855713670897163</v>
       </c>
       <c r="O77" t="n">
-        <v>1495.314095328841</v>
+        <v>2140.702527538416</v>
       </c>
       <c r="P77" t="n">
-        <v>1264.174968003558</v>
+        <v>1360.45583862652</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>1668</v>
+        <v>1600</v>
       </c>
       <c r="B78" t="n">
         <v>15.2</v>
       </c>
       <c r="C78" t="n">
-        <v>39.99599876403808</v>
+        <v>42.5879997253418</v>
       </c>
       <c r="D78" t="n">
-        <v>6800</v>
+        <v>6650</v>
       </c>
       <c r="E78" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F78" t="n">
-        <v>4100</v>
+        <v>4150</v>
       </c>
       <c r="G78" t="n">
-        <v>152.336</v>
+        <v>151.683</v>
       </c>
       <c r="H78" t="n">
-        <v>1633.392121544653</v>
+        <v>1737.42761361185</v>
       </c>
       <c r="I78" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J78" t="n">
-        <v>123.4320907592773</v>
+        <v>139.9488983154297</v>
       </c>
       <c r="K78" t="n">
-        <v>-5.617500305175781</v>
+        <v>-5.0126953125</v>
       </c>
       <c r="L78" t="n">
-        <v>0.271000000000015</v>
+        <v>0.2109999999999843</v>
       </c>
       <c r="M78" t="n">
-        <v>-0.01329073236304806</v>
+        <v>-0.01947685265566013</v>
       </c>
       <c r="N78" t="n">
-        <v>-0.005896506876489406</v>
+        <v>-0.01107204746462555</v>
       </c>
       <c r="O78" t="n">
-        <v>1408.817630483094</v>
+        <v>2064.546381499973</v>
       </c>
       <c r="P78" t="n">
-        <v>1230.192604168291</v>
+        <v>1330.121358059257</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>1689</v>
+        <v>1622</v>
       </c>
       <c r="B79" t="n">
         <v>15.4</v>
       </c>
       <c r="C79" t="n">
-        <v>38.88000068664551</v>
+        <v>41.6879997253418</v>
       </c>
       <c r="D79" t="n">
-        <v>6854</v>
+        <v>6700</v>
       </c>
       <c r="E79" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F79" t="n">
-        <v>4154</v>
+        <v>4200</v>
       </c>
       <c r="G79" t="n">
-        <v>152.524</v>
+        <v>151.892</v>
       </c>
       <c r="H79" t="n">
-        <v>1590.485228482269</v>
+        <v>1700.610130085181</v>
       </c>
       <c r="I79" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J79" t="n">
-        <v>116.640007019043</v>
+        <v>134.0964050292969</v>
       </c>
       <c r="K79" t="n">
-        <v>-6.792083740234375</v>
+        <v>-5.852493286132812</v>
       </c>
       <c r="L79" t="n">
-        <v>0.1879999999999882</v>
+        <v>0.2090000000000032</v>
       </c>
       <c r="M79" t="n">
-        <v>-0.01364579500886019</v>
+        <v>-0.01924315472813927</v>
       </c>
       <c r="N79" t="n">
-        <v>-0.0306695384752679</v>
+        <v>-0.01984021588019546</v>
       </c>
       <c r="O79" t="n">
-        <v>1446.45427093918</v>
+        <v>2039.774401182763</v>
       </c>
       <c r="P79" t="n">
-        <v>1189.111075156578</v>
+        <v>1294.70877965142</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>1710</v>
+        <v>1644</v>
       </c>
       <c r="B80" t="n">
         <v>15.6</v>
       </c>
       <c r="C80" t="n">
-        <v>38.4120002746582</v>
+        <v>40.89599876403809</v>
       </c>
       <c r="D80" t="n">
-        <v>6900</v>
+        <v>6749</v>
       </c>
       <c r="E80" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F80" t="n">
-        <v>4200</v>
+        <v>4249</v>
       </c>
       <c r="G80" t="n">
-        <v>152.774</v>
+        <v>152.065</v>
       </c>
       <c r="H80" t="n">
-        <v>1572.829843583255</v>
+        <v>1668.821480714665</v>
       </c>
       <c r="I80" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J80" t="n">
-        <v>113.8488998413086</v>
+        <v>129.0495910644531</v>
       </c>
       <c r="K80" t="n">
-        <v>-2.791107177734375</v>
+        <v>-5.04681396484375</v>
       </c>
       <c r="L80" t="n">
-        <v>0.25</v>
+        <v>0.1730000000000018</v>
       </c>
       <c r="M80" t="n">
-        <v>-0.01169497877514351</v>
+        <v>-0.01896975523352814</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01995925340034416</v>
+        <v>-0.01882328458542876</v>
       </c>
       <c r="O80" t="n">
-        <v>1239.667750165212</v>
+        <v>2010.794054753982</v>
       </c>
       <c r="P80" t="n">
-        <v>1172.231412428306</v>
+        <v>1264.174968003558</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>1736</v>
+        <v>1668</v>
       </c>
       <c r="B81" t="n">
         <v>15.8</v>
       </c>
       <c r="C81" t="n">
-        <v>37.08000068664551</v>
+        <v>39.99599876403808</v>
       </c>
       <c r="D81" t="n">
-        <v>6947</v>
+        <v>6800</v>
       </c>
       <c r="E81" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F81" t="n">
-        <v>4247</v>
+        <v>4300</v>
       </c>
       <c r="G81" t="n">
-        <v>153.075</v>
+        <v>152.336</v>
       </c>
       <c r="H81" t="n">
-        <v>1523.672739515615</v>
+        <v>1633.392121544653</v>
       </c>
       <c r="I81" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J81" t="n">
-        <v>106.0900039672852</v>
+        <v>123.4320907592773</v>
       </c>
       <c r="K81" t="n">
-        <v>-7.758895874023438</v>
+        <v>-5.617500305175781</v>
       </c>
       <c r="L81" t="n">
-        <v>0.3009999999999877</v>
+        <v>0.271000000000015</v>
       </c>
       <c r="M81" t="n">
-        <v>-0.01176039141702143</v>
+        <v>-0.01805497704013862</v>
       </c>
       <c r="N81" t="n">
-        <v>-0.02327187501470378</v>
+        <v>-0.005896506876489406</v>
       </c>
       <c r="O81" t="n">
-        <v>1246.601490204271</v>
+        <v>1913.827566254693</v>
       </c>
       <c r="P81" t="n">
-        <v>1125.315265195763</v>
+        <v>1230.192604168291</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>1763</v>
+        <v>1689</v>
       </c>
       <c r="B82" t="n">
         <v>16</v>
       </c>
       <c r="C82" t="n">
-        <v>36.1439998626709</v>
+        <v>38.88000068664551</v>
       </c>
       <c r="D82" t="n">
-        <v>7000</v>
+        <v>6854</v>
       </c>
       <c r="E82" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F82" t="n">
-        <v>4300</v>
+        <v>4354</v>
       </c>
       <c r="G82" t="n">
-        <v>153.199</v>
+        <v>152.524</v>
       </c>
       <c r="H82" t="n">
-        <v>1490.097421226529</v>
+        <v>1590.485228482269</v>
       </c>
       <c r="I82" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J82" t="n">
-        <v>100.8015975952148</v>
+        <v>116.640007019043</v>
       </c>
       <c r="K82" t="n">
-        <v>-5.288406372070312</v>
+        <v>-6.792083740234375</v>
       </c>
       <c r="L82" t="n">
-        <v>0.1240000000000236</v>
+        <v>0.1879999999999882</v>
       </c>
       <c r="M82" t="n">
-        <v>-0.01204562912639753</v>
+        <v>-0.01842309886263665</v>
       </c>
       <c r="N82" t="n">
-        <v>-0.02823808076178415</v>
+        <v>-0.0306695384752679</v>
       </c>
       <c r="O82" t="n">
-        <v>1276.836687398138</v>
+        <v>1952.848479439485</v>
       </c>
       <c r="P82" t="n">
-        <v>1093.344012995173</v>
+        <v>1189.111075156578</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>1810</v>
+        <v>1710</v>
       </c>
       <c r="B83" t="n">
         <v>16.2</v>
       </c>
       <c r="C83" t="n">
-        <v>33.76800041198731</v>
+        <v>38.4120002746582</v>
       </c>
       <c r="D83" t="n">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="E83" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="F83" t="n">
         <v>4400</v>
       </c>
       <c r="G83" t="n">
-        <v>153.673</v>
+        <v>152.774</v>
       </c>
       <c r="H83" t="n">
-        <v>1408.454536333064</v>
+        <v>1572.829843583255</v>
       </c>
       <c r="I83" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="J83" t="n">
-        <v>87.98440551757812</v>
+        <v>113.8488998413086</v>
       </c>
       <c r="K83" t="n">
-        <v>-12.81719207763672</v>
+        <v>-2.791107177734375</v>
       </c>
       <c r="L83" t="n">
-        <v>0.4739999999999895</v>
+        <v>0.25</v>
       </c>
       <c r="M83" t="n">
-        <v>-0.0119709073362256</v>
+        <v>-0.01625950345944753</v>
       </c>
       <c r="N83" t="n">
-        <v>-0.02021860189761852</v>
+        <v>0.01995925340034416</v>
       </c>
       <c r="O83" t="n">
-        <v>1268.916177639914</v>
+        <v>1723.507366701439</v>
       </c>
       <c r="P83" t="n">
-        <v>1015.881737522317</v>
+        <v>1172.231412428306</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>1837</v>
+        <v>1736</v>
       </c>
       <c r="B84" t="n">
         <v>16.4</v>
       </c>
       <c r="C84" t="n">
-        <v>33.08399848937989</v>
+        <v>37.08000068664551</v>
       </c>
       <c r="D84" t="n">
-        <v>7147</v>
+        <v>6947</v>
       </c>
       <c r="E84" t="n">
         <v>47</v>
@@ -4630,48 +4630,48 @@
         <v>4447</v>
       </c>
       <c r="G84" t="n">
-        <v>153.91</v>
+        <v>153.075</v>
       </c>
       <c r="H84" t="n">
-        <v>1385.905178974304</v>
+        <v>1523.672739515615</v>
       </c>
       <c r="I84" t="n">
         <v>47</v>
       </c>
       <c r="J84" t="n">
-        <v>84.45609283447266</v>
+        <v>106.0900039672852</v>
       </c>
       <c r="K84" t="n">
-        <v>-3.528312683105469</v>
+        <v>-7.758895874023438</v>
       </c>
       <c r="L84" t="n">
-        <v>0.2369999999999948</v>
+        <v>0.3009999999999877</v>
       </c>
       <c r="M84" t="n">
-        <v>-0.01062985317992217</v>
+        <v>-0.01631495472130048</v>
       </c>
       <c r="N84" t="n">
-        <v>0.009132161339904668</v>
+        <v>-0.02327187501470378</v>
       </c>
       <c r="O84" t="n">
-        <v>1126.764437071751</v>
+        <v>1729.385200457851</v>
       </c>
       <c r="P84" t="n">
-        <v>994.5648185043473</v>
+        <v>1125.315265195763</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>1865</v>
+        <v>1763</v>
       </c>
       <c r="B85" t="n">
         <v>16.6</v>
       </c>
       <c r="C85" t="n">
-        <v>32.6879997253418</v>
+        <v>36.1439998626709</v>
       </c>
       <c r="D85" t="n">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="E85" t="n">
         <v>53</v>
@@ -4680,484 +4680,684 @@
         <v>4500</v>
       </c>
       <c r="G85" t="n">
-        <v>154.063</v>
+        <v>153.199</v>
       </c>
       <c r="H85" t="n">
-        <v>1373.045292818488</v>
+        <v>1490.097421226529</v>
       </c>
       <c r="I85" t="n">
         <v>53</v>
       </c>
       <c r="J85" t="n">
-        <v>82.44639587402344</v>
+        <v>100.8015975952148</v>
       </c>
       <c r="K85" t="n">
-        <v>-2.009696960449219</v>
+        <v>-5.288406372070312</v>
       </c>
       <c r="L85" t="n">
-        <v>0.1529999999999916</v>
+        <v>0.1240000000000236</v>
       </c>
       <c r="M85" t="n">
-        <v>-0.009400749926598008</v>
+        <v>-0.01661503164521207</v>
       </c>
       <c r="N85" t="n">
-        <v>0.007757041846953213</v>
+        <v>-0.02823808076178415</v>
       </c>
       <c r="O85" t="n">
-        <v>996.4794922193889</v>
+        <v>1761.193354392479</v>
       </c>
       <c r="P85" t="n">
-        <v>982.4243555730511</v>
+        <v>1093.344012995173</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>1893</v>
+        <v>1810</v>
       </c>
       <c r="B86" t="n">
         <v>16.8</v>
       </c>
       <c r="C86" t="n">
-        <v>31.31999931335449</v>
+        <v>33.76800041198731</v>
       </c>
       <c r="D86" t="n">
-        <v>7250</v>
+        <v>7100</v>
       </c>
       <c r="E86" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F86" t="n">
-        <v>4550</v>
+        <v>4600</v>
       </c>
       <c r="G86" t="n">
-        <v>154.267</v>
+        <v>153.673</v>
       </c>
       <c r="H86" t="n">
-        <v>1329.719945753676</v>
+        <v>1408.454536333064</v>
       </c>
       <c r="I86" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J86" t="n">
-        <v>75.68999481201172</v>
+        <v>87.98440551757812</v>
       </c>
       <c r="K86" t="n">
-        <v>-6.756401062011719</v>
+        <v>-12.81719207763672</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2040000000000077</v>
+        <v>0.4739999999999895</v>
       </c>
       <c r="M86" t="n">
-        <v>-0.009812165927096215</v>
+        <v>-0.01651815452444212</v>
       </c>
       <c r="N86" t="n">
-        <v>-0.02980476533709689</v>
+        <v>-0.02021860189761852</v>
       </c>
       <c r="O86" t="n">
-        <v>1040.089588272199</v>
+        <v>1750.924379590865</v>
       </c>
       <c r="P86" t="n">
-        <v>941.6176469988477</v>
+        <v>1015.881737522317</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>1922</v>
+        <v>1837</v>
       </c>
       <c r="B87" t="n">
         <v>17</v>
       </c>
       <c r="C87" t="n">
-        <v>30.52799835205078</v>
+        <v>33.08399848937989</v>
       </c>
       <c r="D87" t="n">
-        <v>7300</v>
+        <v>7147</v>
       </c>
       <c r="E87" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F87" t="n">
-        <v>4600</v>
+        <v>4647</v>
       </c>
       <c r="G87" t="n">
-        <v>154.443</v>
+        <v>153.91</v>
       </c>
       <c r="H87" t="n">
-        <v>1305.41654059729</v>
+        <v>1385.905178974304</v>
       </c>
       <c r="I87" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J87" t="n">
-        <v>71.91039276123047</v>
+        <v>84.45609283447266</v>
       </c>
       <c r="K87" t="n">
-        <v>-3.77960205078125</v>
+        <v>-3.528312683105469</v>
       </c>
       <c r="L87" t="n">
-        <v>0.1760000000000161</v>
+        <v>0.2369999999999948</v>
       </c>
       <c r="M87" t="n">
-        <v>-0.009179568769968451</v>
+        <v>-0.01501412811970608</v>
       </c>
       <c r="N87" t="n">
-        <v>-0.005219416734224609</v>
+        <v>0.009132161339904668</v>
       </c>
       <c r="O87" t="n">
-        <v>973.0342896166558</v>
+        <v>1591.497580688845</v>
       </c>
       <c r="P87" t="n">
-        <v>918.7960444934561</v>
+        <v>994.5648185043473</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>1953</v>
+        <v>1865</v>
       </c>
       <c r="B88" t="n">
         <v>17.2</v>
       </c>
       <c r="C88" t="n">
-        <v>29.9879997253418</v>
+        <v>32.6879997253418</v>
       </c>
       <c r="D88" t="n">
-        <v>7348</v>
+        <v>7200</v>
       </c>
       <c r="E88" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F88" t="n">
-        <v>4648</v>
+        <v>4700</v>
       </c>
       <c r="G88" t="n">
-        <v>154.553</v>
+        <v>154.063</v>
       </c>
       <c r="H88" t="n">
-        <v>1289.17393183848</v>
+        <v>1373.045292818488</v>
       </c>
       <c r="I88" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J88" t="n">
-        <v>69.38890075683594</v>
+        <v>82.44639587402344</v>
       </c>
       <c r="K88" t="n">
-        <v>-2.521492004394531</v>
+        <v>-2.009696960449219</v>
       </c>
       <c r="L88" t="n">
-        <v>0.1099999999999852</v>
+        <v>0.1529999999999916</v>
       </c>
       <c r="M88" t="n">
-        <v>-0.008565640347742773</v>
+        <v>-0.01363304835028855</v>
       </c>
       <c r="N88" t="n">
-        <v>-0.005056815297351543</v>
+        <v>0.007757041846953213</v>
       </c>
       <c r="O88" t="n">
-        <v>907.9578768607339</v>
+        <v>1445.103125130586</v>
       </c>
       <c r="P88" t="n">
-        <v>903.5736923495404</v>
+        <v>982.4243555730511</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>1980</v>
+        <v>1893</v>
       </c>
       <c r="B89" t="n">
         <v>17.4</v>
       </c>
       <c r="C89" t="n">
-        <v>29.4120002746582</v>
+        <v>31.31999931335449</v>
       </c>
       <c r="D89" t="n">
-        <v>7400</v>
+        <v>7250</v>
       </c>
       <c r="E89" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F89" t="n">
-        <v>4700</v>
+        <v>4750</v>
       </c>
       <c r="G89" t="n">
-        <v>154.574</v>
+        <v>154.267</v>
       </c>
       <c r="H89" t="n">
-        <v>1272.141436849948</v>
+        <v>1329.719945753676</v>
       </c>
       <c r="I89" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J89" t="n">
-        <v>66.7489013671875</v>
+        <v>75.68999481201172</v>
       </c>
       <c r="K89" t="n">
-        <v>-2.639999389648438</v>
+        <v>-6.756401062011719</v>
       </c>
       <c r="L89" t="n">
-        <v>0.02100000000001501</v>
+        <v>0.2040000000000077</v>
       </c>
       <c r="M89" t="n">
-        <v>-0.008657487834852588</v>
+        <v>-0.0140868153322642</v>
       </c>
       <c r="N89" t="n">
-        <v>-0.02164712765808281</v>
+        <v>-0.02980476533709689</v>
       </c>
       <c r="O89" t="n">
-        <v>917.6937104943743</v>
+        <v>1493.202425220005</v>
       </c>
       <c r="P89" t="n">
-        <v>887.6383565066753</v>
+        <v>941.6176469988477</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>2013</v>
+        <v>1922</v>
       </c>
       <c r="B90" t="n">
         <v>17.6</v>
       </c>
       <c r="C90" t="n">
-        <v>28.54799938201904</v>
+        <v>30.52799835205078</v>
       </c>
       <c r="D90" t="n">
-        <v>7446</v>
+        <v>7300</v>
       </c>
       <c r="E90" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F90" t="n">
-        <v>4746</v>
+        <v>4800</v>
       </c>
       <c r="G90" t="n">
-        <v>154.68</v>
+        <v>154.443</v>
       </c>
       <c r="H90" t="n">
-        <v>1247.159707572171</v>
+        <v>1305.41654059729</v>
       </c>
       <c r="I90" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J90" t="n">
-        <v>62.8848991394043</v>
+        <v>71.91039276123047</v>
       </c>
       <c r="K90" t="n">
-        <v>-3.864002227783203</v>
+        <v>-3.77960205078125</v>
       </c>
       <c r="L90" t="n">
-        <v>0.1059999999999945</v>
+        <v>0.1760000000000161</v>
       </c>
       <c r="M90" t="n">
-        <v>-0.008708678498473508</v>
+        <v>-0.01337068936901946</v>
       </c>
       <c r="N90" t="n">
-        <v>-0.02067393725851418</v>
+        <v>-0.005219416734224609</v>
       </c>
       <c r="O90" t="n">
-        <v>923.1199208381918</v>
+        <v>1417.293073116062</v>
       </c>
       <c r="P90" t="n">
-        <v>864.3195635302529</v>
+        <v>918.7960444934561</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>2069</v>
+        <v>1953</v>
       </c>
       <c r="B91" t="n">
         <v>17.8</v>
       </c>
       <c r="C91" t="n">
-        <v>27</v>
+        <v>29.9879997253418</v>
       </c>
       <c r="D91" t="n">
-        <v>7600</v>
+        <v>7348</v>
       </c>
       <c r="E91" t="n">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="F91" t="n">
-        <v>4900</v>
+        <v>4848</v>
       </c>
       <c r="G91" t="n">
-        <v>154.94</v>
+        <v>154.553</v>
       </c>
       <c r="H91" t="n">
-        <v>1204.10262</v>
+        <v>1289.17393183848</v>
       </c>
       <c r="I91" t="n">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="J91" t="n">
-        <v>56.25</v>
+        <v>69.38890075683594</v>
       </c>
       <c r="K91" t="n">
-        <v>-6.634899139404297</v>
+        <v>-2.521492004394531</v>
       </c>
       <c r="L91" t="n">
-        <v>0.2599999999999909</v>
+        <v>0.1099999999999852</v>
       </c>
       <c r="M91" t="n">
-        <v>-0.008166529838120129</v>
+        <v>-0.0126754506653163</v>
       </c>
       <c r="N91" t="n">
-        <v>-0.005917033471479823</v>
+        <v>-0.005056815297351543</v>
       </c>
       <c r="O91" t="n">
-        <v>865.6521628407337</v>
+        <v>1343.597770523528</v>
       </c>
       <c r="P91" t="n">
-        <v>824.2935</v>
+        <v>903.5736923495404</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>2144</v>
+        <v>1980</v>
       </c>
       <c r="B92" t="n">
         <v>18</v>
       </c>
       <c r="C92" t="n">
-        <v>24.62400054931641</v>
+        <v>29.4120002746582</v>
       </c>
       <c r="D92" t="n">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="E92" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F92" t="n">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G92" t="n">
-        <v>155.24</v>
+        <v>154.574</v>
       </c>
       <c r="H92" t="n">
-        <v>1142.264414055019</v>
+        <v>1272.141436849948</v>
       </c>
       <c r="I92" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="J92" t="n">
-        <v>46.78560256958008</v>
+        <v>66.7489013671875</v>
       </c>
       <c r="K92" t="n">
-        <v>-9.464397430419922</v>
+        <v>-2.639999389648438</v>
       </c>
       <c r="L92" t="n">
-        <v>0.3000000000000114</v>
+        <v>0.02100000000001501</v>
       </c>
       <c r="M92" t="n">
-        <v>-0.008188757199944441</v>
+        <v>-0.01277847470260237</v>
       </c>
       <c r="N92" t="n">
-        <v>-0.01955783620870233</v>
+        <v>-0.02164712765808281</v>
       </c>
       <c r="O92" t="n">
-        <v>868.0082631941108</v>
+        <v>1354.518318475851</v>
       </c>
       <c r="P92" t="n">
-        <v>767.2364139479355</v>
+        <v>887.6383565066753</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>2215</v>
+        <v>2013</v>
       </c>
       <c r="B93" t="n">
         <v>18.2</v>
       </c>
       <c r="C93" t="n">
-        <v>24.3</v>
+        <v>28.54799938201904</v>
       </c>
       <c r="D93" t="n">
-        <v>7800</v>
+        <v>7446</v>
       </c>
       <c r="E93" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="F93" t="n">
-        <v>5100</v>
+        <v>4946</v>
       </c>
       <c r="G93" t="n">
-        <v>155.39</v>
+        <v>154.68</v>
       </c>
       <c r="H93" t="n">
-        <v>1134.2306322</v>
+        <v>1247.159707572171</v>
       </c>
       <c r="I93" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="J93" t="n">
-        <v>45.5625</v>
+        <v>62.8848991394043</v>
       </c>
       <c r="K93" t="n">
-        <v>-1.223102569580078</v>
+        <v>-3.864002227783203</v>
       </c>
       <c r="L93" t="n">
-        <v>0.1499999999999773</v>
+        <v>0.1059999999999945</v>
       </c>
       <c r="M93" t="n">
-        <v>-0.007134982501586881</v>
+        <v>-0.01283731965094554</v>
       </c>
       <c r="N93" t="n">
-        <v>0.007766562623795619</v>
+        <v>-0.02067393725851418</v>
       </c>
       <c r="O93" t="n">
-        <v>756.3081451682094</v>
+        <v>1360.755883000227</v>
       </c>
       <c r="P93" t="n">
-        <v>759.8666940000001</v>
+        <v>864.3195635302529</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>2293</v>
+        <v>2069</v>
       </c>
       <c r="B94" t="n">
         <v>18.4</v>
       </c>
       <c r="C94" t="n">
+        <v>27</v>
+      </c>
+      <c r="D94" t="n">
+        <v>7600</v>
+      </c>
+      <c r="E94" t="n">
+        <v>154</v>
+      </c>
+      <c r="F94" t="n">
+        <v>5100</v>
+      </c>
+      <c r="G94" t="n">
+        <v>154.94</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1204.10262</v>
+      </c>
+      <c r="I94" t="n">
+        <v>154</v>
+      </c>
+      <c r="J94" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-6.634899139404297</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.2599999999999909</v>
+      </c>
+      <c r="M94" t="n">
+        <v>-0.01222183261511191</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-0.005917033471479823</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1295.514257201863</v>
+      </c>
+      <c r="P94" t="n">
+        <v>824.2935</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>2144</v>
+      </c>
+      <c r="B95" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C95" t="n">
+        <v>24.62400054931641</v>
+      </c>
+      <c r="D95" t="n">
+        <v>7700</v>
+      </c>
+      <c r="E95" t="n">
+        <v>100</v>
+      </c>
+      <c r="F95" t="n">
+        <v>5200</v>
+      </c>
+      <c r="G95" t="n">
+        <v>155.24</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1142.264414055019</v>
+      </c>
+      <c r="I95" t="n">
+        <v>100</v>
+      </c>
+      <c r="J95" t="n">
+        <v>46.78560256958008</v>
+      </c>
+      <c r="K95" t="n">
+        <v>-9.464397430419922</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.3000000000000114</v>
+      </c>
+      <c r="M95" t="n">
+        <v>-0.0122518463996099</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.01955783620870233</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1298.695718358649</v>
+      </c>
+      <c r="P95" t="n">
+        <v>767.2364139479355</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>2215</v>
+      </c>
+      <c r="B96" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C96" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D96" t="n">
+        <v>7800</v>
+      </c>
+      <c r="E96" t="n">
+        <v>100</v>
+      </c>
+      <c r="F96" t="n">
+        <v>5300</v>
+      </c>
+      <c r="G96" t="n">
+        <v>155.39</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1134.2306322</v>
+      </c>
+      <c r="I96" t="n">
+        <v>100</v>
+      </c>
+      <c r="J96" t="n">
+        <v>45.5625</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-1.223102569580078</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.1499999999999773</v>
+      </c>
+      <c r="M96" t="n">
+        <v>-0.01104795773820617</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.007766562623795619</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1171.083520249854</v>
+      </c>
+      <c r="P96" t="n">
+        <v>759.8666940000001</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>2293</v>
+      </c>
+      <c r="B97" t="n">
+        <v>19</v>
+      </c>
+      <c r="C97" t="n">
         <v>22.82400054931641</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D97" t="n">
         <v>7900</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E97" t="n">
         <v>100</v>
       </c>
-      <c r="F94" t="n">
-        <v>5200</v>
-      </c>
-      <c r="G94" t="n">
+      <c r="F97" t="n">
+        <v>5400</v>
+      </c>
+      <c r="G97" t="n">
         <v>155.51</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H97" t="n">
         <v>1098.843284161696</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I97" t="n">
         <v>100</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J97" t="n">
         <v>40.19560241699219</v>
       </c>
-      <c r="K94" t="n">
+      <c r="K97" t="n">
         <v>-5.366897583007812</v>
       </c>
-      <c r="L94" t="n">
+      <c r="L97" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="M94" t="n">
-        <v>-0.007036738549041307</v>
-      </c>
-      <c r="N94" t="n">
+      <c r="M97" t="n">
+        <v>-0.01094388230024899</v>
+      </c>
+      <c r="N97" t="n">
         <v>-0.01572882753768015</v>
       </c>
-      <c r="O94" t="n">
-        <v>745.8942861983785</v>
-      </c>
-      <c r="P94" t="n">
+      <c r="O97" t="n">
+        <v>1160.051523826393</v>
+      </c>
+      <c r="P97" t="n">
         <v>727.5412275792833</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>2371</v>
+      </c>
+      <c r="B98" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C98" t="n">
+        <v>21.3120002746582</v>
+      </c>
+      <c r="D98" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E98" t="n">
+        <v>100</v>
+      </c>
+      <c r="F98" t="n">
+        <v>5500</v>
+      </c>
+      <c r="G98" t="n">
+        <v>155.66</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1064.651958589972</v>
+      </c>
+      <c r="I98" t="n">
+        <v>100</v>
+      </c>
+      <c r="J98" t="n">
+        <v>35.04640197753906</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-5.149200439453125</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.1500000000000057</v>
+      </c>
+      <c r="M98" t="n">
+        <v>-0.01067453628240872</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-0.01186392672556699</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1131.500845935324</v>
+      </c>
+      <c r="P98" t="n">
+        <v>696.5489021772075</v>
       </c>
     </row>
   </sheetData>

--- a/temp/0042_results.xlsx
+++ b/temp/0042_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P98"/>
+  <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,4852 +512,4702 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>90.72000274658204</v>
+        <v>89.9639991760254</v>
       </c>
       <c r="D2" t="n">
-        <v>2645</v>
+        <v>2755</v>
       </c>
       <c r="E2" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F2" t="n">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="G2" t="n">
-        <v>137.733</v>
+        <v>138.079</v>
       </c>
       <c r="H2" t="n">
-        <v>4782.071438343553</v>
+        <v>4717.925174661249</v>
       </c>
       <c r="I2" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J2" t="n">
-        <v>635.0400390625</v>
+        <v>624.5000610351562</v>
       </c>
       <c r="K2" t="n">
-        <v>-14.7000732421875</v>
+        <v>-5.50994873046875</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3019999999999925</v>
+        <v>0.1450000000000102</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.02973834189113806</v>
+        <v>-0.04992070614303831</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1012247131731541</v>
+        <v>-0.02569164369036599</v>
       </c>
       <c r="O2" t="n">
-        <v>3152.264240460634</v>
+        <v>5291.594851162061</v>
       </c>
       <c r="P2" t="n">
-        <v>4332.246170032252</v>
+        <v>4268.272764368978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="B3" t="n">
         <v>0.2</v>
       </c>
       <c r="C3" t="n">
-        <v>90.36000137329101</v>
+        <v>89.10000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F3" t="n">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="G3" t="n">
-        <v>137.934</v>
+        <v>138.253</v>
       </c>
       <c r="H3" t="n">
-        <v>4751.460649633114</v>
+        <v>4645.253521800001</v>
       </c>
       <c r="I3" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J3" t="n">
-        <v>630.010009765625</v>
+        <v>612.5625</v>
       </c>
       <c r="K3" t="n">
-        <v>-5.030029296875</v>
+        <v>-11.93756103515625</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2009999999999934</v>
+        <v>0.1739999999999782</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.02615010618747723</v>
+        <v>-0.06133337282482081</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.01190575518600025</v>
+        <v>-0.09685466139691878</v>
       </c>
       <c r="O3" t="n">
-        <v>2771.911255872586</v>
+        <v>6501.337519431006</v>
       </c>
       <c r="P3" t="n">
-        <v>4301.715724391798</v>
+        <v>4195.818006</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="B4" t="n">
         <v>0.4</v>
       </c>
       <c r="C4" t="n">
-        <v>89.9639991760254</v>
+        <v>88.84800109863282</v>
       </c>
       <c r="D4" t="n">
-        <v>2755</v>
+        <v>2848</v>
       </c>
       <c r="E4" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F4" t="n">
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="G4" t="n">
-        <v>138.079</v>
+        <v>138.494</v>
       </c>
       <c r="H4" t="n">
-        <v>4717.925174661249</v>
+        <v>4624.18587438299</v>
       </c>
       <c r="I4" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J4" t="n">
-        <v>624.5000610351562</v>
+        <v>609.1024169921875</v>
       </c>
       <c r="K4" t="n">
-        <v>-5.50994873046875</v>
+        <v>-3.4600830078125</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1450000000000102</v>
+        <v>0.2410000000000139</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.02662316819069582</v>
+        <v>-0.04498889275755392</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.02569164369036599</v>
+        <v>0.01042386017805643</v>
       </c>
       <c r="O4" t="n">
-        <v>2822.055828213757</v>
+        <v>4768.822632300716</v>
       </c>
       <c r="P4" t="n">
-        <v>4268.272764368978</v>
+        <v>4174.817505863703</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="B5" t="n">
         <v>0.6000000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>89.10000000000001</v>
+        <v>88.09199752807618</v>
       </c>
       <c r="D5" t="n">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E5" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F5" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="G5" t="n">
-        <v>138.253</v>
+        <v>138.64</v>
       </c>
       <c r="H5" t="n">
-        <v>4645.253521800001</v>
+        <v>4561.329686811219</v>
       </c>
       <c r="I5" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J5" t="n">
-        <v>612.5625</v>
+        <v>598.7808837890625</v>
       </c>
       <c r="K5" t="n">
-        <v>-11.93756103515625</v>
+        <v>-10.321533203125</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1739999999999782</v>
+        <v>0.1459999999999866</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0435025831047366</v>
+        <v>-0.05048659088973016</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.09685466139691878</v>
+        <v>-0.0732611138907181</v>
       </c>
       <c r="O5" t="n">
-        <v>4611.273809102079</v>
+        <v>5351.578634311397</v>
       </c>
       <c r="P5" t="n">
-        <v>4195.818006</v>
+        <v>4112.173293542626</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="B6" t="n">
         <v>0.8</v>
       </c>
       <c r="C6" t="n">
-        <v>88.84800109863282</v>
+        <v>87.98400192260742</v>
       </c>
       <c r="D6" t="n">
-        <v>2848</v>
+        <v>2949</v>
       </c>
       <c r="E6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" t="n">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="G6" t="n">
-        <v>138.494</v>
+        <v>138.806</v>
       </c>
       <c r="H6" t="n">
-        <v>4624.18587438299</v>
+        <v>4552.393167198728</v>
       </c>
       <c r="I6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" t="n">
-        <v>609.1024169921875</v>
+        <v>597.3135986328125</v>
       </c>
       <c r="K6" t="n">
-        <v>-3.4600830078125</v>
+        <v>-1.46728515625</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2410000000000139</v>
+        <v>0.1660000000000252</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.03301329704530723</v>
+        <v>-0.03434806283707116</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01042386017805643</v>
+        <v>0.01638041715802363</v>
       </c>
       <c r="O6" t="n">
-        <v>3499.409486802567</v>
+        <v>3640.894660729543</v>
       </c>
       <c r="P6" t="n">
-        <v>4174.817505863703</v>
+        <v>4103.268344251744</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>88.09199752807618</v>
+        <v>87.44400329589844</v>
       </c>
       <c r="D7" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E7" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" t="n">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="G7" t="n">
-        <v>138.64</v>
+        <v>138.985</v>
       </c>
       <c r="H7" t="n">
-        <v>4561.329686811219</v>
+        <v>4507.8683492735</v>
       </c>
       <c r="I7" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J7" t="n">
-        <v>598.7808837890625</v>
+        <v>590.004150390625</v>
       </c>
       <c r="K7" t="n">
-        <v>-10.321533203125</v>
+        <v>-7.3094482421875</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1459999999999866</v>
+        <v>0.179000000000002</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.04343705467749233</v>
+        <v>-0.03343554724432145</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.0732611138907181</v>
+        <v>-0.03917901532296254</v>
       </c>
       <c r="O7" t="n">
-        <v>4604.327795814187</v>
+        <v>3544.168007898074</v>
       </c>
       <c r="P7" t="n">
-        <v>4112.173293542626</v>
+        <v>4058.906219795419</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="B8" t="n">
         <v>1.2</v>
       </c>
       <c r="C8" t="n">
-        <v>87.98400192260742</v>
+        <v>86.90399780273438</v>
       </c>
       <c r="D8" t="n">
-        <v>2949</v>
+        <v>3047</v>
       </c>
       <c r="E8" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" t="n">
-        <v>449</v>
+        <v>402</v>
       </c>
       <c r="G8" t="n">
-        <v>138.806</v>
+        <v>139.158</v>
       </c>
       <c r="H8" t="n">
-        <v>4552.393167198728</v>
+        <v>4463.60877979846</v>
       </c>
       <c r="I8" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J8" t="n">
-        <v>597.3135986328125</v>
+        <v>582.7395629882812</v>
       </c>
       <c r="K8" t="n">
-        <v>-1.46728515625</v>
+        <v>-7.26458740234375</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1660000000000252</v>
+        <v>0.1729999999999734</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.03073702141428856</v>
+        <v>-0.03393563287028669</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01638041715802363</v>
+        <v>-0.04321760986034621</v>
       </c>
       <c r="O8" t="n">
-        <v>3258.124269914587</v>
+        <v>3597.177084250389</v>
       </c>
       <c r="P8" t="n">
-        <v>4103.268344251744</v>
+        <v>4014.817405794777</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>563</v>
+        <v>584</v>
       </c>
       <c r="B9" t="n">
         <v>1.4</v>
       </c>
       <c r="C9" t="n">
-        <v>87.44400329589844</v>
+        <v>87.15599670410157</v>
       </c>
       <c r="D9" t="n">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E9" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F9" t="n">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="G9" t="n">
-        <v>138.985</v>
+        <v>139.218</v>
       </c>
       <c r="H9" t="n">
-        <v>4507.8683492735</v>
+        <v>4484.22986609994</v>
       </c>
       <c r="I9" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J9" t="n">
-        <v>590.004150390625</v>
+        <v>586.1240844726562</v>
       </c>
       <c r="K9" t="n">
-        <v>-7.3094482421875</v>
+        <v>3.384521484375</v>
       </c>
       <c r="L9" t="n">
-        <v>0.179000000000002</v>
+        <v>0.06000000000000227</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0329686295893079</v>
+        <v>-0.01395579711981472</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.03917901532296254</v>
+        <v>0.04240648605764992</v>
       </c>
       <c r="O9" t="n">
-        <v>3494.674736466637</v>
+        <v>1479.31449470036</v>
       </c>
       <c r="P9" t="n">
-        <v>4058.906219795419</v>
+        <v>4035.357804347299</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="B10" t="n">
         <v>1.6</v>
       </c>
       <c r="C10" t="n">
-        <v>86.90399780273438</v>
+        <v>85.35599670410157</v>
       </c>
       <c r="D10" t="n">
-        <v>3047</v>
+        <v>3148</v>
       </c>
       <c r="E10" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" t="n">
-        <v>547</v>
+        <v>503</v>
       </c>
       <c r="G10" t="n">
-        <v>139.158</v>
+        <v>139.488</v>
       </c>
       <c r="H10" t="n">
-        <v>4463.60877979846</v>
+        <v>4338.205736659878</v>
       </c>
       <c r="I10" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J10" t="n">
-        <v>582.7395629882812</v>
+        <v>562.1640625</v>
       </c>
       <c r="K10" t="n">
-        <v>-7.26458740234375</v>
+        <v>-23.96002197265625</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1729999999999734</v>
+        <v>0.2700000000000102</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.03580185299414405</v>
+        <v>-0.05426068922685449</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.04321760986034621</v>
+        <v>-0.1975257791962994</v>
       </c>
       <c r="O10" t="n">
-        <v>3794.996417379269</v>
+        <v>5751.633058046576</v>
       </c>
       <c r="P10" t="n">
-        <v>4014.817405794777</v>
+        <v>3889.948526559213</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>584</v>
+        <v>615</v>
       </c>
       <c r="B11" t="n">
         <v>1.8</v>
       </c>
       <c r="C11" t="n">
-        <v>87.15599670410157</v>
+        <v>85.5</v>
       </c>
       <c r="D11" t="n">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E11" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" t="n">
-        <v>600</v>
+        <v>555</v>
       </c>
       <c r="G11" t="n">
-        <v>139.218</v>
+        <v>139.661</v>
       </c>
       <c r="H11" t="n">
-        <v>4484.22986609994</v>
+        <v>4349.779245</v>
       </c>
       <c r="I11" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11" t="n">
-        <v>586.1240844726562</v>
+        <v>564.0625</v>
       </c>
       <c r="K11" t="n">
-        <v>3.384521484375</v>
+        <v>1.8984375</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06000000000000227</v>
+        <v>0.1730000000000018</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.01822785876782764</v>
+        <v>-0.03111516057608883</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04240648605764992</v>
+        <v>0.04904393822568973</v>
       </c>
       <c r="O11" t="n">
-        <v>1932.15302938973</v>
+        <v>3298.207021065416</v>
       </c>
       <c r="P11" t="n">
-        <v>4035.357804347299</v>
+        <v>3901.46955</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>604</v>
+        <v>626</v>
       </c>
       <c r="B12" t="n">
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>85.35599670410157</v>
+        <v>84.42000274658203</v>
       </c>
       <c r="D12" t="n">
-        <v>3148</v>
+        <v>3249</v>
       </c>
       <c r="E12" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12" t="n">
-        <v>648</v>
+        <v>604</v>
       </c>
       <c r="G12" t="n">
-        <v>139.488</v>
+        <v>139.861</v>
       </c>
       <c r="H12" t="n">
-        <v>4338.205736659878</v>
+        <v>4263.440874610405</v>
       </c>
       <c r="I12" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J12" t="n">
-        <v>562.1640625</v>
+        <v>549.9025268554688</v>
       </c>
       <c r="K12" t="n">
-        <v>-23.96002197265625</v>
+        <v>-14.15997314453125</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2700000000000102</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.05770838441497434</v>
+        <v>-0.04689085556472919</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1975257791962994</v>
+        <v>-0.1067151668579452</v>
       </c>
       <c r="O12" t="n">
-        <v>6117.08874798728</v>
+        <v>4970.430689861294</v>
       </c>
       <c r="P12" t="n">
-        <v>3889.948526559213</v>
+        <v>3815.538776580835</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>615</v>
+        <v>636</v>
       </c>
       <c r="B13" t="n">
         <v>2.2</v>
       </c>
       <c r="C13" t="n">
-        <v>85.5</v>
+        <v>83.91599807739259</v>
       </c>
       <c r="D13" t="n">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E13" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" t="n">
-        <v>700</v>
+        <v>655</v>
       </c>
       <c r="G13" t="n">
-        <v>139.661</v>
+        <v>139.985</v>
       </c>
       <c r="H13" t="n">
-        <v>4349.779245</v>
+        <v>4223.513028754098</v>
       </c>
       <c r="I13" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13" t="n">
-        <v>564.0625</v>
+        <v>543.3560791015625</v>
       </c>
       <c r="K13" t="n">
-        <v>1.8984375</v>
+        <v>-6.54644775390625</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1730000000000018</v>
+        <v>0.1240000000000236</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.03682574708613158</v>
+        <v>-0.04593000446455546</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04904393822568973</v>
+        <v>-0.04167919551553977</v>
       </c>
       <c r="O13" t="n">
-        <v>3903.529191129947</v>
+        <v>4868.580473242879</v>
       </c>
       <c r="P13" t="n">
-        <v>3901.46955</v>
+        <v>3775.8121780091</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>626</v>
+        <v>647</v>
       </c>
       <c r="B14" t="n">
         <v>2.4</v>
       </c>
       <c r="C14" t="n">
-        <v>84.42000274658203</v>
+        <v>83.7</v>
       </c>
       <c r="D14" t="n">
-        <v>3249</v>
+        <v>3348</v>
       </c>
       <c r="E14" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" t="n">
-        <v>749</v>
+        <v>703</v>
       </c>
       <c r="G14" t="n">
-        <v>139.861</v>
+        <v>140.122</v>
       </c>
       <c r="H14" t="n">
-        <v>4263.440874610405</v>
+        <v>4206.472288200001</v>
       </c>
       <c r="I14" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J14" t="n">
-        <v>549.9025268554688</v>
+        <v>540.5625</v>
       </c>
       <c r="K14" t="n">
-        <v>-14.15997314453125</v>
+        <v>-2.7935791015625</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1999999999999886</v>
+        <v>0.1370000000000005</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.05208660320491321</v>
+        <v>-0.03689276609007634</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.1067151668579452</v>
+        <v>-0.002685277590961488</v>
       </c>
       <c r="O14" t="n">
-        <v>5521.179939720801</v>
+        <v>3910.633205548093</v>
       </c>
       <c r="P14" t="n">
-        <v>3815.538776580835</v>
+        <v>3758.859834</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>636</v>
+        <v>658</v>
       </c>
       <c r="B15" t="n">
         <v>2.6</v>
       </c>
       <c r="C15" t="n">
-        <v>83.91599807739259</v>
+        <v>83.05199890136718</v>
       </c>
       <c r="D15" t="n">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E15" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F15" t="n">
-        <v>800</v>
+        <v>755</v>
       </c>
       <c r="G15" t="n">
-        <v>139.985</v>
+        <v>140.259</v>
       </c>
       <c r="H15" t="n">
-        <v>4223.513028754098</v>
+        <v>4155.60470347177</v>
       </c>
       <c r="I15" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J15" t="n">
-        <v>543.3560791015625</v>
+        <v>532.2249145507812</v>
       </c>
       <c r="K15" t="n">
-        <v>-6.54644775390625</v>
+        <v>-8.33758544921875</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1240000000000236</v>
+        <v>0.136999999999972</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.05163188855021991</v>
+        <v>-0.04010472935998667</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.04167919551553977</v>
+        <v>-0.05578647111912576</v>
       </c>
       <c r="O15" t="n">
-        <v>5472.98018632331</v>
+        <v>4251.101312158587</v>
       </c>
       <c r="P15" t="n">
-        <v>3775.8121780091</v>
+        <v>3708.26517915362</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>647</v>
+        <v>669</v>
       </c>
       <c r="B16" t="n">
         <v>2.8</v>
       </c>
       <c r="C16" t="n">
-        <v>83.7</v>
+        <v>82.83600082397462</v>
       </c>
       <c r="D16" t="n">
-        <v>3348</v>
+        <v>3450</v>
       </c>
       <c r="E16" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>848</v>
+        <v>805</v>
       </c>
       <c r="G16" t="n">
-        <v>140.122</v>
+        <v>140.388</v>
       </c>
       <c r="H16" t="n">
-        <v>4206.472288200001</v>
+        <v>4138.734080214655</v>
       </c>
       <c r="I16" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J16" t="n">
-        <v>540.5625</v>
+        <v>529.4600830078125</v>
       </c>
       <c r="K16" t="n">
-        <v>-2.7935791015625</v>
+        <v>-2.76483154296875</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1370000000000005</v>
+        <v>0.1290000000000191</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04355433585761116</v>
+        <v>-0.03266859311248248</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.002685277590961488</v>
+        <v>-0.003771145618363212</v>
       </c>
       <c r="O16" t="n">
-        <v>4616.759600906783</v>
+        <v>3462.870869923143</v>
       </c>
       <c r="P16" t="n">
-        <v>3758.859834</v>
+        <v>3691.488110678029</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>658</v>
+        <v>679</v>
       </c>
       <c r="B17" t="n">
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>83.05199890136718</v>
+        <v>82.4759994506836</v>
       </c>
       <c r="D17" t="n">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E17" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F17" t="n">
-        <v>900</v>
+        <v>855</v>
       </c>
       <c r="G17" t="n">
-        <v>140.259</v>
+        <v>140.546</v>
       </c>
       <c r="H17" t="n">
-        <v>4155.60470347177</v>
+        <v>4110.710528059029</v>
       </c>
       <c r="I17" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J17" t="n">
-        <v>532.2249145507812</v>
+        <v>524.8681030273438</v>
       </c>
       <c r="K17" t="n">
-        <v>-8.33758544921875</v>
+        <v>-4.59197998046875</v>
       </c>
       <c r="L17" t="n">
-        <v>0.136999999999972</v>
+        <v>0.157999999999987</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.04665419834202311</v>
+        <v>-0.02882782054157452</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.05578647111912576</v>
+        <v>-0.01667489414431254</v>
       </c>
       <c r="O17" t="n">
-        <v>4945.34502425445</v>
+        <v>3055.748977406899</v>
       </c>
       <c r="P17" t="n">
-        <v>3708.26517915362</v>
+        <v>3663.623350864379</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>669</v>
+        <v>691</v>
       </c>
       <c r="B18" t="n">
         <v>3.2</v>
       </c>
       <c r="C18" t="n">
-        <v>82.83600082397462</v>
+        <v>81.75599670410156</v>
       </c>
       <c r="D18" t="n">
-        <v>3450</v>
+        <v>3548</v>
       </c>
       <c r="E18" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" t="n">
-        <v>950</v>
+        <v>903</v>
       </c>
       <c r="G18" t="n">
-        <v>140.388</v>
+        <v>140.682</v>
       </c>
       <c r="H18" t="n">
-        <v>4138.734080214655</v>
+        <v>4055.01784097975</v>
       </c>
       <c r="I18" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J18" t="n">
-        <v>529.4600830078125</v>
+        <v>515.7440795898438</v>
       </c>
       <c r="K18" t="n">
-        <v>-2.76483154296875</v>
+        <v>-9.1240234375</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1290000000000191</v>
+        <v>0.1359999999999957</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.03985006423745532</v>
+        <v>-0.03502789050596473</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.003771145618363212</v>
+        <v>-0.06882021269408495</v>
       </c>
       <c r="O18" t="n">
-        <v>4224.106809170265</v>
+        <v>3712.956393632261</v>
       </c>
       <c r="P18" t="n">
-        <v>3691.488110678029</v>
+        <v>3608.25899498304</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>679</v>
+        <v>702</v>
       </c>
       <c r="B19" t="n">
         <v>3.4</v>
       </c>
       <c r="C19" t="n">
-        <v>82.4759994506836</v>
+        <v>81.43200302124023</v>
       </c>
       <c r="D19" t="n">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E19" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F19" t="n">
-        <v>1000</v>
+        <v>955</v>
       </c>
       <c r="G19" t="n">
-        <v>140.546</v>
+        <v>140.821</v>
       </c>
       <c r="H19" t="n">
-        <v>4110.710528059029</v>
+        <v>4030.110882817889</v>
       </c>
       <c r="I19" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J19" t="n">
-        <v>524.8681030273438</v>
+        <v>511.6644287109375</v>
       </c>
       <c r="K19" t="n">
-        <v>-4.59197998046875</v>
+        <v>-4.07965087890625</v>
       </c>
       <c r="L19" t="n">
-        <v>0.157999999999987</v>
+        <v>0.13900000000001</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0362600211705449</v>
+        <v>-0.0308956824593821</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.01667489414431254</v>
+        <v>-0.01448884190530142</v>
       </c>
       <c r="O19" t="n">
-        <v>3843.562244077759</v>
+        <v>3274.942340694502</v>
       </c>
       <c r="P19" t="n">
-        <v>3663.623350864379</v>
+        <v>3583.504457006723</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>691</v>
+        <v>713</v>
       </c>
       <c r="B20" t="n">
         <v>3.6</v>
       </c>
       <c r="C20" t="n">
-        <v>81.75599670410156</v>
+        <v>80.74800109863281</v>
       </c>
       <c r="D20" t="n">
-        <v>3548</v>
+        <v>3651</v>
       </c>
       <c r="E20" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F20" t="n">
-        <v>1048</v>
+        <v>1006</v>
       </c>
       <c r="G20" t="n">
-        <v>140.682</v>
+        <v>140.954</v>
       </c>
       <c r="H20" t="n">
-        <v>4055.01784097975</v>
+        <v>3977.842600743084</v>
       </c>
       <c r="I20" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J20" t="n">
-        <v>515.7440795898438</v>
+        <v>503.1049194335938</v>
       </c>
       <c r="K20" t="n">
-        <v>-9.1240234375</v>
+        <v>-8.55950927734375</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1359999999999957</v>
+        <v>0.1330000000000098</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.04190719549436302</v>
+        <v>-0.03495997081887326</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.06882021269408495</v>
+        <v>-0.0597819074545337</v>
       </c>
       <c r="O20" t="n">
-        <v>4442.16272240248</v>
+        <v>3705.756906800566</v>
       </c>
       <c r="P20" t="n">
-        <v>3608.25899498304</v>
+        <v>3531.567486545831</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>702</v>
+        <v>725</v>
       </c>
       <c r="B21" t="n">
         <v>3.8</v>
       </c>
       <c r="C21" t="n">
-        <v>81.43200302124023</v>
+        <v>79.7759994506836</v>
       </c>
       <c r="D21" t="n">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E21" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F21" t="n">
-        <v>1100</v>
+        <v>1055</v>
       </c>
       <c r="G21" t="n">
-        <v>140.821</v>
+        <v>141.118</v>
       </c>
       <c r="H21" t="n">
-        <v>4030.110882817889</v>
+        <v>3904.300344699013</v>
       </c>
       <c r="I21" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J21" t="n">
-        <v>511.6644287109375</v>
+        <v>491.0655822753906</v>
       </c>
       <c r="K21" t="n">
-        <v>-4.07965087890625</v>
+        <v>-12.03933715820312</v>
       </c>
       <c r="L21" t="n">
-        <v>0.13900000000001</v>
+        <v>0.1639999999999873</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.03799412554258972</v>
+        <v>-0.04366771876119974</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.01448884190530142</v>
+        <v>-0.09187540804481673</v>
       </c>
       <c r="O21" t="n">
-        <v>4027.37730751451</v>
+        <v>4628.778188687172</v>
       </c>
       <c r="P21" t="n">
-        <v>3583.504457006723</v>
+        <v>3458.518286417358</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>713</v>
+        <v>735</v>
       </c>
       <c r="B22" t="n">
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>80.74800109863281</v>
+        <v>79.41599807739259</v>
       </c>
       <c r="D22" t="n">
-        <v>3651</v>
+        <v>3752</v>
       </c>
       <c r="E22" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22" t="n">
-        <v>1151</v>
+        <v>1107</v>
       </c>
       <c r="G22" t="n">
-        <v>140.954</v>
+        <v>141.233</v>
       </c>
       <c r="H22" t="n">
-        <v>3977.842600743084</v>
+        <v>3877.280971320672</v>
       </c>
       <c r="I22" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J22" t="n">
-        <v>503.1049194335938</v>
+        <v>486.6435852050781</v>
       </c>
       <c r="K22" t="n">
-        <v>-8.55950927734375</v>
+        <v>-4.4219970703125</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1330000000000098</v>
+        <v>0.1150000000000091</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.04164656329974713</v>
+        <v>-0.04034629329936498</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.0597819074545337</v>
+        <v>-0.02205204004473033</v>
       </c>
       <c r="O22" t="n">
-        <v>4414.535709773195</v>
+        <v>4276.707089732688</v>
       </c>
       <c r="P22" t="n">
-        <v>3531.567486545831</v>
+        <v>3431.688153734808</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>725</v>
+        <v>747</v>
       </c>
       <c r="B23" t="n">
         <v>4.2</v>
       </c>
       <c r="C23" t="n">
-        <v>79.7759994506836</v>
+        <v>79.1639991760254</v>
       </c>
       <c r="D23" t="n">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="E23" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" t="n">
-        <v>1200</v>
+        <v>1155</v>
       </c>
       <c r="G23" t="n">
-        <v>141.118</v>
+        <v>141.32</v>
       </c>
       <c r="H23" t="n">
-        <v>3904.300344699013</v>
+        <v>3858.437856501154</v>
       </c>
       <c r="I23" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J23" t="n">
-        <v>491.0655822753906</v>
+        <v>483.5600891113281</v>
       </c>
       <c r="K23" t="n">
-        <v>-12.03933715820312</v>
+        <v>-3.08349609375</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1639999999999873</v>
+        <v>0.08699999999998909</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.04964446931092469</v>
+        <v>-0.03644622237835168</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.09187540804481673</v>
+        <v>-0.01534557644826272</v>
       </c>
       <c r="O23" t="n">
-        <v>5262.313746958016</v>
+        <v>3863.299572105278</v>
       </c>
       <c r="P23" t="n">
-        <v>3458.518286417358</v>
+        <v>3412.979637686849</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>735</v>
+        <v>758</v>
       </c>
       <c r="B24" t="n">
         <v>4.4</v>
       </c>
       <c r="C24" t="n">
-        <v>79.41599807739259</v>
+        <v>78.62400054931641</v>
       </c>
       <c r="D24" t="n">
-        <v>3752</v>
+        <v>3851</v>
       </c>
       <c r="E24" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" t="n">
-        <v>1252</v>
+        <v>1206</v>
       </c>
       <c r="G24" t="n">
-        <v>141.233</v>
+        <v>141.478</v>
       </c>
       <c r="H24" t="n">
-        <v>3877.280971320672</v>
+        <v>3818.254606854701</v>
       </c>
       <c r="I24" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J24" t="n">
-        <v>486.6435852050781</v>
+        <v>476.985595703125</v>
       </c>
       <c r="K24" t="n">
-        <v>-4.4219970703125</v>
+        <v>-6.574493408203125</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1150000000000091</v>
+        <v>0.1580000000000155</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.04648343016193585</v>
+        <v>-0.03600882699401153</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.02205204004473033</v>
+        <v>-0.03578434158985395</v>
       </c>
       <c r="O24" t="n">
-        <v>4927.243597165199</v>
+        <v>3816.935661365222</v>
       </c>
       <c r="P24" t="n">
-        <v>3431.688153734808</v>
+        <v>3373.090725007506</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="B25" t="n">
         <v>4.600000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>79.1639991760254</v>
+        <v>77.93999862670898</v>
       </c>
       <c r="D25" t="n">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E25" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" t="n">
-        <v>1300</v>
+        <v>1255</v>
       </c>
       <c r="G25" t="n">
-        <v>141.32</v>
+        <v>141.694</v>
       </c>
       <c r="H25" t="n">
-        <v>3858.437856501154</v>
+        <v>3767.737139010705</v>
       </c>
       <c r="I25" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J25" t="n">
-        <v>483.5600891113281</v>
+        <v>468.7224731445312</v>
       </c>
       <c r="K25" t="n">
-        <v>-3.08349609375</v>
+        <v>-8.26312255859375</v>
       </c>
       <c r="L25" t="n">
-        <v>0.08699999999998909</v>
+        <v>0.2159999999999798</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.04274706417297417</v>
+        <v>-0.0367190239444575</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.01534557644826272</v>
+        <v>-0.04352127370148029</v>
       </c>
       <c r="O25" t="n">
-        <v>4531.188802335262</v>
+        <v>3892.216538112496</v>
       </c>
       <c r="P25" t="n">
-        <v>3412.979637686849</v>
+        <v>3322.957656347457</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>758</v>
+        <v>781</v>
       </c>
       <c r="B26" t="n">
         <v>4.800000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>78.62400054931641</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>3851</v>
+        <v>3950</v>
       </c>
       <c r="E26" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" t="n">
-        <v>1351</v>
+        <v>1305</v>
       </c>
       <c r="G26" t="n">
-        <v>141.478</v>
+        <v>141.99</v>
       </c>
       <c r="H26" t="n">
-        <v>3818.254606854701</v>
+        <v>3728.156392800001</v>
       </c>
       <c r="I26" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J26" t="n">
-        <v>476.985595703125</v>
+        <v>462.25</v>
       </c>
       <c r="K26" t="n">
-        <v>-6.574493408203125</v>
+        <v>-6.47247314453125</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1580000000000155</v>
+        <v>0.2960000000000207</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.04221795877282312</v>
+        <v>-0.03278625879978377</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.03578434158985395</v>
+        <v>-0.009936806917006784</v>
       </c>
       <c r="O26" t="n">
-        <v>4475.103629919251</v>
+        <v>3475.34343277708</v>
       </c>
       <c r="P26" t="n">
-        <v>3373.090725007506</v>
+        <v>3283.689516000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>770</v>
+        <v>793</v>
       </c>
       <c r="B27" t="n">
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>77.93999862670898</v>
+        <v>76.75199890136719</v>
       </c>
       <c r="D27" t="n">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E27" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F27" t="n">
-        <v>1400</v>
+        <v>1355</v>
       </c>
       <c r="G27" t="n">
-        <v>141.694</v>
+        <v>142.209</v>
       </c>
       <c r="H27" t="n">
-        <v>3767.737139010705</v>
+        <v>3681.01016692503</v>
       </c>
       <c r="I27" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J27" t="n">
-        <v>468.7224731445312</v>
+        <v>454.5423889160156</v>
       </c>
       <c r="K27" t="n">
-        <v>-8.26312255859375</v>
+        <v>-7.707611083984375</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2159999999999798</v>
+        <v>0.2189999999999941</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.04276027352337985</v>
+        <v>-0.03281399527516564</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.04352127370148029</v>
+        <v>-0.03654045046248635</v>
       </c>
       <c r="O27" t="n">
-        <v>4532.588993478264</v>
+        <v>3478.283499167558</v>
       </c>
       <c r="P27" t="n">
-        <v>3322.957656347457</v>
+        <v>3236.929057734186</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>781</v>
+        <v>806</v>
       </c>
       <c r="B28" t="n">
         <v>5.2</v>
       </c>
       <c r="C28" t="n">
-        <v>77.40000000000001</v>
+        <v>76.10399780273438</v>
       </c>
       <c r="D28" t="n">
-        <v>3950</v>
+        <v>4052</v>
       </c>
       <c r="E28" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F28" t="n">
-        <v>1450</v>
+        <v>1407</v>
       </c>
       <c r="G28" t="n">
-        <v>141.99</v>
+        <v>142.327</v>
       </c>
       <c r="H28" t="n">
-        <v>3728.156392800001</v>
+        <v>3634.246710038206</v>
       </c>
       <c r="I28" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J28" t="n">
-        <v>462.25</v>
+        <v>446.8995666503906</v>
       </c>
       <c r="K28" t="n">
-        <v>-6.47247314453125</v>
+        <v>-7.642822265625</v>
       </c>
       <c r="L28" t="n">
-        <v>0.2960000000000207</v>
+        <v>0.117999999999995</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.03894692997011315</v>
+        <v>-0.03488368709171278</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.009936806917006784</v>
+        <v>-0.05248758709690311</v>
       </c>
       <c r="O28" t="n">
-        <v>4128.374576831995</v>
+        <v>3697.670831721555</v>
       </c>
       <c r="P28" t="n">
-        <v>3283.689516000001</v>
+        <v>3190.562974642433</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>793</v>
+        <v>818</v>
       </c>
       <c r="B29" t="n">
         <v>5.4</v>
       </c>
       <c r="C29" t="n">
-        <v>76.75199890136719</v>
+        <v>75.67200164794922</v>
       </c>
       <c r="D29" t="n">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="E29" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F29" t="n">
-        <v>1500</v>
+        <v>1455</v>
       </c>
       <c r="G29" t="n">
-        <v>142.209</v>
+        <v>142.445</v>
       </c>
       <c r="H29" t="n">
-        <v>3681.01016692503</v>
+        <v>3603.284048745276</v>
       </c>
       <c r="I29" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J29" t="n">
-        <v>454.5423889160156</v>
+        <v>441.8404235839844</v>
       </c>
       <c r="K29" t="n">
-        <v>-7.707611083984375</v>
+        <v>-5.05914306640625</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2189999999999941</v>
+        <v>0.117999999999995</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.03883509375697371</v>
+        <v>-0.03394510198762789</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.03654045046248635</v>
+        <v>-0.02994822769644971</v>
       </c>
       <c r="O29" t="n">
-        <v>4116.519938239214</v>
+        <v>3598.180810688556</v>
       </c>
       <c r="P29" t="n">
-        <v>3236.929057734186</v>
+        <v>3159.871674191149</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>806</v>
+        <v>829</v>
       </c>
       <c r="B30" t="n">
         <v>5.600000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>76.10399780273438</v>
+        <v>75.34800109863282</v>
       </c>
       <c r="D30" t="n">
-        <v>4052</v>
+        <v>4151</v>
       </c>
       <c r="E30" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" t="n">
-        <v>1552</v>
+        <v>1506</v>
       </c>
       <c r="G30" t="n">
-        <v>142.327</v>
+        <v>142.538</v>
       </c>
       <c r="H30" t="n">
-        <v>3634.246710038206</v>
+        <v>3580.173446983148</v>
       </c>
       <c r="I30" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30" t="n">
-        <v>446.8995666503906</v>
+        <v>438.0649108886719</v>
       </c>
       <c r="K30" t="n">
-        <v>-7.642822265625</v>
+        <v>-3.7755126953125</v>
       </c>
       <c r="L30" t="n">
-        <v>0.117999999999995</v>
+        <v>0.09300000000001774</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.04065037821334742</v>
+        <v>-0.03193061894530263</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.05248758709690311</v>
+        <v>-0.02013858173354515</v>
       </c>
       <c r="O30" t="n">
-        <v>4308.940090614827</v>
+        <v>3384.645608202079</v>
       </c>
       <c r="P30" t="n">
-        <v>3190.562974642433</v>
+        <v>3136.967980333918</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>818</v>
+        <v>841</v>
       </c>
       <c r="B31" t="n">
         <v>5.800000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>75.67200164794922</v>
+        <v>74.6639991760254</v>
       </c>
       <c r="D31" t="n">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E31" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F31" t="n">
-        <v>1600</v>
+        <v>1555</v>
       </c>
       <c r="G31" t="n">
-        <v>142.445</v>
+        <v>142.712</v>
       </c>
       <c r="H31" t="n">
-        <v>3603.284048745276</v>
+        <v>3531.698593601115</v>
       </c>
       <c r="I31" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J31" t="n">
-        <v>441.8404235839844</v>
+        <v>430.1475830078125</v>
       </c>
       <c r="K31" t="n">
-        <v>-5.05914306640625</v>
+        <v>-7.917327880859375</v>
       </c>
       <c r="L31" t="n">
-        <v>0.117999999999995</v>
+        <v>0.1739999999999782</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.03964200073600635</v>
+        <v>-0.03337670939555424</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.02994822769644971</v>
+        <v>-0.04792537113699813</v>
       </c>
       <c r="O31" t="n">
-        <v>4202.052078016673</v>
+        <v>3537.931195928749</v>
       </c>
       <c r="P31" t="n">
-        <v>3159.871674191149</v>
+        <v>3088.939461569295</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>829</v>
+        <v>853</v>
       </c>
       <c r="B32" t="n">
         <v>6</v>
       </c>
       <c r="C32" t="n">
-        <v>75.34800109863282</v>
+        <v>74.0879997253418</v>
       </c>
       <c r="D32" t="n">
-        <v>4151</v>
+        <v>4252</v>
       </c>
       <c r="E32" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F32" t="n">
-        <v>1651</v>
+        <v>1607</v>
       </c>
       <c r="G32" t="n">
-        <v>142.538</v>
+        <v>142.852</v>
       </c>
       <c r="H32" t="n">
-        <v>3580.173446983148</v>
+        <v>3491.208605045276</v>
       </c>
       <c r="I32" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J32" t="n">
-        <v>438.0649108886719</v>
+        <v>423.5364074707031</v>
       </c>
       <c r="K32" t="n">
-        <v>-3.7755126953125</v>
+        <v>-6.611175537109375</v>
       </c>
       <c r="L32" t="n">
-        <v>0.09300000000001774</v>
+        <v>0.1400000000000148</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.03761446867163654</v>
+        <v>-0.03363151476975634</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.02013858173354515</v>
+        <v>-0.03865244983069346</v>
       </c>
       <c r="O32" t="n">
-        <v>3987.133679193474</v>
+        <v>3564.940565594172</v>
       </c>
       <c r="P32" t="n">
-        <v>3136.967980333918</v>
+        <v>3048.835362333549</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>841</v>
+        <v>865</v>
       </c>
       <c r="B33" t="n">
         <v>6.2</v>
       </c>
       <c r="C33" t="n">
-        <v>74.6639991760254</v>
+        <v>73.72799835205079</v>
       </c>
       <c r="D33" t="n">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="E33" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" t="n">
-        <v>1700</v>
+        <v>1655</v>
       </c>
       <c r="G33" t="n">
-        <v>142.712</v>
+        <v>143.007</v>
       </c>
       <c r="H33" t="n">
-        <v>3531.698593601115</v>
+        <v>3466.055821878052</v>
       </c>
       <c r="I33" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J33" t="n">
-        <v>430.1475830078125</v>
+        <v>419.4303894042969</v>
       </c>
       <c r="K33" t="n">
-        <v>-7.917327880859375</v>
+        <v>-4.10601806640625</v>
       </c>
       <c r="L33" t="n">
-        <v>0.1739999999999782</v>
+        <v>0.1550000000000011</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.03885518455230925</v>
+        <v>-0.03101561263004886</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.04792537113699813</v>
+        <v>-0.01288599794015922</v>
       </c>
       <c r="O33" t="n">
-        <v>4118.649562544781</v>
+        <v>3287.65493878518</v>
       </c>
       <c r="P33" t="n">
-        <v>3088.939461569295</v>
+        <v>3023.928417950488</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>853</v>
+        <v>877</v>
       </c>
       <c r="B34" t="n">
         <v>6.4</v>
       </c>
       <c r="C34" t="n">
-        <v>74.0879997253418</v>
+        <v>73.22400054931641</v>
       </c>
       <c r="D34" t="n">
-        <v>4252</v>
+        <v>4354</v>
       </c>
       <c r="E34" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F34" t="n">
-        <v>1752</v>
+        <v>1709</v>
       </c>
       <c r="G34" t="n">
-        <v>142.852</v>
+        <v>143.176</v>
       </c>
       <c r="H34" t="n">
-        <v>3491.208605045276</v>
+        <v>3431.040684374734</v>
       </c>
       <c r="I34" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J34" t="n">
-        <v>423.5364074707031</v>
+        <v>413.7156066894531</v>
       </c>
       <c r="K34" t="n">
-        <v>-6.611175537109375</v>
+        <v>-5.71478271484375</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1400000000000148</v>
+        <v>0.1689999999999827</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.03897803865095647</v>
+        <v>-0.02984365453463297</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.03865244983069346</v>
+        <v>-0.0239508182890873</v>
       </c>
       <c r="O34" t="n">
-        <v>4131.672097001386</v>
+        <v>3163.427380671095</v>
       </c>
       <c r="P34" t="n">
-        <v>3048.835362333549</v>
+        <v>2989.26346990155</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>865</v>
+        <v>890</v>
       </c>
       <c r="B35" t="n">
         <v>6.600000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>73.72799835205079</v>
+        <v>72.17999725341797</v>
       </c>
       <c r="D35" t="n">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="E35" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F35" t="n">
-        <v>1800</v>
+        <v>1755</v>
       </c>
       <c r="G35" t="n">
-        <v>143.007</v>
+        <v>143.343</v>
       </c>
       <c r="H35" t="n">
-        <v>3466.055821878052</v>
+        <v>3359.245377298575</v>
       </c>
       <c r="I35" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J35" t="n">
-        <v>419.4303894042969</v>
+        <v>402.0024719238281</v>
       </c>
       <c r="K35" t="n">
-        <v>-4.10601806640625</v>
+        <v>-11.713134765625</v>
       </c>
       <c r="L35" t="n">
-        <v>0.1550000000000011</v>
+        <v>0.1670000000000016</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.03638108015462214</v>
+        <v>-0.03611342680339581</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.01288599794015922</v>
+        <v>-0.09371803580355278</v>
       </c>
       <c r="O35" t="n">
-        <v>3856.394496389947</v>
+        <v>3828.023241159956</v>
       </c>
       <c r="P35" t="n">
-        <v>3023.928417950488</v>
+        <v>2918.215895473352</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>877</v>
+        <v>902</v>
       </c>
       <c r="B36" t="n">
         <v>6.800000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>73.22400054931641</v>
+        <v>71.9639991760254</v>
       </c>
       <c r="D36" t="n">
-        <v>4354</v>
+        <v>4451</v>
       </c>
       <c r="E36" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F36" t="n">
-        <v>1854</v>
+        <v>1806</v>
       </c>
       <c r="G36" t="n">
-        <v>143.176</v>
+        <v>143.518</v>
       </c>
       <c r="H36" t="n">
-        <v>3431.040684374734</v>
+        <v>3344.515399061091</v>
       </c>
       <c r="I36" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J36" t="n">
-        <v>413.7156066894531</v>
+        <v>399.60009765625</v>
       </c>
       <c r="K36" t="n">
-        <v>-5.71478271484375</v>
+        <v>-2.402374267578125</v>
       </c>
       <c r="L36" t="n">
-        <v>0.1689999999999827</v>
+        <v>0.1750000000000114</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.03514794007530812</v>
+        <v>-0.03138847884212816</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.0239508182890873</v>
+        <v>0.008203692900179528</v>
       </c>
       <c r="O36" t="n">
-        <v>3725.68164798266</v>
+        <v>3327.178757265584</v>
       </c>
       <c r="P36" t="n">
-        <v>2989.26346990155</v>
+        <v>2903.644379898763</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>890</v>
+        <v>914</v>
       </c>
       <c r="B37" t="n">
         <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>72.17999725341797</v>
+        <v>71.63999862670899</v>
       </c>
       <c r="D37" t="n">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="E37" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F37" t="n">
-        <v>1900</v>
+        <v>1855</v>
       </c>
       <c r="G37" t="n">
-        <v>143.343</v>
+        <v>143.724</v>
       </c>
       <c r="H37" t="n">
-        <v>3359.245377298575</v>
+        <v>3322.49994077728</v>
       </c>
       <c r="I37" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J37" t="n">
-        <v>402.0024719238281</v>
+        <v>396.0099792480469</v>
       </c>
       <c r="K37" t="n">
-        <v>-11.713134765625</v>
+        <v>-3.590118408203125</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1670000000000016</v>
+        <v>0.2059999999999889</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.04099495301668348</v>
+        <v>-0.02767153800433404</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.09371803580355278</v>
+        <v>0.002273724367582484</v>
       </c>
       <c r="O37" t="n">
-        <v>4345.46501976845</v>
+        <v>2933.183028459408</v>
       </c>
       <c r="P37" t="n">
-        <v>2918.215895473352</v>
+        <v>2881.869036073165</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>902</v>
+        <v>927</v>
       </c>
       <c r="B38" t="n">
         <v>7.2</v>
       </c>
       <c r="C38" t="n">
-        <v>71.9639991760254</v>
+        <v>70.95599670410157</v>
       </c>
       <c r="D38" t="n">
-        <v>4451</v>
+        <v>4551</v>
       </c>
       <c r="E38" t="n">
         <v>51</v>
       </c>
       <c r="F38" t="n">
-        <v>1951</v>
+        <v>1906</v>
       </c>
       <c r="G38" t="n">
-        <v>143.518</v>
+        <v>143.901</v>
       </c>
       <c r="H38" t="n">
-        <v>3344.515399061091</v>
+        <v>3276.337059539369</v>
       </c>
       <c r="I38" t="n">
         <v>51</v>
       </c>
       <c r="J38" t="n">
-        <v>399.60009765625</v>
+        <v>388.4840698242188</v>
       </c>
       <c r="K38" t="n">
-        <v>-2.402374267578125</v>
+        <v>-7.525909423828125</v>
       </c>
       <c r="L38" t="n">
-        <v>0.1750000000000114</v>
+        <v>0.1770000000000209</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.0363977257292147</v>
+        <v>-0.02856390462235529</v>
       </c>
       <c r="N38" t="n">
-        <v>0.008203692900179528</v>
+        <v>-0.04166411384810768</v>
       </c>
       <c r="O38" t="n">
-        <v>3858.158927296759</v>
+        <v>3027.773889969661</v>
       </c>
       <c r="P38" t="n">
-        <v>2903.644379898763</v>
+        <v>2836.222592254525</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>914</v>
+        <v>940</v>
       </c>
       <c r="B39" t="n">
         <v>7.4</v>
       </c>
       <c r="C39" t="n">
-        <v>71.63999862670899</v>
+        <v>70.2</v>
       </c>
       <c r="D39" t="n">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="E39" t="n">
         <v>49</v>
       </c>
       <c r="F39" t="n">
-        <v>2000</v>
+        <v>1955</v>
       </c>
       <c r="G39" t="n">
-        <v>143.724</v>
+        <v>144.083</v>
       </c>
       <c r="H39" t="n">
-        <v>3322.49994077728</v>
+        <v>3225.8114712</v>
       </c>
       <c r="I39" t="n">
         <v>49</v>
       </c>
       <c r="J39" t="n">
-        <v>396.0099792480469</v>
+        <v>380.25</v>
       </c>
       <c r="K39" t="n">
-        <v>-3.590118408203125</v>
+        <v>-8.23406982421875</v>
       </c>
       <c r="L39" t="n">
-        <v>0.2059999999999889</v>
+        <v>0.1819999999999879</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.03274575994752254</v>
+        <v>-0.03014928696166772</v>
       </c>
       <c r="N39" t="n">
-        <v>0.002273724367582484</v>
+        <v>-0.04964645758251936</v>
       </c>
       <c r="O39" t="n">
-        <v>3471.050554437389</v>
+        <v>3195.824417936778</v>
       </c>
       <c r="P39" t="n">
-        <v>2881.869036073165</v>
+        <v>2786.282844</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>927</v>
+        <v>953</v>
       </c>
       <c r="B40" t="n">
         <v>7.600000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>70.95599670410157</v>
+        <v>69.51599807739258</v>
       </c>
       <c r="D40" t="n">
-        <v>4551</v>
+        <v>4653</v>
       </c>
       <c r="E40" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F40" t="n">
-        <v>2051</v>
+        <v>2008</v>
       </c>
       <c r="G40" t="n">
-        <v>143.901</v>
+        <v>144.292</v>
       </c>
       <c r="H40" t="n">
-        <v>3276.337059539369</v>
+        <v>3180.546441767135</v>
       </c>
       <c r="I40" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J40" t="n">
-        <v>388.4840698242188</v>
+        <v>372.8760681152344</v>
       </c>
       <c r="K40" t="n">
-        <v>-7.525909423828125</v>
+        <v>-7.373931884765625</v>
       </c>
       <c r="L40" t="n">
-        <v>0.1770000000000209</v>
+        <v>0.2090000000000032</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.03348448595945205</v>
+        <v>-0.03006673799937837</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.04166411384810768</v>
+        <v>-0.03307037911936187</v>
       </c>
       <c r="O40" t="n">
-        <v>3549.355511701918</v>
+        <v>3187.074227934108</v>
       </c>
       <c r="P40" t="n">
-        <v>2836.222592254525</v>
+        <v>2741.561476331365</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>940</v>
+        <v>966</v>
       </c>
       <c r="B41" t="n">
         <v>7.800000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>70.2</v>
+        <v>69.33600082397462</v>
       </c>
       <c r="D41" t="n">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="E41" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F41" t="n">
-        <v>2100</v>
+        <v>2055</v>
       </c>
       <c r="G41" t="n">
-        <v>144.083</v>
+        <v>144.393</v>
       </c>
       <c r="H41" t="n">
-        <v>3225.8114712</v>
+        <v>3168.705688914774</v>
       </c>
       <c r="I41" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J41" t="n">
-        <v>380.25</v>
+        <v>370.9476013183594</v>
       </c>
       <c r="K41" t="n">
-        <v>-8.23406982421875</v>
+        <v>-1.928466796875</v>
       </c>
       <c r="L41" t="n">
-        <v>0.1819999999999879</v>
+        <v>0.1009999999999991</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.03489310900856325</v>
+        <v>-0.02703886404835132</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.04964645758251936</v>
+        <v>-0.0006278081562376344</v>
       </c>
       <c r="O41" t="n">
-        <v>3698.669554907704</v>
+        <v>2866.11958912524</v>
       </c>
       <c r="P41" t="n">
-        <v>2786.282844</v>
+        <v>2729.86593903069</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>953</v>
+        <v>978</v>
       </c>
       <c r="B42" t="n">
         <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>69.51599807739258</v>
+        <v>68.61599807739258</v>
       </c>
       <c r="D42" t="n">
-        <v>4653</v>
+        <v>4752</v>
       </c>
       <c r="E42" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F42" t="n">
-        <v>2153</v>
+        <v>2107</v>
       </c>
       <c r="G42" t="n">
-        <v>144.292</v>
+        <v>144.518</v>
       </c>
       <c r="H42" t="n">
-        <v>3180.546441767135</v>
+        <v>3121.637120680449</v>
       </c>
       <c r="I42" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J42" t="n">
-        <v>372.8760681152344</v>
+        <v>363.2835693359375</v>
       </c>
       <c r="K42" t="n">
-        <v>-7.373931884765625</v>
+        <v>-7.664031982421875</v>
       </c>
       <c r="L42" t="n">
-        <v>0.2090000000000032</v>
+        <v>0.125</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.03471504723369947</v>
+        <v>-0.02878190121139658</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.03307037911936187</v>
+        <v>-0.05144569939556592</v>
       </c>
       <c r="O42" t="n">
-        <v>3679.795006772144</v>
+        <v>3050.881528408038</v>
       </c>
       <c r="P42" t="n">
-        <v>2741.561476331365</v>
+        <v>2683.387199476506</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>966</v>
+        <v>992</v>
       </c>
       <c r="B43" t="n">
         <v>8.200000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>69.33600082397462</v>
+        <v>68.22000274658204</v>
       </c>
       <c r="D43" t="n">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="E43" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F43" t="n">
-        <v>2200</v>
+        <v>2155</v>
       </c>
       <c r="G43" t="n">
-        <v>144.393</v>
+        <v>144.642</v>
       </c>
       <c r="H43" t="n">
-        <v>3168.705688914774</v>
+        <v>3095.951235010881</v>
       </c>
       <c r="I43" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J43" t="n">
-        <v>370.9476013183594</v>
+        <v>359.1025390625</v>
       </c>
       <c r="K43" t="n">
-        <v>-1.928466796875</v>
+        <v>-4.1810302734375</v>
       </c>
       <c r="L43" t="n">
-        <v>0.1009999999999991</v>
+        <v>0.1239999999999952</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.03171876106238033</v>
+        <v>-0.02762185736745936</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.0006278081562376344</v>
+        <v>-0.01964437981371702</v>
       </c>
       <c r="O43" t="n">
-        <v>3362.188672612315</v>
+        <v>2927.916880950692</v>
       </c>
       <c r="P43" t="n">
-        <v>2729.86593903069</v>
+        <v>2658.03182199148</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>978</v>
+        <v>1004</v>
       </c>
       <c r="B44" t="n">
         <v>8.4</v>
       </c>
       <c r="C44" t="n">
-        <v>68.61599807739258</v>
+        <v>67.71599807739258</v>
       </c>
       <c r="D44" t="n">
-        <v>4752</v>
+        <v>4853</v>
       </c>
       <c r="E44" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F44" t="n">
-        <v>2252</v>
+        <v>2208</v>
       </c>
       <c r="G44" t="n">
-        <v>144.518</v>
+        <v>144.681</v>
       </c>
       <c r="H44" t="n">
-        <v>3121.637120680449</v>
+        <v>3063.466163193764</v>
       </c>
       <c r="I44" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J44" t="n">
-        <v>363.2835693359375</v>
+        <v>353.8160705566406</v>
       </c>
       <c r="K44" t="n">
-        <v>-7.664031982421875</v>
+        <v>-5.286468505859375</v>
       </c>
       <c r="L44" t="n">
-        <v>0.125</v>
+        <v>0.03900000000001569</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.03329027545140328</v>
+        <v>-0.02855463425769065</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.05144569939556592</v>
+        <v>-0.04306226963519607</v>
       </c>
       <c r="O44" t="n">
-        <v>3528.769197848747</v>
+        <v>3026.791231315209</v>
       </c>
       <c r="P44" t="n">
-        <v>2683.387199476506</v>
+        <v>2625.973674621648</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>992</v>
+        <v>1018</v>
       </c>
       <c r="B45" t="n">
         <v>8.6</v>
       </c>
       <c r="C45" t="n">
-        <v>68.22000274658204</v>
+        <v>67.32000274658203</v>
       </c>
       <c r="D45" t="n">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="E45" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F45" t="n">
-        <v>2300</v>
+        <v>2255</v>
       </c>
       <c r="G45" t="n">
-        <v>144.642</v>
+        <v>144.884</v>
       </c>
       <c r="H45" t="n">
-        <v>3095.951235010881</v>
+        <v>3038.105153677574</v>
       </c>
       <c r="I45" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J45" t="n">
-        <v>359.1025390625</v>
+        <v>349.6900329589844</v>
       </c>
       <c r="K45" t="n">
-        <v>-4.1810302734375</v>
+        <v>-4.12603759765625</v>
       </c>
       <c r="L45" t="n">
-        <v>0.1239999999999952</v>
+        <v>0.2029999999999745</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.03208457177017562</v>
+        <v>-0.0261450897922458</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.01964437981371702</v>
+        <v>-0.003921515992735094</v>
       </c>
       <c r="O45" t="n">
-        <v>3400.964607638615</v>
+        <v>2771.379517978055</v>
       </c>
       <c r="P45" t="n">
-        <v>2658.03182199148</v>
+        <v>2600.953024069849</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>1004</v>
+        <v>1031</v>
       </c>
       <c r="B46" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>67.71599807739258</v>
+        <v>66.77999725341797</v>
       </c>
       <c r="D46" t="n">
-        <v>4853</v>
+        <v>4953</v>
       </c>
       <c r="E46" t="n">
         <v>53</v>
       </c>
       <c r="F46" t="n">
-        <v>2353</v>
+        <v>2308</v>
       </c>
       <c r="G46" t="n">
-        <v>144.681</v>
+        <v>145.002</v>
       </c>
       <c r="H46" t="n">
-        <v>3063.466163193764</v>
+        <v>3003.751571298418</v>
       </c>
       <c r="I46" t="n">
         <v>53</v>
       </c>
       <c r="J46" t="n">
-        <v>353.8160705566406</v>
+        <v>344.1024780273438</v>
       </c>
       <c r="K46" t="n">
-        <v>-5.286468505859375</v>
+        <v>-5.587554931640625</v>
       </c>
       <c r="L46" t="n">
-        <v>0.03900000000001569</v>
+        <v>0.1180000000000234</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.0328888291314758</v>
+        <v>-0.0262263081986479</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.04306226963519607</v>
+        <v>-0.03210794079333039</v>
       </c>
       <c r="O46" t="n">
-        <v>3486.215887936435</v>
+        <v>2779.988669056678</v>
       </c>
       <c r="P46" t="n">
-        <v>2625.973674621648</v>
+        <v>2567.070563003138</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>1018</v>
+        <v>1047</v>
       </c>
       <c r="B47" t="n">
         <v>9</v>
       </c>
       <c r="C47" t="n">
-        <v>67.32000274658203</v>
+        <v>66.3120002746582</v>
       </c>
       <c r="D47" t="n">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="E47" t="n">
         <v>47</v>
       </c>
       <c r="F47" t="n">
-        <v>2400</v>
+        <v>2355</v>
       </c>
       <c r="G47" t="n">
-        <v>144.884</v>
+        <v>145.083</v>
       </c>
       <c r="H47" t="n">
-        <v>3038.105153677574</v>
+        <v>2974.193972256507</v>
       </c>
       <c r="I47" t="n">
         <v>47</v>
       </c>
       <c r="J47" t="n">
-        <v>349.6900329589844</v>
+        <v>339.2964172363281</v>
       </c>
       <c r="K47" t="n">
-        <v>-4.12603759765625</v>
+        <v>-4.806060791015625</v>
       </c>
       <c r="L47" t="n">
-        <v>0.2029999999999745</v>
+        <v>0.08099999999998886</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.0304853555608613</v>
+        <v>-0.02655396806822258</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.003921515992735094</v>
+        <v>-0.03517868766034505</v>
       </c>
       <c r="O47" t="n">
-        <v>3231.447689451298</v>
+        <v>2814.720615231594</v>
       </c>
       <c r="P47" t="n">
-        <v>2600.953024069849</v>
+        <v>2537.927781785362</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>1031</v>
+        <v>1074</v>
       </c>
       <c r="B48" t="n">
         <v>9.200000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>66.77999725341797</v>
+        <v>65.05199890136718</v>
       </c>
       <c r="D48" t="n">
-        <v>4953</v>
+        <v>5100</v>
       </c>
       <c r="E48" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="F48" t="n">
-        <v>2453</v>
+        <v>2455</v>
       </c>
       <c r="G48" t="n">
-        <v>145.002</v>
+        <v>145.447</v>
       </c>
       <c r="H48" t="n">
-        <v>3003.751571298418</v>
+        <v>2895.607581338226</v>
       </c>
       <c r="I48" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="J48" t="n">
-        <v>344.1024780273438</v>
+        <v>326.52490234375</v>
       </c>
       <c r="K48" t="n">
-        <v>-5.587554931640625</v>
+        <v>-12.77151489257812</v>
       </c>
       <c r="L48" t="n">
-        <v>0.1180000000000234</v>
+        <v>0.3640000000000043</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.03047476233688348</v>
+        <v>-0.02646793483356751</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.03210794079333039</v>
+        <v>-0.03017040465156947</v>
       </c>
       <c r="O48" t="n">
-        <v>3230.324807709649</v>
+        <v>2805.601092358156</v>
       </c>
       <c r="P48" t="n">
-        <v>2567.070563003138</v>
+        <v>2460.488306526666</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>1047</v>
+        <v>1101</v>
       </c>
       <c r="B49" t="n">
         <v>9.4</v>
       </c>
       <c r="C49" t="n">
-        <v>66.3120002746582</v>
+        <v>63.97200164794922</v>
       </c>
       <c r="D49" t="n">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="E49" t="n">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="F49" t="n">
-        <v>2500</v>
+        <v>2555</v>
       </c>
       <c r="G49" t="n">
-        <v>145.083</v>
+        <v>145.728</v>
       </c>
       <c r="H49" t="n">
-        <v>2974.193972256507</v>
+        <v>2829.399906025483</v>
       </c>
       <c r="I49" t="n">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="J49" t="n">
-        <v>339.2964172363281</v>
+        <v>315.7729187011719</v>
       </c>
       <c r="K49" t="n">
-        <v>-4.806060791015625</v>
+        <v>-10.75198364257812</v>
       </c>
       <c r="L49" t="n">
-        <v>0.08099999999998886</v>
+        <v>0.2810000000000059</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.03070467756134163</v>
+        <v>-0.0262044726573189</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.03517868766034505</v>
+        <v>-0.02775416349590895</v>
       </c>
       <c r="O49" t="n">
-        <v>3254.695821502213</v>
+        <v>2777.674101675803</v>
       </c>
       <c r="P49" t="n">
-        <v>2537.927781785362</v>
+        <v>2395.298624002428</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>1074</v>
+        <v>1114</v>
       </c>
       <c r="B50" t="n">
         <v>9.600000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>65.05199890136718</v>
+        <v>63.50399780273438</v>
       </c>
       <c r="D50" t="n">
-        <v>5100</v>
+        <v>5253</v>
       </c>
       <c r="E50" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="F50" t="n">
-        <v>2600</v>
+        <v>2608</v>
       </c>
       <c r="G50" t="n">
-        <v>145.447</v>
+        <v>145.816</v>
       </c>
       <c r="H50" t="n">
-        <v>2895.607581338226</v>
+        <v>2801.039803851243</v>
       </c>
       <c r="I50" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="J50" t="n">
-        <v>326.52490234375</v>
+        <v>311.1695861816406</v>
       </c>
       <c r="K50" t="n">
-        <v>-12.77151489257812</v>
+        <v>-4.60333251953125</v>
       </c>
       <c r="L50" t="n">
-        <v>0.3640000000000043</v>
+        <v>0.08799999999999386</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.030539483321116</v>
+        <v>-0.02598583730000018</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.03017040465156947</v>
+        <v>-0.02806134274388791</v>
       </c>
       <c r="O50" t="n">
-        <v>3237.185232038296</v>
+        <v>2754.498753800019</v>
       </c>
       <c r="P50" t="n">
-        <v>2460.488306526666</v>
+        <v>2367.389668964698</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>1101</v>
+        <v>1129</v>
       </c>
       <c r="B51" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>63.97200164794922</v>
+        <v>63.07200164794922</v>
       </c>
       <c r="D51" t="n">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E51" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="F51" t="n">
-        <v>2700</v>
+        <v>2655</v>
       </c>
       <c r="G51" t="n">
-        <v>145.728</v>
+        <v>146.023</v>
       </c>
       <c r="H51" t="n">
-        <v>2829.399906025483</v>
+        <v>2775.038901785498</v>
       </c>
       <c r="I51" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="J51" t="n">
-        <v>315.7729187011719</v>
+        <v>306.9504089355469</v>
       </c>
       <c r="K51" t="n">
-        <v>-10.75198364257812</v>
+        <v>-4.21917724609375</v>
       </c>
       <c r="L51" t="n">
-        <v>0.2810000000000059</v>
+        <v>0.2069999999999936</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.03020552404108547</v>
+        <v>-0.02399410434529626</v>
       </c>
       <c r="N51" t="n">
-        <v>-0.02775416349590895</v>
+        <v>-0.004124727828778606</v>
       </c>
       <c r="O51" t="n">
-        <v>3201.785548355059</v>
+        <v>2543.375060601403</v>
       </c>
       <c r="P51" t="n">
-        <v>2395.298624002428</v>
+        <v>2341.81057644945</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>1114</v>
+        <v>1142</v>
       </c>
       <c r="B52" t="n">
         <v>10</v>
       </c>
       <c r="C52" t="n">
-        <v>63.50399780273438</v>
+        <v>62.20800247192383</v>
       </c>
       <c r="D52" t="n">
-        <v>5253</v>
+        <v>5352</v>
       </c>
       <c r="E52" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F52" t="n">
-        <v>2753</v>
+        <v>2707</v>
       </c>
       <c r="G52" t="n">
-        <v>145.816</v>
+        <v>146.254</v>
       </c>
       <c r="H52" t="n">
-        <v>2801.039803851243</v>
+        <v>2723.547038972031</v>
       </c>
       <c r="I52" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J52" t="n">
-        <v>311.1695861816406</v>
+        <v>298.5984191894531</v>
       </c>
       <c r="K52" t="n">
-        <v>-4.60333251953125</v>
+        <v>-8.35198974609375</v>
       </c>
       <c r="L52" t="n">
-        <v>0.08799999999999386</v>
+        <v>0.2309999999999945</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.02991667881742207</v>
+        <v>-0.02471140905551837</v>
       </c>
       <c r="N52" t="n">
-        <v>-0.02806134274388791</v>
+        <v>-0.03919529327702723</v>
       </c>
       <c r="O52" t="n">
-        <v>3171.16795464674</v>
+        <v>2619.409359884948</v>
       </c>
       <c r="P52" t="n">
-        <v>2367.389668964698</v>
+        <v>2291.177814233086</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>1129</v>
+        <v>1159</v>
       </c>
       <c r="B53" t="n">
         <v>10.2</v>
       </c>
       <c r="C53" t="n">
-        <v>63.07200164794922</v>
+        <v>61.4879997253418</v>
       </c>
       <c r="D53" t="n">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="E53" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F53" t="n">
-        <v>2800</v>
+        <v>2755</v>
       </c>
       <c r="G53" t="n">
-        <v>146.023</v>
+        <v>146.494</v>
       </c>
       <c r="H53" t="n">
-        <v>2775.038901785498</v>
+        <v>2681.156759271906</v>
       </c>
       <c r="I53" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J53" t="n">
-        <v>306.9504089355469</v>
+        <v>291.7264099121094</v>
       </c>
       <c r="K53" t="n">
-        <v>-4.21917724609375</v>
+        <v>-6.87200927734375</v>
       </c>
       <c r="L53" t="n">
-        <v>0.2069999999999936</v>
+        <v>0.2400000000000091</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.02791671139935663</v>
+        <v>-0.02438473125923199</v>
       </c>
       <c r="N53" t="n">
-        <v>-0.004124727828778606</v>
+        <v>-0.0253098450666686</v>
       </c>
       <c r="O53" t="n">
-        <v>2959.171408331803</v>
+        <v>2584.781513478591</v>
       </c>
       <c r="P53" t="n">
-        <v>2341.81057644945</v>
+        <v>2249.519216623833</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>1142</v>
+        <v>1187</v>
       </c>
       <c r="B54" t="n">
         <v>10.4</v>
       </c>
       <c r="C54" t="n">
-        <v>62.20800247192383</v>
+        <v>59.57999725341797</v>
       </c>
       <c r="D54" t="n">
-        <v>5352</v>
+        <v>5500</v>
       </c>
       <c r="E54" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F54" t="n">
-        <v>2852</v>
+        <v>2855</v>
       </c>
       <c r="G54" t="n">
-        <v>146.254</v>
+        <v>146.98</v>
       </c>
       <c r="H54" t="n">
-        <v>2723.547038972031</v>
+        <v>2571.108191564873</v>
       </c>
       <c r="I54" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="J54" t="n">
-        <v>298.5984191894531</v>
+        <v>273.9024658203125</v>
       </c>
       <c r="K54" t="n">
-        <v>-8.35198974609375</v>
+        <v>-17.82394409179688</v>
       </c>
       <c r="L54" t="n">
-        <v>0.2309999999999945</v>
+        <v>0.48599999999999</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.02853356621620485</v>
+        <v>-0.0254209216884242</v>
       </c>
       <c r="N54" t="n">
-        <v>-0.03919529327702723</v>
+        <v>-0.04414179593068341</v>
       </c>
       <c r="O54" t="n">
-        <v>3024.558018917714</v>
+        <v>2694.617698972965</v>
       </c>
       <c r="P54" t="n">
-        <v>2291.177814233086</v>
+        <v>2141.478898376184</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>1159</v>
+        <v>1202</v>
       </c>
       <c r="B55" t="n">
         <v>10.6</v>
       </c>
       <c r="C55" t="n">
-        <v>61.4879997253418</v>
+        <v>58.86000137329102</v>
       </c>
       <c r="D55" t="n">
-        <v>5400</v>
+        <v>5552</v>
       </c>
       <c r="E55" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F55" t="n">
-        <v>2900</v>
+        <v>2907</v>
       </c>
       <c r="G55" t="n">
-        <v>146.494</v>
+        <v>147.295</v>
       </c>
       <c r="H55" t="n">
-        <v>2681.156759271906</v>
+        <v>2530.443124800244</v>
       </c>
       <c r="I55" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J55" t="n">
-        <v>291.7264099121094</v>
+        <v>267.322509765625</v>
       </c>
       <c r="K55" t="n">
-        <v>-6.87200927734375</v>
+        <v>-6.5799560546875</v>
       </c>
       <c r="L55" t="n">
-        <v>0.2400000000000091</v>
+        <v>0.3149999999999977</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.02814430334976285</v>
+        <v>-0.02381568355333883</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.0253098450666686</v>
+        <v>-0.007206580351676291</v>
       </c>
       <c r="O55" t="n">
-        <v>2983.296155074862</v>
+        <v>2524.462456653916</v>
       </c>
       <c r="P55" t="n">
-        <v>2249.519216623833</v>
+        <v>2101.597805763259</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>1187</v>
+        <v>1218</v>
       </c>
       <c r="B56" t="n">
         <v>10.8</v>
       </c>
       <c r="C56" t="n">
-        <v>59.57999725341797</v>
+        <v>57.8879997253418</v>
       </c>
       <c r="D56" t="n">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="E56" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="F56" t="n">
-        <v>3000</v>
+        <v>2955</v>
       </c>
       <c r="G56" t="n">
-        <v>146.98</v>
+        <v>147.555</v>
       </c>
       <c r="H56" t="n">
-        <v>2571.108191564873</v>
+        <v>2476.294464365229</v>
       </c>
       <c r="I56" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="J56" t="n">
-        <v>273.9024658203125</v>
+        <v>258.56640625</v>
       </c>
       <c r="K56" t="n">
-        <v>-17.82394409179688</v>
+        <v>-8.756103515625</v>
       </c>
       <c r="L56" t="n">
-        <v>0.48599999999999</v>
+        <v>0.2600000000000193</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.0290759689641289</v>
+        <v>-0.02463999253559244</v>
       </c>
       <c r="N56" t="n">
-        <v>-0.04414179593068341</v>
+        <v>-0.04107969463995795</v>
       </c>
       <c r="O56" t="n">
-        <v>3082.052710197664</v>
+        <v>2611.839208772799</v>
       </c>
       <c r="P56" t="n">
-        <v>2141.478898376184</v>
+        <v>2048.530246992485</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>1202</v>
+        <v>1234</v>
       </c>
       <c r="B57" t="n">
         <v>11</v>
       </c>
       <c r="C57" t="n">
-        <v>58.86000137329102</v>
+        <v>56.73600082397461</v>
       </c>
       <c r="D57" t="n">
-        <v>5552</v>
+        <v>5654</v>
       </c>
       <c r="E57" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F57" t="n">
-        <v>3052</v>
+        <v>3009</v>
       </c>
       <c r="G57" t="n">
-        <v>147.295</v>
+        <v>147.847</v>
       </c>
       <c r="H57" t="n">
-        <v>2530.443124800244</v>
+        <v>2413.233667834885</v>
       </c>
       <c r="I57" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J57" t="n">
-        <v>267.322509765625</v>
+        <v>248.3776092529297</v>
       </c>
       <c r="K57" t="n">
-        <v>-6.5799560546875</v>
+        <v>-10.18879699707031</v>
       </c>
       <c r="L57" t="n">
-        <v>0.3149999999999977</v>
+        <v>0.2920000000000016</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.0274528152497397</v>
+        <v>-0.02563863432195622</v>
       </c>
       <c r="N57" t="n">
-        <v>-0.007206580351676291</v>
+        <v>-0.04429668777860325</v>
       </c>
       <c r="O57" t="n">
-        <v>2909.998416472408</v>
+        <v>2717.69523812736</v>
       </c>
       <c r="P57" t="n">
-        <v>2101.597805763259</v>
+        <v>1986.784568159841</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>1218</v>
+        <v>1251</v>
       </c>
       <c r="B58" t="n">
         <v>11.2</v>
       </c>
       <c r="C58" t="n">
-        <v>57.8879997253418</v>
+        <v>56.33999862670898</v>
       </c>
       <c r="D58" t="n">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="E58" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F58" t="n">
-        <v>3100</v>
+        <v>3055</v>
       </c>
       <c r="G58" t="n">
-        <v>147.555</v>
+        <v>148.112</v>
       </c>
       <c r="H58" t="n">
-        <v>2476.294464365229</v>
+        <v>2391.835776610387</v>
       </c>
       <c r="I58" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J58" t="n">
-        <v>258.56640625</v>
+        <v>244.9224853515625</v>
       </c>
       <c r="K58" t="n">
-        <v>-8.756103515625</v>
+        <v>-3.455123901367188</v>
       </c>
       <c r="L58" t="n">
-        <v>0.2600000000000193</v>
+        <v>0.2649999999999864</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.02818364700638444</v>
+        <v>-0.02257656860871383</v>
       </c>
       <c r="N58" t="n">
-        <v>-0.04107969463995795</v>
+        <v>0.01575952281122348</v>
       </c>
       <c r="O58" t="n">
-        <v>2987.46658267675</v>
+        <v>2393.116272523666</v>
       </c>
       <c r="P58" t="n">
-        <v>2048.530246992485</v>
+        <v>1965.847223407026</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>1234</v>
+        <v>1265</v>
       </c>
       <c r="B59" t="n">
         <v>11.4</v>
       </c>
       <c r="C59" t="n">
-        <v>56.73600082397461</v>
+        <v>55.8</v>
       </c>
       <c r="D59" t="n">
-        <v>5654</v>
+        <v>5753</v>
       </c>
       <c r="E59" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F59" t="n">
-        <v>3154</v>
+        <v>3108</v>
       </c>
       <c r="G59" t="n">
-        <v>147.847</v>
+        <v>148.308</v>
       </c>
       <c r="H59" t="n">
-        <v>2413.233667834885</v>
+        <v>2362.8874392</v>
       </c>
       <c r="I59" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J59" t="n">
-        <v>248.3776092529297</v>
+        <v>240.25</v>
       </c>
       <c r="K59" t="n">
-        <v>-10.18879699707031</v>
+        <v>-4.6724853515625</v>
       </c>
       <c r="L59" t="n">
-        <v>0.2920000000000016</v>
+        <v>0.195999999999998</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.0290871320417108</v>
+        <v>-0.02137218907545495</v>
       </c>
       <c r="N59" t="n">
-        <v>-0.04429668777860325</v>
+        <v>-0.009855059386403436</v>
       </c>
       <c r="O59" t="n">
-        <v>3083.235996421345</v>
+        <v>2265.452041998225</v>
       </c>
       <c r="P59" t="n">
-        <v>1986.784568159841</v>
+        <v>1937.533884</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>1251</v>
+        <v>1281</v>
       </c>
       <c r="B60" t="n">
         <v>11.6</v>
       </c>
       <c r="C60" t="n">
-        <v>56.33999862670898</v>
+        <v>54.79200096130371</v>
       </c>
       <c r="D60" t="n">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="E60" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F60" t="n">
-        <v>3200</v>
+        <v>3155</v>
       </c>
       <c r="G60" t="n">
-        <v>148.112</v>
+        <v>148.539</v>
       </c>
       <c r="H60" t="n">
-        <v>2391.835776610387</v>
+        <v>2309.561646879759</v>
       </c>
       <c r="I60" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J60" t="n">
-        <v>244.9224853515625</v>
+        <v>231.6484069824219</v>
       </c>
       <c r="K60" t="n">
-        <v>-3.455123901367188</v>
+        <v>-8.601593017578125</v>
       </c>
       <c r="L60" t="n">
-        <v>0.2649999999999864</v>
+        <v>0.2309999999999945</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.02605256515857207</v>
+        <v>-0.0225803824843028</v>
       </c>
       <c r="N60" t="n">
-        <v>0.01575952281122348</v>
+        <v>-0.04602035927973624</v>
       </c>
       <c r="O60" t="n">
-        <v>2761.571906808639</v>
+        <v>2393.520543336096</v>
       </c>
       <c r="P60" t="n">
-        <v>1965.847223407026</v>
+        <v>1885.414987623861</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>1265</v>
+        <v>1298</v>
       </c>
       <c r="B61" t="n">
         <v>11.8</v>
       </c>
       <c r="C61" t="n">
-        <v>55.8</v>
+        <v>54.03600082397461</v>
       </c>
       <c r="D61" t="n">
-        <v>5753</v>
+        <v>5847</v>
       </c>
       <c r="E61" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F61" t="n">
-        <v>3253</v>
+        <v>3202</v>
       </c>
       <c r="G61" t="n">
-        <v>148.308</v>
+        <v>148.801</v>
       </c>
       <c r="H61" t="n">
-        <v>2362.8874392</v>
+        <v>2270.175077974908</v>
       </c>
       <c r="I61" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J61" t="n">
-        <v>240.25</v>
+        <v>225.3001098632812</v>
       </c>
       <c r="K61" t="n">
-        <v>-4.6724853515625</v>
+        <v>-6.348297119140625</v>
       </c>
       <c r="L61" t="n">
-        <v>0.195999999999998</v>
+        <v>0.2620000000000005</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.02481829888804374</v>
+        <v>-0.02180734662266977</v>
       </c>
       <c r="N61" t="n">
-        <v>-0.009855059386403436</v>
+        <v>-0.01594495128752563</v>
       </c>
       <c r="O61" t="n">
-        <v>2630.739682132637</v>
+        <v>2311.578742002995</v>
       </c>
       <c r="P61" t="n">
-        <v>1937.533884</v>
+        <v>1846.952021830372</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>1281</v>
+        <v>1315</v>
       </c>
       <c r="B62" t="n">
         <v>12</v>
       </c>
       <c r="C62" t="n">
-        <v>54.79200096130371</v>
+        <v>53.13600082397461</v>
       </c>
       <c r="D62" t="n">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="E62" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F62" t="n">
-        <v>3300</v>
+        <v>3255</v>
       </c>
       <c r="G62" t="n">
-        <v>148.539</v>
+        <v>149.048</v>
       </c>
       <c r="H62" t="n">
-        <v>2309.561646879759</v>
+        <v>2223.965608554917</v>
       </c>
       <c r="I62" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J62" t="n">
-        <v>231.6484069824219</v>
+        <v>217.8576049804688</v>
       </c>
       <c r="K62" t="n">
-        <v>-8.601593017578125</v>
+        <v>-7.4425048828125</v>
       </c>
       <c r="L62" t="n">
-        <v>0.2309999999999945</v>
+        <v>0.2470000000000141</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.02592834279453896</v>
+        <v>-0.02178010954189584</v>
       </c>
       <c r="N62" t="n">
-        <v>-0.04602035927973624</v>
+        <v>-0.02708183673710371</v>
       </c>
       <c r="O62" t="n">
-        <v>2748.40433622113</v>
+        <v>2308.691611440959</v>
       </c>
       <c r="P62" t="n">
-        <v>1885.414987623861</v>
+        <v>1801.862677053884</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>1298</v>
+        <v>1335</v>
       </c>
       <c r="B63" t="n">
         <v>12.2</v>
       </c>
       <c r="C63" t="n">
-        <v>54.03600082397461</v>
+        <v>51.76800041198731</v>
       </c>
       <c r="D63" t="n">
-        <v>5847</v>
+        <v>5952</v>
       </c>
       <c r="E63" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F63" t="n">
-        <v>3347</v>
+        <v>3307</v>
       </c>
       <c r="G63" t="n">
-        <v>148.801</v>
+        <v>149.412</v>
       </c>
       <c r="H63" t="n">
-        <v>2270.175077974908</v>
+        <v>2155.141308532984</v>
       </c>
       <c r="I63" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J63" t="n">
-        <v>225.3001098632812</v>
+        <v>206.7844085693359</v>
       </c>
       <c r="K63" t="n">
-        <v>-6.348297119140625</v>
+        <v>-11.07319641113281</v>
       </c>
       <c r="L63" t="n">
-        <v>0.2620000000000005</v>
+        <v>0.3640000000000043</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.02511552665852867</v>
+        <v>-0.02266519006387028</v>
       </c>
       <c r="N63" t="n">
-        <v>-0.01594495128752563</v>
+        <v>-0.04169002354681328</v>
       </c>
       <c r="O63" t="n">
-        <v>2662.245825804039</v>
+        <v>2402.510146770249</v>
       </c>
       <c r="P63" t="n">
-        <v>1846.952021830372</v>
+        <v>1734.78384528721</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>1315</v>
+        <v>1351</v>
       </c>
       <c r="B64" t="n">
         <v>12.4</v>
       </c>
       <c r="C64" t="n">
-        <v>53.13600082397461</v>
+        <v>51.3</v>
       </c>
       <c r="D64" t="n">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="E64" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F64" t="n">
-        <v>3400</v>
+        <v>3355</v>
       </c>
       <c r="G64" t="n">
-        <v>149.048</v>
+        <v>149.643</v>
       </c>
       <c r="H64" t="n">
-        <v>2223.965608554917</v>
+        <v>2131.9877682</v>
       </c>
       <c r="I64" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J64" t="n">
-        <v>217.8576049804688</v>
+        <v>203.0625</v>
       </c>
       <c r="K64" t="n">
-        <v>-7.4425048828125</v>
+        <v>-3.721908569335938</v>
       </c>
       <c r="L64" t="n">
-        <v>0.2470000000000141</v>
+        <v>0.2309999999999945</v>
       </c>
       <c r="M64" t="n">
-        <v>-0.02502864083333945</v>
+        <v>-0.02060144550804619</v>
       </c>
       <c r="N64" t="n">
-        <v>-0.02708183673710371</v>
+        <v>0.005768444541114377</v>
       </c>
       <c r="O64" t="n">
-        <v>2653.035928333981</v>
+        <v>2183.753223852897</v>
       </c>
       <c r="P64" t="n">
-        <v>1801.862677053884</v>
+        <v>1712.239314</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>1335</v>
+        <v>1386</v>
       </c>
       <c r="B65" t="n">
         <v>12.6</v>
       </c>
       <c r="C65" t="n">
-        <v>51.76800041198731</v>
+        <v>50.29200096130371</v>
       </c>
       <c r="D65" t="n">
-        <v>5952</v>
+        <v>6100</v>
       </c>
       <c r="E65" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F65" t="n">
-        <v>3452</v>
+        <v>3455</v>
       </c>
       <c r="G65" t="n">
-        <v>149.412</v>
+        <v>149.847</v>
       </c>
       <c r="H65" t="n">
-        <v>2155.141308532984</v>
+        <v>2082.796808096472</v>
       </c>
       <c r="I65" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="J65" t="n">
-        <v>206.7844085693359</v>
+        <v>195.1609039306641</v>
       </c>
       <c r="K65" t="n">
-        <v>-11.07319641113281</v>
+        <v>-7.901596069335938</v>
       </c>
       <c r="L65" t="n">
-        <v>0.3640000000000043</v>
+        <v>0.2040000000000077</v>
       </c>
       <c r="M65" t="n">
-        <v>-0.02583147274033303</v>
+        <v>-0.0202409232903751</v>
       </c>
       <c r="N65" t="n">
-        <v>-0.04169002354681328</v>
+        <v>-0.02062835770516954</v>
       </c>
       <c r="O65" t="n">
-        <v>2738.136110475301</v>
+        <v>2145.53786877976</v>
       </c>
       <c r="P65" t="n">
-        <v>1734.78384528721</v>
+        <v>1664.380624761007</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>1351</v>
+        <v>1402</v>
       </c>
       <c r="B66" t="n">
         <v>12.8</v>
       </c>
       <c r="C66" t="n">
-        <v>51.3</v>
+        <v>49.86000137329102</v>
       </c>
       <c r="D66" t="n">
-        <v>6000</v>
+        <v>6154</v>
       </c>
       <c r="E66" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F66" t="n">
-        <v>3500</v>
+        <v>3509</v>
       </c>
       <c r="G66" t="n">
-        <v>149.643</v>
+        <v>149.983</v>
       </c>
       <c r="H66" t="n">
-        <v>2131.9877682</v>
+        <v>2061.998499133709</v>
       </c>
       <c r="I66" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J66" t="n">
-        <v>203.0625</v>
+        <v>191.822509765625</v>
       </c>
       <c r="K66" t="n">
-        <v>-3.721908569335938</v>
+        <v>-3.338394165039062</v>
       </c>
       <c r="L66" t="n">
-        <v>0.2309999999999945</v>
+        <v>0.1359999999999957</v>
       </c>
       <c r="M66" t="n">
-        <v>-0.02376458471490298</v>
+        <v>-0.01912486374466725</v>
       </c>
       <c r="N66" t="n">
-        <v>0.005768444541114377</v>
+        <v>-0.007602880983066833</v>
       </c>
       <c r="O66" t="n">
-        <v>2519.045979779715</v>
+        <v>2027.235556934729</v>
       </c>
       <c r="P66" t="n">
-        <v>1712.239314</v>
+        <v>1644.161886155104</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>1386</v>
+        <v>1418</v>
       </c>
       <c r="B67" t="n">
         <v>13</v>
       </c>
       <c r="C67" t="n">
-        <v>50.29200096130371</v>
+        <v>49.42799835205079</v>
       </c>
       <c r="D67" t="n">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="E67" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="F67" t="n">
-        <v>3600</v>
+        <v>3555</v>
       </c>
       <c r="G67" t="n">
-        <v>149.847</v>
+        <v>149.987</v>
       </c>
       <c r="H67" t="n">
-        <v>2082.796808096472</v>
+        <v>2041.370145557624</v>
       </c>
       <c r="I67" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="J67" t="n">
-        <v>195.1609039306641</v>
+        <v>188.5128936767578</v>
       </c>
       <c r="K67" t="n">
-        <v>-7.901596069335938</v>
+        <v>-3.309616088867188</v>
       </c>
       <c r="L67" t="n">
-        <v>0.2040000000000077</v>
+        <v>0.003999999999990678</v>
       </c>
       <c r="M67" t="n">
-        <v>-0.0233558922211092</v>
+        <v>-0.01969147931258935</v>
       </c>
       <c r="N67" t="n">
-        <v>-0.02062835770516954</v>
+        <v>-0.03516932992411199</v>
       </c>
       <c r="O67" t="n">
-        <v>2475.724575437575</v>
+        <v>2087.296807134471</v>
       </c>
       <c r="P67" t="n">
-        <v>1664.380624761007</v>
+        <v>1624.118265880908</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>1402</v>
+        <v>1441</v>
       </c>
       <c r="B68" t="n">
         <v>13.2</v>
       </c>
       <c r="C68" t="n">
-        <v>49.86000137329102</v>
+        <v>48.92400054931641</v>
       </c>
       <c r="D68" t="n">
-        <v>6154</v>
+        <v>6245</v>
       </c>
       <c r="E68" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F68" t="n">
-        <v>3654</v>
+        <v>3600</v>
       </c>
       <c r="G68" t="n">
-        <v>149.983</v>
+        <v>150.114</v>
       </c>
       <c r="H68" t="n">
-        <v>2061.998499133709</v>
+        <v>2017.519017014876</v>
       </c>
       <c r="I68" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J68" t="n">
-        <v>191.822509765625</v>
+        <v>184.6881103515625</v>
       </c>
       <c r="K68" t="n">
-        <v>-3.338394165039062</v>
+        <v>-3.824783325195312</v>
       </c>
       <c r="L68" t="n">
-        <v>0.1359999999999957</v>
+        <v>0.1270000000000095</v>
       </c>
       <c r="M68" t="n">
-        <v>-0.02221119516351945</v>
+        <v>-0.01914141853617451</v>
       </c>
       <c r="N68" t="n">
-        <v>-0.007602880983066833</v>
+        <v>-0.01637872457763987</v>
       </c>
       <c r="O68" t="n">
-        <v>2354.386687333062</v>
+        <v>2028.990364834498</v>
       </c>
       <c r="P68" t="n">
-        <v>1644.161886155104</v>
+        <v>1600.955837924742</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>1418</v>
+        <v>1459</v>
       </c>
       <c r="B69" t="n">
         <v>13.4</v>
       </c>
       <c r="C69" t="n">
-        <v>49.42799835205079</v>
+        <v>48.34800109863281</v>
       </c>
       <c r="D69" t="n">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="E69" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F69" t="n">
-        <v>3700</v>
+        <v>3655</v>
       </c>
       <c r="G69" t="n">
-        <v>149.987</v>
+        <v>150.245</v>
       </c>
       <c r="H69" t="n">
-        <v>2041.370145557624</v>
+        <v>1990.544022183465</v>
       </c>
       <c r="I69" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J69" t="n">
-        <v>188.5128936767578</v>
+        <v>180.3649139404297</v>
       </c>
       <c r="K69" t="n">
-        <v>-3.309616088867188</v>
+        <v>-4.323196411132812</v>
       </c>
       <c r="L69" t="n">
-        <v>0.003999999999990678</v>
+        <v>0.1310000000000002</v>
       </c>
       <c r="M69" t="n">
-        <v>-0.0227080227656814</v>
+        <v>-0.01867183358243254</v>
       </c>
       <c r="N69" t="n">
-        <v>-0.03516932992411199</v>
+        <v>-0.01725873238251095</v>
       </c>
       <c r="O69" t="n">
-        <v>2407.050413162228</v>
+        <v>1979.214359737849</v>
       </c>
       <c r="P69" t="n">
-        <v>1624.118265880908</v>
+        <v>1574.776529274347</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>1441</v>
+        <v>1479</v>
       </c>
       <c r="B70" t="n">
         <v>13.6</v>
       </c>
       <c r="C70" t="n">
-        <v>48.92400054931641</v>
+        <v>47.37599945068359</v>
       </c>
       <c r="D70" t="n">
-        <v>6245</v>
+        <v>6348</v>
       </c>
       <c r="E70" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F70" t="n">
-        <v>3745</v>
+        <v>3703</v>
       </c>
       <c r="G70" t="n">
-        <v>150.114</v>
+        <v>150.541</v>
       </c>
       <c r="H70" t="n">
-        <v>2017.519017014876</v>
+        <v>1945.709391578822</v>
       </c>
       <c r="I70" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J70" t="n">
-        <v>184.6881103515625</v>
+        <v>173.1855926513672</v>
       </c>
       <c r="K70" t="n">
-        <v>-3.824783325195312</v>
+        <v>-7.1793212890625</v>
       </c>
       <c r="L70" t="n">
-        <v>0.1270000000000095</v>
+        <v>0.2959999999999923</v>
       </c>
       <c r="M70" t="n">
-        <v>-0.02211682045333547</v>
+        <v>-0.01825390004358254</v>
       </c>
       <c r="N70" t="n">
-        <v>-0.01637872457763987</v>
+        <v>-0.01771384204408806</v>
       </c>
       <c r="O70" t="n">
-        <v>2344.38296805356</v>
+        <v>1934.913404619749</v>
       </c>
       <c r="P70" t="n">
-        <v>1600.955837924742</v>
+        <v>1531.305417053099</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>1459</v>
+        <v>1498</v>
       </c>
       <c r="B71" t="n">
         <v>13.8</v>
       </c>
       <c r="C71" t="n">
-        <v>48.34800109863281</v>
+        <v>46.54800109863282</v>
       </c>
       <c r="D71" t="n">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="E71" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F71" t="n">
-        <v>3800</v>
+        <v>3755</v>
       </c>
       <c r="G71" t="n">
-        <v>150.245</v>
+        <v>150.703</v>
       </c>
       <c r="H71" t="n">
-        <v>1990.544022183465</v>
+        <v>1908.196362396819</v>
       </c>
       <c r="I71" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J71" t="n">
-        <v>180.3649139404297</v>
+        <v>167.1849060058594</v>
       </c>
       <c r="K71" t="n">
-        <v>-4.323196411132812</v>
+        <v>-6.000686645507812</v>
       </c>
       <c r="L71" t="n">
-        <v>0.1310000000000002</v>
+        <v>0.1620000000000061</v>
       </c>
       <c r="M71" t="n">
-        <v>-0.02160466552139652</v>
+        <v>-0.01848546467803086</v>
       </c>
       <c r="N71" t="n">
-        <v>-0.01725873238251095</v>
+        <v>-0.02886690715020102</v>
       </c>
       <c r="O71" t="n">
-        <v>2290.094545268032</v>
+        <v>1959.459255871272</v>
       </c>
       <c r="P71" t="n">
-        <v>1574.776529274347</v>
+        <v>1494.974496537043</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>1479</v>
+        <v>1518</v>
       </c>
       <c r="B72" t="n">
         <v>14</v>
       </c>
       <c r="C72" t="n">
-        <v>47.37599945068359</v>
+        <v>45.68399848937988</v>
       </c>
       <c r="D72" t="n">
-        <v>6348</v>
+        <v>6449</v>
       </c>
       <c r="E72" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F72" t="n">
-        <v>3848</v>
+        <v>3804</v>
       </c>
       <c r="G72" t="n">
-        <v>150.541</v>
+        <v>150.927</v>
       </c>
       <c r="H72" t="n">
-        <v>1945.709391578822</v>
+        <v>1869.718437527841</v>
       </c>
       <c r="I72" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J72" t="n">
-        <v>173.1855926513672</v>
+        <v>161.0360870361328</v>
       </c>
       <c r="K72" t="n">
-        <v>-7.1793212890625</v>
+        <v>-6.148818969726562</v>
       </c>
       <c r="L72" t="n">
-        <v>0.2959999999999923</v>
+        <v>0.2239999999999895</v>
       </c>
       <c r="M72" t="n">
-        <v>-0.02114352632490069</v>
+        <v>-0.0182424544477918</v>
       </c>
       <c r="N72" t="n">
-        <v>-0.01771384204408806</v>
+        <v>-0.02043577308346516</v>
       </c>
       <c r="O72" t="n">
-        <v>2241.213790439473</v>
+        <v>1933.700171465931</v>
       </c>
       <c r="P72" t="n">
-        <v>1531.305417053099</v>
+        <v>1457.750285907789</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>1498</v>
+        <v>1538</v>
       </c>
       <c r="B73" t="n">
         <v>14.2</v>
       </c>
       <c r="C73" t="n">
-        <v>46.54800109863282</v>
+        <v>44.96399917602539</v>
       </c>
       <c r="D73" t="n">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="E73" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F73" t="n">
-        <v>3900</v>
+        <v>3855</v>
       </c>
       <c r="G73" t="n">
-        <v>150.703</v>
+        <v>151.136</v>
       </c>
       <c r="H73" t="n">
-        <v>1908.196362396819</v>
+        <v>1838.173435660852</v>
       </c>
       <c r="I73" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J73" t="n">
-        <v>167.1849060058594</v>
+        <v>156.0000915527344</v>
       </c>
       <c r="K73" t="n">
-        <v>-6.000686645507812</v>
+        <v>-5.035995483398438</v>
       </c>
       <c r="L73" t="n">
-        <v>0.1620000000000061</v>
+        <v>0.2090000000000032</v>
       </c>
       <c r="M73" t="n">
-        <v>-0.02131804307013007</v>
+        <v>-0.01752050290927731</v>
       </c>
       <c r="N73" t="n">
-        <v>-0.02886690715020102</v>
+        <v>-0.01144631162044285</v>
       </c>
       <c r="O73" t="n">
-        <v>2259.712565433788</v>
+        <v>1857.173308383395</v>
       </c>
       <c r="P73" t="n">
-        <v>1494.974496537043</v>
+        <v>1427.26580319344</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>1518</v>
+        <v>1558</v>
       </c>
       <c r="B74" t="n">
         <v>14.4</v>
       </c>
       <c r="C74" t="n">
-        <v>45.68399848937988</v>
+        <v>44.31600151062012</v>
       </c>
       <c r="D74" t="n">
-        <v>6449</v>
+        <v>6551</v>
       </c>
       <c r="E74" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F74" t="n">
-        <v>3949</v>
+        <v>3906</v>
       </c>
       <c r="G74" t="n">
-        <v>150.927</v>
+        <v>151.268</v>
       </c>
       <c r="H74" t="n">
-        <v>1869.718437527841</v>
+        <v>1810.187039403757</v>
       </c>
       <c r="I74" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J74" t="n">
-        <v>161.0360870361328</v>
+        <v>151.5361175537109</v>
       </c>
       <c r="K74" t="n">
-        <v>-6.148818969726562</v>
+        <v>-4.463973999023438</v>
       </c>
       <c r="L74" t="n">
-        <v>0.2239999999999895</v>
+        <v>0.132000000000005</v>
       </c>
       <c r="M74" t="n">
-        <v>-0.0210297342067095</v>
+        <v>-0.0172884126431215</v>
       </c>
       <c r="N74" t="n">
-        <v>-0.02043577308346516</v>
+        <v>-0.01981106584318115</v>
       </c>
       <c r="O74" t="n">
-        <v>2229.151825911207</v>
+        <v>1832.571740170879</v>
       </c>
       <c r="P74" t="n">
-        <v>1457.750285907789</v>
+        <v>1400.246122506529</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>1538</v>
+        <v>1579</v>
       </c>
       <c r="B75" t="n">
         <v>14.6</v>
       </c>
       <c r="C75" t="n">
-        <v>44.96399917602539</v>
+        <v>43.3439998626709</v>
       </c>
       <c r="D75" t="n">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="E75" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F75" t="n">
-        <v>4000</v>
+        <v>3955</v>
       </c>
       <c r="G75" t="n">
-        <v>151.136</v>
+        <v>151.472</v>
       </c>
       <c r="H75" t="n">
-        <v>1838.173435660852</v>
+        <v>1768.924912933206</v>
       </c>
       <c r="I75" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J75" t="n">
-        <v>156.0000915527344</v>
+        <v>144.9615936279297</v>
       </c>
       <c r="K75" t="n">
-        <v>-5.035995483398438</v>
+        <v>-6.57452392578125</v>
       </c>
       <c r="L75" t="n">
-        <v>0.2090000000000032</v>
+        <v>0.2040000000000077</v>
       </c>
       <c r="M75" t="n">
-        <v>-0.02027340750755308</v>
+        <v>-0.0175404072010878</v>
       </c>
       <c r="N75" t="n">
-        <v>-0.01144631162044285</v>
+        <v>-0.02855713670897163</v>
       </c>
       <c r="O75" t="n">
-        <v>2148.981195800626</v>
+        <v>1859.283163315307</v>
       </c>
       <c r="P75" t="n">
-        <v>1427.26580319344</v>
+        <v>1360.45583862652</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>1558</v>
+        <v>1600</v>
       </c>
       <c r="B76" t="n">
         <v>14.8</v>
       </c>
       <c r="C76" t="n">
-        <v>44.31600151062012</v>
+        <v>42.5879997253418</v>
       </c>
       <c r="D76" t="n">
-        <v>6551</v>
+        <v>6650</v>
       </c>
       <c r="E76" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F76" t="n">
-        <v>4051</v>
+        <v>4005</v>
       </c>
       <c r="G76" t="n">
-        <v>151.268</v>
+        <v>151.683</v>
       </c>
       <c r="H76" t="n">
-        <v>1810.187039403757</v>
+        <v>1737.42761361185</v>
       </c>
       <c r="I76" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J76" t="n">
-        <v>151.5361175537109</v>
+        <v>139.9488983154297</v>
       </c>
       <c r="K76" t="n">
-        <v>-4.463973999023438</v>
+        <v>-5.0126953125</v>
       </c>
       <c r="L76" t="n">
-        <v>0.132000000000005</v>
+        <v>0.2109999999999843</v>
       </c>
       <c r="M76" t="n">
-        <v>-0.01999686920958059</v>
+        <v>-0.01685564745218439</v>
       </c>
       <c r="N76" t="n">
-        <v>-0.01981106584318115</v>
+        <v>-0.01107204746462555</v>
       </c>
       <c r="O76" t="n">
-        <v>2119.668136215542</v>
+        <v>1786.698629931545</v>
       </c>
       <c r="P76" t="n">
-        <v>1400.246122506529</v>
+        <v>1330.121358059257</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>1579</v>
+        <v>1622</v>
       </c>
       <c r="B77" t="n">
         <v>15</v>
       </c>
       <c r="C77" t="n">
-        <v>43.3439998626709</v>
+        <v>41.6879997253418</v>
       </c>
       <c r="D77" t="n">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="E77" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F77" t="n">
-        <v>4100</v>
+        <v>4055</v>
       </c>
       <c r="G77" t="n">
-        <v>151.472</v>
+        <v>151.892</v>
       </c>
       <c r="H77" t="n">
-        <v>1768.924912933206</v>
+        <v>1700.610130085181</v>
       </c>
       <c r="I77" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J77" t="n">
-        <v>144.9615936279297</v>
+        <v>134.0964050292969</v>
       </c>
       <c r="K77" t="n">
-        <v>-6.57452392578125</v>
+        <v>-5.852493286132812</v>
       </c>
       <c r="L77" t="n">
-        <v>0.2040000000000077</v>
+        <v>0.2090000000000032</v>
       </c>
       <c r="M77" t="n">
-        <v>-0.02019530686356996</v>
+        <v>-0.01666512131330531</v>
       </c>
       <c r="N77" t="n">
-        <v>-0.02855713670897163</v>
+        <v>-0.01984021588019546</v>
       </c>
       <c r="O77" t="n">
-        <v>2140.702527538416</v>
+        <v>1766.502859210362</v>
       </c>
       <c r="P77" t="n">
-        <v>1360.45583862652</v>
+        <v>1294.70877965142</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>1600</v>
+        <v>1644</v>
       </c>
       <c r="B78" t="n">
         <v>15.2</v>
       </c>
       <c r="C78" t="n">
-        <v>42.5879997253418</v>
+        <v>40.89599876403809</v>
       </c>
       <c r="D78" t="n">
-        <v>6650</v>
+        <v>6749</v>
       </c>
       <c r="E78" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F78" t="n">
-        <v>4150</v>
+        <v>4104</v>
       </c>
       <c r="G78" t="n">
-        <v>151.683</v>
+        <v>152.065</v>
       </c>
       <c r="H78" t="n">
-        <v>1737.42761361185</v>
+        <v>1668.821480714665</v>
       </c>
       <c r="I78" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J78" t="n">
-        <v>139.9488983154297</v>
+        <v>129.0495910644531</v>
       </c>
       <c r="K78" t="n">
-        <v>-5.0126953125</v>
+        <v>-5.04681396484375</v>
       </c>
       <c r="L78" t="n">
-        <v>0.2109999999999843</v>
+        <v>0.1730000000000018</v>
       </c>
       <c r="M78" t="n">
-        <v>-0.01947685265566013</v>
+        <v>-0.01643343405234215</v>
       </c>
       <c r="N78" t="n">
-        <v>-0.01107204746462555</v>
+        <v>-0.01882328458542876</v>
       </c>
       <c r="O78" t="n">
-        <v>2064.546381499973</v>
+        <v>1741.944009548268</v>
       </c>
       <c r="P78" t="n">
-        <v>1330.121358059257</v>
+        <v>1264.174968003558</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>1622</v>
+        <v>1668</v>
       </c>
       <c r="B79" t="n">
         <v>15.4</v>
       </c>
       <c r="C79" t="n">
-        <v>41.6879997253418</v>
+        <v>39.99599876403808</v>
       </c>
       <c r="D79" t="n">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="E79" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F79" t="n">
-        <v>4200</v>
+        <v>4155</v>
       </c>
       <c r="G79" t="n">
-        <v>151.892</v>
+        <v>152.336</v>
       </c>
       <c r="H79" t="n">
-        <v>1700.610130085181</v>
+        <v>1633.392121544653</v>
       </c>
       <c r="I79" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J79" t="n">
-        <v>134.0964050292969</v>
+        <v>123.4320907592773</v>
       </c>
       <c r="K79" t="n">
-        <v>-5.852493286132812</v>
+        <v>-5.617500305175781</v>
       </c>
       <c r="L79" t="n">
-        <v>0.2090000000000032</v>
+        <v>0.271000000000015</v>
       </c>
       <c r="M79" t="n">
-        <v>-0.01924315472813927</v>
+        <v>-0.01554767971674828</v>
       </c>
       <c r="N79" t="n">
-        <v>-0.01984021588019546</v>
+        <v>-0.005896506876489406</v>
       </c>
       <c r="O79" t="n">
-        <v>2039.774401182763</v>
+        <v>1648.054049975317</v>
       </c>
       <c r="P79" t="n">
-        <v>1294.70877965142</v>
+        <v>1230.192604168291</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>1644</v>
+        <v>1689</v>
       </c>
       <c r="B80" t="n">
         <v>15.6</v>
       </c>
       <c r="C80" t="n">
-        <v>40.89599876403809</v>
+        <v>38.88000068664551</v>
       </c>
       <c r="D80" t="n">
-        <v>6749</v>
+        <v>6854</v>
       </c>
       <c r="E80" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F80" t="n">
-        <v>4249</v>
+        <v>4209</v>
       </c>
       <c r="G80" t="n">
-        <v>152.065</v>
+        <v>152.524</v>
       </c>
       <c r="H80" t="n">
-        <v>1668.821480714665</v>
+        <v>1590.485228482269</v>
       </c>
       <c r="I80" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J80" t="n">
-        <v>129.0495910644531</v>
+        <v>116.640007019043</v>
       </c>
       <c r="K80" t="n">
-        <v>-5.04681396484375</v>
+        <v>-6.792083740234375</v>
       </c>
       <c r="L80" t="n">
-        <v>0.1730000000000018</v>
+        <v>0.1879999999999882</v>
       </c>
       <c r="M80" t="n">
-        <v>-0.01896975523352814</v>
+        <v>-0.01596854312687287</v>
       </c>
       <c r="N80" t="n">
-        <v>-0.01882328458542876</v>
+        <v>-0.0306695384752679</v>
       </c>
       <c r="O80" t="n">
-        <v>2010.794054753982</v>
+        <v>1692.665571448524</v>
       </c>
       <c r="P80" t="n">
-        <v>1264.174968003558</v>
+        <v>1189.111075156578</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>1668</v>
+        <v>1710</v>
       </c>
       <c r="B81" t="n">
         <v>15.8</v>
       </c>
       <c r="C81" t="n">
-        <v>39.99599876403808</v>
+        <v>38.4120002746582</v>
       </c>
       <c r="D81" t="n">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="E81" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F81" t="n">
-        <v>4300</v>
+        <v>4255</v>
       </c>
       <c r="G81" t="n">
-        <v>152.336</v>
+        <v>152.774</v>
       </c>
       <c r="H81" t="n">
-        <v>1633.392121544653</v>
+        <v>1572.829843583255</v>
       </c>
       <c r="I81" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J81" t="n">
-        <v>123.4320907592773</v>
+        <v>113.8488998413086</v>
       </c>
       <c r="K81" t="n">
-        <v>-5.617500305175781</v>
+        <v>-2.791107177734375</v>
       </c>
       <c r="L81" t="n">
-        <v>0.271000000000015</v>
+        <v>0.25</v>
       </c>
       <c r="M81" t="n">
-        <v>-0.01805497704013862</v>
+        <v>-0.01381102544605448</v>
       </c>
       <c r="N81" t="n">
-        <v>-0.005896506876489406</v>
+        <v>0.01995925340034416</v>
       </c>
       <c r="O81" t="n">
-        <v>1913.827566254693</v>
+        <v>1463.968697281775</v>
       </c>
       <c r="P81" t="n">
-        <v>1230.192604168291</v>
+        <v>1172.231412428306</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>1689</v>
+        <v>1736</v>
       </c>
       <c r="B82" t="n">
         <v>16</v>
       </c>
       <c r="C82" t="n">
-        <v>38.88000068664551</v>
+        <v>37.08000068664551</v>
       </c>
       <c r="D82" t="n">
-        <v>6854</v>
+        <v>6947</v>
       </c>
       <c r="E82" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F82" t="n">
-        <v>4354</v>
+        <v>4302</v>
       </c>
       <c r="G82" t="n">
-        <v>152.524</v>
+        <v>153.075</v>
       </c>
       <c r="H82" t="n">
-        <v>1590.485228482269</v>
+        <v>1523.672739515615</v>
       </c>
       <c r="I82" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J82" t="n">
-        <v>116.640007019043</v>
+        <v>106.0900039672852</v>
       </c>
       <c r="K82" t="n">
-        <v>-6.792083740234375</v>
+        <v>-7.758895874023438</v>
       </c>
       <c r="L82" t="n">
-        <v>0.1879999999999882</v>
+        <v>0.3009999999999877</v>
       </c>
       <c r="M82" t="n">
-        <v>-0.01842309886263665</v>
+        <v>-0.01391288220665323</v>
       </c>
       <c r="N82" t="n">
-        <v>-0.0306695384752679</v>
+        <v>-0.02327187501470378</v>
       </c>
       <c r="O82" t="n">
-        <v>1952.848479439485</v>
+        <v>1474.765513905243</v>
       </c>
       <c r="P82" t="n">
-        <v>1189.111075156578</v>
+        <v>1125.315265195763</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>1710</v>
+        <v>1763</v>
       </c>
       <c r="B83" t="n">
         <v>16.2</v>
       </c>
       <c r="C83" t="n">
-        <v>38.4120002746582</v>
+        <v>36.1439998626709</v>
       </c>
       <c r="D83" t="n">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="E83" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F83" t="n">
-        <v>4400</v>
+        <v>4355</v>
       </c>
       <c r="G83" t="n">
-        <v>152.774</v>
+        <v>153.199</v>
       </c>
       <c r="H83" t="n">
-        <v>1572.829843583255</v>
+        <v>1490.097421226529</v>
       </c>
       <c r="I83" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J83" t="n">
-        <v>113.8488998413086</v>
+        <v>100.8015975952148</v>
       </c>
       <c r="K83" t="n">
-        <v>-2.791107177734375</v>
+        <v>-5.288406372070312</v>
       </c>
       <c r="L83" t="n">
-        <v>0.25</v>
+        <v>0.1240000000000236</v>
       </c>
       <c r="M83" t="n">
-        <v>-0.01625950345944753</v>
+        <v>-0.01426259011463511</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01995925340034416</v>
+        <v>-0.02823808076178415</v>
       </c>
       <c r="O83" t="n">
-        <v>1723.507366701439</v>
+        <v>1511.834552151321</v>
       </c>
       <c r="P83" t="n">
-        <v>1172.231412428306</v>
+        <v>1093.344012995173</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>1736</v>
+        <v>1810</v>
       </c>
       <c r="B84" t="n">
         <v>16.4</v>
       </c>
       <c r="C84" t="n">
-        <v>37.08000068664551</v>
+        <v>33.76800041198731</v>
       </c>
       <c r="D84" t="n">
-        <v>6947</v>
+        <v>7100</v>
       </c>
       <c r="E84" t="n">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="F84" t="n">
-        <v>4447</v>
+        <v>4455</v>
       </c>
       <c r="G84" t="n">
-        <v>153.075</v>
+        <v>153.673</v>
       </c>
       <c r="H84" t="n">
-        <v>1523.672739515615</v>
+        <v>1408.454536333064</v>
       </c>
       <c r="I84" t="n">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="J84" t="n">
-        <v>106.0900039672852</v>
+        <v>87.98440551757812</v>
       </c>
       <c r="K84" t="n">
-        <v>-7.758895874023438</v>
+        <v>-12.81719207763672</v>
       </c>
       <c r="L84" t="n">
-        <v>0.3009999999999877</v>
+        <v>0.4739999999999895</v>
       </c>
       <c r="M84" t="n">
-        <v>-0.01631495472130048</v>
+        <v>-0.01420759838829031</v>
       </c>
       <c r="N84" t="n">
-        <v>-0.02327187501470378</v>
+        <v>-0.02021860189761852</v>
       </c>
       <c r="O84" t="n">
-        <v>1729.385200457851</v>
+        <v>1506.005429158773</v>
       </c>
       <c r="P84" t="n">
-        <v>1125.315265195763</v>
+        <v>1015.881737522317</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>1763</v>
+        <v>1837</v>
       </c>
       <c r="B85" t="n">
         <v>16.6</v>
       </c>
       <c r="C85" t="n">
-        <v>36.1439998626709</v>
+        <v>33.08399848937989</v>
       </c>
       <c r="D85" t="n">
-        <v>7000</v>
+        <v>7147</v>
       </c>
       <c r="E85" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F85" t="n">
-        <v>4500</v>
+        <v>4502</v>
       </c>
       <c r="G85" t="n">
-        <v>153.199</v>
+        <v>153.91</v>
       </c>
       <c r="H85" t="n">
-        <v>1490.097421226529</v>
+        <v>1385.905178974304</v>
       </c>
       <c r="I85" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J85" t="n">
-        <v>100.8015975952148</v>
+        <v>84.45609283447266</v>
       </c>
       <c r="K85" t="n">
-        <v>-5.288406372070312</v>
+        <v>-3.528312683105469</v>
       </c>
       <c r="L85" t="n">
-        <v>0.1240000000000236</v>
+        <v>0.2369999999999948</v>
       </c>
       <c r="M85" t="n">
-        <v>-0.01661503164521207</v>
+        <v>-0.01272203052893833</v>
       </c>
       <c r="N85" t="n">
-        <v>-0.02823808076178415</v>
+        <v>0.009132161339904668</v>
       </c>
       <c r="O85" t="n">
-        <v>1761.193354392479</v>
+        <v>1348.535236067463</v>
       </c>
       <c r="P85" t="n">
-        <v>1093.344012995173</v>
+        <v>994.5648185043473</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>1810</v>
+        <v>1865</v>
       </c>
       <c r="B86" t="n">
         <v>16.8</v>
       </c>
       <c r="C86" t="n">
-        <v>33.76800041198731</v>
+        <v>32.6879997253418</v>
       </c>
       <c r="D86" t="n">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="E86" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="F86" t="n">
-        <v>4600</v>
+        <v>4555</v>
       </c>
       <c r="G86" t="n">
-        <v>153.673</v>
+        <v>154.063</v>
       </c>
       <c r="H86" t="n">
-        <v>1408.454536333064</v>
+        <v>1373.045292818488</v>
       </c>
       <c r="I86" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="J86" t="n">
-        <v>87.98440551757812</v>
+        <v>82.44639587402344</v>
       </c>
       <c r="K86" t="n">
-        <v>-12.81719207763672</v>
+        <v>-2.009696960449219</v>
       </c>
       <c r="L86" t="n">
-        <v>0.4739999999999895</v>
+        <v>0.1529999999999916</v>
       </c>
       <c r="M86" t="n">
-        <v>-0.01651815452444212</v>
+        <v>-0.01136212618044538</v>
       </c>
       <c r="N86" t="n">
-        <v>-0.02021860189761852</v>
+        <v>0.007757041846953213</v>
       </c>
       <c r="O86" t="n">
-        <v>1750.924379590865</v>
+        <v>1204.38537512721</v>
       </c>
       <c r="P86" t="n">
-        <v>1015.881737522317</v>
+        <v>982.4243555730511</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>1837</v>
+        <v>1893</v>
       </c>
       <c r="B87" t="n">
         <v>17</v>
       </c>
       <c r="C87" t="n">
-        <v>33.08399848937989</v>
+        <v>31.31999931335449</v>
       </c>
       <c r="D87" t="n">
-        <v>7147</v>
+        <v>7250</v>
       </c>
       <c r="E87" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F87" t="n">
-        <v>4647</v>
+        <v>4605</v>
       </c>
       <c r="G87" t="n">
-        <v>153.91</v>
+        <v>154.267</v>
       </c>
       <c r="H87" t="n">
-        <v>1385.905178974304</v>
+        <v>1329.719945753676</v>
       </c>
       <c r="I87" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J87" t="n">
-        <v>84.45609283447266</v>
+        <v>75.68999481201172</v>
       </c>
       <c r="K87" t="n">
-        <v>-3.528312683105469</v>
+        <v>-6.756401062011719</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2369999999999948</v>
+        <v>0.2040000000000077</v>
       </c>
       <c r="M87" t="n">
-        <v>-0.01501412811970608</v>
+        <v>-0.01186578133071737</v>
       </c>
       <c r="N87" t="n">
-        <v>0.009132161339904668</v>
+        <v>-0.02980476533709689</v>
       </c>
       <c r="O87" t="n">
-        <v>1591.497580688845</v>
+        <v>1257.772821056041</v>
       </c>
       <c r="P87" t="n">
-        <v>994.5648185043473</v>
+        <v>941.6176469988477</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>1865</v>
+        <v>1922</v>
       </c>
       <c r="B88" t="n">
         <v>17.2</v>
       </c>
       <c r="C88" t="n">
-        <v>32.6879997253418</v>
+        <v>30.52799835205078</v>
       </c>
       <c r="D88" t="n">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="E88" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F88" t="n">
-        <v>4700</v>
+        <v>4655</v>
       </c>
       <c r="G88" t="n">
-        <v>154.063</v>
+        <v>154.443</v>
       </c>
       <c r="H88" t="n">
-        <v>1373.045292818488</v>
+        <v>1305.41654059729</v>
       </c>
       <c r="I88" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J88" t="n">
-        <v>82.44639587402344</v>
+        <v>71.91039276123047</v>
       </c>
       <c r="K88" t="n">
-        <v>-2.009696960449219</v>
+        <v>-3.77960205078125</v>
       </c>
       <c r="L88" t="n">
-        <v>0.1529999999999916</v>
+        <v>0.1760000000000161</v>
       </c>
       <c r="M88" t="n">
-        <v>-0.01363304835028855</v>
+        <v>-0.01118088886025571</v>
       </c>
       <c r="N88" t="n">
-        <v>0.007757041846953213</v>
+        <v>-0.005219416734224609</v>
       </c>
       <c r="O88" t="n">
-        <v>1445.103125130586</v>
+        <v>1185.174219187105</v>
       </c>
       <c r="P88" t="n">
-        <v>982.4243555730511</v>
+        <v>918.7960444934561</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>1893</v>
+        <v>1953</v>
       </c>
       <c r="B89" t="n">
         <v>17.4</v>
       </c>
       <c r="C89" t="n">
-        <v>31.31999931335449</v>
+        <v>29.9879997253418</v>
       </c>
       <c r="D89" t="n">
-        <v>7250</v>
+        <v>7348</v>
       </c>
       <c r="E89" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F89" t="n">
-        <v>4750</v>
+        <v>4703</v>
       </c>
       <c r="G89" t="n">
-        <v>154.267</v>
+        <v>154.553</v>
       </c>
       <c r="H89" t="n">
-        <v>1329.719945753676</v>
+        <v>1289.17393183848</v>
       </c>
       <c r="I89" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J89" t="n">
-        <v>75.68999481201172</v>
+        <v>69.38890075683594</v>
       </c>
       <c r="K89" t="n">
-        <v>-6.756401062011719</v>
+        <v>-2.521492004394531</v>
       </c>
       <c r="L89" t="n">
-        <v>0.2040000000000077</v>
+        <v>0.1099999999999852</v>
       </c>
       <c r="M89" t="n">
-        <v>-0.0140868153322642</v>
+        <v>-0.01051714150355678</v>
       </c>
       <c r="N89" t="n">
-        <v>-0.02980476533709689</v>
+        <v>-0.005056815297351543</v>
       </c>
       <c r="O89" t="n">
-        <v>1493.202425220005</v>
+        <v>1114.816999377019</v>
       </c>
       <c r="P89" t="n">
-        <v>941.6176469988477</v>
+        <v>903.5736923495404</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>1922</v>
+        <v>1980</v>
       </c>
       <c r="B90" t="n">
         <v>17.6</v>
       </c>
       <c r="C90" t="n">
-        <v>30.52799835205078</v>
+        <v>29.4120002746582</v>
       </c>
       <c r="D90" t="n">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="E90" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F90" t="n">
-        <v>4800</v>
+        <v>4755</v>
       </c>
       <c r="G90" t="n">
-        <v>154.443</v>
+        <v>154.574</v>
       </c>
       <c r="H90" t="n">
-        <v>1305.41654059729</v>
+        <v>1272.141436849948</v>
       </c>
       <c r="I90" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J90" t="n">
-        <v>71.91039276123047</v>
+        <v>66.7489013671875</v>
       </c>
       <c r="K90" t="n">
-        <v>-3.77960205078125</v>
+        <v>-2.639999389648438</v>
       </c>
       <c r="L90" t="n">
-        <v>0.1760000000000161</v>
+        <v>0.02100000000001501</v>
       </c>
       <c r="M90" t="n">
-        <v>-0.01337068936901946</v>
+        <v>-0.01066283565173676</v>
       </c>
       <c r="N90" t="n">
-        <v>-0.005219416734224609</v>
+        <v>-0.02164712765808281</v>
       </c>
       <c r="O90" t="n">
-        <v>1417.293073116062</v>
+        <v>1130.260579084096</v>
       </c>
       <c r="P90" t="n">
-        <v>918.7960444934561</v>
+        <v>887.6383565066753</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>1953</v>
+        <v>2013</v>
       </c>
       <c r="B91" t="n">
         <v>17.8</v>
       </c>
       <c r="C91" t="n">
-        <v>29.9879997253418</v>
+        <v>28.54799938201904</v>
       </c>
       <c r="D91" t="n">
-        <v>7348</v>
+        <v>7446</v>
       </c>
       <c r="E91" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F91" t="n">
-        <v>4848</v>
+        <v>4801</v>
       </c>
       <c r="G91" t="n">
-        <v>154.553</v>
+        <v>154.68</v>
       </c>
       <c r="H91" t="n">
-        <v>1289.17393183848</v>
+        <v>1247.159707572171</v>
       </c>
       <c r="I91" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J91" t="n">
-        <v>69.38890075683594</v>
+        <v>62.8848991394043</v>
       </c>
       <c r="K91" t="n">
-        <v>-2.521492004394531</v>
+        <v>-3.864002227783203</v>
       </c>
       <c r="L91" t="n">
-        <v>0.1099999999999852</v>
+        <v>0.1059999999999945</v>
       </c>
       <c r="M91" t="n">
-        <v>-0.0126754506653163</v>
+        <v>-0.01076293738803278</v>
       </c>
       <c r="N91" t="n">
-        <v>-0.005056815297351543</v>
+        <v>-0.02067393725851418</v>
       </c>
       <c r="O91" t="n">
-        <v>1343.597770523528</v>
+        <v>1140.871363131474</v>
       </c>
       <c r="P91" t="n">
-        <v>903.5736923495404</v>
+        <v>864.3195635302529</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>1980</v>
+        <v>2069</v>
       </c>
       <c r="B92" t="n">
         <v>18</v>
       </c>
       <c r="C92" t="n">
-        <v>29.4120002746582</v>
+        <v>27</v>
       </c>
       <c r="D92" t="n">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="E92" t="n">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="F92" t="n">
-        <v>4900</v>
+        <v>4955</v>
       </c>
       <c r="G92" t="n">
-        <v>154.574</v>
+        <v>154.94</v>
       </c>
       <c r="H92" t="n">
-        <v>1272.141436849948</v>
+        <v>1204.10262</v>
       </c>
       <c r="I92" t="n">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="J92" t="n">
-        <v>66.7489013671875</v>
+        <v>56.25</v>
       </c>
       <c r="K92" t="n">
-        <v>-2.639999389648438</v>
+        <v>-6.634899139404297</v>
       </c>
       <c r="L92" t="n">
-        <v>0.02100000000001501</v>
+        <v>0.2599999999999909</v>
       </c>
       <c r="M92" t="n">
-        <v>-0.01277847470260237</v>
+        <v>-0.01017899950065501</v>
       </c>
       <c r="N92" t="n">
-        <v>-0.02164712765808281</v>
+        <v>-0.005917033471479823</v>
       </c>
       <c r="O92" t="n">
-        <v>1354.518318475851</v>
+        <v>1078.973947069431</v>
       </c>
       <c r="P92" t="n">
-        <v>887.6383565066753</v>
+        <v>824.2935</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>2013</v>
+        <v>2144</v>
       </c>
       <c r="B93" t="n">
         <v>18.2</v>
       </c>
       <c r="C93" t="n">
-        <v>28.54799938201904</v>
+        <v>24.62400054931641</v>
       </c>
       <c r="D93" t="n">
-        <v>7446</v>
+        <v>7700</v>
       </c>
       <c r="E93" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="F93" t="n">
-        <v>4946</v>
+        <v>5055</v>
       </c>
       <c r="G93" t="n">
-        <v>154.68</v>
+        <v>155.24</v>
       </c>
       <c r="H93" t="n">
-        <v>1247.159707572171</v>
+        <v>1142.264414055019</v>
       </c>
       <c r="I93" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="J93" t="n">
-        <v>62.8848991394043</v>
+        <v>46.78560256958008</v>
       </c>
       <c r="K93" t="n">
-        <v>-3.864002227783203</v>
+        <v>-9.464397430419922</v>
       </c>
       <c r="L93" t="n">
-        <v>0.1059999999999945</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="M93" t="n">
-        <v>-0.01283731965094554</v>
+        <v>-0.01024878635677243</v>
       </c>
       <c r="N93" t="n">
-        <v>-0.02067393725851418</v>
+        <v>-0.01955783620870233</v>
       </c>
       <c r="O93" t="n">
-        <v>1360.755883000227</v>
+        <v>1086.371353817877</v>
       </c>
       <c r="P93" t="n">
-        <v>864.3195635302529</v>
+        <v>767.2364139479355</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>2069</v>
+        <v>2215</v>
       </c>
       <c r="B94" t="n">
         <v>18.4</v>
       </c>
       <c r="C94" t="n">
-        <v>27</v>
+        <v>24.3</v>
       </c>
       <c r="D94" t="n">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="E94" t="n">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="F94" t="n">
-        <v>5100</v>
+        <v>5155</v>
       </c>
       <c r="G94" t="n">
-        <v>154.94</v>
+        <v>155.39</v>
       </c>
       <c r="H94" t="n">
-        <v>1204.10262</v>
+        <v>1134.2306322</v>
       </c>
       <c r="I94" t="n">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="J94" t="n">
-        <v>56.25</v>
+        <v>45.5625</v>
       </c>
       <c r="K94" t="n">
-        <v>-6.634899139404297</v>
+        <v>-1.223102569580078</v>
       </c>
       <c r="L94" t="n">
-        <v>0.2599999999999909</v>
+        <v>0.1499999999999773</v>
       </c>
       <c r="M94" t="n">
-        <v>-0.01222183261511191</v>
+        <v>-0.00906852687418192</v>
       </c>
       <c r="N94" t="n">
-        <v>-0.005917033471479823</v>
+        <v>0.007766562623795619</v>
       </c>
       <c r="O94" t="n">
-        <v>1295.514257201863</v>
+        <v>961.2638486632836</v>
       </c>
       <c r="P94" t="n">
-        <v>824.2935</v>
+        <v>759.8666940000001</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>2144</v>
+        <v>2293</v>
       </c>
       <c r="B95" t="n">
         <v>18.6</v>
       </c>
       <c r="C95" t="n">
-        <v>24.62400054931641</v>
+        <v>22.82400054931641</v>
       </c>
       <c r="D95" t="n">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="E95" t="n">
         <v>100</v>
       </c>
       <c r="F95" t="n">
-        <v>5200</v>
+        <v>5255</v>
       </c>
       <c r="G95" t="n">
-        <v>155.24</v>
+        <v>155.51</v>
       </c>
       <c r="H95" t="n">
-        <v>1142.264414055019</v>
+        <v>1098.843284161696</v>
       </c>
       <c r="I95" t="n">
         <v>100</v>
       </c>
       <c r="J95" t="n">
-        <v>46.78560256958008</v>
+        <v>40.19560241699219</v>
       </c>
       <c r="K95" t="n">
-        <v>-9.464397430419922</v>
+        <v>-5.366897583007812</v>
       </c>
       <c r="L95" t="n">
-        <v>0.3000000000000114</v>
+        <v>0.1200000000000045</v>
       </c>
       <c r="M95" t="n">
-        <v>-0.0122518463996099</v>
+        <v>-0.009001852920715243</v>
       </c>
       <c r="N95" t="n">
-        <v>-0.01955783620870233</v>
+        <v>-0.01572882753768015</v>
       </c>
       <c r="O95" t="n">
-        <v>1298.695718358649</v>
+        <v>954.1964095958157</v>
       </c>
       <c r="P95" t="n">
-        <v>767.2364139479355</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>2215</v>
-      </c>
-      <c r="B96" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="C96" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D96" t="n">
-        <v>7800</v>
-      </c>
-      <c r="E96" t="n">
-        <v>100</v>
-      </c>
-      <c r="F96" t="n">
-        <v>5300</v>
-      </c>
-      <c r="G96" t="n">
-        <v>155.39</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1134.2306322</v>
-      </c>
-      <c r="I96" t="n">
-        <v>100</v>
-      </c>
-      <c r="J96" t="n">
-        <v>45.5625</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-1.223102569580078</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0.1499999999999773</v>
-      </c>
-      <c r="M96" t="n">
-        <v>-0.01104795773820617</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0.007766562623795619</v>
-      </c>
-      <c r="O96" t="n">
-        <v>1171.083520249854</v>
-      </c>
-      <c r="P96" t="n">
-        <v>759.8666940000001</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>2293</v>
-      </c>
-      <c r="B97" t="n">
-        <v>19</v>
-      </c>
-      <c r="C97" t="n">
-        <v>22.82400054931641</v>
-      </c>
-      <c r="D97" t="n">
-        <v>7900</v>
-      </c>
-      <c r="E97" t="n">
-        <v>100</v>
-      </c>
-      <c r="F97" t="n">
-        <v>5400</v>
-      </c>
-      <c r="G97" t="n">
-        <v>155.51</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1098.843284161696</v>
-      </c>
-      <c r="I97" t="n">
-        <v>100</v>
-      </c>
-      <c r="J97" t="n">
-        <v>40.19560241699219</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-5.366897583007812</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0.1200000000000045</v>
-      </c>
-      <c r="M97" t="n">
-        <v>-0.01094388230024899</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-0.01572882753768015</v>
-      </c>
-      <c r="O97" t="n">
-        <v>1160.051523826393</v>
-      </c>
-      <c r="P97" t="n">
         <v>727.5412275792833</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>2371</v>
-      </c>
-      <c r="B98" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C98" t="n">
-        <v>21.3120002746582</v>
-      </c>
-      <c r="D98" t="n">
-        <v>8000</v>
-      </c>
-      <c r="E98" t="n">
-        <v>100</v>
-      </c>
-      <c r="F98" t="n">
-        <v>5500</v>
-      </c>
-      <c r="G98" t="n">
-        <v>155.66</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1064.651958589972</v>
-      </c>
-      <c r="I98" t="n">
-        <v>100</v>
-      </c>
-      <c r="J98" t="n">
-        <v>35.04640197753906</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-5.149200439453125</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0.1500000000000057</v>
-      </c>
-      <c r="M98" t="n">
-        <v>-0.01067453628240872</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-0.01186392672556699</v>
-      </c>
-      <c r="O98" t="n">
-        <v>1131.500845935324</v>
-      </c>
-      <c r="P98" t="n">
-        <v>696.5489021772075</v>
       </c>
     </row>
   </sheetData>

--- a/temp/0042_results.xlsx
+++ b/temp/0042_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P95"/>
+  <dimension ref="A1:P94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,4701 +512,4651 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>89.9639991760254</v>
+        <v>89.10000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>2755</v>
+        <v>2800</v>
       </c>
       <c r="E2" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F2" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>138.079</v>
+        <v>138.253</v>
       </c>
       <c r="H2" t="n">
-        <v>4717.925174661249</v>
+        <v>4645.253521800001</v>
       </c>
       <c r="I2" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J2" t="n">
-        <v>624.5000610351562</v>
+        <v>612.5625</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.50994873046875</v>
+        <v>-11.93756103515625</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1450000000000102</v>
+        <v>0.1739999999999782</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.04992070614303831</v>
+        <v>-0.07082736109144511</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.02569164369036599</v>
+        <v>-0.09685466139691878</v>
       </c>
       <c r="O2" t="n">
-        <v>5291.594851162061</v>
+        <v>7507.700275693182</v>
       </c>
       <c r="P2" t="n">
-        <v>4268.272764368978</v>
+        <v>4195.818006</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="B3" t="n">
         <v>0.2</v>
       </c>
       <c r="C3" t="n">
-        <v>89.10000000000001</v>
+        <v>88.84800109863282</v>
       </c>
       <c r="D3" t="n">
-        <v>2800</v>
+        <v>2848</v>
       </c>
       <c r="E3" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F3" t="n">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G3" t="n">
-        <v>138.253</v>
+        <v>138.494</v>
       </c>
       <c r="H3" t="n">
-        <v>4645.253521800001</v>
+        <v>4624.18587438299</v>
       </c>
       <c r="I3" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J3" t="n">
-        <v>612.5625</v>
+        <v>609.1024169921875</v>
       </c>
       <c r="K3" t="n">
-        <v>-11.93756103515625</v>
+        <v>-3.4600830078125</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1739999999999782</v>
+        <v>0.2410000000000139</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.06133337282482081</v>
+        <v>-0.05087878023240201</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.09685466139691878</v>
+        <v>0.01042386017805643</v>
       </c>
       <c r="O3" t="n">
-        <v>6501.337519431006</v>
+        <v>5393.150704634613</v>
       </c>
       <c r="P3" t="n">
-        <v>4195.818006</v>
+        <v>4174.817505863703</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="B4" t="n">
         <v>0.4</v>
       </c>
       <c r="C4" t="n">
-        <v>88.84800109863282</v>
+        <v>88.09199752807618</v>
       </c>
       <c r="D4" t="n">
-        <v>2848</v>
+        <v>2900</v>
       </c>
       <c r="E4" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F4" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G4" t="n">
-        <v>138.494</v>
+        <v>138.64</v>
       </c>
       <c r="H4" t="n">
-        <v>4624.18587438299</v>
+        <v>4561.329686811219</v>
       </c>
       <c r="I4" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J4" t="n">
-        <v>609.1024169921875</v>
+        <v>598.7808837890625</v>
       </c>
       <c r="K4" t="n">
-        <v>-3.4600830078125</v>
+        <v>-10.321533203125</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2410000000000139</v>
+        <v>0.1459999999999866</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.04498889275755392</v>
+        <v>-0.05515987451652113</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01042386017805643</v>
+        <v>-0.0732611138907181</v>
       </c>
       <c r="O4" t="n">
-        <v>4768.822632300716</v>
+        <v>5846.94669875124</v>
       </c>
       <c r="P4" t="n">
-        <v>4174.817505863703</v>
+        <v>4112.173293542626</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="B5" t="n">
         <v>0.6000000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>88.09199752807618</v>
+        <v>87.98400192260742</v>
       </c>
       <c r="D5" t="n">
-        <v>2900</v>
+        <v>2949</v>
       </c>
       <c r="E5" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F5" t="n">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G5" t="n">
-        <v>138.64</v>
+        <v>138.806</v>
       </c>
       <c r="H5" t="n">
-        <v>4561.329686811219</v>
+        <v>4552.393167198728</v>
       </c>
       <c r="I5" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J5" t="n">
-        <v>598.7808837890625</v>
+        <v>597.3135986328125</v>
       </c>
       <c r="K5" t="n">
-        <v>-10.321533203125</v>
+        <v>-1.46728515625</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1459999999999866</v>
+        <v>0.1660000000000252</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.05048659088973016</v>
+        <v>-0.03807076365068544</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.0732611138907181</v>
+        <v>0.01638041715802363</v>
       </c>
       <c r="O5" t="n">
-        <v>5351.578634311397</v>
+        <v>4035.500946972657</v>
       </c>
       <c r="P5" t="n">
-        <v>4112.173293542626</v>
+        <v>4103.268344251744</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="B6" t="n">
         <v>0.8</v>
       </c>
       <c r="C6" t="n">
-        <v>87.98400192260742</v>
+        <v>87.44400329589844</v>
       </c>
       <c r="D6" t="n">
-        <v>2949</v>
+        <v>3000</v>
       </c>
       <c r="E6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F6" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G6" t="n">
-        <v>138.806</v>
+        <v>138.985</v>
       </c>
       <c r="H6" t="n">
-        <v>4552.393167198728</v>
+        <v>4507.8683492735</v>
       </c>
       <c r="I6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J6" t="n">
-        <v>597.3135986328125</v>
+        <v>590.004150390625</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.46728515625</v>
+        <v>-7.3094482421875</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1660000000000252</v>
+        <v>0.179000000000002</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.03434806283707116</v>
+        <v>-0.03614363702510819</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01638041715802363</v>
+        <v>-0.03917901532296254</v>
       </c>
       <c r="O6" t="n">
-        <v>3640.894660729543</v>
+        <v>3831.225524661468</v>
       </c>
       <c r="P6" t="n">
-        <v>4103.268344251744</v>
+        <v>4058.906219795419</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>87.44400329589844</v>
+        <v>86.90399780273438</v>
       </c>
       <c r="D7" t="n">
-        <v>3000</v>
+        <v>3047</v>
       </c>
       <c r="E7" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F7" t="n">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G7" t="n">
-        <v>138.985</v>
+        <v>139.158</v>
       </c>
       <c r="H7" t="n">
-        <v>4507.8683492735</v>
+        <v>4463.60877979846</v>
       </c>
       <c r="I7" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J7" t="n">
-        <v>590.004150390625</v>
+        <v>582.7395629882812</v>
       </c>
       <c r="K7" t="n">
-        <v>-7.3094482421875</v>
+        <v>-7.26458740234375</v>
       </c>
       <c r="L7" t="n">
-        <v>0.179000000000002</v>
+        <v>0.1729999999999734</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03343554724432145</v>
+        <v>-0.03576932388097679</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.03917901532296254</v>
+        <v>-0.04321760986034621</v>
       </c>
       <c r="O7" t="n">
-        <v>3544.168007898074</v>
+        <v>3791.548331383539</v>
       </c>
       <c r="P7" t="n">
-        <v>4058.906219795419</v>
+        <v>4014.817405794777</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="B8" t="n">
         <v>1.2</v>
       </c>
       <c r="C8" t="n">
-        <v>86.90399780273438</v>
+        <v>87.15599670410157</v>
       </c>
       <c r="D8" t="n">
-        <v>3047</v>
+        <v>3100</v>
       </c>
       <c r="E8" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F8" t="n">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>139.158</v>
+        <v>139.218</v>
       </c>
       <c r="H8" t="n">
-        <v>4463.60877979846</v>
+        <v>4484.22986609994</v>
       </c>
       <c r="I8" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J8" t="n">
-        <v>582.7395629882812</v>
+        <v>586.1240844726562</v>
       </c>
       <c r="K8" t="n">
-        <v>-7.26458740234375</v>
+        <v>3.384521484375</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1729999999999734</v>
+        <v>0.06000000000000227</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.03393563287028669</v>
+        <v>-0.01502699460914417</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.04321760986034621</v>
+        <v>0.04240648605764992</v>
       </c>
       <c r="O8" t="n">
-        <v>3597.177084250389</v>
+        <v>1592.861428569282</v>
       </c>
       <c r="P8" t="n">
-        <v>4014.817405794777</v>
+        <v>4035.357804347299</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="B9" t="n">
         <v>1.4</v>
       </c>
       <c r="C9" t="n">
-        <v>87.15599670410157</v>
+        <v>85.35599670410157</v>
       </c>
       <c r="D9" t="n">
-        <v>3100</v>
+        <v>3148</v>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F9" t="n">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="G9" t="n">
-        <v>139.218</v>
+        <v>139.488</v>
       </c>
       <c r="H9" t="n">
-        <v>4484.22986609994</v>
+        <v>4338.205736659878</v>
       </c>
       <c r="I9" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J9" t="n">
-        <v>586.1240844726562</v>
+        <v>562.1640625</v>
       </c>
       <c r="K9" t="n">
-        <v>3.384521484375</v>
+        <v>-23.96002197265625</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06000000000000227</v>
+        <v>0.2700000000000102</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.01395579711981472</v>
+        <v>-0.05531247811191548</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04240648605764992</v>
+        <v>-0.1975257791962994</v>
       </c>
       <c r="O9" t="n">
-        <v>1479.31449470036</v>
+        <v>5863.122679863041</v>
       </c>
       <c r="P9" t="n">
-        <v>4035.357804347299</v>
+        <v>3889.948526559213</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B10" t="n">
         <v>1.6</v>
       </c>
       <c r="C10" t="n">
-        <v>85.35599670410157</v>
+        <v>85.5</v>
       </c>
       <c r="D10" t="n">
-        <v>3148</v>
+        <v>3200</v>
       </c>
       <c r="E10" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F10" t="n">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G10" t="n">
-        <v>139.488</v>
+        <v>139.661</v>
       </c>
       <c r="H10" t="n">
-        <v>4338.205736659878</v>
+        <v>4349.779245</v>
       </c>
       <c r="I10" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J10" t="n">
-        <v>562.1640625</v>
+        <v>564.0625</v>
       </c>
       <c r="K10" t="n">
-        <v>-23.96002197265625</v>
+        <v>1.8984375</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2700000000000102</v>
+        <v>0.1730000000000018</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.05426068922685449</v>
+        <v>-0.03127555524814306</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.1975257791962994</v>
+        <v>0.04904393822568973</v>
       </c>
       <c r="O10" t="n">
-        <v>5751.633058046576</v>
+        <v>3315.208856303164</v>
       </c>
       <c r="P10" t="n">
-        <v>3889.948526559213</v>
+        <v>3901.46955</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="B11" t="n">
         <v>1.8</v>
       </c>
       <c r="C11" t="n">
-        <v>85.5</v>
+        <v>84.42000274658203</v>
       </c>
       <c r="D11" t="n">
-        <v>3200</v>
+        <v>3249</v>
       </c>
       <c r="E11" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F11" t="n">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="G11" t="n">
-        <v>139.661</v>
+        <v>139.861</v>
       </c>
       <c r="H11" t="n">
-        <v>4349.779245</v>
+        <v>4263.440874610405</v>
       </c>
       <c r="I11" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J11" t="n">
-        <v>564.0625</v>
+        <v>549.9025268554688</v>
       </c>
       <c r="K11" t="n">
-        <v>1.8984375</v>
+        <v>-14.15997314453125</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1730000000000018</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.03111516057608883</v>
+        <v>-0.04722262802953504</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04904393822568973</v>
+        <v>-0.1067151668579452</v>
       </c>
       <c r="O11" t="n">
-        <v>3298.207021065416</v>
+        <v>5005.598571130715</v>
       </c>
       <c r="P11" t="n">
-        <v>3901.46955</v>
+        <v>3815.538776580835</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="B12" t="n">
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>84.42000274658203</v>
+        <v>83.91599807739259</v>
       </c>
       <c r="D12" t="n">
-        <v>3249</v>
+        <v>3300</v>
       </c>
       <c r="E12" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F12" t="n">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G12" t="n">
-        <v>139.861</v>
+        <v>139.985</v>
       </c>
       <c r="H12" t="n">
-        <v>4263.440874610405</v>
+        <v>4223.513028754098</v>
       </c>
       <c r="I12" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J12" t="n">
-        <v>549.9025268554688</v>
+        <v>543.3560791015625</v>
       </c>
       <c r="K12" t="n">
-        <v>-14.15997314453125</v>
+        <v>-6.54644775390625</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1999999999999886</v>
+        <v>0.1240000000000236</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.04689085556472919</v>
+        <v>-0.04598965637877205</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1067151668579452</v>
+        <v>-0.04167919551553977</v>
       </c>
       <c r="O12" t="n">
-        <v>4970.430689861294</v>
+        <v>4874.903576149838</v>
       </c>
       <c r="P12" t="n">
-        <v>3815.538776580835</v>
+        <v>3775.8121780091</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="B13" t="n">
         <v>2.2</v>
       </c>
       <c r="C13" t="n">
-        <v>83.91599807739259</v>
+        <v>83.7</v>
       </c>
       <c r="D13" t="n">
-        <v>3300</v>
+        <v>3348</v>
       </c>
       <c r="E13" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F13" t="n">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="G13" t="n">
-        <v>139.985</v>
+        <v>140.122</v>
       </c>
       <c r="H13" t="n">
-        <v>4223.513028754098</v>
+        <v>4206.472288200001</v>
       </c>
       <c r="I13" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J13" t="n">
-        <v>543.3560791015625</v>
+        <v>540.5625</v>
       </c>
       <c r="K13" t="n">
-        <v>-6.54644775390625</v>
+        <v>-2.7935791015625</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1240000000000236</v>
+        <v>0.1370000000000005</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.04593000446455546</v>
+        <v>-0.03643364155797008</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.04167919551553977</v>
+        <v>-0.002685277590961488</v>
       </c>
       <c r="O13" t="n">
-        <v>4868.580473242879</v>
+        <v>3861.966005144828</v>
       </c>
       <c r="P13" t="n">
-        <v>3775.8121780091</v>
+        <v>3758.859834</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="B14" t="n">
         <v>2.4</v>
       </c>
       <c r="C14" t="n">
-        <v>83.7</v>
+        <v>83.05199890136718</v>
       </c>
       <c r="D14" t="n">
-        <v>3348</v>
+        <v>3400</v>
       </c>
       <c r="E14" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F14" t="n">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G14" t="n">
-        <v>140.122</v>
+        <v>140.259</v>
       </c>
       <c r="H14" t="n">
-        <v>4206.472288200001</v>
+        <v>4155.60470347177</v>
       </c>
       <c r="I14" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J14" t="n">
-        <v>540.5625</v>
+        <v>532.2249145507812</v>
       </c>
       <c r="K14" t="n">
-        <v>-2.7935791015625</v>
+        <v>-8.33758544921875</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1370000000000005</v>
+        <v>0.136999999999972</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.03689276609007634</v>
+        <v>-0.03965564675963523</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.002685277590961488</v>
+        <v>-0.05578647111912576</v>
       </c>
       <c r="O14" t="n">
-        <v>3910.633205548093</v>
+        <v>4203.498556521335</v>
       </c>
       <c r="P14" t="n">
-        <v>3758.859834</v>
+        <v>3708.26517915362</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="B15" t="n">
         <v>2.6</v>
       </c>
       <c r="C15" t="n">
-        <v>83.05199890136718</v>
+        <v>82.83600082397462</v>
       </c>
       <c r="D15" t="n">
-        <v>3400</v>
+        <v>3450</v>
       </c>
       <c r="E15" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F15" t="n">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="G15" t="n">
-        <v>140.259</v>
+        <v>140.388</v>
       </c>
       <c r="H15" t="n">
-        <v>4155.60470347177</v>
+        <v>4138.734080214655</v>
       </c>
       <c r="I15" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J15" t="n">
-        <v>532.2249145507812</v>
+        <v>529.4600830078125</v>
       </c>
       <c r="K15" t="n">
-        <v>-8.33758544921875</v>
+        <v>-2.76483154296875</v>
       </c>
       <c r="L15" t="n">
-        <v>0.136999999999972</v>
+        <v>0.1290000000000191</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.04010472935998667</v>
+        <v>-0.03183387706030099</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.05578647111912576</v>
+        <v>-0.003771145618363212</v>
       </c>
       <c r="O15" t="n">
-        <v>4251.101312158587</v>
+        <v>3374.390968391905</v>
       </c>
       <c r="P15" t="n">
-        <v>3708.26517915362</v>
+        <v>3691.488110678029</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="B16" t="n">
         <v>2.8</v>
       </c>
       <c r="C16" t="n">
-        <v>82.83600082397462</v>
+        <v>82.4759994506836</v>
       </c>
       <c r="D16" t="n">
-        <v>3450</v>
+        <v>3500</v>
       </c>
       <c r="E16" t="n">
         <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="G16" t="n">
-        <v>140.388</v>
+        <v>140.546</v>
       </c>
       <c r="H16" t="n">
-        <v>4138.734080214655</v>
+        <v>4110.710528059029</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
       </c>
       <c r="J16" t="n">
-        <v>529.4600830078125</v>
+        <v>524.8681030273438</v>
       </c>
       <c r="K16" t="n">
-        <v>-2.76483154296875</v>
+        <v>-4.59197998046875</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1290000000000191</v>
+        <v>0.157999999999987</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.03266859311248248</v>
+        <v>-0.02780401032835382</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.003771145618363212</v>
+        <v>-0.01667489414431254</v>
       </c>
       <c r="O16" t="n">
-        <v>3462.870869923143</v>
+        <v>2947.225094805504</v>
       </c>
       <c r="P16" t="n">
-        <v>3691.488110678029</v>
+        <v>3663.623350864379</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="B17" t="n">
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>82.4759994506836</v>
+        <v>81.75599670410156</v>
       </c>
       <c r="D17" t="n">
-        <v>3500</v>
+        <v>3548</v>
       </c>
       <c r="E17" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F17" t="n">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="G17" t="n">
-        <v>140.546</v>
+        <v>140.682</v>
       </c>
       <c r="H17" t="n">
-        <v>4110.710528059029</v>
+        <v>4055.01784097975</v>
       </c>
       <c r="I17" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J17" t="n">
-        <v>524.8681030273438</v>
+        <v>515.7440795898438</v>
       </c>
       <c r="K17" t="n">
-        <v>-4.59197998046875</v>
+        <v>-9.1240234375</v>
       </c>
       <c r="L17" t="n">
-        <v>0.157999999999987</v>
+        <v>0.1359999999999957</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02882782054157452</v>
+        <v>-0.03424560652191481</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.01667489414431254</v>
+        <v>-0.06882021269408495</v>
       </c>
       <c r="O17" t="n">
-        <v>3055.748977406899</v>
+        <v>3630.03429132297</v>
       </c>
       <c r="P17" t="n">
-        <v>3663.623350864379</v>
+        <v>3608.25899498304</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="B18" t="n">
         <v>3.2</v>
       </c>
       <c r="C18" t="n">
-        <v>81.75599670410156</v>
+        <v>81.43200302124023</v>
       </c>
       <c r="D18" t="n">
-        <v>3548</v>
+        <v>3600</v>
       </c>
       <c r="E18" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F18" t="n">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="G18" t="n">
-        <v>140.682</v>
+        <v>140.821</v>
       </c>
       <c r="H18" t="n">
-        <v>4055.01784097975</v>
+        <v>4030.110882817889</v>
       </c>
       <c r="I18" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J18" t="n">
-        <v>515.7440795898438</v>
+        <v>511.6644287109375</v>
       </c>
       <c r="K18" t="n">
-        <v>-9.1240234375</v>
+        <v>-4.07965087890625</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1359999999999957</v>
+        <v>0.13900000000001</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.03502789050596473</v>
+        <v>-0.02993394918205208</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.06882021269408495</v>
+        <v>-0.01448884190530142</v>
       </c>
       <c r="O18" t="n">
-        <v>3712.956393632261</v>
+        <v>3172.998613297521</v>
       </c>
       <c r="P18" t="n">
-        <v>3608.25899498304</v>
+        <v>3583.504457006723</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="B19" t="n">
         <v>3.4</v>
       </c>
       <c r="C19" t="n">
-        <v>81.43200302124023</v>
+        <v>80.74800109863281</v>
       </c>
       <c r="D19" t="n">
-        <v>3600</v>
+        <v>3651</v>
       </c>
       <c r="E19" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" t="n">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="G19" t="n">
-        <v>140.821</v>
+        <v>140.954</v>
       </c>
       <c r="H19" t="n">
-        <v>4030.110882817889</v>
+        <v>3977.842600743084</v>
       </c>
       <c r="I19" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J19" t="n">
-        <v>511.6644287109375</v>
+        <v>503.1049194335938</v>
       </c>
       <c r="K19" t="n">
-        <v>-4.07965087890625</v>
+        <v>-8.55950927734375</v>
       </c>
       <c r="L19" t="n">
-        <v>0.13900000000001</v>
+        <v>0.1330000000000098</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0308956824593821</v>
+        <v>-0.03416266884699792</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.01448884190530142</v>
+        <v>-0.0597819074545337</v>
       </c>
       <c r="O19" t="n">
-        <v>3274.942340694502</v>
+        <v>3621.242897781779</v>
       </c>
       <c r="P19" t="n">
-        <v>3583.504457006723</v>
+        <v>3531.567486545831</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="B20" t="n">
         <v>3.6</v>
       </c>
       <c r="C20" t="n">
-        <v>80.74800109863281</v>
+        <v>79.7759994506836</v>
       </c>
       <c r="D20" t="n">
-        <v>3651</v>
+        <v>3700</v>
       </c>
       <c r="E20" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F20" t="n">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="G20" t="n">
-        <v>140.954</v>
+        <v>141.118</v>
       </c>
       <c r="H20" t="n">
-        <v>3977.842600743084</v>
+        <v>3904.300344699013</v>
       </c>
       <c r="I20" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J20" t="n">
-        <v>503.1049194335938</v>
+        <v>491.0655822753906</v>
       </c>
       <c r="K20" t="n">
-        <v>-8.55950927734375</v>
+        <v>-12.03933715820312</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1330000000000098</v>
+        <v>0.1639999999999873</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.03495997081887326</v>
+        <v>-0.0431964210651286</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.0597819074545337</v>
+        <v>-0.09187540804481673</v>
       </c>
       <c r="O20" t="n">
-        <v>3705.756906800566</v>
+        <v>4578.820632903631</v>
       </c>
       <c r="P20" t="n">
-        <v>3531.567486545831</v>
+        <v>3458.518286417358</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="B21" t="n">
         <v>3.8</v>
       </c>
       <c r="C21" t="n">
-        <v>79.7759994506836</v>
+        <v>79.41599807739259</v>
       </c>
       <c r="D21" t="n">
-        <v>3700</v>
+        <v>3752</v>
       </c>
       <c r="E21" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F21" t="n">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="G21" t="n">
-        <v>141.118</v>
+        <v>141.233</v>
       </c>
       <c r="H21" t="n">
-        <v>3904.300344699013</v>
+        <v>3877.280971320672</v>
       </c>
       <c r="I21" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J21" t="n">
-        <v>491.0655822753906</v>
+        <v>486.6435852050781</v>
       </c>
       <c r="K21" t="n">
-        <v>-12.03933715820312</v>
+        <v>-4.4219970703125</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1639999999999873</v>
+        <v>0.1150000000000091</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.04366771876119974</v>
+        <v>-0.03972327078606467</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.09187540804481673</v>
+        <v>-0.02205204004473033</v>
       </c>
       <c r="O21" t="n">
-        <v>4628.778188687172</v>
+        <v>4210.666703322855</v>
       </c>
       <c r="P21" t="n">
-        <v>3458.518286417358</v>
+        <v>3431.688153734808</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="B22" t="n">
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>79.41599807739259</v>
+        <v>79.1639991760254</v>
       </c>
       <c r="D22" t="n">
-        <v>3752</v>
+        <v>3800</v>
       </c>
       <c r="E22" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F22" t="n">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="G22" t="n">
-        <v>141.233</v>
+        <v>141.32</v>
       </c>
       <c r="H22" t="n">
-        <v>3877.280971320672</v>
+        <v>3858.437856501154</v>
       </c>
       <c r="I22" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J22" t="n">
-        <v>486.6435852050781</v>
+        <v>483.5600891113281</v>
       </c>
       <c r="K22" t="n">
-        <v>-4.4219970703125</v>
+        <v>-3.08349609375</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1150000000000091</v>
+        <v>0.08699999999998909</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.04034629329936498</v>
+        <v>-0.03567197739169948</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.02205204004473033</v>
+        <v>-0.01534557644826272</v>
       </c>
       <c r="O22" t="n">
-        <v>4276.707089732688</v>
+        <v>3781.229603520145</v>
       </c>
       <c r="P22" t="n">
-        <v>3431.688153734808</v>
+        <v>3412.979637686849</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>747</v>
+        <v>758</v>
       </c>
       <c r="B23" t="n">
         <v>4.2</v>
       </c>
       <c r="C23" t="n">
-        <v>79.1639991760254</v>
+        <v>78.62400054931641</v>
       </c>
       <c r="D23" t="n">
-        <v>3800</v>
+        <v>3851</v>
       </c>
       <c r="E23" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F23" t="n">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="G23" t="n">
-        <v>141.32</v>
+        <v>141.478</v>
       </c>
       <c r="H23" t="n">
-        <v>3858.437856501154</v>
+        <v>3818.254606854701</v>
       </c>
       <c r="I23" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J23" t="n">
-        <v>483.5600891113281</v>
+        <v>476.985595703125</v>
       </c>
       <c r="K23" t="n">
-        <v>-3.08349609375</v>
+        <v>-6.574493408203125</v>
       </c>
       <c r="L23" t="n">
-        <v>0.08699999999998909</v>
+        <v>0.1580000000000155</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.03644622237835168</v>
+        <v>-0.03522560354342479</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.01534557644826272</v>
+        <v>-0.03578434158985395</v>
       </c>
       <c r="O23" t="n">
-        <v>3863.299572105278</v>
+        <v>3733.913975603028</v>
       </c>
       <c r="P23" t="n">
-        <v>3412.979637686849</v>
+        <v>3373.090725007506</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="B24" t="n">
         <v>4.4</v>
       </c>
       <c r="C24" t="n">
-        <v>78.62400054931641</v>
+        <v>77.93999862670898</v>
       </c>
       <c r="D24" t="n">
-        <v>3851</v>
+        <v>3900</v>
       </c>
       <c r="E24" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F24" t="n">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="G24" t="n">
-        <v>141.478</v>
+        <v>141.694</v>
       </c>
       <c r="H24" t="n">
-        <v>3818.254606854701</v>
+        <v>3767.737139010705</v>
       </c>
       <c r="I24" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J24" t="n">
-        <v>476.985595703125</v>
+        <v>468.7224731445312</v>
       </c>
       <c r="K24" t="n">
-        <v>-6.574493408203125</v>
+        <v>-8.26312255859375</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1580000000000155</v>
+        <v>0.2159999999999798</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.03600882699401153</v>
+        <v>-0.03596995399930398</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.03578434158985395</v>
+        <v>-0.04352127370148029</v>
       </c>
       <c r="O24" t="n">
-        <v>3816.935661365222</v>
+        <v>3812.815123926222</v>
       </c>
       <c r="P24" t="n">
-        <v>3373.090725007506</v>
+        <v>3322.957656347457</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="B25" t="n">
         <v>4.600000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>77.93999862670898</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>3900</v>
+        <v>3950</v>
       </c>
       <c r="E25" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F25" t="n">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="G25" t="n">
-        <v>141.694</v>
+        <v>141.99</v>
       </c>
       <c r="H25" t="n">
-        <v>3767.737139010705</v>
+        <v>3728.156392800001</v>
       </c>
       <c r="I25" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J25" t="n">
-        <v>468.7224731445312</v>
+        <v>462.25</v>
       </c>
       <c r="K25" t="n">
-        <v>-8.26312255859375</v>
+        <v>-6.47247314453125</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2159999999999798</v>
+        <v>0.2960000000000207</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.0367190239444575</v>
+        <v>-0.03191579127174942</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.04352127370148029</v>
+        <v>-0.009936806917006784</v>
       </c>
       <c r="O25" t="n">
-        <v>3892.216538112496</v>
+        <v>3383.073874805439</v>
       </c>
       <c r="P25" t="n">
-        <v>3322.957656347457</v>
+        <v>3283.689516000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="B26" t="n">
         <v>4.800000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>77.40000000000001</v>
+        <v>76.75199890136719</v>
       </c>
       <c r="D26" t="n">
-        <v>3950</v>
+        <v>4000</v>
       </c>
       <c r="E26" t="n">
         <v>50</v>
       </c>
       <c r="F26" t="n">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="G26" t="n">
-        <v>141.99</v>
+        <v>142.209</v>
       </c>
       <c r="H26" t="n">
-        <v>3728.156392800001</v>
+        <v>3681.01016692503</v>
       </c>
       <c r="I26" t="n">
         <v>50</v>
       </c>
       <c r="J26" t="n">
-        <v>462.25</v>
+        <v>454.5423889160156</v>
       </c>
       <c r="K26" t="n">
-        <v>-6.47247314453125</v>
+        <v>-7.707611083984375</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2960000000000207</v>
+        <v>0.2189999999999941</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.03278625879978377</v>
+        <v>-0.03196603075276034</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.009936806917006784</v>
+        <v>-0.03654045046248635</v>
       </c>
       <c r="O26" t="n">
-        <v>3475.34343277708</v>
+        <v>3388.399259792596</v>
       </c>
       <c r="P26" t="n">
-        <v>3283.689516000001</v>
+        <v>3236.929057734186</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>793</v>
+        <v>806</v>
       </c>
       <c r="B27" t="n">
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>76.75199890136719</v>
+        <v>76.10399780273438</v>
       </c>
       <c r="D27" t="n">
-        <v>4000</v>
+        <v>4052</v>
       </c>
       <c r="E27" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F27" t="n">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="G27" t="n">
-        <v>142.209</v>
+        <v>142.327</v>
       </c>
       <c r="H27" t="n">
-        <v>3681.01016692503</v>
+        <v>3634.246710038206</v>
       </c>
       <c r="I27" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J27" t="n">
-        <v>454.5423889160156</v>
+        <v>446.8995666503906</v>
       </c>
       <c r="K27" t="n">
-        <v>-7.707611083984375</v>
+        <v>-7.642822265625</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2189999999999941</v>
+        <v>0.117999999999995</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.03281399527516564</v>
+        <v>-0.03412220643657756</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.03654045046248635</v>
+        <v>-0.05248758709690311</v>
       </c>
       <c r="O27" t="n">
-        <v>3478.283499167558</v>
+        <v>3616.953882277222</v>
       </c>
       <c r="P27" t="n">
-        <v>3236.929057734186</v>
+        <v>3190.562974642433</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="B28" t="n">
         <v>5.2</v>
       </c>
       <c r="C28" t="n">
-        <v>76.10399780273438</v>
+        <v>75.67200164794922</v>
       </c>
       <c r="D28" t="n">
-        <v>4052</v>
+        <v>4100</v>
       </c>
       <c r="E28" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F28" t="n">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="G28" t="n">
-        <v>142.327</v>
+        <v>142.445</v>
       </c>
       <c r="H28" t="n">
-        <v>3634.246710038206</v>
+        <v>3603.284048745276</v>
       </c>
       <c r="I28" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J28" t="n">
-        <v>446.8995666503906</v>
+        <v>441.8404235839844</v>
       </c>
       <c r="K28" t="n">
-        <v>-7.642822265625</v>
+        <v>-5.05914306640625</v>
       </c>
       <c r="L28" t="n">
         <v>0.117999999999995</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.03488368709171278</v>
+        <v>-0.03317068958284962</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.05248758709690311</v>
+        <v>-0.02994822769644971</v>
       </c>
       <c r="O28" t="n">
-        <v>3697.670831721555</v>
+        <v>3516.09309578206</v>
       </c>
       <c r="P28" t="n">
-        <v>3190.562974642433</v>
+        <v>3159.871674191149</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="B29" t="n">
         <v>5.4</v>
       </c>
       <c r="C29" t="n">
-        <v>75.67200164794922</v>
+        <v>75.34800109863282</v>
       </c>
       <c r="D29" t="n">
-        <v>4100</v>
+        <v>4151</v>
       </c>
       <c r="E29" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F29" t="n">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="G29" t="n">
-        <v>142.445</v>
+        <v>142.538</v>
       </c>
       <c r="H29" t="n">
-        <v>3603.284048745276</v>
+        <v>3580.173446983148</v>
       </c>
       <c r="I29" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J29" t="n">
-        <v>441.8404235839844</v>
+        <v>438.0649108886719</v>
       </c>
       <c r="K29" t="n">
-        <v>-5.05914306640625</v>
+        <v>-3.7755126953125</v>
       </c>
       <c r="L29" t="n">
-        <v>0.117999999999995</v>
+        <v>0.09300000000001774</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.03394510198762789</v>
+        <v>-0.03111425460356128</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.02994822769644971</v>
+        <v>-0.02013858173354515</v>
       </c>
       <c r="O29" t="n">
-        <v>3598.180810688556</v>
+        <v>3298.110987977495</v>
       </c>
       <c r="P29" t="n">
-        <v>3159.871674191149</v>
+        <v>3136.967980333918</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="B30" t="n">
         <v>5.600000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>75.34800109863282</v>
+        <v>74.6639991760254</v>
       </c>
       <c r="D30" t="n">
-        <v>4151</v>
+        <v>4200</v>
       </c>
       <c r="E30" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F30" t="n">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="G30" t="n">
-        <v>142.538</v>
+        <v>142.712</v>
       </c>
       <c r="H30" t="n">
-        <v>3580.173446983148</v>
+        <v>3531.698593601115</v>
       </c>
       <c r="I30" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J30" t="n">
-        <v>438.0649108886719</v>
+        <v>430.1475830078125</v>
       </c>
       <c r="K30" t="n">
-        <v>-3.7755126953125</v>
+        <v>-7.917327880859375</v>
       </c>
       <c r="L30" t="n">
-        <v>0.09300000000001774</v>
+        <v>0.1739999999999782</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.03193061894530263</v>
+        <v>-0.03262462318436414</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.02013858173354515</v>
+        <v>-0.04792537113699813</v>
       </c>
       <c r="O30" t="n">
-        <v>3384.645608202079</v>
+        <v>3458.210057542599</v>
       </c>
       <c r="P30" t="n">
-        <v>3136.967980333918</v>
+        <v>3088.939461569295</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="B31" t="n">
         <v>5.800000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>74.6639991760254</v>
+        <v>74.0879997253418</v>
       </c>
       <c r="D31" t="n">
-        <v>4200</v>
+        <v>4252</v>
       </c>
       <c r="E31" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F31" t="n">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="G31" t="n">
-        <v>142.712</v>
+        <v>142.852</v>
       </c>
       <c r="H31" t="n">
-        <v>3531.698593601115</v>
+        <v>3491.208605045276</v>
       </c>
       <c r="I31" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J31" t="n">
-        <v>430.1475830078125</v>
+        <v>423.5364074707031</v>
       </c>
       <c r="K31" t="n">
-        <v>-7.917327880859375</v>
+        <v>-6.611175537109375</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1739999999999782</v>
+        <v>0.1400000000000148</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.03337670939555424</v>
+        <v>-0.03290508291384604</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.04792537113699813</v>
+        <v>-0.03865244983069346</v>
       </c>
       <c r="O31" t="n">
-        <v>3537.931195928749</v>
+        <v>3487.93878886768</v>
       </c>
       <c r="P31" t="n">
-        <v>3088.939461569295</v>
+        <v>3048.835362333549</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="B32" t="n">
         <v>6</v>
       </c>
       <c r="C32" t="n">
-        <v>74.0879997253418</v>
+        <v>73.72799835205079</v>
       </c>
       <c r="D32" t="n">
-        <v>4252</v>
+        <v>4300</v>
       </c>
       <c r="E32" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F32" t="n">
-        <v>1607</v>
+        <v>1600</v>
       </c>
       <c r="G32" t="n">
-        <v>142.852</v>
+        <v>143.007</v>
       </c>
       <c r="H32" t="n">
-        <v>3491.208605045276</v>
+        <v>3466.055821878052</v>
       </c>
       <c r="I32" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J32" t="n">
-        <v>423.5364074707031</v>
+        <v>419.4303894042969</v>
       </c>
       <c r="K32" t="n">
-        <v>-6.611175537109375</v>
+        <v>-4.10601806640625</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1400000000000148</v>
+        <v>0.1550000000000011</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.03363151476975634</v>
+        <v>-0.03023465491682373</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.03865244983069346</v>
+        <v>-0.01288599794015922</v>
       </c>
       <c r="O32" t="n">
-        <v>3564.940565594172</v>
+        <v>3204.873421183316</v>
       </c>
       <c r="P32" t="n">
-        <v>3048.835362333549</v>
+        <v>3023.928417950488</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>865</v>
+        <v>877</v>
       </c>
       <c r="B33" t="n">
         <v>6.2</v>
       </c>
       <c r="C33" t="n">
-        <v>73.72799835205079</v>
+        <v>73.22400054931641</v>
       </c>
       <c r="D33" t="n">
-        <v>4300</v>
+        <v>4354</v>
       </c>
       <c r="E33" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F33" t="n">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="G33" t="n">
-        <v>143.007</v>
+        <v>143.176</v>
       </c>
       <c r="H33" t="n">
-        <v>3466.055821878052</v>
+        <v>3431.040684374734</v>
       </c>
       <c r="I33" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J33" t="n">
-        <v>419.4303894042969</v>
+        <v>413.7156066894531</v>
       </c>
       <c r="K33" t="n">
-        <v>-4.10601806640625</v>
+        <v>-5.71478271484375</v>
       </c>
       <c r="L33" t="n">
-        <v>0.1550000000000011</v>
+        <v>0.1689999999999827</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.03101561263004886</v>
+        <v>-0.02905329668449358</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.01288599794015922</v>
+        <v>-0.0239508182890873</v>
       </c>
       <c r="O33" t="n">
-        <v>3287.65493878518</v>
+        <v>3079.64944855632</v>
       </c>
       <c r="P33" t="n">
-        <v>3023.928417950488</v>
+        <v>2989.26346990155</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>877</v>
+        <v>890</v>
       </c>
       <c r="B34" t="n">
         <v>6.4</v>
       </c>
       <c r="C34" t="n">
-        <v>73.22400054931641</v>
+        <v>72.17999725341797</v>
       </c>
       <c r="D34" t="n">
-        <v>4354</v>
+        <v>4400</v>
       </c>
       <c r="E34" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F34" t="n">
-        <v>1709</v>
+        <v>1700</v>
       </c>
       <c r="G34" t="n">
-        <v>143.176</v>
+        <v>143.343</v>
       </c>
       <c r="H34" t="n">
-        <v>3431.040684374734</v>
+        <v>3359.245377298575</v>
       </c>
       <c r="I34" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J34" t="n">
-        <v>413.7156066894531</v>
+        <v>402.0024719238281</v>
       </c>
       <c r="K34" t="n">
-        <v>-5.71478271484375</v>
+        <v>-11.713134765625</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1689999999999827</v>
+        <v>0.1670000000000016</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.02984365453463297</v>
+        <v>-0.03551004850589407</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.0239508182890873</v>
+        <v>-0.09371803580355278</v>
       </c>
       <c r="O34" t="n">
-        <v>3163.427380671095</v>
+        <v>3764.065141624771</v>
       </c>
       <c r="P34" t="n">
-        <v>2989.26346990155</v>
+        <v>2918.215895473352</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>890</v>
+        <v>902</v>
       </c>
       <c r="B35" t="n">
         <v>6.600000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>72.17999725341797</v>
+        <v>71.9639991760254</v>
       </c>
       <c r="D35" t="n">
-        <v>4400</v>
+        <v>4451</v>
       </c>
       <c r="E35" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F35" t="n">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="G35" t="n">
-        <v>143.343</v>
+        <v>143.518</v>
       </c>
       <c r="H35" t="n">
-        <v>3359.245377298575</v>
+        <v>3344.515399061091</v>
       </c>
       <c r="I35" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J35" t="n">
-        <v>402.0024719238281</v>
+        <v>399.60009765625</v>
       </c>
       <c r="K35" t="n">
-        <v>-11.713134765625</v>
+        <v>-2.402374267578125</v>
       </c>
       <c r="L35" t="n">
-        <v>0.1670000000000016</v>
+        <v>0.1750000000000114</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.03611342680339581</v>
+        <v>-0.0306760167434697</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.09371803580355278</v>
+        <v>0.008203692900179528</v>
       </c>
       <c r="O35" t="n">
-        <v>3828.023241159956</v>
+        <v>3251.657774807788</v>
       </c>
       <c r="P35" t="n">
-        <v>2918.215895473352</v>
+        <v>2903.644379898763</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>902</v>
+        <v>914</v>
       </c>
       <c r="B36" t="n">
         <v>6.800000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>71.9639991760254</v>
+        <v>71.63999862670899</v>
       </c>
       <c r="D36" t="n">
-        <v>4451</v>
+        <v>4500</v>
       </c>
       <c r="E36" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F36" t="n">
-        <v>1806</v>
+        <v>1800</v>
       </c>
       <c r="G36" t="n">
-        <v>143.518</v>
+        <v>143.724</v>
       </c>
       <c r="H36" t="n">
-        <v>3344.515399061091</v>
+        <v>3322.49994077728</v>
       </c>
       <c r="I36" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J36" t="n">
-        <v>399.60009765625</v>
+        <v>396.0099792480469</v>
       </c>
       <c r="K36" t="n">
-        <v>-2.402374267578125</v>
+        <v>-3.590118408203125</v>
       </c>
       <c r="L36" t="n">
-        <v>0.1750000000000114</v>
+        <v>0.2059999999999889</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.03138847884212816</v>
+        <v>-0.02688572550572008</v>
       </c>
       <c r="N36" t="n">
-        <v>0.008203692900179528</v>
+        <v>0.002273724367582484</v>
       </c>
       <c r="O36" t="n">
-        <v>3327.178757265584</v>
+        <v>2849.886903606328</v>
       </c>
       <c r="P36" t="n">
-        <v>2903.644379898763</v>
+        <v>2881.869036073165</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>914</v>
+        <v>927</v>
       </c>
       <c r="B37" t="n">
         <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>71.63999862670899</v>
+        <v>70.95599670410157</v>
       </c>
       <c r="D37" t="n">
-        <v>4500</v>
+        <v>4551</v>
       </c>
       <c r="E37" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F37" t="n">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="G37" t="n">
-        <v>143.724</v>
+        <v>143.901</v>
       </c>
       <c r="H37" t="n">
-        <v>3322.49994077728</v>
+        <v>3276.337059539369</v>
       </c>
       <c r="I37" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J37" t="n">
-        <v>396.0099792480469</v>
+        <v>388.4840698242188</v>
       </c>
       <c r="K37" t="n">
-        <v>-3.590118408203125</v>
+        <v>-7.525909423828125</v>
       </c>
       <c r="L37" t="n">
-        <v>0.2059999999999889</v>
+        <v>0.1770000000000209</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.02767153800433404</v>
+        <v>-0.02782378345610998</v>
       </c>
       <c r="N37" t="n">
-        <v>0.002273724367582484</v>
+        <v>-0.04166411384810768</v>
       </c>
       <c r="O37" t="n">
-        <v>2933.183028459408</v>
+        <v>2949.321046347658</v>
       </c>
       <c r="P37" t="n">
-        <v>2881.869036073165</v>
+        <v>2836.222592254525</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>927</v>
+        <v>940</v>
       </c>
       <c r="B38" t="n">
         <v>7.2</v>
       </c>
       <c r="C38" t="n">
-        <v>70.95599670410157</v>
+        <v>70.2</v>
       </c>
       <c r="D38" t="n">
-        <v>4551</v>
+        <v>4600</v>
       </c>
       <c r="E38" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F38" t="n">
-        <v>1906</v>
+        <v>1900</v>
       </c>
       <c r="G38" t="n">
-        <v>143.901</v>
+        <v>144.083</v>
       </c>
       <c r="H38" t="n">
-        <v>3276.337059539369</v>
+        <v>3225.8114712</v>
       </c>
       <c r="I38" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J38" t="n">
-        <v>388.4840698242188</v>
+        <v>380.25</v>
       </c>
       <c r="K38" t="n">
-        <v>-7.525909423828125</v>
+        <v>-8.23406982421875</v>
       </c>
       <c r="L38" t="n">
-        <v>0.1770000000000209</v>
+        <v>0.1819999999999879</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.02856390462235529</v>
+        <v>-0.029468200751263</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.04166411384810768</v>
+        <v>-0.04964645758251936</v>
       </c>
       <c r="O38" t="n">
-        <v>3027.773889969661</v>
+        <v>3123.629279633878</v>
       </c>
       <c r="P38" t="n">
-        <v>2836.222592254525</v>
+        <v>2786.282844</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>940</v>
+        <v>953</v>
       </c>
       <c r="B39" t="n">
         <v>7.4</v>
       </c>
       <c r="C39" t="n">
-        <v>70.2</v>
+        <v>69.51599807739258</v>
       </c>
       <c r="D39" t="n">
-        <v>4600</v>
+        <v>4653</v>
       </c>
       <c r="E39" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F39" t="n">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="G39" t="n">
-        <v>144.083</v>
+        <v>144.292</v>
       </c>
       <c r="H39" t="n">
-        <v>3225.8114712</v>
+        <v>3180.546441767135</v>
       </c>
       <c r="I39" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J39" t="n">
-        <v>380.25</v>
+        <v>372.8760681152344</v>
       </c>
       <c r="K39" t="n">
-        <v>-8.23406982421875</v>
+        <v>-7.373931884765625</v>
       </c>
       <c r="L39" t="n">
-        <v>0.1819999999999879</v>
+        <v>0.2090000000000032</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.03014928696166772</v>
+        <v>-0.02940202463001446</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.04964645758251936</v>
+        <v>-0.03307037911936187</v>
       </c>
       <c r="O39" t="n">
-        <v>3195.824417936778</v>
+        <v>3116.614610781533</v>
       </c>
       <c r="P39" t="n">
-        <v>2786.282844</v>
+        <v>2741.561476331365</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>953</v>
+        <v>966</v>
       </c>
       <c r="B40" t="n">
         <v>7.600000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>69.51599807739258</v>
+        <v>69.33600082397462</v>
       </c>
       <c r="D40" t="n">
-        <v>4653</v>
+        <v>4700</v>
       </c>
       <c r="E40" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F40" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="G40" t="n">
-        <v>144.292</v>
+        <v>144.393</v>
       </c>
       <c r="H40" t="n">
-        <v>3180.546441767135</v>
+        <v>3168.705688914774</v>
       </c>
       <c r="I40" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J40" t="n">
-        <v>372.8760681152344</v>
+        <v>370.9476013183594</v>
       </c>
       <c r="K40" t="n">
-        <v>-7.373931884765625</v>
+        <v>-1.928466796875</v>
       </c>
       <c r="L40" t="n">
-        <v>0.2090000000000032</v>
+        <v>0.1009999999999991</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.03006673799937837</v>
+        <v>-0.02632356686688919</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.03307037911936187</v>
+        <v>-0.0006278081562376344</v>
       </c>
       <c r="O40" t="n">
-        <v>3187.074227934108</v>
+        <v>2790.298087890254</v>
       </c>
       <c r="P40" t="n">
-        <v>2741.561476331365</v>
+        <v>2729.86593903069</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>966</v>
+        <v>978</v>
       </c>
       <c r="B41" t="n">
         <v>7.800000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>69.33600082397462</v>
+        <v>68.61599807739258</v>
       </c>
       <c r="D41" t="n">
-        <v>4700</v>
+        <v>4752</v>
       </c>
       <c r="E41" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F41" t="n">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="G41" t="n">
-        <v>144.393</v>
+        <v>144.518</v>
       </c>
       <c r="H41" t="n">
-        <v>3168.705688914774</v>
+        <v>3121.637120680449</v>
       </c>
       <c r="I41" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J41" t="n">
-        <v>370.9476013183594</v>
+        <v>363.2835693359375</v>
       </c>
       <c r="K41" t="n">
-        <v>-1.928466796875</v>
+        <v>-7.664031982421875</v>
       </c>
       <c r="L41" t="n">
-        <v>0.1009999999999991</v>
+        <v>0.125</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.02703886404835132</v>
+        <v>-0.0281258308629608</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.0006278081562376344</v>
+        <v>-0.05144569939556592</v>
       </c>
       <c r="O41" t="n">
-        <v>2866.11958912524</v>
+        <v>2981.338071473845</v>
       </c>
       <c r="P41" t="n">
-        <v>2729.86593903069</v>
+        <v>2683.387199476506</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>978</v>
+        <v>992</v>
       </c>
       <c r="B42" t="n">
         <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>68.61599807739258</v>
+        <v>68.22000274658204</v>
       </c>
       <c r="D42" t="n">
-        <v>4752</v>
+        <v>4800</v>
       </c>
       <c r="E42" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F42" t="n">
-        <v>2107</v>
+        <v>2100</v>
       </c>
       <c r="G42" t="n">
-        <v>144.518</v>
+        <v>144.642</v>
       </c>
       <c r="H42" t="n">
-        <v>3121.637120680449</v>
+        <v>3095.951235010881</v>
       </c>
       <c r="I42" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J42" t="n">
-        <v>363.2835693359375</v>
+        <v>359.1025390625</v>
       </c>
       <c r="K42" t="n">
-        <v>-7.664031982421875</v>
+        <v>-4.1810302734375</v>
       </c>
       <c r="L42" t="n">
-        <v>0.125</v>
+        <v>0.1239999999999952</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.02878190121139658</v>
+        <v>-0.02695856683786163</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.05144569939556592</v>
+        <v>-0.01964437981371702</v>
       </c>
       <c r="O42" t="n">
-        <v>3050.881528408038</v>
+        <v>2857.608084813333</v>
       </c>
       <c r="P42" t="n">
-        <v>2683.387199476506</v>
+        <v>2658.03182199148</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>992</v>
+        <v>1004</v>
       </c>
       <c r="B43" t="n">
         <v>8.200000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>68.22000274658204</v>
+        <v>67.71599807739258</v>
       </c>
       <c r="D43" t="n">
-        <v>4800</v>
+        <v>4853</v>
       </c>
       <c r="E43" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F43" t="n">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="G43" t="n">
-        <v>144.642</v>
+        <v>144.681</v>
       </c>
       <c r="H43" t="n">
-        <v>3095.951235010881</v>
+        <v>3063.466163193764</v>
       </c>
       <c r="I43" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J43" t="n">
-        <v>359.1025390625</v>
+        <v>353.8160705566406</v>
       </c>
       <c r="K43" t="n">
-        <v>-4.1810302734375</v>
+        <v>-5.286468505859375</v>
       </c>
       <c r="L43" t="n">
-        <v>0.1239999999999952</v>
+        <v>0.03900000000001569</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.02762185736745936</v>
+        <v>-0.02792928701411072</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.01964437981371702</v>
+        <v>-0.04306226963519607</v>
       </c>
       <c r="O43" t="n">
-        <v>2927.916880950692</v>
+        <v>2960.504423495737</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.03182199148</v>
+        <v>2625.973674621648</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>1004</v>
+        <v>1018</v>
       </c>
       <c r="B44" t="n">
         <v>8.4</v>
       </c>
       <c r="C44" t="n">
-        <v>67.71599807739258</v>
+        <v>67.32000274658203</v>
       </c>
       <c r="D44" t="n">
-        <v>4853</v>
+        <v>4900</v>
       </c>
       <c r="E44" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F44" t="n">
-        <v>2208</v>
+        <v>2200</v>
       </c>
       <c r="G44" t="n">
-        <v>144.681</v>
+        <v>144.884</v>
       </c>
       <c r="H44" t="n">
-        <v>3063.466163193764</v>
+        <v>3038.105153677574</v>
       </c>
       <c r="I44" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J44" t="n">
-        <v>353.8160705566406</v>
+        <v>349.6900329589844</v>
       </c>
       <c r="K44" t="n">
-        <v>-5.286468505859375</v>
+        <v>-4.12603759765625</v>
       </c>
       <c r="L44" t="n">
-        <v>0.03900000000001569</v>
+        <v>0.2029999999999745</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.02855463425769065</v>
+        <v>-0.02548674860734582</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.04306226963519607</v>
+        <v>-0.003921515992735094</v>
       </c>
       <c r="O44" t="n">
-        <v>3026.791231315209</v>
+        <v>2701.595352378657</v>
       </c>
       <c r="P44" t="n">
-        <v>2625.973674621648</v>
+        <v>2600.953024069849</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>1018</v>
+        <v>1031</v>
       </c>
       <c r="B45" t="n">
         <v>8.6</v>
       </c>
       <c r="C45" t="n">
-        <v>67.32000274658203</v>
+        <v>66.77999725341797</v>
       </c>
       <c r="D45" t="n">
-        <v>4900</v>
+        <v>4953</v>
       </c>
       <c r="E45" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F45" t="n">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="G45" t="n">
-        <v>144.884</v>
+        <v>145.002</v>
       </c>
       <c r="H45" t="n">
-        <v>3038.105153677574</v>
+        <v>3003.751571298418</v>
       </c>
       <c r="I45" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J45" t="n">
-        <v>349.6900329589844</v>
+        <v>344.1024780273438</v>
       </c>
       <c r="K45" t="n">
-        <v>-4.12603759765625</v>
+        <v>-5.587554931640625</v>
       </c>
       <c r="L45" t="n">
-        <v>0.2029999999999745</v>
+        <v>0.1180000000000234</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.0261450897922458</v>
+        <v>-0.02558805736479332</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.003921515992735094</v>
+        <v>-0.03210794079333039</v>
       </c>
       <c r="O45" t="n">
-        <v>2771.379517978055</v>
+        <v>2712.334080668093</v>
       </c>
       <c r="P45" t="n">
-        <v>2600.953024069849</v>
+        <v>2567.070563003138</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>1031</v>
+        <v>1047</v>
       </c>
       <c r="B46" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>66.77999725341797</v>
+        <v>66.3120002746582</v>
       </c>
       <c r="D46" t="n">
-        <v>4953</v>
+        <v>5000</v>
       </c>
       <c r="E46" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F46" t="n">
-        <v>2308</v>
+        <v>2300</v>
       </c>
       <c r="G46" t="n">
-        <v>145.002</v>
+        <v>145.083</v>
       </c>
       <c r="H46" t="n">
-        <v>3003.751571298418</v>
+        <v>2974.193972256507</v>
       </c>
       <c r="I46" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J46" t="n">
-        <v>344.1024780273438</v>
+        <v>339.2964172363281</v>
       </c>
       <c r="K46" t="n">
-        <v>-5.587554931640625</v>
+        <v>-4.806060791015625</v>
       </c>
       <c r="L46" t="n">
-        <v>0.1180000000000234</v>
+        <v>0.08099999999998886</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.0262263081986479</v>
+        <v>-0.02593970498469744</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.03210794079333039</v>
+        <v>-0.03517868766034505</v>
       </c>
       <c r="O46" t="n">
-        <v>2779.988669056678</v>
+        <v>2749.608728377928</v>
       </c>
       <c r="P46" t="n">
-        <v>2567.070563003138</v>
+        <v>2537.927781785362</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>1047</v>
+        <v>1074</v>
       </c>
       <c r="B47" t="n">
         <v>9</v>
       </c>
       <c r="C47" t="n">
-        <v>66.3120002746582</v>
+        <v>65.05199890136718</v>
       </c>
       <c r="D47" t="n">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="E47" t="n">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="F47" t="n">
-        <v>2355</v>
+        <v>2400</v>
       </c>
       <c r="G47" t="n">
-        <v>145.083</v>
+        <v>145.447</v>
       </c>
       <c r="H47" t="n">
-        <v>2974.193972256507</v>
+        <v>2895.607581338226</v>
       </c>
       <c r="I47" t="n">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="J47" t="n">
-        <v>339.2964172363281</v>
+        <v>326.52490234375</v>
       </c>
       <c r="K47" t="n">
-        <v>-4.806060791015625</v>
+        <v>-12.77151489257812</v>
       </c>
       <c r="L47" t="n">
-        <v>0.08099999999998886</v>
+        <v>0.3640000000000043</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.02655396806822258</v>
+        <v>-0.02586848239389929</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.03517868766034505</v>
+        <v>-0.03017040465156947</v>
       </c>
       <c r="O47" t="n">
-        <v>2814.720615231594</v>
+        <v>2742.059133753324</v>
       </c>
       <c r="P47" t="n">
-        <v>2537.927781785362</v>
+        <v>2460.488306526666</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>1074</v>
+        <v>1101</v>
       </c>
       <c r="B48" t="n">
         <v>9.200000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>65.05199890136718</v>
+        <v>63.97200164794922</v>
       </c>
       <c r="D48" t="n">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="E48" t="n">
         <v>100</v>
       </c>
       <c r="F48" t="n">
-        <v>2455</v>
+        <v>2500</v>
       </c>
       <c r="G48" t="n">
-        <v>145.447</v>
+        <v>145.728</v>
       </c>
       <c r="H48" t="n">
-        <v>2895.607581338226</v>
+        <v>2829.399906025483</v>
       </c>
       <c r="I48" t="n">
         <v>100</v>
       </c>
       <c r="J48" t="n">
-        <v>326.52490234375</v>
+        <v>315.7729187011719</v>
       </c>
       <c r="K48" t="n">
-        <v>-12.77151489257812</v>
+        <v>-10.75198364257812</v>
       </c>
       <c r="L48" t="n">
-        <v>0.3640000000000043</v>
+        <v>0.2810000000000059</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.02646793483356751</v>
+        <v>-0.02561592698128674</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.03017040465156947</v>
+        <v>-0.02775416349590895</v>
       </c>
       <c r="O48" t="n">
-        <v>2805.601092358156</v>
+        <v>2715.288260016394</v>
       </c>
       <c r="P48" t="n">
-        <v>2460.488306526666</v>
+        <v>2395.298624002428</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>1101</v>
+        <v>1114</v>
       </c>
       <c r="B49" t="n">
         <v>9.4</v>
       </c>
       <c r="C49" t="n">
-        <v>63.97200164794922</v>
+        <v>63.50399780273438</v>
       </c>
       <c r="D49" t="n">
-        <v>5200</v>
+        <v>5253</v>
       </c>
       <c r="E49" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="F49" t="n">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="G49" t="n">
-        <v>145.728</v>
+        <v>145.816</v>
       </c>
       <c r="H49" t="n">
-        <v>2829.399906025483</v>
+        <v>2801.039803851243</v>
       </c>
       <c r="I49" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="J49" t="n">
-        <v>315.7729187011719</v>
+        <v>311.1695861816406</v>
       </c>
       <c r="K49" t="n">
-        <v>-10.75198364257812</v>
+        <v>-4.60333251953125</v>
       </c>
       <c r="L49" t="n">
-        <v>0.2810000000000059</v>
+        <v>0.08799999999999386</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.0262044726573189</v>
+        <v>-0.02540872083979469</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.02775416349590895</v>
+        <v>-0.02806134274388791</v>
       </c>
       <c r="O49" t="n">
-        <v>2777.674101675803</v>
+        <v>2693.324409018237</v>
       </c>
       <c r="P49" t="n">
-        <v>2395.298624002428</v>
+        <v>2367.389668964698</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>1114</v>
+        <v>1129</v>
       </c>
       <c r="B50" t="n">
         <v>9.600000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>63.50399780273438</v>
+        <v>63.07200164794922</v>
       </c>
       <c r="D50" t="n">
-        <v>5253</v>
+        <v>5300</v>
       </c>
       <c r="E50" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F50" t="n">
-        <v>2608</v>
+        <v>2600</v>
       </c>
       <c r="G50" t="n">
-        <v>145.816</v>
+        <v>146.023</v>
       </c>
       <c r="H50" t="n">
-        <v>2801.039803851243</v>
+        <v>2775.038901785498</v>
       </c>
       <c r="I50" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J50" t="n">
-        <v>311.1695861816406</v>
+        <v>306.9504089355469</v>
       </c>
       <c r="K50" t="n">
-        <v>-4.60333251953125</v>
+        <v>-4.21917724609375</v>
       </c>
       <c r="L50" t="n">
-        <v>0.08799999999999386</v>
+        <v>0.2069999999999936</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.02598583730000018</v>
+        <v>-0.02339621270524519</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.02806134274388791</v>
+        <v>-0.004124727828778606</v>
       </c>
       <c r="O50" t="n">
-        <v>2754.498753800019</v>
+        <v>2479.99854675599</v>
       </c>
       <c r="P50" t="n">
-        <v>2367.389668964698</v>
+        <v>2341.81057644945</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>1129</v>
+        <v>1142</v>
       </c>
       <c r="B51" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>63.07200164794922</v>
+        <v>62.20800247192383</v>
       </c>
       <c r="D51" t="n">
-        <v>5300</v>
+        <v>5352</v>
       </c>
       <c r="E51" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F51" t="n">
-        <v>2655</v>
+        <v>2652</v>
       </c>
       <c r="G51" t="n">
-        <v>146.023</v>
+        <v>146.254</v>
       </c>
       <c r="H51" t="n">
-        <v>2775.038901785498</v>
+        <v>2723.547038972031</v>
       </c>
       <c r="I51" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J51" t="n">
-        <v>306.9504089355469</v>
+        <v>298.5984191894531</v>
       </c>
       <c r="K51" t="n">
-        <v>-4.21917724609375</v>
+        <v>-8.35198974609375</v>
       </c>
       <c r="L51" t="n">
-        <v>0.2069999999999936</v>
+        <v>0.2309999999999945</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.02399410434529626</v>
+        <v>-0.02414228782497028</v>
       </c>
       <c r="N51" t="n">
-        <v>-0.004124727828778606</v>
+        <v>-0.03919529327702723</v>
       </c>
       <c r="O51" t="n">
-        <v>2543.375060601403</v>
+        <v>2559.08250944685</v>
       </c>
       <c r="P51" t="n">
-        <v>2341.81057644945</v>
+        <v>2291.177814233086</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>1142</v>
+        <v>1159</v>
       </c>
       <c r="B52" t="n">
         <v>10</v>
       </c>
       <c r="C52" t="n">
-        <v>62.20800247192383</v>
+        <v>61.4879997253418</v>
       </c>
       <c r="D52" t="n">
-        <v>5352</v>
+        <v>5400</v>
       </c>
       <c r="E52" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F52" t="n">
-        <v>2707</v>
+        <v>2700</v>
       </c>
       <c r="G52" t="n">
-        <v>146.254</v>
+        <v>146.494</v>
       </c>
       <c r="H52" t="n">
-        <v>2723.547038972031</v>
+        <v>2681.156759271906</v>
       </c>
       <c r="I52" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J52" t="n">
-        <v>298.5984191894531</v>
+        <v>291.7264099121094</v>
       </c>
       <c r="K52" t="n">
-        <v>-8.35198974609375</v>
+        <v>-6.87200927734375</v>
       </c>
       <c r="L52" t="n">
-        <v>0.2309999999999945</v>
+        <v>0.2400000000000091</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.02471140905551837</v>
+        <v>-0.02382486770754378</v>
       </c>
       <c r="N52" t="n">
-        <v>-0.03919529327702723</v>
+        <v>-0.0253098450666686</v>
       </c>
       <c r="O52" t="n">
-        <v>2619.409359884948</v>
+        <v>2525.43597699964</v>
       </c>
       <c r="P52" t="n">
-        <v>2291.177814233086</v>
+        <v>2249.519216623833</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>1159</v>
+        <v>1187</v>
       </c>
       <c r="B53" t="n">
         <v>10.2</v>
       </c>
       <c r="C53" t="n">
-        <v>61.4879997253418</v>
+        <v>59.57999725341797</v>
       </c>
       <c r="D53" t="n">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="E53" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="F53" t="n">
-        <v>2755</v>
+        <v>2800</v>
       </c>
       <c r="G53" t="n">
-        <v>146.494</v>
+        <v>146.98</v>
       </c>
       <c r="H53" t="n">
-        <v>2681.156759271906</v>
+        <v>2571.108191564873</v>
       </c>
       <c r="I53" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="J53" t="n">
-        <v>291.7264099121094</v>
+        <v>273.9024658203125</v>
       </c>
       <c r="K53" t="n">
-        <v>-6.87200927734375</v>
+        <v>-17.82394409179688</v>
       </c>
       <c r="L53" t="n">
-        <v>0.2400000000000091</v>
+        <v>0.48599999999999</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.02438473125923199</v>
+        <v>-0.0248930573312477</v>
       </c>
       <c r="N53" t="n">
-        <v>-0.0253098450666686</v>
+        <v>-0.04414179593068341</v>
       </c>
       <c r="O53" t="n">
-        <v>2584.781513478591</v>
+        <v>2638.664077112257</v>
       </c>
       <c r="P53" t="n">
-        <v>2249.519216623833</v>
+        <v>2141.478898376184</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>1187</v>
+        <v>1202</v>
       </c>
       <c r="B54" t="n">
         <v>10.4</v>
       </c>
       <c r="C54" t="n">
-        <v>59.57999725341797</v>
+        <v>58.86000137329102</v>
       </c>
       <c r="D54" t="n">
-        <v>5500</v>
+        <v>5552</v>
       </c>
       <c r="E54" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F54" t="n">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="G54" t="n">
-        <v>146.98</v>
+        <v>147.295</v>
       </c>
       <c r="H54" t="n">
-        <v>2571.108191564873</v>
+        <v>2530.443124800244</v>
       </c>
       <c r="I54" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="J54" t="n">
-        <v>273.9024658203125</v>
+        <v>267.322509765625</v>
       </c>
       <c r="K54" t="n">
-        <v>-17.82394409179688</v>
+        <v>-6.5799560546875</v>
       </c>
       <c r="L54" t="n">
-        <v>0.48599999999999</v>
+        <v>0.3149999999999977</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.0254209216884242</v>
+        <v>-0.02327450726940757</v>
       </c>
       <c r="N54" t="n">
-        <v>-0.04414179593068341</v>
+        <v>-0.007206580351676291</v>
       </c>
       <c r="O54" t="n">
-        <v>2694.617698972965</v>
+        <v>2467.097770557203</v>
       </c>
       <c r="P54" t="n">
-        <v>2141.478898376184</v>
+        <v>2101.597805763259</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>1202</v>
+        <v>1218</v>
       </c>
       <c r="B55" t="n">
         <v>10.6</v>
       </c>
       <c r="C55" t="n">
-        <v>58.86000137329102</v>
+        <v>57.8879997253418</v>
       </c>
       <c r="D55" t="n">
-        <v>5552</v>
+        <v>5600</v>
       </c>
       <c r="E55" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F55" t="n">
-        <v>2907</v>
+        <v>2900</v>
       </c>
       <c r="G55" t="n">
-        <v>147.295</v>
+        <v>147.555</v>
       </c>
       <c r="H55" t="n">
-        <v>2530.443124800244</v>
+        <v>2476.294464365229</v>
       </c>
       <c r="I55" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J55" t="n">
-        <v>267.322509765625</v>
+        <v>258.56640625</v>
       </c>
       <c r="K55" t="n">
-        <v>-6.5799560546875</v>
+        <v>-8.756103515625</v>
       </c>
       <c r="L55" t="n">
-        <v>0.3149999999999977</v>
+        <v>0.2600000000000193</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.02381568355333883</v>
+        <v>-0.02412599183668753</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.007206580351676291</v>
+        <v>-0.04107969463995795</v>
       </c>
       <c r="O55" t="n">
-        <v>2524.462456653916</v>
+        <v>2557.355134688878</v>
       </c>
       <c r="P55" t="n">
-        <v>2101.597805763259</v>
+        <v>2048.530246992485</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>1218</v>
+        <v>1234</v>
       </c>
       <c r="B56" t="n">
         <v>10.8</v>
       </c>
       <c r="C56" t="n">
-        <v>57.8879997253418</v>
+        <v>56.73600082397461</v>
       </c>
       <c r="D56" t="n">
-        <v>5600</v>
+        <v>5654</v>
       </c>
       <c r="E56" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F56" t="n">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="G56" t="n">
-        <v>147.555</v>
+        <v>147.847</v>
       </c>
       <c r="H56" t="n">
-        <v>2476.294464365229</v>
+        <v>2413.233667834885</v>
       </c>
       <c r="I56" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J56" t="n">
-        <v>258.56640625</v>
+        <v>248.3776092529297</v>
       </c>
       <c r="K56" t="n">
-        <v>-8.756103515625</v>
+        <v>-10.18879699707031</v>
       </c>
       <c r="L56" t="n">
-        <v>0.2600000000000193</v>
+        <v>0.2920000000000016</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.02463999253559244</v>
+        <v>-0.02515313609857278</v>
       </c>
       <c r="N56" t="n">
-        <v>-0.04107969463995795</v>
+        <v>-0.04429668777860325</v>
       </c>
       <c r="O56" t="n">
-        <v>2611.839208772799</v>
+        <v>2666.232426448715</v>
       </c>
       <c r="P56" t="n">
-        <v>2048.530246992485</v>
+        <v>1986.784568159841</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>1234</v>
+        <v>1251</v>
       </c>
       <c r="B57" t="n">
         <v>11</v>
       </c>
       <c r="C57" t="n">
-        <v>56.73600082397461</v>
+        <v>56.33999862670898</v>
       </c>
       <c r="D57" t="n">
-        <v>5654</v>
+        <v>5700</v>
       </c>
       <c r="E57" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F57" t="n">
-        <v>3009</v>
+        <v>3000</v>
       </c>
       <c r="G57" t="n">
-        <v>147.847</v>
+        <v>148.112</v>
       </c>
       <c r="H57" t="n">
-        <v>2413.233667834885</v>
+        <v>2391.835776610387</v>
       </c>
       <c r="I57" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J57" t="n">
-        <v>248.3776092529297</v>
+        <v>244.9224853515625</v>
       </c>
       <c r="K57" t="n">
-        <v>-10.18879699707031</v>
+        <v>-3.455123901367188</v>
       </c>
       <c r="L57" t="n">
-        <v>0.2920000000000016</v>
+        <v>0.2649999999999864</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.02563863432195622</v>
+        <v>-0.02205525438728486</v>
       </c>
       <c r="N57" t="n">
-        <v>-0.04429668777860325</v>
+        <v>0.01575952281122348</v>
       </c>
       <c r="O57" t="n">
-        <v>2717.69523812736</v>
+        <v>2337.856965052195</v>
       </c>
       <c r="P57" t="n">
-        <v>1986.784568159841</v>
+        <v>1965.847223407026</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>1251</v>
+        <v>1265</v>
       </c>
       <c r="B58" t="n">
         <v>11.2</v>
       </c>
       <c r="C58" t="n">
-        <v>56.33999862670898</v>
+        <v>55.8</v>
       </c>
       <c r="D58" t="n">
-        <v>5700</v>
+        <v>5753</v>
       </c>
       <c r="E58" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F58" t="n">
-        <v>3055</v>
+        <v>3053</v>
       </c>
       <c r="G58" t="n">
-        <v>148.112</v>
+        <v>148.308</v>
       </c>
       <c r="H58" t="n">
-        <v>2391.835776610387</v>
+        <v>2362.8874392</v>
       </c>
       <c r="I58" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J58" t="n">
-        <v>244.9224853515625</v>
+        <v>240.25</v>
       </c>
       <c r="K58" t="n">
-        <v>-3.455123901367188</v>
+        <v>-4.6724853515625</v>
       </c>
       <c r="L58" t="n">
-        <v>0.2649999999999864</v>
+        <v>0.195999999999998</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.02257656860871383</v>
+        <v>-0.02084587485287711</v>
       </c>
       <c r="N58" t="n">
-        <v>0.01575952281122348</v>
+        <v>-0.009855059386403436</v>
       </c>
       <c r="O58" t="n">
-        <v>2393.116272523666</v>
+        <v>2209.662734404973</v>
       </c>
       <c r="P58" t="n">
-        <v>1965.847223407026</v>
+        <v>1937.533884</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>1265</v>
+        <v>1281</v>
       </c>
       <c r="B59" t="n">
         <v>11.4</v>
       </c>
       <c r="C59" t="n">
-        <v>55.8</v>
+        <v>54.79200096130371</v>
       </c>
       <c r="D59" t="n">
-        <v>5753</v>
+        <v>5800</v>
       </c>
       <c r="E59" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F59" t="n">
-        <v>3108</v>
+        <v>3100</v>
       </c>
       <c r="G59" t="n">
-        <v>148.308</v>
+        <v>148.539</v>
       </c>
       <c r="H59" t="n">
-        <v>2362.8874392</v>
+        <v>2309.561646879759</v>
       </c>
       <c r="I59" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J59" t="n">
-        <v>240.25</v>
+        <v>231.6484069824219</v>
       </c>
       <c r="K59" t="n">
-        <v>-4.6724853515625</v>
+        <v>-8.601593017578125</v>
       </c>
       <c r="L59" t="n">
-        <v>0.195999999999998</v>
+        <v>0.2309999999999945</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.02137218907545495</v>
+        <v>-0.02208551349112576</v>
       </c>
       <c r="N59" t="n">
-        <v>-0.009855059386403436</v>
+        <v>-0.04602035927973624</v>
       </c>
       <c r="O59" t="n">
-        <v>2265.452041998225</v>
+        <v>2341.064430059331</v>
       </c>
       <c r="P59" t="n">
-        <v>1937.533884</v>
+        <v>1885.414987623861</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>1281</v>
+        <v>1298</v>
       </c>
       <c r="B60" t="n">
         <v>11.6</v>
       </c>
       <c r="C60" t="n">
-        <v>54.79200096130371</v>
+        <v>54.03600082397461</v>
       </c>
       <c r="D60" t="n">
-        <v>5800</v>
+        <v>5847</v>
       </c>
       <c r="E60" t="n">
         <v>47</v>
       </c>
       <c r="F60" t="n">
-        <v>3155</v>
+        <v>3147</v>
       </c>
       <c r="G60" t="n">
-        <v>148.539</v>
+        <v>148.801</v>
       </c>
       <c r="H60" t="n">
-        <v>2309.561646879759</v>
+        <v>2270.175077974908</v>
       </c>
       <c r="I60" t="n">
         <v>47</v>
       </c>
       <c r="J60" t="n">
-        <v>231.6484069824219</v>
+        <v>225.3001098632812</v>
       </c>
       <c r="K60" t="n">
-        <v>-8.601593017578125</v>
+        <v>-6.348297119140625</v>
       </c>
       <c r="L60" t="n">
-        <v>0.2309999999999945</v>
+        <v>0.2620000000000005</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.0225803824843028</v>
+        <v>-0.02131350887970681</v>
       </c>
       <c r="N60" t="n">
-        <v>-0.04602035927973624</v>
+        <v>-0.01594495128752563</v>
       </c>
       <c r="O60" t="n">
-        <v>2393.520543336096</v>
+        <v>2259.231941248922</v>
       </c>
       <c r="P60" t="n">
-        <v>1885.414987623861</v>
+        <v>1846.952021830372</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>1298</v>
+        <v>1315</v>
       </c>
       <c r="B61" t="n">
         <v>11.8</v>
       </c>
       <c r="C61" t="n">
-        <v>54.03600082397461</v>
+        <v>53.13600082397461</v>
       </c>
       <c r="D61" t="n">
-        <v>5847</v>
+        <v>5900</v>
       </c>
       <c r="E61" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F61" t="n">
-        <v>3202</v>
+        <v>3200</v>
       </c>
       <c r="G61" t="n">
-        <v>148.801</v>
+        <v>149.048</v>
       </c>
       <c r="H61" t="n">
-        <v>2270.175077974908</v>
+        <v>2223.965608554917</v>
       </c>
       <c r="I61" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J61" t="n">
-        <v>225.3001098632812</v>
+        <v>217.8576049804688</v>
       </c>
       <c r="K61" t="n">
-        <v>-6.348297119140625</v>
+        <v>-7.4425048828125</v>
       </c>
       <c r="L61" t="n">
-        <v>0.2620000000000005</v>
+        <v>0.2470000000000141</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.02180734662266977</v>
+        <v>-0.02129816978966673</v>
       </c>
       <c r="N61" t="n">
-        <v>-0.01594495128752563</v>
+        <v>-0.02708183673710371</v>
       </c>
       <c r="O61" t="n">
-        <v>2311.578742002995</v>
+        <v>2257.605997704673</v>
       </c>
       <c r="P61" t="n">
-        <v>1846.952021830372</v>
+        <v>1801.862677053884</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>1315</v>
+        <v>1335</v>
       </c>
       <c r="B62" t="n">
         <v>12</v>
       </c>
       <c r="C62" t="n">
-        <v>53.13600082397461</v>
+        <v>51.76800041198731</v>
       </c>
       <c r="D62" t="n">
-        <v>5900</v>
+        <v>5952</v>
       </c>
       <c r="E62" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F62" t="n">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="G62" t="n">
-        <v>149.048</v>
+        <v>149.412</v>
       </c>
       <c r="H62" t="n">
-        <v>2223.965608554917</v>
+        <v>2155.141308532984</v>
       </c>
       <c r="I62" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J62" t="n">
-        <v>217.8576049804688</v>
+        <v>206.7844085693359</v>
       </c>
       <c r="K62" t="n">
-        <v>-7.4425048828125</v>
+        <v>-11.07319641113281</v>
       </c>
       <c r="L62" t="n">
-        <v>0.2470000000000141</v>
+        <v>0.3640000000000043</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.02178010954189584</v>
+        <v>-0.02220741188885031</v>
       </c>
       <c r="N62" t="n">
-        <v>-0.02708183673710371</v>
+        <v>-0.04169002354681328</v>
       </c>
       <c r="O62" t="n">
-        <v>2308.691611440959</v>
+        <v>2353.985660218133</v>
       </c>
       <c r="P62" t="n">
-        <v>1801.862677053884</v>
+        <v>1734.78384528721</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>1335</v>
+        <v>1351</v>
       </c>
       <c r="B63" t="n">
         <v>12.2</v>
       </c>
       <c r="C63" t="n">
-        <v>51.76800041198731</v>
+        <v>51.3</v>
       </c>
       <c r="D63" t="n">
-        <v>5952</v>
+        <v>6000</v>
       </c>
       <c r="E63" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F63" t="n">
-        <v>3307</v>
+        <v>3300</v>
       </c>
       <c r="G63" t="n">
-        <v>149.412</v>
+        <v>149.643</v>
       </c>
       <c r="H63" t="n">
-        <v>2155.141308532984</v>
+        <v>2131.9877682</v>
       </c>
       <c r="I63" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J63" t="n">
-        <v>206.7844085693359</v>
+        <v>203.0625</v>
       </c>
       <c r="K63" t="n">
-        <v>-11.07319641113281</v>
+        <v>-3.721908569335938</v>
       </c>
       <c r="L63" t="n">
-        <v>0.3640000000000043</v>
+        <v>0.2309999999999945</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.02266519006387028</v>
+        <v>-0.02012649497931746</v>
       </c>
       <c r="N63" t="n">
-        <v>-0.04169002354681328</v>
+        <v>0.005768444541114377</v>
       </c>
       <c r="O63" t="n">
-        <v>2402.510146770249</v>
+        <v>2133.408467807651</v>
       </c>
       <c r="P63" t="n">
-        <v>1734.78384528721</v>
+        <v>1712.239314</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>1351</v>
+        <v>1386</v>
       </c>
       <c r="B64" t="n">
         <v>12.4</v>
       </c>
       <c r="C64" t="n">
-        <v>51.3</v>
+        <v>50.29200096130371</v>
       </c>
       <c r="D64" t="n">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="E64" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="F64" t="n">
-        <v>3355</v>
+        <v>3400</v>
       </c>
       <c r="G64" t="n">
-        <v>149.643</v>
+        <v>149.847</v>
       </c>
       <c r="H64" t="n">
-        <v>2131.9877682</v>
+        <v>2082.796808096472</v>
       </c>
       <c r="I64" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="J64" t="n">
-        <v>203.0625</v>
+        <v>195.1609039306641</v>
       </c>
       <c r="K64" t="n">
-        <v>-3.721908569335938</v>
+        <v>-7.901596069335938</v>
       </c>
       <c r="L64" t="n">
-        <v>0.2309999999999945</v>
+        <v>0.2040000000000077</v>
       </c>
       <c r="M64" t="n">
-        <v>-0.02060144550804619</v>
+        <v>-0.01977288121263044</v>
       </c>
       <c r="N64" t="n">
-        <v>0.005768444541114377</v>
+        <v>-0.02062835770516954</v>
       </c>
       <c r="O64" t="n">
-        <v>2183.753223852897</v>
+        <v>2095.925408538827</v>
       </c>
       <c r="P64" t="n">
-        <v>1712.239314</v>
+        <v>1664.380624761007</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>1386</v>
+        <v>1402</v>
       </c>
       <c r="B65" t="n">
         <v>12.6</v>
       </c>
       <c r="C65" t="n">
-        <v>50.29200096130371</v>
+        <v>49.86000137329102</v>
       </c>
       <c r="D65" t="n">
-        <v>6100</v>
+        <v>6154</v>
       </c>
       <c r="E65" t="n">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="F65" t="n">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="G65" t="n">
-        <v>149.847</v>
+        <v>149.983</v>
       </c>
       <c r="H65" t="n">
-        <v>2082.796808096472</v>
+        <v>2061.998499133709</v>
       </c>
       <c r="I65" t="n">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="J65" t="n">
-        <v>195.1609039306641</v>
+        <v>191.822509765625</v>
       </c>
       <c r="K65" t="n">
-        <v>-7.901596069335938</v>
+        <v>-3.338394165039062</v>
       </c>
       <c r="L65" t="n">
-        <v>0.2040000000000077</v>
+        <v>0.1359999999999957</v>
       </c>
       <c r="M65" t="n">
-        <v>-0.0202409232903751</v>
+        <v>-0.01865377021623851</v>
       </c>
       <c r="N65" t="n">
-        <v>-0.02062835770516954</v>
+        <v>-0.007602880983066833</v>
       </c>
       <c r="O65" t="n">
-        <v>2145.53786877976</v>
+        <v>1977.299642921282</v>
       </c>
       <c r="P65" t="n">
-        <v>1664.380624761007</v>
+        <v>1644.161886155104</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>1402</v>
+        <v>1418</v>
       </c>
       <c r="B66" t="n">
         <v>12.8</v>
       </c>
       <c r="C66" t="n">
-        <v>49.86000137329102</v>
+        <v>49.42799835205079</v>
       </c>
       <c r="D66" t="n">
-        <v>6154</v>
+        <v>6200</v>
       </c>
       <c r="E66" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F66" t="n">
-        <v>3509</v>
+        <v>3500</v>
       </c>
       <c r="G66" t="n">
-        <v>149.983</v>
+        <v>149.987</v>
       </c>
       <c r="H66" t="n">
-        <v>2061.998499133709</v>
+        <v>2041.370145557624</v>
       </c>
       <c r="I66" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J66" t="n">
-        <v>191.822509765625</v>
+        <v>188.5128936767578</v>
       </c>
       <c r="K66" t="n">
-        <v>-3.338394165039062</v>
+        <v>-3.309616088867188</v>
       </c>
       <c r="L66" t="n">
-        <v>0.1359999999999957</v>
+        <v>0.003999999999990678</v>
       </c>
       <c r="M66" t="n">
-        <v>-0.01912486374466725</v>
+        <v>-0.0192393081830079</v>
       </c>
       <c r="N66" t="n">
-        <v>-0.007602880983066833</v>
+        <v>-0.03516932992411199</v>
       </c>
       <c r="O66" t="n">
-        <v>2027.235556934729</v>
+        <v>2039.366667398837</v>
       </c>
       <c r="P66" t="n">
-        <v>1644.161886155104</v>
+        <v>1624.118265880908</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>1418</v>
+        <v>1441</v>
       </c>
       <c r="B67" t="n">
         <v>13</v>
       </c>
       <c r="C67" t="n">
-        <v>49.42799835205079</v>
+        <v>48.92400054931641</v>
       </c>
       <c r="D67" t="n">
-        <v>6200</v>
+        <v>6245</v>
       </c>
       <c r="E67" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F67" t="n">
-        <v>3555</v>
+        <v>3545</v>
       </c>
       <c r="G67" t="n">
-        <v>149.987</v>
+        <v>150.114</v>
       </c>
       <c r="H67" t="n">
-        <v>2041.370145557624</v>
+        <v>2017.519017014876</v>
       </c>
       <c r="I67" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J67" t="n">
-        <v>188.5128936767578</v>
+        <v>184.6881103515625</v>
       </c>
       <c r="K67" t="n">
-        <v>-3.309616088867188</v>
+        <v>-3.824783325195312</v>
       </c>
       <c r="L67" t="n">
-        <v>0.003999999999990678</v>
+        <v>0.1270000000000095</v>
       </c>
       <c r="M67" t="n">
-        <v>-0.01969147931258935</v>
+        <v>-0.01869337443619305</v>
       </c>
       <c r="N67" t="n">
-        <v>-0.03516932992411199</v>
+        <v>-0.01637872457763987</v>
       </c>
       <c r="O67" t="n">
-        <v>2087.296807134471</v>
+        <v>1981.497690236463</v>
       </c>
       <c r="P67" t="n">
-        <v>1624.118265880908</v>
+        <v>1600.955837924742</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>1441</v>
+        <v>1459</v>
       </c>
       <c r="B68" t="n">
         <v>13.2</v>
       </c>
       <c r="C68" t="n">
-        <v>48.92400054931641</v>
+        <v>48.34800109863281</v>
       </c>
       <c r="D68" t="n">
-        <v>6245</v>
+        <v>6300</v>
       </c>
       <c r="E68" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F68" t="n">
         <v>3600</v>
       </c>
       <c r="G68" t="n">
-        <v>150.114</v>
+        <v>150.245</v>
       </c>
       <c r="H68" t="n">
-        <v>2017.519017014876</v>
+        <v>1990.544022183465</v>
       </c>
       <c r="I68" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J68" t="n">
-        <v>184.6881103515625</v>
+        <v>180.3649139404297</v>
       </c>
       <c r="K68" t="n">
-        <v>-3.824783325195312</v>
+        <v>-4.323196411132812</v>
       </c>
       <c r="L68" t="n">
-        <v>0.1270000000000095</v>
+        <v>0.1310000000000002</v>
       </c>
       <c r="M68" t="n">
-        <v>-0.01914141853617451</v>
+        <v>-0.01822895150611345</v>
       </c>
       <c r="N68" t="n">
-        <v>-0.01637872457763987</v>
+        <v>-0.01725873238251095</v>
       </c>
       <c r="O68" t="n">
-        <v>2028.990364834498</v>
+        <v>1932.268859648026</v>
       </c>
       <c r="P68" t="n">
-        <v>1600.955837924742</v>
+        <v>1574.776529274347</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>1459</v>
+        <v>1479</v>
       </c>
       <c r="B69" t="n">
         <v>13.4</v>
       </c>
       <c r="C69" t="n">
-        <v>48.34800109863281</v>
+        <v>47.37599945068359</v>
       </c>
       <c r="D69" t="n">
-        <v>6300</v>
+        <v>6348</v>
       </c>
       <c r="E69" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F69" t="n">
-        <v>3655</v>
+        <v>3648</v>
       </c>
       <c r="G69" t="n">
-        <v>150.245</v>
+        <v>150.541</v>
       </c>
       <c r="H69" t="n">
-        <v>1990.544022183465</v>
+        <v>1945.709391578822</v>
       </c>
       <c r="I69" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J69" t="n">
-        <v>180.3649139404297</v>
+        <v>173.1855926513672</v>
       </c>
       <c r="K69" t="n">
-        <v>-4.323196411132812</v>
+        <v>-7.1793212890625</v>
       </c>
       <c r="L69" t="n">
-        <v>0.1310000000000002</v>
+        <v>0.2959999999999923</v>
       </c>
       <c r="M69" t="n">
-        <v>-0.01867183358243254</v>
+        <v>-0.01781678412966381</v>
       </c>
       <c r="N69" t="n">
-        <v>-0.01725873238251095</v>
+        <v>-0.01771384204408806</v>
       </c>
       <c r="O69" t="n">
-        <v>1979.214359737849</v>
+        <v>1888.579117744364</v>
       </c>
       <c r="P69" t="n">
-        <v>1574.776529274347</v>
+        <v>1531.305417053099</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>1479</v>
+        <v>1498</v>
       </c>
       <c r="B70" t="n">
         <v>13.6</v>
       </c>
       <c r="C70" t="n">
-        <v>47.37599945068359</v>
+        <v>46.54800109863282</v>
       </c>
       <c r="D70" t="n">
-        <v>6348</v>
+        <v>6400</v>
       </c>
       <c r="E70" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F70" t="n">
-        <v>3703</v>
+        <v>3700</v>
       </c>
       <c r="G70" t="n">
-        <v>150.541</v>
+        <v>150.703</v>
       </c>
       <c r="H70" t="n">
-        <v>1945.709391578822</v>
+        <v>1908.196362396819</v>
       </c>
       <c r="I70" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J70" t="n">
-        <v>173.1855926513672</v>
+        <v>167.1849060058594</v>
       </c>
       <c r="K70" t="n">
-        <v>-7.1793212890625</v>
+        <v>-6.000686645507812</v>
       </c>
       <c r="L70" t="n">
-        <v>0.2959999999999923</v>
+        <v>0.1620000000000061</v>
       </c>
       <c r="M70" t="n">
-        <v>-0.01825390004358254</v>
+        <v>-0.01806165127494139</v>
       </c>
       <c r="N70" t="n">
-        <v>-0.01771384204408806</v>
+        <v>-0.02886690715020102</v>
       </c>
       <c r="O70" t="n">
-        <v>1934.913404619749</v>
+        <v>1914.535035143787</v>
       </c>
       <c r="P70" t="n">
-        <v>1531.305417053099</v>
+        <v>1494.974496537043</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>1498</v>
+        <v>1518</v>
       </c>
       <c r="B71" t="n">
         <v>13.8</v>
       </c>
       <c r="C71" t="n">
-        <v>46.54800109863282</v>
+        <v>45.68399848937988</v>
       </c>
       <c r="D71" t="n">
-        <v>6400</v>
+        <v>6449</v>
       </c>
       <c r="E71" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F71" t="n">
-        <v>3755</v>
+        <v>3749</v>
       </c>
       <c r="G71" t="n">
-        <v>150.703</v>
+        <v>150.927</v>
       </c>
       <c r="H71" t="n">
-        <v>1908.196362396819</v>
+        <v>1869.718437527841</v>
       </c>
       <c r="I71" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J71" t="n">
-        <v>167.1849060058594</v>
+        <v>161.0360870361328</v>
       </c>
       <c r="K71" t="n">
-        <v>-6.000686645507812</v>
+        <v>-6.148818969726562</v>
       </c>
       <c r="L71" t="n">
-        <v>0.1620000000000061</v>
+        <v>0.2239999999999895</v>
       </c>
       <c r="M71" t="n">
-        <v>-0.01848546467803086</v>
+        <v>-0.01782600380762308</v>
       </c>
       <c r="N71" t="n">
-        <v>-0.02886690715020102</v>
+        <v>-0.02043577308346516</v>
       </c>
       <c r="O71" t="n">
-        <v>1959.459255871272</v>
+        <v>1889.556403608046</v>
       </c>
       <c r="P71" t="n">
-        <v>1494.974496537043</v>
+        <v>1457.750285907789</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>1518</v>
+        <v>1538</v>
       </c>
       <c r="B72" t="n">
         <v>14</v>
       </c>
       <c r="C72" t="n">
-        <v>45.68399848937988</v>
+        <v>44.96399917602539</v>
       </c>
       <c r="D72" t="n">
-        <v>6449</v>
+        <v>6500</v>
       </c>
       <c r="E72" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F72" t="n">
-        <v>3804</v>
+        <v>3800</v>
       </c>
       <c r="G72" t="n">
-        <v>150.927</v>
+        <v>151.136</v>
       </c>
       <c r="H72" t="n">
-        <v>1869.718437527841</v>
+        <v>1838.173435660852</v>
       </c>
       <c r="I72" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J72" t="n">
-        <v>161.0360870361328</v>
+        <v>156.0000915527344</v>
       </c>
       <c r="K72" t="n">
-        <v>-6.148818969726562</v>
+        <v>-5.035995483398438</v>
       </c>
       <c r="L72" t="n">
-        <v>0.2239999999999895</v>
+        <v>0.2090000000000032</v>
       </c>
       <c r="M72" t="n">
-        <v>-0.0182424544477918</v>
+        <v>-0.01710590659956355</v>
       </c>
       <c r="N72" t="n">
-        <v>-0.02043577308346516</v>
+        <v>-0.01144631162044285</v>
       </c>
       <c r="O72" t="n">
-        <v>1933.700171465931</v>
+        <v>1813.226099553736</v>
       </c>
       <c r="P72" t="n">
-        <v>1457.750285907789</v>
+        <v>1427.26580319344</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>1538</v>
+        <v>1558</v>
       </c>
       <c r="B73" t="n">
         <v>14.2</v>
       </c>
       <c r="C73" t="n">
-        <v>44.96399917602539</v>
+        <v>44.31600151062012</v>
       </c>
       <c r="D73" t="n">
-        <v>6500</v>
+        <v>6551</v>
       </c>
       <c r="E73" t="n">
         <v>51</v>
       </c>
       <c r="F73" t="n">
-        <v>3855</v>
+        <v>3851</v>
       </c>
       <c r="G73" t="n">
-        <v>151.136</v>
+        <v>151.268</v>
       </c>
       <c r="H73" t="n">
-        <v>1838.173435660852</v>
+        <v>1810.187039403757</v>
       </c>
       <c r="I73" t="n">
         <v>51</v>
       </c>
       <c r="J73" t="n">
-        <v>156.0000915527344</v>
+        <v>151.5361175537109</v>
       </c>
       <c r="K73" t="n">
-        <v>-5.035995483398438</v>
+        <v>-4.463973999023438</v>
       </c>
       <c r="L73" t="n">
-        <v>0.2090000000000032</v>
+        <v>0.132000000000005</v>
       </c>
       <c r="M73" t="n">
-        <v>-0.01752050290927731</v>
+        <v>-0.01688119665862051</v>
       </c>
       <c r="N73" t="n">
-        <v>-0.01144631162044285</v>
+        <v>-0.01981106584318115</v>
       </c>
       <c r="O73" t="n">
-        <v>1857.173308383395</v>
+        <v>1789.406845813774</v>
       </c>
       <c r="P73" t="n">
-        <v>1427.26580319344</v>
+        <v>1400.246122506529</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>1558</v>
+        <v>1579</v>
       </c>
       <c r="B74" t="n">
         <v>14.4</v>
       </c>
       <c r="C74" t="n">
-        <v>44.31600151062012</v>
+        <v>43.3439998626709</v>
       </c>
       <c r="D74" t="n">
-        <v>6551</v>
+        <v>6600</v>
       </c>
       <c r="E74" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F74" t="n">
-        <v>3906</v>
+        <v>3900</v>
       </c>
       <c r="G74" t="n">
-        <v>151.268</v>
+        <v>151.472</v>
       </c>
       <c r="H74" t="n">
-        <v>1810.187039403757</v>
+        <v>1768.924912933206</v>
       </c>
       <c r="I74" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J74" t="n">
-        <v>151.5361175537109</v>
+        <v>144.9615936279297</v>
       </c>
       <c r="K74" t="n">
-        <v>-4.463973999023438</v>
+        <v>-6.57452392578125</v>
       </c>
       <c r="L74" t="n">
-        <v>0.132000000000005</v>
+        <v>0.2040000000000077</v>
       </c>
       <c r="M74" t="n">
-        <v>-0.0172884126431215</v>
+        <v>-0.01714557574222613</v>
       </c>
       <c r="N74" t="n">
-        <v>-0.01981106584318115</v>
+        <v>-0.02855713670897163</v>
       </c>
       <c r="O74" t="n">
-        <v>1832.571740170879</v>
+        <v>1817.43102867597</v>
       </c>
       <c r="P74" t="n">
-        <v>1400.246122506529</v>
+        <v>1360.45583862652</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>1579</v>
+        <v>1600</v>
       </c>
       <c r="B75" t="n">
         <v>14.6</v>
       </c>
       <c r="C75" t="n">
-        <v>43.3439998626709</v>
+        <v>42.5879997253418</v>
       </c>
       <c r="D75" t="n">
-        <v>6600</v>
+        <v>6650</v>
       </c>
       <c r="E75" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F75" t="n">
-        <v>3955</v>
+        <v>3950</v>
       </c>
       <c r="G75" t="n">
-        <v>151.472</v>
+        <v>151.683</v>
       </c>
       <c r="H75" t="n">
-        <v>1768.924912933206</v>
+        <v>1737.42761361185</v>
       </c>
       <c r="I75" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J75" t="n">
-        <v>144.9615936279297</v>
+        <v>139.9488983154297</v>
       </c>
       <c r="K75" t="n">
-        <v>-6.57452392578125</v>
+        <v>-5.0126953125</v>
       </c>
       <c r="L75" t="n">
-        <v>0.2040000000000077</v>
+        <v>0.2109999999999843</v>
       </c>
       <c r="M75" t="n">
-        <v>-0.0175404072010878</v>
+        <v>-0.01646296113402416</v>
       </c>
       <c r="N75" t="n">
-        <v>-0.02855713670897163</v>
+        <v>-0.01107204746462555</v>
       </c>
       <c r="O75" t="n">
-        <v>1859.283163315307</v>
+        <v>1745.073880206561</v>
       </c>
       <c r="P75" t="n">
-        <v>1360.45583862652</v>
+        <v>1330.121358059257</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>1600</v>
+        <v>1622</v>
       </c>
       <c r="B76" t="n">
         <v>14.8</v>
       </c>
       <c r="C76" t="n">
-        <v>42.5879997253418</v>
+        <v>41.6879997253418</v>
       </c>
       <c r="D76" t="n">
-        <v>6650</v>
+        <v>6700</v>
       </c>
       <c r="E76" t="n">
         <v>50</v>
       </c>
       <c r="F76" t="n">
-        <v>4005</v>
+        <v>4000</v>
       </c>
       <c r="G76" t="n">
-        <v>151.683</v>
+        <v>151.892</v>
       </c>
       <c r="H76" t="n">
-        <v>1737.42761361185</v>
+        <v>1700.610130085181</v>
       </c>
       <c r="I76" t="n">
         <v>50</v>
       </c>
       <c r="J76" t="n">
-        <v>139.9488983154297</v>
+        <v>134.0964050292969</v>
       </c>
       <c r="K76" t="n">
-        <v>-5.0126953125</v>
+        <v>-5.852493286132812</v>
       </c>
       <c r="L76" t="n">
-        <v>0.2109999999999843</v>
+        <v>0.2090000000000032</v>
       </c>
       <c r="M76" t="n">
-        <v>-0.01685564745218439</v>
+        <v>-0.0162797656217105</v>
       </c>
       <c r="N76" t="n">
-        <v>-0.01107204746462555</v>
+        <v>-0.01984021588019546</v>
       </c>
       <c r="O76" t="n">
-        <v>1786.698629931545</v>
+        <v>1725.655155901313</v>
       </c>
       <c r="P76" t="n">
-        <v>1330.121358059257</v>
+        <v>1294.70877965142</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>1622</v>
+        <v>1644</v>
       </c>
       <c r="B77" t="n">
         <v>15</v>
       </c>
       <c r="C77" t="n">
-        <v>41.6879997253418</v>
+        <v>40.89599876403809</v>
       </c>
       <c r="D77" t="n">
-        <v>6700</v>
+        <v>6749</v>
       </c>
       <c r="E77" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F77" t="n">
-        <v>4055</v>
+        <v>4049</v>
       </c>
       <c r="G77" t="n">
-        <v>151.892</v>
+        <v>152.065</v>
       </c>
       <c r="H77" t="n">
-        <v>1700.610130085181</v>
+        <v>1668.821480714665</v>
       </c>
       <c r="I77" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J77" t="n">
-        <v>134.0964050292969</v>
+        <v>129.0495910644531</v>
       </c>
       <c r="K77" t="n">
-        <v>-5.852493286132812</v>
+        <v>-5.04681396484375</v>
       </c>
       <c r="L77" t="n">
-        <v>0.2090000000000032</v>
+        <v>0.1730000000000018</v>
       </c>
       <c r="M77" t="n">
-        <v>-0.01666512131330531</v>
+        <v>-0.01605483259835282</v>
       </c>
       <c r="N77" t="n">
-        <v>-0.01984021588019546</v>
+        <v>-0.01882328458542876</v>
       </c>
       <c r="O77" t="n">
-        <v>1766.502859210362</v>
+        <v>1701.812255425399</v>
       </c>
       <c r="P77" t="n">
-        <v>1294.70877965142</v>
+        <v>1264.174968003558</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>1644</v>
+        <v>1668</v>
       </c>
       <c r="B78" t="n">
         <v>15.2</v>
       </c>
       <c r="C78" t="n">
-        <v>40.89599876403809</v>
+        <v>39.99599876403808</v>
       </c>
       <c r="D78" t="n">
-        <v>6749</v>
+        <v>6800</v>
       </c>
       <c r="E78" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F78" t="n">
-        <v>4104</v>
+        <v>4100</v>
       </c>
       <c r="G78" t="n">
-        <v>152.065</v>
+        <v>152.336</v>
       </c>
       <c r="H78" t="n">
-        <v>1668.821480714665</v>
+        <v>1633.392121544653</v>
       </c>
       <c r="I78" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J78" t="n">
-        <v>129.0495910644531</v>
+        <v>123.4320907592773</v>
       </c>
       <c r="K78" t="n">
-        <v>-5.04681396484375</v>
+        <v>-5.617500305175781</v>
       </c>
       <c r="L78" t="n">
-        <v>0.1730000000000018</v>
+        <v>0.271000000000015</v>
       </c>
       <c r="M78" t="n">
-        <v>-0.01643343405234215</v>
+        <v>-0.01516934529203831</v>
       </c>
       <c r="N78" t="n">
-        <v>-0.01882328458542876</v>
+        <v>-0.005896506876489406</v>
       </c>
       <c r="O78" t="n">
-        <v>1741.944009548268</v>
+        <v>1607.950600956061</v>
       </c>
       <c r="P78" t="n">
-        <v>1264.174968003558</v>
+        <v>1230.192604168291</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>1668</v>
+        <v>1689</v>
       </c>
       <c r="B79" t="n">
         <v>15.4</v>
       </c>
       <c r="C79" t="n">
-        <v>39.99599876403808</v>
+        <v>38.88000068664551</v>
       </c>
       <c r="D79" t="n">
-        <v>6800</v>
+        <v>6854</v>
       </c>
       <c r="E79" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F79" t="n">
-        <v>4155</v>
+        <v>4154</v>
       </c>
       <c r="G79" t="n">
-        <v>152.336</v>
+        <v>152.524</v>
       </c>
       <c r="H79" t="n">
-        <v>1633.392121544653</v>
+        <v>1590.485228482269</v>
       </c>
       <c r="I79" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J79" t="n">
-        <v>123.4320907592773</v>
+        <v>116.640007019043</v>
       </c>
       <c r="K79" t="n">
-        <v>-5.617500305175781</v>
+        <v>-6.792083740234375</v>
       </c>
       <c r="L79" t="n">
-        <v>0.271000000000015</v>
+        <v>0.1879999999999882</v>
       </c>
       <c r="M79" t="n">
-        <v>-0.01554767971674828</v>
+        <v>-0.01560312810480161</v>
       </c>
       <c r="N79" t="n">
-        <v>-0.005896506876489406</v>
+        <v>-0.0306695384752679</v>
       </c>
       <c r="O79" t="n">
-        <v>1648.054049975317</v>
+        <v>1653.931579108971</v>
       </c>
       <c r="P79" t="n">
-        <v>1230.192604168291</v>
+        <v>1189.111075156578</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>1689</v>
+        <v>1710</v>
       </c>
       <c r="B80" t="n">
         <v>15.6</v>
       </c>
       <c r="C80" t="n">
-        <v>38.88000068664551</v>
+        <v>38.4120002746582</v>
       </c>
       <c r="D80" t="n">
-        <v>6854</v>
+        <v>6900</v>
       </c>
       <c r="E80" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F80" t="n">
-        <v>4209</v>
+        <v>4200</v>
       </c>
       <c r="G80" t="n">
-        <v>152.524</v>
+        <v>152.774</v>
       </c>
       <c r="H80" t="n">
-        <v>1590.485228482269</v>
+        <v>1572.829843583255</v>
       </c>
       <c r="I80" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J80" t="n">
-        <v>116.640007019043</v>
+        <v>113.8488998413086</v>
       </c>
       <c r="K80" t="n">
-        <v>-6.792083740234375</v>
+        <v>-2.791107177734375</v>
       </c>
       <c r="L80" t="n">
-        <v>0.1879999999999882</v>
+        <v>0.25</v>
       </c>
       <c r="M80" t="n">
-        <v>-0.01596854312687287</v>
+        <v>-0.01343415729919588</v>
       </c>
       <c r="N80" t="n">
-        <v>-0.0306695384752679</v>
+        <v>0.01995925340034416</v>
       </c>
       <c r="O80" t="n">
-        <v>1692.665571448524</v>
+        <v>1424.020673714763</v>
       </c>
       <c r="P80" t="n">
-        <v>1189.111075156578</v>
+        <v>1172.231412428306</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>1710</v>
+        <v>1736</v>
       </c>
       <c r="B81" t="n">
         <v>15.8</v>
       </c>
       <c r="C81" t="n">
-        <v>38.4120002746582</v>
+        <v>37.08000068664551</v>
       </c>
       <c r="D81" t="n">
-        <v>6900</v>
+        <v>6947</v>
       </c>
       <c r="E81" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F81" t="n">
-        <v>4255</v>
+        <v>4247</v>
       </c>
       <c r="G81" t="n">
-        <v>152.774</v>
+        <v>153.075</v>
       </c>
       <c r="H81" t="n">
-        <v>1572.829843583255</v>
+        <v>1523.672739515615</v>
       </c>
       <c r="I81" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J81" t="n">
-        <v>113.8488998413086</v>
+        <v>106.0900039672852</v>
       </c>
       <c r="K81" t="n">
-        <v>-2.791107177734375</v>
+        <v>-7.758895874023438</v>
       </c>
       <c r="L81" t="n">
-        <v>0.25</v>
+        <v>0.3009999999999877</v>
       </c>
       <c r="M81" t="n">
-        <v>-0.01381102544605448</v>
+        <v>-0.01354594452072044</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01995925340034416</v>
+        <v>-0.02327187501470378</v>
       </c>
       <c r="O81" t="n">
-        <v>1463.968697281775</v>
+        <v>1435.870119196367</v>
       </c>
       <c r="P81" t="n">
-        <v>1172.231412428306</v>
+        <v>1125.315265195763</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>1736</v>
+        <v>1763</v>
       </c>
       <c r="B82" t="n">
         <v>16</v>
       </c>
       <c r="C82" t="n">
-        <v>37.08000068664551</v>
+        <v>36.1439998626709</v>
       </c>
       <c r="D82" t="n">
-        <v>6947</v>
+        <v>7000</v>
       </c>
       <c r="E82" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F82" t="n">
-        <v>4302</v>
+        <v>4300</v>
       </c>
       <c r="G82" t="n">
-        <v>153.075</v>
+        <v>153.199</v>
       </c>
       <c r="H82" t="n">
-        <v>1523.672739515615</v>
+        <v>1490.097421226529</v>
       </c>
       <c r="I82" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J82" t="n">
-        <v>106.0900039672852</v>
+        <v>100.8015975952148</v>
       </c>
       <c r="K82" t="n">
-        <v>-7.758895874023438</v>
+        <v>-5.288406372070312</v>
       </c>
       <c r="L82" t="n">
-        <v>0.3009999999999877</v>
+        <v>0.1240000000000236</v>
       </c>
       <c r="M82" t="n">
-        <v>-0.01391288220665323</v>
+        <v>-0.01390743610298772</v>
       </c>
       <c r="N82" t="n">
-        <v>-0.02327187501470378</v>
+        <v>-0.02823808076178415</v>
       </c>
       <c r="O82" t="n">
-        <v>1474.765513905243</v>
+        <v>1474.188226916698</v>
       </c>
       <c r="P82" t="n">
-        <v>1125.315265195763</v>
+        <v>1093.344012995173</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>1763</v>
+        <v>1810</v>
       </c>
       <c r="B83" t="n">
         <v>16.2</v>
       </c>
       <c r="C83" t="n">
-        <v>36.1439998626709</v>
+        <v>33.76800041198731</v>
       </c>
       <c r="D83" t="n">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="E83" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="F83" t="n">
-        <v>4355</v>
+        <v>4400</v>
       </c>
       <c r="G83" t="n">
-        <v>153.199</v>
+        <v>153.673</v>
       </c>
       <c r="H83" t="n">
-        <v>1490.097421226529</v>
+        <v>1408.454536333064</v>
       </c>
       <c r="I83" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="J83" t="n">
-        <v>100.8015975952148</v>
+        <v>87.98440551757812</v>
       </c>
       <c r="K83" t="n">
-        <v>-5.288406372070312</v>
+        <v>-12.81719207763672</v>
       </c>
       <c r="L83" t="n">
-        <v>0.1240000000000236</v>
+        <v>0.4739999999999895</v>
       </c>
       <c r="M83" t="n">
-        <v>-0.01426259011463511</v>
+        <v>-0.01386030380279039</v>
       </c>
       <c r="N83" t="n">
-        <v>-0.02823808076178415</v>
+        <v>-0.02021860189761852</v>
       </c>
       <c r="O83" t="n">
-        <v>1511.834552151321</v>
+        <v>1469.192203095782</v>
       </c>
       <c r="P83" t="n">
-        <v>1093.344012995173</v>
+        <v>1015.881737522317</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>1810</v>
+        <v>1837</v>
       </c>
       <c r="B84" t="n">
         <v>16.4</v>
       </c>
       <c r="C84" t="n">
-        <v>33.76800041198731</v>
+        <v>33.08399848937989</v>
       </c>
       <c r="D84" t="n">
-        <v>7100</v>
+        <v>7147</v>
       </c>
       <c r="E84" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="F84" t="n">
-        <v>4455</v>
+        <v>4447</v>
       </c>
       <c r="G84" t="n">
-        <v>153.673</v>
+        <v>153.91</v>
       </c>
       <c r="H84" t="n">
-        <v>1408.454536333064</v>
+        <v>1385.905178974304</v>
       </c>
       <c r="I84" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="J84" t="n">
-        <v>87.98440551757812</v>
+        <v>84.45609283447266</v>
       </c>
       <c r="K84" t="n">
-        <v>-12.81719207763672</v>
+        <v>-3.528312683105469</v>
       </c>
       <c r="L84" t="n">
-        <v>0.4739999999999895</v>
+        <v>0.2369999999999948</v>
       </c>
       <c r="M84" t="n">
-        <v>-0.01420759838829031</v>
+        <v>-0.01237041549190451</v>
       </c>
       <c r="N84" t="n">
-        <v>-0.02021860189761852</v>
+        <v>0.009132161339904668</v>
       </c>
       <c r="O84" t="n">
-        <v>1506.005429158773</v>
+        <v>1311.264042141878</v>
       </c>
       <c r="P84" t="n">
-        <v>1015.881737522317</v>
+        <v>994.5648185043473</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>1837</v>
+        <v>1865</v>
       </c>
       <c r="B85" t="n">
         <v>16.6</v>
       </c>
       <c r="C85" t="n">
-        <v>33.08399848937989</v>
+        <v>32.6879997253418</v>
       </c>
       <c r="D85" t="n">
-        <v>7147</v>
+        <v>7200</v>
       </c>
       <c r="E85" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F85" t="n">
-        <v>4502</v>
+        <v>4500</v>
       </c>
       <c r="G85" t="n">
-        <v>153.91</v>
+        <v>154.063</v>
       </c>
       <c r="H85" t="n">
-        <v>1385.905178974304</v>
+        <v>1373.045292818488</v>
       </c>
       <c r="I85" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J85" t="n">
-        <v>84.45609283447266</v>
+        <v>82.44639587402344</v>
       </c>
       <c r="K85" t="n">
-        <v>-3.528312683105469</v>
+        <v>-2.009696960449219</v>
       </c>
       <c r="L85" t="n">
-        <v>0.2369999999999948</v>
+        <v>0.1529999999999916</v>
       </c>
       <c r="M85" t="n">
-        <v>-0.01272203052893833</v>
+        <v>-0.01100776697984116</v>
       </c>
       <c r="N85" t="n">
-        <v>0.009132161339904668</v>
+        <v>0.007757041846953213</v>
       </c>
       <c r="O85" t="n">
-        <v>1348.535236067463</v>
+        <v>1166.823299863163</v>
       </c>
       <c r="P85" t="n">
-        <v>994.5648185043473</v>
+        <v>982.4243555730511</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>1865</v>
+        <v>1893</v>
       </c>
       <c r="B86" t="n">
         <v>16.8</v>
       </c>
       <c r="C86" t="n">
-        <v>32.6879997253418</v>
+        <v>31.31999931335449</v>
       </c>
       <c r="D86" t="n">
-        <v>7200</v>
+        <v>7250</v>
       </c>
       <c r="E86" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F86" t="n">
-        <v>4555</v>
+        <v>4550</v>
       </c>
       <c r="G86" t="n">
-        <v>154.063</v>
+        <v>154.267</v>
       </c>
       <c r="H86" t="n">
-        <v>1373.045292818488</v>
+        <v>1329.719945753676</v>
       </c>
       <c r="I86" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J86" t="n">
-        <v>82.44639587402344</v>
+        <v>75.68999481201172</v>
       </c>
       <c r="K86" t="n">
-        <v>-2.009696960449219</v>
+        <v>-6.756401062011719</v>
       </c>
       <c r="L86" t="n">
-        <v>0.1529999999999916</v>
+        <v>0.2040000000000077</v>
       </c>
       <c r="M86" t="n">
-        <v>-0.01136212618044538</v>
+        <v>-0.01152393408280418</v>
       </c>
       <c r="N86" t="n">
-        <v>0.007757041846953213</v>
+        <v>-0.02980476533709689</v>
       </c>
       <c r="O86" t="n">
-        <v>1204.38537512721</v>
+        <v>1221.537012777243</v>
       </c>
       <c r="P86" t="n">
-        <v>982.4243555730511</v>
+        <v>941.6176469988477</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>1893</v>
+        <v>1922</v>
       </c>
       <c r="B87" t="n">
         <v>17</v>
       </c>
       <c r="C87" t="n">
-        <v>31.31999931335449</v>
+        <v>30.52799835205078</v>
       </c>
       <c r="D87" t="n">
-        <v>7250</v>
+        <v>7300</v>
       </c>
       <c r="E87" t="n">
         <v>50</v>
       </c>
       <c r="F87" t="n">
-        <v>4605</v>
+        <v>4600</v>
       </c>
       <c r="G87" t="n">
-        <v>154.267</v>
+        <v>154.443</v>
       </c>
       <c r="H87" t="n">
-        <v>1329.719945753676</v>
+        <v>1305.41654059729</v>
       </c>
       <c r="I87" t="n">
         <v>50</v>
       </c>
       <c r="J87" t="n">
-        <v>75.68999481201172</v>
+        <v>71.91039276123047</v>
       </c>
       <c r="K87" t="n">
-        <v>-6.756401062011719</v>
+        <v>-3.77960205078125</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2040000000000077</v>
+        <v>0.1760000000000161</v>
       </c>
       <c r="M87" t="n">
-        <v>-0.01186578133071737</v>
+        <v>-0.01084186352114007</v>
       </c>
       <c r="N87" t="n">
-        <v>-0.02980476533709689</v>
+        <v>-0.005219416734224609</v>
       </c>
       <c r="O87" t="n">
-        <v>1257.772821056041</v>
+        <v>1149.237533240847</v>
       </c>
       <c r="P87" t="n">
-        <v>941.6176469988477</v>
+        <v>918.7960444934561</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>1922</v>
+        <v>1953</v>
       </c>
       <c r="B88" t="n">
         <v>17.2</v>
       </c>
       <c r="C88" t="n">
-        <v>30.52799835205078</v>
+        <v>29.9879997253418</v>
       </c>
       <c r="D88" t="n">
-        <v>7300</v>
+        <v>7348</v>
       </c>
       <c r="E88" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F88" t="n">
-        <v>4655</v>
+        <v>4648</v>
       </c>
       <c r="G88" t="n">
-        <v>154.443</v>
+        <v>154.553</v>
       </c>
       <c r="H88" t="n">
-        <v>1305.41654059729</v>
+        <v>1289.17393183848</v>
       </c>
       <c r="I88" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J88" t="n">
-        <v>71.91039276123047</v>
+        <v>69.38890075683594</v>
       </c>
       <c r="K88" t="n">
-        <v>-3.77960205078125</v>
+        <v>-2.521492004394531</v>
       </c>
       <c r="L88" t="n">
-        <v>0.1760000000000161</v>
+        <v>0.1099999999999852</v>
       </c>
       <c r="M88" t="n">
-        <v>-0.01118088886025571</v>
+        <v>-0.01018120486700601</v>
       </c>
       <c r="N88" t="n">
-        <v>-0.005219416734224609</v>
+        <v>-0.005056815297351543</v>
       </c>
       <c r="O88" t="n">
-        <v>1185.174219187105</v>
+        <v>1079.207715902637</v>
       </c>
       <c r="P88" t="n">
-        <v>918.7960444934561</v>
+        <v>903.5736923495404</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>1953</v>
+        <v>1980</v>
       </c>
       <c r="B89" t="n">
         <v>17.4</v>
       </c>
       <c r="C89" t="n">
-        <v>29.9879997253418</v>
+        <v>29.4120002746582</v>
       </c>
       <c r="D89" t="n">
-        <v>7348</v>
+        <v>7400</v>
       </c>
       <c r="E89" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F89" t="n">
-        <v>4703</v>
+        <v>4700</v>
       </c>
       <c r="G89" t="n">
-        <v>154.553</v>
+        <v>154.574</v>
       </c>
       <c r="H89" t="n">
-        <v>1289.17393183848</v>
+        <v>1272.141436849948</v>
       </c>
       <c r="I89" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J89" t="n">
-        <v>69.38890075683594</v>
+        <v>66.7489013671875</v>
       </c>
       <c r="K89" t="n">
-        <v>-2.521492004394531</v>
+        <v>-2.639999389648438</v>
       </c>
       <c r="L89" t="n">
-        <v>0.1099999999999852</v>
+        <v>0.02100000000001501</v>
       </c>
       <c r="M89" t="n">
-        <v>-0.01051714150355678</v>
+        <v>-0.0103360045544845</v>
       </c>
       <c r="N89" t="n">
-        <v>-0.005056815297351543</v>
+        <v>-0.02164712765808281</v>
       </c>
       <c r="O89" t="n">
-        <v>1114.816999377019</v>
+        <v>1095.616482775357</v>
       </c>
       <c r="P89" t="n">
-        <v>903.5736923495404</v>
+        <v>887.6383565066753</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>1980</v>
+        <v>2013</v>
       </c>
       <c r="B90" t="n">
         <v>17.6</v>
       </c>
       <c r="C90" t="n">
-        <v>29.4120002746582</v>
+        <v>28.54799938201904</v>
       </c>
       <c r="D90" t="n">
-        <v>7400</v>
+        <v>7446</v>
       </c>
       <c r="E90" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F90" t="n">
-        <v>4755</v>
+        <v>4746</v>
       </c>
       <c r="G90" t="n">
-        <v>154.574</v>
+        <v>154.68</v>
       </c>
       <c r="H90" t="n">
-        <v>1272.141436849948</v>
+        <v>1247.159707572171</v>
       </c>
       <c r="I90" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J90" t="n">
-        <v>66.7489013671875</v>
+        <v>62.8848991394043</v>
       </c>
       <c r="K90" t="n">
-        <v>-2.639999389648438</v>
+        <v>-3.864002227783203</v>
       </c>
       <c r="L90" t="n">
-        <v>0.02100000000001501</v>
+        <v>0.1059999999999945</v>
       </c>
       <c r="M90" t="n">
-        <v>-0.01066283565173676</v>
+        <v>-0.01044459041514309</v>
       </c>
       <c r="N90" t="n">
-        <v>-0.02164712765808281</v>
+        <v>-0.02067393725851418</v>
       </c>
       <c r="O90" t="n">
-        <v>1130.260579084096</v>
+        <v>1107.126584005167</v>
       </c>
       <c r="P90" t="n">
-        <v>887.6383565066753</v>
+        <v>864.3195635302529</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>2013</v>
+        <v>2069</v>
       </c>
       <c r="B91" t="n">
         <v>17.8</v>
       </c>
       <c r="C91" t="n">
-        <v>28.54799938201904</v>
+        <v>27</v>
       </c>
       <c r="D91" t="n">
-        <v>7446</v>
+        <v>7600</v>
       </c>
       <c r="E91" t="n">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="F91" t="n">
-        <v>4801</v>
+        <v>4900</v>
       </c>
       <c r="G91" t="n">
-        <v>154.68</v>
+        <v>154.94</v>
       </c>
       <c r="H91" t="n">
-        <v>1247.159707572171</v>
+        <v>1204.10262</v>
       </c>
       <c r="I91" t="n">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="J91" t="n">
-        <v>62.8848991394043</v>
+        <v>56.25</v>
       </c>
       <c r="K91" t="n">
-        <v>-3.864002227783203</v>
+        <v>-6.634899139404297</v>
       </c>
       <c r="L91" t="n">
-        <v>0.1059999999999945</v>
+        <v>0.2599999999999909</v>
       </c>
       <c r="M91" t="n">
-        <v>-0.01076293738803278</v>
+        <v>-0.009864139511953893</v>
       </c>
       <c r="N91" t="n">
-        <v>-0.02067393725851418</v>
+        <v>-0.005917033471479823</v>
       </c>
       <c r="O91" t="n">
-        <v>1140.871363131474</v>
+        <v>1045.598788267113</v>
       </c>
       <c r="P91" t="n">
-        <v>864.3195635302529</v>
+        <v>824.2935</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>2069</v>
+        <v>2144</v>
       </c>
       <c r="B92" t="n">
         <v>18</v>
       </c>
       <c r="C92" t="n">
-        <v>27</v>
+        <v>24.62400054931641</v>
       </c>
       <c r="D92" t="n">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="E92" t="n">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="F92" t="n">
-        <v>4955</v>
+        <v>5000</v>
       </c>
       <c r="G92" t="n">
-        <v>154.94</v>
+        <v>155.24</v>
       </c>
       <c r="H92" t="n">
-        <v>1204.10262</v>
+        <v>1142.264414055019</v>
       </c>
       <c r="I92" t="n">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="J92" t="n">
-        <v>56.25</v>
+        <v>46.78560256958008</v>
       </c>
       <c r="K92" t="n">
-        <v>-6.634899139404297</v>
+        <v>-9.464397430419922</v>
       </c>
       <c r="L92" t="n">
-        <v>0.2599999999999909</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="M92" t="n">
-        <v>-0.01017899950065501</v>
+        <v>-0.00994186839195983</v>
       </c>
       <c r="N92" t="n">
-        <v>-0.005917033471479823</v>
+        <v>-0.01955783620870233</v>
       </c>
       <c r="O92" t="n">
-        <v>1078.973947069431</v>
+        <v>1053.838049547742</v>
       </c>
       <c r="P92" t="n">
-        <v>824.2935</v>
+        <v>767.2364139479355</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>2144</v>
+        <v>2215</v>
       </c>
       <c r="B93" t="n">
         <v>18.2</v>
       </c>
       <c r="C93" t="n">
-        <v>24.62400054931641</v>
+        <v>24.3</v>
       </c>
       <c r="D93" t="n">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="E93" t="n">
         <v>100</v>
       </c>
       <c r="F93" t="n">
-        <v>5055</v>
+        <v>5100</v>
       </c>
       <c r="G93" t="n">
-        <v>155.24</v>
+        <v>155.39</v>
       </c>
       <c r="H93" t="n">
-        <v>1142.264414055019</v>
+        <v>1134.2306322</v>
       </c>
       <c r="I93" t="n">
         <v>100</v>
       </c>
       <c r="J93" t="n">
-        <v>46.78560256958008</v>
+        <v>45.5625</v>
       </c>
       <c r="K93" t="n">
-        <v>-9.464397430419922</v>
+        <v>-1.223102569580078</v>
       </c>
       <c r="L93" t="n">
-        <v>0.3000000000000114</v>
+        <v>0.1499999999999773</v>
       </c>
       <c r="M93" t="n">
-        <v>-0.01024878635677243</v>
+        <v>-0.008761149504159977</v>
       </c>
       <c r="N93" t="n">
-        <v>-0.01955783620870233</v>
+        <v>0.007766562623795619</v>
       </c>
       <c r="O93" t="n">
-        <v>1086.371353817877</v>
+        <v>928.6818474409575</v>
       </c>
       <c r="P93" t="n">
-        <v>767.2364139479355</v>
+        <v>759.8666940000001</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>2215</v>
+        <v>2293</v>
       </c>
       <c r="B94" t="n">
         <v>18.4</v>
       </c>
       <c r="C94" t="n">
-        <v>24.3</v>
+        <v>22.82400054931641</v>
       </c>
       <c r="D94" t="n">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="E94" t="n">
         <v>100</v>
       </c>
       <c r="F94" t="n">
-        <v>5155</v>
+        <v>5200</v>
       </c>
       <c r="G94" t="n">
-        <v>155.39</v>
+        <v>155.51</v>
       </c>
       <c r="H94" t="n">
-        <v>1134.2306322</v>
+        <v>1098.843284161696</v>
       </c>
       <c r="I94" t="n">
         <v>100</v>
       </c>
       <c r="J94" t="n">
-        <v>45.5625</v>
+        <v>40.19560241699219</v>
       </c>
       <c r="K94" t="n">
-        <v>-1.223102569580078</v>
+        <v>-5.366897583007812</v>
       </c>
       <c r="L94" t="n">
-        <v>0.1499999999999773</v>
+        <v>0.1200000000000045</v>
       </c>
       <c r="M94" t="n">
-        <v>-0.00906852687418192</v>
+        <v>-0.008701397172050887</v>
       </c>
       <c r="N94" t="n">
-        <v>0.007766562623795619</v>
+        <v>-0.01572882753768015</v>
       </c>
       <c r="O94" t="n">
-        <v>961.2638486632836</v>
+        <v>922.3481002373941</v>
       </c>
       <c r="P94" t="n">
-        <v>759.8666940000001</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>2293</v>
-      </c>
-      <c r="B95" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="C95" t="n">
-        <v>22.82400054931641</v>
-      </c>
-      <c r="D95" t="n">
-        <v>7900</v>
-      </c>
-      <c r="E95" t="n">
-        <v>100</v>
-      </c>
-      <c r="F95" t="n">
-        <v>5255</v>
-      </c>
-      <c r="G95" t="n">
-        <v>155.51</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1098.843284161696</v>
-      </c>
-      <c r="I95" t="n">
-        <v>100</v>
-      </c>
-      <c r="J95" t="n">
-        <v>40.19560241699219</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-5.366897583007812</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0.1200000000000045</v>
-      </c>
-      <c r="M95" t="n">
-        <v>-0.009001852920715243</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-0.01572882753768015</v>
-      </c>
-      <c r="O95" t="n">
-        <v>954.1964095958157</v>
-      </c>
-      <c r="P95" t="n">
         <v>727.5412275792833</v>
       </c>
     </row>

--- a/temp/0042_results.xlsx
+++ b/temp/0042_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P94"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,1766 +512,1766 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>89.10000000000001</v>
+        <v>90.36000137329101</v>
       </c>
       <c r="D2" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E2" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F2" t="n">
         <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>138.253</v>
+        <v>137.934</v>
       </c>
       <c r="H2" t="n">
-        <v>4645.253521800001</v>
+        <v>4751.460649633114</v>
       </c>
       <c r="I2" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J2" t="n">
-        <v>612.5625</v>
+        <v>630.010009765625</v>
       </c>
       <c r="K2" t="n">
-        <v>-11.93756103515625</v>
+        <v>-5.030029296875</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1739999999999782</v>
+        <v>0.2009999999999934</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.07082736109144511</v>
+        <v>-0.05546938115652082</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.09685466139691878</v>
+        <v>-0.01190575518600025</v>
       </c>
       <c r="O2" t="n">
-        <v>7507.700275693182</v>
+        <v>5879.754402591208</v>
       </c>
       <c r="P2" t="n">
-        <v>4195.818006</v>
+        <v>4301.715724391798</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="B3" t="n">
         <v>0.2</v>
       </c>
       <c r="C3" t="n">
-        <v>88.84800109863282</v>
+        <v>89.9639991760254</v>
       </c>
       <c r="D3" t="n">
-        <v>2848</v>
+        <v>2755</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F3" t="n">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G3" t="n">
-        <v>138.494</v>
+        <v>138.079</v>
       </c>
       <c r="H3" t="n">
-        <v>4624.18587438299</v>
+        <v>4717.925174661249</v>
       </c>
       <c r="I3" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J3" t="n">
-        <v>609.1024169921875</v>
+        <v>624.5000610351562</v>
       </c>
       <c r="K3" t="n">
-        <v>-3.4600830078125</v>
+        <v>-5.50994873046875</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2410000000000139</v>
+        <v>0.1450000000000102</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05087878023240201</v>
+        <v>-0.05247157666284228</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01042386017805643</v>
+        <v>-0.02569164369036599</v>
       </c>
       <c r="O3" t="n">
-        <v>5393.150704634613</v>
+        <v>5561.987126261281</v>
       </c>
       <c r="P3" t="n">
-        <v>4174.817505863703</v>
+        <v>4268.272764368978</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="B4" t="n">
         <v>0.4</v>
       </c>
       <c r="C4" t="n">
-        <v>88.09199752807618</v>
+        <v>89.10000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E4" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F4" t="n">
         <v>200</v>
       </c>
       <c r="G4" t="n">
-        <v>138.64</v>
+        <v>138.253</v>
       </c>
       <c r="H4" t="n">
-        <v>4561.329686811219</v>
+        <v>4645.253521800001</v>
       </c>
       <c r="I4" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J4" t="n">
-        <v>598.7808837890625</v>
+        <v>612.5625</v>
       </c>
       <c r="K4" t="n">
-        <v>-10.321533203125</v>
+        <v>-11.93756103515625</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1459999999999866</v>
+        <v>0.1739999999999782</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.05515987451652113</v>
+        <v>-0.05664088020332199</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.0732611138907181</v>
+        <v>-0.09685466139691878</v>
       </c>
       <c r="O4" t="n">
-        <v>5846.94669875124</v>
+        <v>6003.933301552131</v>
       </c>
       <c r="P4" t="n">
-        <v>4112.173293542626</v>
+        <v>4195.818006</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="B5" t="n">
         <v>0.6000000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>87.98400192260742</v>
+        <v>88.84800109863282</v>
       </c>
       <c r="D5" t="n">
-        <v>2949</v>
+        <v>2848</v>
       </c>
       <c r="E5" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G5" t="n">
-        <v>138.806</v>
+        <v>138.494</v>
       </c>
       <c r="H5" t="n">
-        <v>4552.393167198728</v>
+        <v>4624.18587438299</v>
       </c>
       <c r="I5" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" t="n">
-        <v>597.3135986328125</v>
+        <v>609.1024169921875</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.46728515625</v>
+        <v>-3.4600830078125</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1660000000000252</v>
+        <v>0.2410000000000139</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.03807076365068544</v>
+        <v>-0.04924753870074835</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01638041715802363</v>
+        <v>0.01042386017805643</v>
       </c>
       <c r="O5" t="n">
-        <v>4035.500946972657</v>
+        <v>5220.239102279325</v>
       </c>
       <c r="P5" t="n">
-        <v>4103.268344251744</v>
+        <v>4174.817505863703</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="B6" t="n">
         <v>0.8</v>
       </c>
       <c r="C6" t="n">
-        <v>87.44400329589844</v>
+        <v>88.09199752807618</v>
       </c>
       <c r="D6" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="E6" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" t="n">
         <v>300</v>
       </c>
       <c r="G6" t="n">
-        <v>138.985</v>
+        <v>138.64</v>
       </c>
       <c r="H6" t="n">
-        <v>4507.8683492735</v>
+        <v>4561.329686811219</v>
       </c>
       <c r="I6" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J6" t="n">
-        <v>590.004150390625</v>
+        <v>598.7808837890625</v>
       </c>
       <c r="K6" t="n">
-        <v>-7.3094482421875</v>
+        <v>-10.321533203125</v>
       </c>
       <c r="L6" t="n">
-        <v>0.179000000000002</v>
+        <v>0.1459999999999866</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.03614363702510819</v>
+        <v>-0.0515135882241443</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.03917901532296254</v>
+        <v>-0.0732611138907181</v>
       </c>
       <c r="O6" t="n">
-        <v>3831.225524661468</v>
+        <v>5460.440351759295</v>
       </c>
       <c r="P6" t="n">
-        <v>4058.906219795419</v>
+        <v>4112.173293542626</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>86.90399780273438</v>
+        <v>87.98400192260742</v>
       </c>
       <c r="D7" t="n">
-        <v>3047</v>
+        <v>2949</v>
       </c>
       <c r="E7" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F7" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G7" t="n">
-        <v>139.158</v>
+        <v>138.806</v>
       </c>
       <c r="H7" t="n">
-        <v>4463.60877979846</v>
+        <v>4552.393167198728</v>
       </c>
       <c r="I7" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J7" t="n">
-        <v>582.7395629882812</v>
+        <v>597.3135986328125</v>
       </c>
       <c r="K7" t="n">
-        <v>-7.26458740234375</v>
+        <v>-1.46728515625</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1729999999999734</v>
+        <v>0.1660000000000252</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03576932388097679</v>
+        <v>-0.0421549045912069</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.04321760986034621</v>
+        <v>0.01638041715802363</v>
       </c>
       <c r="O7" t="n">
-        <v>3791.548331383539</v>
+        <v>4468.419886667931</v>
       </c>
       <c r="P7" t="n">
-        <v>4014.817405794777</v>
+        <v>4103.268344251744</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="B8" t="n">
         <v>1.2</v>
       </c>
       <c r="C8" t="n">
-        <v>87.15599670410157</v>
+        <v>87.44400329589844</v>
       </c>
       <c r="D8" t="n">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E8" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>139.218</v>
+        <v>138.985</v>
       </c>
       <c r="H8" t="n">
-        <v>4484.22986609994</v>
+        <v>4507.8683492735</v>
       </c>
       <c r="I8" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J8" t="n">
-        <v>586.1240844726562</v>
+        <v>590.004150390625</v>
       </c>
       <c r="K8" t="n">
-        <v>3.384521484375</v>
+        <v>-7.3094482421875</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06000000000000227</v>
+        <v>0.179000000000002</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.01502699460914417</v>
+        <v>-0.04051448300492869</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04240648605764992</v>
+        <v>-0.03917901532296254</v>
       </c>
       <c r="O8" t="n">
-        <v>1592.861428569282</v>
+        <v>4294.535198522441</v>
       </c>
       <c r="P8" t="n">
-        <v>4035.357804347299</v>
+        <v>4058.906219795419</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>604</v>
+        <v>572</v>
       </c>
       <c r="B9" t="n">
         <v>1.4</v>
       </c>
       <c r="C9" t="n">
-        <v>85.35599670410157</v>
+        <v>86.90399780273438</v>
       </c>
       <c r="D9" t="n">
-        <v>3148</v>
+        <v>3047</v>
       </c>
       <c r="E9" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" t="n">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G9" t="n">
-        <v>139.488</v>
+        <v>139.158</v>
       </c>
       <c r="H9" t="n">
-        <v>4338.205736659878</v>
+        <v>4463.60877979846</v>
       </c>
       <c r="I9" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" t="n">
-        <v>562.1640625</v>
+        <v>582.7395629882812</v>
       </c>
       <c r="K9" t="n">
-        <v>-23.96002197265625</v>
+        <v>-7.26458740234375</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2700000000000102</v>
+        <v>0.1729999999999734</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05531247811191548</v>
+        <v>-0.03969229449585784</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.1975257791962994</v>
+        <v>-0.04321760986034621</v>
       </c>
       <c r="O9" t="n">
-        <v>5863.122679863041</v>
+        <v>4207.383216560932</v>
       </c>
       <c r="P9" t="n">
-        <v>3889.948526559213</v>
+        <v>4014.817405794777</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>615</v>
+        <v>584</v>
       </c>
       <c r="B10" t="n">
         <v>1.6</v>
       </c>
       <c r="C10" t="n">
-        <v>85.5</v>
+        <v>87.15599670410157</v>
       </c>
       <c r="D10" t="n">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E10" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" t="n">
         <v>500</v>
       </c>
       <c r="G10" t="n">
-        <v>139.661</v>
+        <v>139.218</v>
       </c>
       <c r="H10" t="n">
-        <v>4349.779245</v>
+        <v>4484.22986609994</v>
       </c>
       <c r="I10" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J10" t="n">
-        <v>564.0625</v>
+        <v>586.1240844726562</v>
       </c>
       <c r="K10" t="n">
-        <v>1.8984375</v>
+        <v>3.384521484375</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1730000000000018</v>
+        <v>0.06000000000000227</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.03127555524814306</v>
+        <v>-0.02577871576527696</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04904393822568973</v>
+        <v>0.04240648605764992</v>
       </c>
       <c r="O10" t="n">
-        <v>3315.208856303164</v>
+        <v>2732.543871119358</v>
       </c>
       <c r="P10" t="n">
-        <v>3901.46955</v>
+        <v>4035.357804347299</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>626</v>
+        <v>604</v>
       </c>
       <c r="B11" t="n">
         <v>1.8</v>
       </c>
       <c r="C11" t="n">
-        <v>84.42000274658203</v>
+        <v>85.35599670410157</v>
       </c>
       <c r="D11" t="n">
-        <v>3249</v>
+        <v>3148</v>
       </c>
       <c r="E11" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G11" t="n">
-        <v>139.861</v>
+        <v>139.488</v>
       </c>
       <c r="H11" t="n">
-        <v>4263.440874610405</v>
+        <v>4338.205736659878</v>
       </c>
       <c r="I11" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" t="n">
-        <v>549.9025268554688</v>
+        <v>562.1640625</v>
       </c>
       <c r="K11" t="n">
-        <v>-14.15997314453125</v>
+        <v>-23.96002197265625</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1999999999999886</v>
+        <v>0.2700000000000102</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.04722262802953504</v>
+        <v>-0.05081863139607218</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.1067151668579452</v>
+        <v>-0.1975257791962994</v>
       </c>
       <c r="O11" t="n">
-        <v>5005.598571130715</v>
+        <v>5386.774927983651</v>
       </c>
       <c r="P11" t="n">
-        <v>3815.538776580835</v>
+        <v>3889.948526559213</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="B12" t="n">
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>83.91599807739259</v>
+        <v>85.5</v>
       </c>
       <c r="D12" t="n">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E12" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" t="n">
         <v>600</v>
       </c>
       <c r="G12" t="n">
-        <v>139.985</v>
+        <v>139.661</v>
       </c>
       <c r="H12" t="n">
-        <v>4223.513028754098</v>
+        <v>4349.779245</v>
       </c>
       <c r="I12" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J12" t="n">
-        <v>543.3560791015625</v>
+        <v>564.0625</v>
       </c>
       <c r="K12" t="n">
-        <v>-6.54644775390625</v>
+        <v>1.8984375</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1240000000000236</v>
+        <v>0.1730000000000018</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.04598965637877205</v>
+        <v>-0.0348118699562398</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.04167919551553977</v>
+        <v>0.04904393822568973</v>
       </c>
       <c r="O12" t="n">
-        <v>4874.903576149838</v>
+        <v>3690.05821536142</v>
       </c>
       <c r="P12" t="n">
-        <v>3775.8121780091</v>
+        <v>3901.46955</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="B13" t="n">
         <v>2.2</v>
       </c>
       <c r="C13" t="n">
-        <v>83.7</v>
+        <v>84.42000274658203</v>
       </c>
       <c r="D13" t="n">
-        <v>3348</v>
+        <v>3249</v>
       </c>
       <c r="E13" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" t="n">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G13" t="n">
-        <v>140.122</v>
+        <v>139.861</v>
       </c>
       <c r="H13" t="n">
-        <v>4206.472288200001</v>
+        <v>4263.440874610405</v>
       </c>
       <c r="I13" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J13" t="n">
-        <v>540.5625</v>
+        <v>549.9025268554688</v>
       </c>
       <c r="K13" t="n">
-        <v>-2.7935791015625</v>
+        <v>-14.15997314453125</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1370000000000005</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.03643364155797008</v>
+        <v>-0.04511184983285474</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.002685277590961488</v>
+        <v>-0.1067151668579452</v>
       </c>
       <c r="O13" t="n">
-        <v>3861.966005144828</v>
+        <v>4781.856082282602</v>
       </c>
       <c r="P13" t="n">
-        <v>3758.859834</v>
+        <v>3815.538776580835</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>658</v>
+        <v>636</v>
       </c>
       <c r="B14" t="n">
         <v>2.4</v>
       </c>
       <c r="C14" t="n">
-        <v>83.05199890136718</v>
+        <v>83.91599807739259</v>
       </c>
       <c r="D14" t="n">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E14" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" t="n">
         <v>700</v>
       </c>
       <c r="G14" t="n">
-        <v>140.259</v>
+        <v>139.985</v>
       </c>
       <c r="H14" t="n">
-        <v>4155.60470347177</v>
+        <v>4223.513028754098</v>
       </c>
       <c r="I14" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J14" t="n">
-        <v>532.2249145507812</v>
+        <v>543.3560791015625</v>
       </c>
       <c r="K14" t="n">
-        <v>-8.33758544921875</v>
+        <v>-6.54644775390625</v>
       </c>
       <c r="L14" t="n">
-        <v>0.136999999999972</v>
+        <v>0.1240000000000236</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.03965564675963523</v>
+        <v>-0.04418841431735136</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.05578647111912576</v>
+        <v>-0.04167919551553977</v>
       </c>
       <c r="O14" t="n">
-        <v>4203.498556521335</v>
+        <v>4683.971917639244</v>
       </c>
       <c r="P14" t="n">
-        <v>3708.26517915362</v>
+        <v>3775.8121780091</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>669</v>
+        <v>647</v>
       </c>
       <c r="B15" t="n">
         <v>2.6</v>
       </c>
       <c r="C15" t="n">
-        <v>82.83600082397462</v>
+        <v>83.7</v>
       </c>
       <c r="D15" t="n">
-        <v>3450</v>
+        <v>3348</v>
       </c>
       <c r="E15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F15" t="n">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G15" t="n">
-        <v>140.388</v>
+        <v>140.122</v>
       </c>
       <c r="H15" t="n">
-        <v>4138.734080214655</v>
+        <v>4206.472288200001</v>
       </c>
       <c r="I15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J15" t="n">
-        <v>529.4600830078125</v>
+        <v>540.5625</v>
       </c>
       <c r="K15" t="n">
-        <v>-2.76483154296875</v>
+        <v>-2.7935791015625</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1290000000000191</v>
+        <v>0.1370000000000005</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.03183387706030099</v>
+        <v>-0.0372746132316476</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.003771145618363212</v>
+        <v>-0.002685277590961488</v>
       </c>
       <c r="O15" t="n">
-        <v>3374.390968391905</v>
+        <v>3951.109002554645</v>
       </c>
       <c r="P15" t="n">
-        <v>3691.488110678029</v>
+        <v>3758.859834</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="B16" t="n">
         <v>2.8</v>
       </c>
       <c r="C16" t="n">
-        <v>82.4759994506836</v>
+        <v>83.05199890136718</v>
       </c>
       <c r="D16" t="n">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F16" t="n">
         <v>800</v>
       </c>
       <c r="G16" t="n">
-        <v>140.546</v>
+        <v>140.259</v>
       </c>
       <c r="H16" t="n">
-        <v>4110.710528059029</v>
+        <v>4155.60470347177</v>
       </c>
       <c r="I16" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J16" t="n">
-        <v>524.8681030273438</v>
+        <v>532.2249145507812</v>
       </c>
       <c r="K16" t="n">
-        <v>-4.59197998046875</v>
+        <v>-8.33758544921875</v>
       </c>
       <c r="L16" t="n">
-        <v>0.157999999999987</v>
+        <v>0.136999999999972</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02780401032835382</v>
+        <v>-0.03929526439545912</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.01667489414431254</v>
+        <v>-0.05578647111912576</v>
       </c>
       <c r="O16" t="n">
-        <v>2947.225094805504</v>
+        <v>4165.298025918667</v>
       </c>
       <c r="P16" t="n">
-        <v>3663.623350864379</v>
+        <v>3708.26517915362</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>691</v>
+        <v>669</v>
       </c>
       <c r="B17" t="n">
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>81.75599670410156</v>
+        <v>82.83600082397462</v>
       </c>
       <c r="D17" t="n">
-        <v>3548</v>
+        <v>3450</v>
       </c>
       <c r="E17" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F17" t="n">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G17" t="n">
-        <v>140.682</v>
+        <v>140.388</v>
       </c>
       <c r="H17" t="n">
-        <v>4055.01784097975</v>
+        <v>4138.734080214655</v>
       </c>
       <c r="I17" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J17" t="n">
-        <v>515.7440795898438</v>
+        <v>529.4600830078125</v>
       </c>
       <c r="K17" t="n">
-        <v>-9.1240234375</v>
+        <v>-2.76483154296875</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1359999999999957</v>
+        <v>0.1290000000000191</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.03424560652191481</v>
+        <v>-0.03330034116319908</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06882021269408495</v>
+        <v>-0.003771145618363212</v>
       </c>
       <c r="O17" t="n">
-        <v>3630.03429132297</v>
+        <v>3529.836163299102</v>
       </c>
       <c r="P17" t="n">
-        <v>3608.25899498304</v>
+        <v>3691.488110678029</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="B18" t="n">
         <v>3.2</v>
       </c>
       <c r="C18" t="n">
-        <v>81.43200302124023</v>
+        <v>82.4759994506836</v>
       </c>
       <c r="D18" t="n">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E18" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F18" t="n">
         <v>900</v>
       </c>
       <c r="G18" t="n">
-        <v>140.821</v>
+        <v>140.546</v>
       </c>
       <c r="H18" t="n">
-        <v>4030.110882817889</v>
+        <v>4110.710528059029</v>
       </c>
       <c r="I18" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J18" t="n">
-        <v>511.6644287109375</v>
+        <v>524.8681030273438</v>
       </c>
       <c r="K18" t="n">
-        <v>-4.07965087890625</v>
+        <v>-4.59197998046875</v>
       </c>
       <c r="L18" t="n">
-        <v>0.13900000000001</v>
+        <v>0.157999999999987</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.02993394918205208</v>
+        <v>-0.02989867916157746</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.01448884190530142</v>
+        <v>-0.01667489414431254</v>
       </c>
       <c r="O18" t="n">
-        <v>3172.998613297521</v>
+        <v>3169.25999112721</v>
       </c>
       <c r="P18" t="n">
-        <v>3583.504457006723</v>
+        <v>3663.623350864379</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>713</v>
+        <v>691</v>
       </c>
       <c r="B19" t="n">
         <v>3.4</v>
       </c>
       <c r="C19" t="n">
-        <v>80.74800109863281</v>
+        <v>81.75599670410156</v>
       </c>
       <c r="D19" t="n">
-        <v>3651</v>
+        <v>3548</v>
       </c>
       <c r="E19" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F19" t="n">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="G19" t="n">
-        <v>140.954</v>
+        <v>140.682</v>
       </c>
       <c r="H19" t="n">
-        <v>3977.842600743084</v>
+        <v>4055.01784097975</v>
       </c>
       <c r="I19" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J19" t="n">
-        <v>503.1049194335938</v>
+        <v>515.7440795898438</v>
       </c>
       <c r="K19" t="n">
-        <v>-8.55950927734375</v>
+        <v>-9.1240234375</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1330000000000098</v>
+        <v>0.1359999999999957</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.03416266884699792</v>
+        <v>-0.03438675134285351</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.0597819074545337</v>
+        <v>-0.06882021269408495</v>
       </c>
       <c r="O19" t="n">
-        <v>3621.242897781779</v>
+        <v>3644.995642342472</v>
       </c>
       <c r="P19" t="n">
-        <v>3531.567486545831</v>
+        <v>3608.25899498304</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>725</v>
+        <v>702</v>
       </c>
       <c r="B20" t="n">
         <v>3.6</v>
       </c>
       <c r="C20" t="n">
-        <v>79.7759994506836</v>
+        <v>81.43200302124023</v>
       </c>
       <c r="D20" t="n">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E20" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F20" t="n">
         <v>1000</v>
       </c>
       <c r="G20" t="n">
-        <v>141.118</v>
+        <v>140.821</v>
       </c>
       <c r="H20" t="n">
-        <v>3904.300344699013</v>
+        <v>4030.110882817889</v>
       </c>
       <c r="I20" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J20" t="n">
-        <v>491.0655822753906</v>
+        <v>511.6644287109375</v>
       </c>
       <c r="K20" t="n">
-        <v>-12.03933715820312</v>
+        <v>-4.07965087890625</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1639999999999873</v>
+        <v>0.13900000000001</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0431964210651286</v>
+        <v>-0.03082782048785414</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.09187540804481673</v>
+        <v>-0.01448884190530142</v>
       </c>
       <c r="O20" t="n">
-        <v>4578.820632903631</v>
+        <v>3267.748971712538</v>
       </c>
       <c r="P20" t="n">
-        <v>3458.518286417358</v>
+        <v>3583.504457006723</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>735</v>
+        <v>713</v>
       </c>
       <c r="B21" t="n">
         <v>3.8</v>
       </c>
       <c r="C21" t="n">
-        <v>79.41599807739259</v>
+        <v>80.74800109863281</v>
       </c>
       <c r="D21" t="n">
-        <v>3752</v>
+        <v>3651</v>
       </c>
       <c r="E21" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" t="n">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G21" t="n">
-        <v>141.233</v>
+        <v>140.954</v>
       </c>
       <c r="H21" t="n">
-        <v>3877.280971320672</v>
+        <v>3977.842600743084</v>
       </c>
       <c r="I21" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J21" t="n">
-        <v>486.6435852050781</v>
+        <v>503.1049194335938</v>
       </c>
       <c r="K21" t="n">
-        <v>-4.4219970703125</v>
+        <v>-8.55950927734375</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1150000000000091</v>
+        <v>0.1330000000000098</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.03972327078606467</v>
+        <v>-0.03383532177868161</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.02205204004473033</v>
+        <v>-0.0597819074545337</v>
       </c>
       <c r="O21" t="n">
-        <v>4210.666703322855</v>
+        <v>3586.544108540251</v>
       </c>
       <c r="P21" t="n">
-        <v>3431.688153734808</v>
+        <v>3531.567486545831</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="B22" t="n">
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>79.1639991760254</v>
+        <v>79.7759994506836</v>
       </c>
       <c r="D22" t="n">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E22" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" t="n">
         <v>1100</v>
       </c>
       <c r="G22" t="n">
-        <v>141.32</v>
+        <v>141.118</v>
       </c>
       <c r="H22" t="n">
-        <v>3858.437856501154</v>
+        <v>3904.300344699013</v>
       </c>
       <c r="I22" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J22" t="n">
-        <v>483.5600891113281</v>
+        <v>491.0655822753906</v>
       </c>
       <c r="K22" t="n">
-        <v>-3.08349609375</v>
+        <v>-12.03933715820312</v>
       </c>
       <c r="L22" t="n">
-        <v>0.08699999999998909</v>
+        <v>0.1639999999999873</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.03567197739169948</v>
+        <v>-0.04077793201901739</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.01534557644826272</v>
+        <v>-0.09187540804481673</v>
       </c>
       <c r="O22" t="n">
-        <v>3781.229603520145</v>
+        <v>4322.460794015843</v>
       </c>
       <c r="P22" t="n">
-        <v>3412.979637686849</v>
+        <v>3458.518286417358</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>758</v>
+        <v>735</v>
       </c>
       <c r="B23" t="n">
         <v>4.2</v>
       </c>
       <c r="C23" t="n">
-        <v>78.62400054931641</v>
+        <v>79.41599807739259</v>
       </c>
       <c r="D23" t="n">
-        <v>3851</v>
+        <v>3752</v>
       </c>
       <c r="E23" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" t="n">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="G23" t="n">
-        <v>141.478</v>
+        <v>141.233</v>
       </c>
       <c r="H23" t="n">
-        <v>3818.254606854701</v>
+        <v>3877.280971320672</v>
       </c>
       <c r="I23" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J23" t="n">
-        <v>476.985595703125</v>
+        <v>486.6435852050781</v>
       </c>
       <c r="K23" t="n">
-        <v>-6.574493408203125</v>
+        <v>-4.4219970703125</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1580000000000155</v>
+        <v>0.1150000000000091</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.03522560354342479</v>
+        <v>-0.0380255474757978</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.03578434158985395</v>
+        <v>-0.02205204004473033</v>
       </c>
       <c r="O23" t="n">
-        <v>3733.913975603028</v>
+        <v>4030.708032434566</v>
       </c>
       <c r="P23" t="n">
-        <v>3373.090725007506</v>
+        <v>3431.688153734808</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>770</v>
+        <v>747</v>
       </c>
       <c r="B24" t="n">
         <v>4.4</v>
       </c>
       <c r="C24" t="n">
-        <v>77.93999862670898</v>
+        <v>79.1639991760254</v>
       </c>
       <c r="D24" t="n">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="E24" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" t="n">
         <v>1200</v>
       </c>
       <c r="G24" t="n">
-        <v>141.694</v>
+        <v>141.32</v>
       </c>
       <c r="H24" t="n">
-        <v>3767.737139010705</v>
+        <v>3858.437856501154</v>
       </c>
       <c r="I24" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J24" t="n">
-        <v>468.7224731445312</v>
+        <v>483.5600891113281</v>
       </c>
       <c r="K24" t="n">
-        <v>-8.26312255859375</v>
+        <v>-3.08349609375</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2159999999999798</v>
+        <v>0.08699999999998909</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.03596995399930398</v>
+        <v>-0.03473346605680367</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.04352127370148029</v>
+        <v>-0.01534557644826272</v>
       </c>
       <c r="O24" t="n">
-        <v>3812.815123926222</v>
+        <v>3681.747402021189</v>
       </c>
       <c r="P24" t="n">
-        <v>3322.957656347457</v>
+        <v>3412.979637686849</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>781</v>
+        <v>758</v>
       </c>
       <c r="B25" t="n">
         <v>4.600000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>77.40000000000001</v>
+        <v>78.62400054931641</v>
       </c>
       <c r="D25" t="n">
-        <v>3950</v>
+        <v>3851</v>
       </c>
       <c r="E25" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F25" t="n">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="G25" t="n">
-        <v>141.99</v>
+        <v>141.478</v>
       </c>
       <c r="H25" t="n">
-        <v>3728.156392800001</v>
+        <v>3818.254606854701</v>
       </c>
       <c r="I25" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J25" t="n">
-        <v>462.25</v>
+        <v>476.985595703125</v>
       </c>
       <c r="K25" t="n">
-        <v>-6.47247314453125</v>
+        <v>-6.574493408203125</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2960000000000207</v>
+        <v>0.1580000000000155</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.03191579127174942</v>
+        <v>-0.03427396219221714</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.009936806917006784</v>
+        <v>-0.03578434158985395</v>
       </c>
       <c r="O25" t="n">
-        <v>3383.073874805439</v>
+        <v>3633.039992375016</v>
       </c>
       <c r="P25" t="n">
-        <v>3283.689516000001</v>
+        <v>3373.090725007506</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>793</v>
+        <v>770</v>
       </c>
       <c r="B26" t="n">
         <v>4.800000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>76.75199890136719</v>
+        <v>77.93999862670898</v>
       </c>
       <c r="D26" t="n">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E26" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" t="n">
         <v>1300</v>
       </c>
       <c r="G26" t="n">
-        <v>142.209</v>
+        <v>141.694</v>
       </c>
       <c r="H26" t="n">
-        <v>3681.01016692503</v>
+        <v>3767.737139010705</v>
       </c>
       <c r="I26" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J26" t="n">
-        <v>454.5423889160156</v>
+        <v>468.7224731445312</v>
       </c>
       <c r="K26" t="n">
-        <v>-7.707611083984375</v>
+        <v>-8.26312255859375</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2189999999999941</v>
+        <v>0.2159999999999798</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.03196603075276034</v>
+        <v>-0.03478664697740168</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.03654045046248635</v>
+        <v>-0.04352127370148029</v>
       </c>
       <c r="O26" t="n">
-        <v>3388.399259792596</v>
+        <v>3687.384579604578</v>
       </c>
       <c r="P26" t="n">
-        <v>3236.929057734186</v>
+        <v>3322.957656347457</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>806</v>
+        <v>781</v>
       </c>
       <c r="B27" t="n">
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>76.10399780273438</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>4052</v>
+        <v>3950</v>
       </c>
       <c r="E27" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F27" t="n">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="G27" t="n">
-        <v>142.327</v>
+        <v>141.99</v>
       </c>
       <c r="H27" t="n">
-        <v>3634.246710038206</v>
+        <v>3728.156392800001</v>
       </c>
       <c r="I27" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J27" t="n">
-        <v>446.8995666503906</v>
+        <v>462.25</v>
       </c>
       <c r="K27" t="n">
-        <v>-7.642822265625</v>
+        <v>-6.47247314453125</v>
       </c>
       <c r="L27" t="n">
-        <v>0.117999999999995</v>
+        <v>0.2960000000000207</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.03412220643657756</v>
+        <v>-0.03139641132244009</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.05248758709690311</v>
+        <v>-0.009936806917006784</v>
       </c>
       <c r="O27" t="n">
-        <v>3616.953882277222</v>
+        <v>3328.01960017865</v>
       </c>
       <c r="P27" t="n">
-        <v>3190.562974642433</v>
+        <v>3283.689516000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>818</v>
+        <v>793</v>
       </c>
       <c r="B28" t="n">
         <v>5.2</v>
       </c>
       <c r="C28" t="n">
-        <v>75.67200164794922</v>
+        <v>76.75199890136719</v>
       </c>
       <c r="D28" t="n">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="E28" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F28" t="n">
         <v>1400</v>
       </c>
       <c r="G28" t="n">
-        <v>142.445</v>
+        <v>142.209</v>
       </c>
       <c r="H28" t="n">
-        <v>3603.284048745276</v>
+        <v>3681.01016692503</v>
       </c>
       <c r="I28" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J28" t="n">
-        <v>441.8404235839844</v>
+        <v>454.5423889160156</v>
       </c>
       <c r="K28" t="n">
-        <v>-5.05914306640625</v>
+        <v>-7.707611083984375</v>
       </c>
       <c r="L28" t="n">
-        <v>0.117999999999995</v>
+        <v>0.2189999999999941</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.03317068958284962</v>
+        <v>-0.03132265169551199</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.02994822769644971</v>
+        <v>-0.03654045046248635</v>
       </c>
       <c r="O28" t="n">
-        <v>3516.09309578206</v>
+        <v>3320.201079724271</v>
       </c>
       <c r="P28" t="n">
-        <v>3159.871674191149</v>
+        <v>3236.929057734186</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>829</v>
+        <v>806</v>
       </c>
       <c r="B29" t="n">
         <v>5.4</v>
       </c>
       <c r="C29" t="n">
-        <v>75.34800109863282</v>
+        <v>76.10399780273438</v>
       </c>
       <c r="D29" t="n">
-        <v>4151</v>
+        <v>4052</v>
       </c>
       <c r="E29" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F29" t="n">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="G29" t="n">
-        <v>142.538</v>
+        <v>142.327</v>
       </c>
       <c r="H29" t="n">
-        <v>3580.173446983148</v>
+        <v>3634.246710038206</v>
       </c>
       <c r="I29" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J29" t="n">
-        <v>438.0649108886719</v>
+        <v>446.8995666503906</v>
       </c>
       <c r="K29" t="n">
-        <v>-3.7755126953125</v>
+        <v>-7.642822265625</v>
       </c>
       <c r="L29" t="n">
-        <v>0.09300000000001774</v>
+        <v>0.117999999999995</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.03111425460356128</v>
+        <v>-0.03300552664385197</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.02013858173354515</v>
+        <v>-0.05248758709690311</v>
       </c>
       <c r="O29" t="n">
-        <v>3298.110987977495</v>
+        <v>3498.585824248309</v>
       </c>
       <c r="P29" t="n">
-        <v>3136.967980333918</v>
+        <v>3190.562974642433</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>841</v>
+        <v>818</v>
       </c>
       <c r="B30" t="n">
         <v>5.600000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>74.6639991760254</v>
+        <v>75.67200164794922</v>
       </c>
       <c r="D30" t="n">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="E30" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F30" t="n">
         <v>1500</v>
       </c>
       <c r="G30" t="n">
-        <v>142.712</v>
+        <v>142.445</v>
       </c>
       <c r="H30" t="n">
-        <v>3531.698593601115</v>
+        <v>3603.284048745276</v>
       </c>
       <c r="I30" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J30" t="n">
-        <v>430.1475830078125</v>
+        <v>441.8404235839844</v>
       </c>
       <c r="K30" t="n">
-        <v>-7.917327880859375</v>
+        <v>-5.05914306640625</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1739999999999782</v>
+        <v>0.117999999999995</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.03262462318436414</v>
+        <v>-0.03214681681652141</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.04792537113699813</v>
+        <v>-0.02994822769644971</v>
       </c>
       <c r="O30" t="n">
-        <v>3458.210057542599</v>
+        <v>3407.562582551269</v>
       </c>
       <c r="P30" t="n">
-        <v>3088.939461569295</v>
+        <v>3159.871674191149</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>853</v>
+        <v>829</v>
       </c>
       <c r="B31" t="n">
         <v>5.800000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>74.0879997253418</v>
+        <v>75.34800109863282</v>
       </c>
       <c r="D31" t="n">
-        <v>4252</v>
+        <v>4151</v>
       </c>
       <c r="E31" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F31" t="n">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="G31" t="n">
-        <v>142.852</v>
+        <v>142.538</v>
       </c>
       <c r="H31" t="n">
-        <v>3491.208605045276</v>
+        <v>3580.173446983148</v>
       </c>
       <c r="I31" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J31" t="n">
-        <v>423.5364074707031</v>
+        <v>438.0649108886719</v>
       </c>
       <c r="K31" t="n">
-        <v>-6.611175537109375</v>
+        <v>-3.7755126953125</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1400000000000148</v>
+        <v>0.09300000000001774</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.03290508291384604</v>
+        <v>-0.03035737983613751</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.03865244983069346</v>
+        <v>-0.02013858173354515</v>
       </c>
       <c r="O31" t="n">
-        <v>3487.93878886768</v>
+        <v>3217.882262630576</v>
       </c>
       <c r="P31" t="n">
-        <v>3048.835362333549</v>
+        <v>3136.967980333918</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>865</v>
+        <v>841</v>
       </c>
       <c r="B32" t="n">
         <v>6</v>
       </c>
       <c r="C32" t="n">
-        <v>73.72799835205079</v>
+        <v>74.6639991760254</v>
       </c>
       <c r="D32" t="n">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="E32" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F32" t="n">
         <v>1600</v>
       </c>
       <c r="G32" t="n">
-        <v>143.007</v>
+        <v>142.712</v>
       </c>
       <c r="H32" t="n">
-        <v>3466.055821878052</v>
+        <v>3531.698593601115</v>
       </c>
       <c r="I32" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J32" t="n">
-        <v>419.4303894042969</v>
+        <v>430.1475830078125</v>
       </c>
       <c r="K32" t="n">
-        <v>-4.10601806640625</v>
+        <v>-7.917327880859375</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1550000000000011</v>
+        <v>0.1739999999999782</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.03023465491682373</v>
+        <v>-0.03154170477988969</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.01288599794015922</v>
+        <v>-0.04792537113699813</v>
       </c>
       <c r="O32" t="n">
-        <v>3204.873421183316</v>
+        <v>3343.420706668307</v>
       </c>
       <c r="P32" t="n">
-        <v>3023.928417950488</v>
+        <v>3088.939461569295</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>877</v>
+        <v>853</v>
       </c>
       <c r="B33" t="n">
         <v>6.2</v>
       </c>
       <c r="C33" t="n">
-        <v>73.22400054931641</v>
+        <v>74.0879997253418</v>
       </c>
       <c r="D33" t="n">
-        <v>4354</v>
+        <v>4252</v>
       </c>
       <c r="E33" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F33" t="n">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="G33" t="n">
-        <v>143.176</v>
+        <v>142.852</v>
       </c>
       <c r="H33" t="n">
-        <v>3431.040684374734</v>
+        <v>3491.208605045276</v>
       </c>
       <c r="I33" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J33" t="n">
-        <v>413.7156066894531</v>
+        <v>423.5364074707031</v>
       </c>
       <c r="K33" t="n">
-        <v>-5.71478271484375</v>
+        <v>-6.611175537109375</v>
       </c>
       <c r="L33" t="n">
-        <v>0.1689999999999827</v>
+        <v>0.1400000000000148</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.02905329668449358</v>
+        <v>-0.03171712263778076</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.0239508182890873</v>
+        <v>-0.03865244983069346</v>
       </c>
       <c r="O33" t="n">
-        <v>3079.64944855632</v>
+        <v>3362.01499960476</v>
       </c>
       <c r="P33" t="n">
-        <v>2989.26346990155</v>
+        <v>3048.835362333549</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>890</v>
+        <v>865</v>
       </c>
       <c r="B34" t="n">
         <v>6.4</v>
       </c>
       <c r="C34" t="n">
-        <v>72.17999725341797</v>
+        <v>73.72799835205079</v>
       </c>
       <c r="D34" t="n">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="E34" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F34" t="n">
         <v>1700</v>
       </c>
       <c r="G34" t="n">
-        <v>143.343</v>
+        <v>143.007</v>
       </c>
       <c r="H34" t="n">
-        <v>3359.245377298575</v>
+        <v>3466.055821878052</v>
       </c>
       <c r="I34" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J34" t="n">
-        <v>402.0024719238281</v>
+        <v>419.4303894042969</v>
       </c>
       <c r="K34" t="n">
-        <v>-11.713134765625</v>
+        <v>-4.10601806640625</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1670000000000016</v>
+        <v>0.1550000000000011</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.03551004850589407</v>
+        <v>-0.02940414388328303</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.09371803580355278</v>
+        <v>-0.01288599794015922</v>
       </c>
       <c r="O34" t="n">
-        <v>3764.065141624771</v>
+        <v>3116.839251628001</v>
       </c>
       <c r="P34" t="n">
-        <v>2918.215895473352</v>
+        <v>3023.928417950488</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>902</v>
+        <v>877</v>
       </c>
       <c r="B35" t="n">
         <v>6.600000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>71.9639991760254</v>
+        <v>73.22400054931641</v>
       </c>
       <c r="D35" t="n">
-        <v>4451</v>
+        <v>4354</v>
       </c>
       <c r="E35" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F35" t="n">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="G35" t="n">
-        <v>143.518</v>
+        <v>143.176</v>
       </c>
       <c r="H35" t="n">
-        <v>3344.515399061091</v>
+        <v>3431.040684374734</v>
       </c>
       <c r="I35" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J35" t="n">
-        <v>399.60009765625</v>
+        <v>413.7156066894531</v>
       </c>
       <c r="K35" t="n">
-        <v>-2.402374267578125</v>
+        <v>-5.71478271484375</v>
       </c>
       <c r="L35" t="n">
-        <v>0.1750000000000114</v>
+        <v>0.1689999999999827</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.0306760167434697</v>
+        <v>-0.02832919268898871</v>
       </c>
       <c r="N35" t="n">
-        <v>0.008203692900179528</v>
+        <v>-0.0239508182890873</v>
       </c>
       <c r="O35" t="n">
-        <v>3251.657774807788</v>
+        <v>3002.894425032804</v>
       </c>
       <c r="P35" t="n">
-        <v>2903.644379898763</v>
+        <v>2989.26346990155</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>914</v>
+        <v>890</v>
       </c>
       <c r="B36" t="n">
         <v>6.800000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>71.63999862670899</v>
+        <v>72.17999725341797</v>
       </c>
       <c r="D36" t="n">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="E36" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F36" t="n">
         <v>1800</v>
       </c>
       <c r="G36" t="n">
-        <v>143.724</v>
+        <v>143.343</v>
       </c>
       <c r="H36" t="n">
-        <v>3322.49994077728</v>
+        <v>3359.245377298575</v>
       </c>
       <c r="I36" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J36" t="n">
-        <v>396.0099792480469</v>
+        <v>402.0024719238281</v>
       </c>
       <c r="K36" t="n">
-        <v>-3.590118408203125</v>
+        <v>-11.713134765625</v>
       </c>
       <c r="L36" t="n">
-        <v>0.2059999999999889</v>
+        <v>0.1670000000000016</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.02688572550572008</v>
+        <v>-0.03375823189702919</v>
       </c>
       <c r="N36" t="n">
-        <v>0.002273724367582484</v>
+        <v>-0.09371803580355278</v>
       </c>
       <c r="O36" t="n">
-        <v>2849.886903606328</v>
+        <v>3578.372581085094</v>
       </c>
       <c r="P36" t="n">
-        <v>2881.869036073165</v>
+        <v>2918.215895473352</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>927</v>
+        <v>902</v>
       </c>
       <c r="B37" t="n">
         <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>70.95599670410157</v>
+        <v>71.9639991760254</v>
       </c>
       <c r="D37" t="n">
-        <v>4551</v>
+        <v>4451</v>
       </c>
       <c r="E37" t="n">
         <v>51</v>
@@ -2280,48 +2280,48 @@
         <v>1851</v>
       </c>
       <c r="G37" t="n">
-        <v>143.901</v>
+        <v>143.518</v>
       </c>
       <c r="H37" t="n">
-        <v>3276.337059539369</v>
+        <v>3344.515399061091</v>
       </c>
       <c r="I37" t="n">
         <v>51</v>
       </c>
       <c r="J37" t="n">
-        <v>388.4840698242188</v>
+        <v>399.60009765625</v>
       </c>
       <c r="K37" t="n">
-        <v>-7.525909423828125</v>
+        <v>-2.402374267578125</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1770000000000209</v>
+        <v>0.1750000000000114</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.02782378345610998</v>
+        <v>-0.02960864664350463</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.04166411384810768</v>
+        <v>0.008203692900179528</v>
       </c>
       <c r="O37" t="n">
-        <v>2949.321046347658</v>
+        <v>3138.516544211491</v>
       </c>
       <c r="P37" t="n">
-        <v>2836.222592254525</v>
+        <v>2903.644379898763</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>940</v>
+        <v>914</v>
       </c>
       <c r="B38" t="n">
         <v>7.2</v>
       </c>
       <c r="C38" t="n">
-        <v>70.2</v>
+        <v>71.63999862670899</v>
       </c>
       <c r="D38" t="n">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="E38" t="n">
         <v>49</v>
@@ -2330,348 +2330,348 @@
         <v>1900</v>
       </c>
       <c r="G38" t="n">
-        <v>144.083</v>
+        <v>143.724</v>
       </c>
       <c r="H38" t="n">
-        <v>3225.8114712</v>
+        <v>3322.49994077728</v>
       </c>
       <c r="I38" t="n">
         <v>49</v>
       </c>
       <c r="J38" t="n">
-        <v>380.25</v>
+        <v>396.0099792480469</v>
       </c>
       <c r="K38" t="n">
-        <v>-8.23406982421875</v>
+        <v>-3.590118408203125</v>
       </c>
       <c r="L38" t="n">
-        <v>0.1819999999999879</v>
+        <v>0.2059999999999889</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.029468200751263</v>
+        <v>-0.02630614827851951</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.04964645758251936</v>
+        <v>0.002273724367582484</v>
       </c>
       <c r="O38" t="n">
-        <v>3123.629279633878</v>
+        <v>2788.451717523069</v>
       </c>
       <c r="P38" t="n">
-        <v>2786.282844</v>
+        <v>2881.869036073165</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>953</v>
+        <v>927</v>
       </c>
       <c r="B39" t="n">
         <v>7.4</v>
       </c>
       <c r="C39" t="n">
-        <v>69.51599807739258</v>
+        <v>70.95599670410157</v>
       </c>
       <c r="D39" t="n">
-        <v>4653</v>
+        <v>4551</v>
       </c>
       <c r="E39" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F39" t="n">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="G39" t="n">
-        <v>144.292</v>
+        <v>143.901</v>
       </c>
       <c r="H39" t="n">
-        <v>3180.546441767135</v>
+        <v>3276.337059539369</v>
       </c>
       <c r="I39" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J39" t="n">
-        <v>372.8760681152344</v>
+        <v>388.4840698242188</v>
       </c>
       <c r="K39" t="n">
-        <v>-7.373931884765625</v>
+        <v>-7.525909423828125</v>
       </c>
       <c r="L39" t="n">
-        <v>0.2090000000000032</v>
+        <v>0.1770000000000209</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.02940202463001446</v>
+        <v>-0.02703732557205306</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.03307037911936187</v>
+        <v>-0.04166411384810768</v>
       </c>
       <c r="O39" t="n">
-        <v>3116.614610781533</v>
+        <v>2865.956510637624</v>
       </c>
       <c r="P39" t="n">
-        <v>2741.561476331365</v>
+        <v>2836.222592254525</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>966</v>
+        <v>940</v>
       </c>
       <c r="B40" t="n">
         <v>7.600000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>69.33600082397462</v>
+        <v>70.2</v>
       </c>
       <c r="D40" t="n">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="E40" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F40" t="n">
         <v>2000</v>
       </c>
       <c r="G40" t="n">
-        <v>144.393</v>
+        <v>144.083</v>
       </c>
       <c r="H40" t="n">
-        <v>3168.705688914774</v>
+        <v>3225.8114712</v>
       </c>
       <c r="I40" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J40" t="n">
-        <v>370.9476013183594</v>
+        <v>380.25</v>
       </c>
       <c r="K40" t="n">
-        <v>-1.928466796875</v>
+        <v>-8.23406982421875</v>
       </c>
       <c r="L40" t="n">
-        <v>0.1009999999999991</v>
+        <v>0.1819999999999879</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.02632356686688919</v>
+        <v>-0.02839228237343294</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.0006278081562376344</v>
+        <v>-0.04964645758251936</v>
       </c>
       <c r="O40" t="n">
-        <v>2790.298087890254</v>
+        <v>3009.581931583892</v>
       </c>
       <c r="P40" t="n">
-        <v>2729.86593903069</v>
+        <v>2786.282844</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>978</v>
+        <v>953</v>
       </c>
       <c r="B41" t="n">
         <v>7.800000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>68.61599807739258</v>
+        <v>69.51599807739258</v>
       </c>
       <c r="D41" t="n">
-        <v>4752</v>
+        <v>4653</v>
       </c>
       <c r="E41" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F41" t="n">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="G41" t="n">
-        <v>144.518</v>
+        <v>144.292</v>
       </c>
       <c r="H41" t="n">
-        <v>3121.637120680449</v>
+        <v>3180.546441767135</v>
       </c>
       <c r="I41" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J41" t="n">
-        <v>363.2835693359375</v>
+        <v>372.8760681152344</v>
       </c>
       <c r="K41" t="n">
-        <v>-7.664031982421875</v>
+        <v>-7.373931884765625</v>
       </c>
       <c r="L41" t="n">
-        <v>0.125</v>
+        <v>0.2090000000000032</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.0281258308629608</v>
+        <v>-0.02828799831544633</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.05144569939556592</v>
+        <v>-0.03307037911936187</v>
       </c>
       <c r="O41" t="n">
-        <v>2981.338071473845</v>
+        <v>2998.527821437311</v>
       </c>
       <c r="P41" t="n">
-        <v>2683.387199476506</v>
+        <v>2741.561476331365</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>992</v>
+        <v>966</v>
       </c>
       <c r="B42" t="n">
         <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>68.22000274658204</v>
+        <v>69.33600082397462</v>
       </c>
       <c r="D42" t="n">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="E42" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F42" t="n">
         <v>2100</v>
       </c>
       <c r="G42" t="n">
-        <v>144.642</v>
+        <v>144.393</v>
       </c>
       <c r="H42" t="n">
-        <v>3095.951235010881</v>
+        <v>3168.705688914774</v>
       </c>
       <c r="I42" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J42" t="n">
-        <v>359.1025390625</v>
+        <v>370.9476013183594</v>
       </c>
       <c r="K42" t="n">
-        <v>-4.1810302734375</v>
+        <v>-1.928466796875</v>
       </c>
       <c r="L42" t="n">
-        <v>0.1239999999999952</v>
+        <v>0.1009999999999991</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.02695856683786163</v>
+        <v>-0.02557616867323463</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.01964437981371702</v>
+        <v>-0.0006278081562376344</v>
       </c>
       <c r="O42" t="n">
-        <v>2857.608084813333</v>
+        <v>2711.073879362871</v>
       </c>
       <c r="P42" t="n">
-        <v>2658.03182199148</v>
+        <v>2729.86593903069</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>1004</v>
+        <v>978</v>
       </c>
       <c r="B43" t="n">
         <v>8.200000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>67.71599807739258</v>
+        <v>68.61599807739258</v>
       </c>
       <c r="D43" t="n">
-        <v>4853</v>
+        <v>4752</v>
       </c>
       <c r="E43" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F43" t="n">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="G43" t="n">
-        <v>144.681</v>
+        <v>144.518</v>
       </c>
       <c r="H43" t="n">
-        <v>3063.466163193764</v>
+        <v>3121.637120680449</v>
       </c>
       <c r="I43" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J43" t="n">
-        <v>353.8160705566406</v>
+        <v>363.2835693359375</v>
       </c>
       <c r="K43" t="n">
-        <v>-5.286468505859375</v>
+        <v>-7.664031982421875</v>
       </c>
       <c r="L43" t="n">
-        <v>0.03900000000001569</v>
+        <v>0.125</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.02792928701411072</v>
+        <v>-0.02708135812422658</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.04306226963519607</v>
+        <v>-0.05144569939556592</v>
       </c>
       <c r="O43" t="n">
-        <v>2960.504423495737</v>
+        <v>2870.623961168018</v>
       </c>
       <c r="P43" t="n">
-        <v>2625.973674621648</v>
+        <v>2683.387199476506</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>1018</v>
+        <v>992</v>
       </c>
       <c r="B44" t="n">
         <v>8.4</v>
       </c>
       <c r="C44" t="n">
-        <v>67.32000274658203</v>
+        <v>68.22000274658204</v>
       </c>
       <c r="D44" t="n">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E44" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F44" t="n">
         <v>2200</v>
       </c>
       <c r="G44" t="n">
-        <v>144.884</v>
+        <v>144.642</v>
       </c>
       <c r="H44" t="n">
-        <v>3038.105153677574</v>
+        <v>3095.951235010881</v>
       </c>
       <c r="I44" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J44" t="n">
-        <v>349.6900329589844</v>
+        <v>359.1025390625</v>
       </c>
       <c r="K44" t="n">
-        <v>-4.12603759765625</v>
+        <v>-4.1810302734375</v>
       </c>
       <c r="L44" t="n">
-        <v>0.2029999999999745</v>
+        <v>0.1239999999999952</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.02548674860734582</v>
+        <v>-0.02602035423849568</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.003921515992735094</v>
+        <v>-0.01964437981371702</v>
       </c>
       <c r="O44" t="n">
-        <v>2701.595352378657</v>
+        <v>2758.157549280542</v>
       </c>
       <c r="P44" t="n">
-        <v>2600.953024069849</v>
+        <v>2658.03182199148</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>1031</v>
+        <v>1004</v>
       </c>
       <c r="B45" t="n">
         <v>8.6</v>
       </c>
       <c r="C45" t="n">
-        <v>66.77999725341797</v>
+        <v>67.71599807739258</v>
       </c>
       <c r="D45" t="n">
-        <v>4953</v>
+        <v>4853</v>
       </c>
       <c r="E45" t="n">
         <v>53</v>
@@ -2680,48 +2680,48 @@
         <v>2253</v>
       </c>
       <c r="G45" t="n">
-        <v>145.002</v>
+        <v>144.681</v>
       </c>
       <c r="H45" t="n">
-        <v>3003.751571298418</v>
+        <v>3063.466163193764</v>
       </c>
       <c r="I45" t="n">
         <v>53</v>
       </c>
       <c r="J45" t="n">
-        <v>344.1024780273438</v>
+        <v>353.8160705566406</v>
       </c>
       <c r="K45" t="n">
-        <v>-5.587554931640625</v>
+        <v>-5.286468505859375</v>
       </c>
       <c r="L45" t="n">
-        <v>0.1180000000000234</v>
+        <v>0.03900000000001569</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.02558805736479332</v>
+        <v>-0.02681826767239704</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.03210794079333039</v>
+        <v>-0.04306226963519607</v>
       </c>
       <c r="O45" t="n">
-        <v>2712.334080668093</v>
+        <v>2842.736373274086</v>
       </c>
       <c r="P45" t="n">
-        <v>2567.070563003138</v>
+        <v>2625.973674621648</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>1047</v>
+        <v>1018</v>
       </c>
       <c r="B46" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>66.3120002746582</v>
+        <v>67.32000274658203</v>
       </c>
       <c r="D46" t="n">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="E46" t="n">
         <v>47</v>
@@ -2730,2433 +2730,2533 @@
         <v>2300</v>
       </c>
       <c r="G46" t="n">
-        <v>145.083</v>
+        <v>144.884</v>
       </c>
       <c r="H46" t="n">
-        <v>2974.193972256507</v>
+        <v>3038.105153677574</v>
       </c>
       <c r="I46" t="n">
         <v>47</v>
       </c>
       <c r="J46" t="n">
-        <v>339.2964172363281</v>
+        <v>349.6900329589844</v>
       </c>
       <c r="K46" t="n">
-        <v>-4.806060791015625</v>
+        <v>-4.12603759765625</v>
       </c>
       <c r="L46" t="n">
-        <v>0.08099999999998886</v>
+        <v>0.2029999999999745</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.02593970498469744</v>
+        <v>-0.02464410569897194</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.03517868766034505</v>
+        <v>-0.003921515992735094</v>
       </c>
       <c r="O46" t="n">
-        <v>2749.608728377928</v>
+        <v>2612.275204091025</v>
       </c>
       <c r="P46" t="n">
-        <v>2537.927781785362</v>
+        <v>2600.953024069849</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>1074</v>
+        <v>1031</v>
       </c>
       <c r="B47" t="n">
         <v>9</v>
       </c>
       <c r="C47" t="n">
-        <v>65.05199890136718</v>
+        <v>66.77999725341797</v>
       </c>
       <c r="D47" t="n">
-        <v>5100</v>
+        <v>4953</v>
       </c>
       <c r="E47" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="F47" t="n">
-        <v>2400</v>
+        <v>2353</v>
       </c>
       <c r="G47" t="n">
-        <v>145.447</v>
+        <v>145.002</v>
       </c>
       <c r="H47" t="n">
-        <v>2895.607581338226</v>
+        <v>3003.751571298418</v>
       </c>
       <c r="I47" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="J47" t="n">
-        <v>326.52490234375</v>
+        <v>344.1024780273438</v>
       </c>
       <c r="K47" t="n">
-        <v>-12.77151489257812</v>
+        <v>-5.587554931640625</v>
       </c>
       <c r="L47" t="n">
-        <v>0.3640000000000043</v>
+        <v>0.1180000000000234</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.02586848239389929</v>
+        <v>-0.02468209720072057</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.03017040465156947</v>
+        <v>-0.03210794079333039</v>
       </c>
       <c r="O47" t="n">
-        <v>2742.059133753324</v>
+        <v>2616.30230327638</v>
       </c>
       <c r="P47" t="n">
-        <v>2460.488306526666</v>
+        <v>2567.070563003138</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>1101</v>
+        <v>1047</v>
       </c>
       <c r="B48" t="n">
         <v>9.200000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>63.97200164794922</v>
+        <v>66.3120002746582</v>
       </c>
       <c r="D48" t="n">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="E48" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="F48" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G48" t="n">
-        <v>145.728</v>
+        <v>145.083</v>
       </c>
       <c r="H48" t="n">
-        <v>2829.399906025483</v>
+        <v>2974.193972256507</v>
       </c>
       <c r="I48" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="J48" t="n">
-        <v>315.7729187011719</v>
+        <v>339.2964172363281</v>
       </c>
       <c r="K48" t="n">
-        <v>-10.75198364257812</v>
+        <v>-4.806060791015625</v>
       </c>
       <c r="L48" t="n">
-        <v>0.2810000000000059</v>
+        <v>0.08099999999998886</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.02561592698128674</v>
+        <v>-0.02494344509828804</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.02775416349590895</v>
+        <v>-0.03517868766034505</v>
       </c>
       <c r="O48" t="n">
-        <v>2715.288260016394</v>
+        <v>2644.005180418532</v>
       </c>
       <c r="P48" t="n">
-        <v>2395.298624002428</v>
+        <v>2537.927781785362</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>1114</v>
+        <v>1074</v>
       </c>
       <c r="B49" t="n">
         <v>9.4</v>
       </c>
       <c r="C49" t="n">
-        <v>63.50399780273438</v>
+        <v>65.05199890136718</v>
       </c>
       <c r="D49" t="n">
-        <v>5253</v>
+        <v>5100</v>
       </c>
       <c r="E49" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="F49" t="n">
-        <v>2553</v>
+        <v>2500</v>
       </c>
       <c r="G49" t="n">
-        <v>145.816</v>
+        <v>145.447</v>
       </c>
       <c r="H49" t="n">
-        <v>2801.039803851243</v>
+        <v>2895.607581338226</v>
       </c>
       <c r="I49" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="J49" t="n">
-        <v>311.1695861816406</v>
+        <v>326.52490234375</v>
       </c>
       <c r="K49" t="n">
-        <v>-4.60333251953125</v>
+        <v>-12.77151489257812</v>
       </c>
       <c r="L49" t="n">
-        <v>0.08799999999999386</v>
+        <v>0.3640000000000043</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.02540872083979469</v>
+        <v>-0.02483863945761612</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.02806134274388791</v>
+        <v>-0.03017040465156947</v>
       </c>
       <c r="O49" t="n">
-        <v>2693.324409018237</v>
+        <v>2632.895782507309</v>
       </c>
       <c r="P49" t="n">
-        <v>2367.389668964698</v>
+        <v>2460.488306526666</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>1129</v>
+        <v>1101</v>
       </c>
       <c r="B50" t="n">
         <v>9.600000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>63.07200164794922</v>
+        <v>63.97200164794922</v>
       </c>
       <c r="D50" t="n">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="E50" t="n">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="F50" t="n">
         <v>2600</v>
       </c>
       <c r="G50" t="n">
-        <v>146.023</v>
+        <v>145.728</v>
       </c>
       <c r="H50" t="n">
-        <v>2775.038901785498</v>
+        <v>2829.399906025483</v>
       </c>
       <c r="I50" t="n">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="J50" t="n">
-        <v>306.9504089355469</v>
+        <v>315.7729187011719</v>
       </c>
       <c r="K50" t="n">
-        <v>-4.21917724609375</v>
+        <v>-10.75198364257812</v>
       </c>
       <c r="L50" t="n">
-        <v>0.2069999999999936</v>
+        <v>0.2810000000000059</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.02339621270524519</v>
+        <v>-0.02457650018366957</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.004124727828778606</v>
+        <v>-0.02775416349590895</v>
       </c>
       <c r="O50" t="n">
-        <v>2479.99854675599</v>
+        <v>2605.109019468975</v>
       </c>
       <c r="P50" t="n">
-        <v>2341.81057644945</v>
+        <v>2395.298624002428</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>1142</v>
+        <v>1114</v>
       </c>
       <c r="B51" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>62.20800247192383</v>
+        <v>63.50399780273438</v>
       </c>
       <c r="D51" t="n">
-        <v>5352</v>
+        <v>5253</v>
       </c>
       <c r="E51" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F51" t="n">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="G51" t="n">
-        <v>146.254</v>
+        <v>145.816</v>
       </c>
       <c r="H51" t="n">
-        <v>2723.547038972031</v>
+        <v>2801.039803851243</v>
       </c>
       <c r="I51" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J51" t="n">
-        <v>298.5984191894531</v>
+        <v>311.1695861816406</v>
       </c>
       <c r="K51" t="n">
-        <v>-8.35198974609375</v>
+        <v>-4.60333251953125</v>
       </c>
       <c r="L51" t="n">
-        <v>0.2309999999999945</v>
+        <v>0.08799999999999386</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.02414228782497028</v>
+        <v>-0.02435517891762407</v>
       </c>
       <c r="N51" t="n">
-        <v>-0.03919529327702723</v>
+        <v>-0.02806134274388791</v>
       </c>
       <c r="O51" t="n">
-        <v>2559.08250944685</v>
+        <v>2581.648965268152</v>
       </c>
       <c r="P51" t="n">
-        <v>2291.177814233086</v>
+        <v>2367.389668964698</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>1159</v>
+        <v>1129</v>
       </c>
       <c r="B52" t="n">
         <v>10</v>
       </c>
       <c r="C52" t="n">
-        <v>61.4879997253418</v>
+        <v>63.07200164794922</v>
       </c>
       <c r="D52" t="n">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="E52" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F52" t="n">
         <v>2700</v>
       </c>
       <c r="G52" t="n">
-        <v>146.494</v>
+        <v>146.023</v>
       </c>
       <c r="H52" t="n">
-        <v>2681.156759271906</v>
+        <v>2775.038901785498</v>
       </c>
       <c r="I52" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J52" t="n">
-        <v>291.7264099121094</v>
+        <v>306.9504089355469</v>
       </c>
       <c r="K52" t="n">
-        <v>-6.87200927734375</v>
+        <v>-4.21917724609375</v>
       </c>
       <c r="L52" t="n">
-        <v>0.2400000000000091</v>
+        <v>0.2069999999999936</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.02382486770754378</v>
+        <v>-0.02254293354620478</v>
       </c>
       <c r="N52" t="n">
-        <v>-0.0253098450666686</v>
+        <v>-0.004124727828778606</v>
       </c>
       <c r="O52" t="n">
-        <v>2525.43597699964</v>
+        <v>2389.550955897707</v>
       </c>
       <c r="P52" t="n">
-        <v>2249.519216623833</v>
+        <v>2341.81057644945</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>1187</v>
+        <v>1142</v>
       </c>
       <c r="B53" t="n">
         <v>10.2</v>
       </c>
       <c r="C53" t="n">
-        <v>59.57999725341797</v>
+        <v>62.20800247192383</v>
       </c>
       <c r="D53" t="n">
-        <v>5500</v>
+        <v>5352</v>
       </c>
       <c r="E53" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F53" t="n">
-        <v>2800</v>
+        <v>2752</v>
       </c>
       <c r="G53" t="n">
-        <v>146.98</v>
+        <v>146.254</v>
       </c>
       <c r="H53" t="n">
-        <v>2571.108191564873</v>
+        <v>2723.547038972031</v>
       </c>
       <c r="I53" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="J53" t="n">
-        <v>273.9024658203125</v>
+        <v>298.5984191894531</v>
       </c>
       <c r="K53" t="n">
-        <v>-17.82394409179688</v>
+        <v>-8.35198974609375</v>
       </c>
       <c r="L53" t="n">
-        <v>0.48599999999999</v>
+        <v>0.2309999999999945</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.0248930573312477</v>
+        <v>-0.0231570461359389</v>
       </c>
       <c r="N53" t="n">
-        <v>-0.04414179593068341</v>
+        <v>-0.03919529327702723</v>
       </c>
       <c r="O53" t="n">
-        <v>2638.664077112257</v>
+        <v>2454.646890409524</v>
       </c>
       <c r="P53" t="n">
-        <v>2141.478898376184</v>
+        <v>2291.177814233086</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>1202</v>
+        <v>1159</v>
       </c>
       <c r="B54" t="n">
         <v>10.4</v>
       </c>
       <c r="C54" t="n">
-        <v>58.86000137329102</v>
+        <v>61.4879997253418</v>
       </c>
       <c r="D54" t="n">
-        <v>5552</v>
+        <v>5400</v>
       </c>
       <c r="E54" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F54" t="n">
-        <v>2852</v>
+        <v>2800</v>
       </c>
       <c r="G54" t="n">
-        <v>147.295</v>
+        <v>146.494</v>
       </c>
       <c r="H54" t="n">
-        <v>2530.443124800244</v>
+        <v>2681.156759271906</v>
       </c>
       <c r="I54" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J54" t="n">
-        <v>267.322509765625</v>
+        <v>291.7264099121094</v>
       </c>
       <c r="K54" t="n">
-        <v>-6.5799560546875</v>
+        <v>-6.87200927734375</v>
       </c>
       <c r="L54" t="n">
-        <v>0.3149999999999977</v>
+        <v>0.2400000000000091</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.02327450726940757</v>
+        <v>-0.02283753900273917</v>
       </c>
       <c r="N54" t="n">
-        <v>-0.007206580351676291</v>
+        <v>-0.0253098450666686</v>
       </c>
       <c r="O54" t="n">
-        <v>2467.097770557203</v>
+        <v>2420.779134290352</v>
       </c>
       <c r="P54" t="n">
-        <v>2101.597805763259</v>
+        <v>2249.519216623833</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>1218</v>
+        <v>1187</v>
       </c>
       <c r="B55" t="n">
         <v>10.6</v>
       </c>
       <c r="C55" t="n">
-        <v>57.8879997253418</v>
+        <v>59.57999725341797</v>
       </c>
       <c r="D55" t="n">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="E55" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="F55" t="n">
         <v>2900</v>
       </c>
       <c r="G55" t="n">
-        <v>147.555</v>
+        <v>146.98</v>
       </c>
       <c r="H55" t="n">
-        <v>2476.294464365229</v>
+        <v>2571.108191564873</v>
       </c>
       <c r="I55" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="J55" t="n">
-        <v>258.56640625</v>
+        <v>273.9024658203125</v>
       </c>
       <c r="K55" t="n">
-        <v>-8.756103515625</v>
+        <v>-17.82394409179688</v>
       </c>
       <c r="L55" t="n">
-        <v>0.2600000000000193</v>
+        <v>0.48599999999999</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.02412599183668753</v>
+        <v>-0.02374442815676023</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.04107969463995795</v>
+        <v>-0.04414179593068341</v>
       </c>
       <c r="O55" t="n">
-        <v>2557.355134688878</v>
+        <v>2516.909384616584</v>
       </c>
       <c r="P55" t="n">
-        <v>2048.530246992485</v>
+        <v>2141.478898376184</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>1234</v>
+        <v>1202</v>
       </c>
       <c r="B56" t="n">
         <v>10.8</v>
       </c>
       <c r="C56" t="n">
-        <v>56.73600082397461</v>
+        <v>58.86000137329102</v>
       </c>
       <c r="D56" t="n">
-        <v>5654</v>
+        <v>5552</v>
       </c>
       <c r="E56" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F56" t="n">
-        <v>2954</v>
+        <v>2952</v>
       </c>
       <c r="G56" t="n">
-        <v>147.847</v>
+        <v>147.295</v>
       </c>
       <c r="H56" t="n">
-        <v>2413.233667834885</v>
+        <v>2530.443124800244</v>
       </c>
       <c r="I56" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J56" t="n">
-        <v>248.3776092529297</v>
+        <v>267.322509765625</v>
       </c>
       <c r="K56" t="n">
-        <v>-10.18879699707031</v>
+        <v>-6.5799560546875</v>
       </c>
       <c r="L56" t="n">
-        <v>0.2920000000000016</v>
+        <v>0.3149999999999977</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.02515313609857278</v>
+        <v>-0.02227914322070237</v>
       </c>
       <c r="N56" t="n">
-        <v>-0.04429668777860325</v>
+        <v>-0.007206580351676291</v>
       </c>
       <c r="O56" t="n">
-        <v>2666.232426448715</v>
+        <v>2361.589181394451</v>
       </c>
       <c r="P56" t="n">
-        <v>1986.784568159841</v>
+        <v>2101.597805763259</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>1251</v>
+        <v>1218</v>
       </c>
       <c r="B57" t="n">
         <v>11</v>
       </c>
       <c r="C57" t="n">
-        <v>56.33999862670898</v>
+        <v>57.8879997253418</v>
       </c>
       <c r="D57" t="n">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="E57" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F57" t="n">
         <v>3000</v>
       </c>
       <c r="G57" t="n">
-        <v>148.112</v>
+        <v>147.555</v>
       </c>
       <c r="H57" t="n">
-        <v>2391.835776610387</v>
+        <v>2476.294464365229</v>
       </c>
       <c r="I57" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J57" t="n">
-        <v>244.9224853515625</v>
+        <v>258.56640625</v>
       </c>
       <c r="K57" t="n">
-        <v>-3.455123901367188</v>
+        <v>-8.756103515625</v>
       </c>
       <c r="L57" t="n">
-        <v>0.2649999999999864</v>
+        <v>0.2600000000000193</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.02205525438728486</v>
+        <v>-0.02299719556565681</v>
       </c>
       <c r="N57" t="n">
-        <v>0.01575952281122348</v>
+        <v>-0.04107969463995795</v>
       </c>
       <c r="O57" t="n">
-        <v>2337.856965052195</v>
+        <v>2437.702729959623</v>
       </c>
       <c r="P57" t="n">
-        <v>1965.847223407026</v>
+        <v>2048.530246992485</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>1265</v>
+        <v>1234</v>
       </c>
       <c r="B58" t="n">
         <v>11.2</v>
       </c>
       <c r="C58" t="n">
-        <v>55.8</v>
+        <v>56.73600082397461</v>
       </c>
       <c r="D58" t="n">
-        <v>5753</v>
+        <v>5654</v>
       </c>
       <c r="E58" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F58" t="n">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="G58" t="n">
-        <v>148.308</v>
+        <v>147.847</v>
       </c>
       <c r="H58" t="n">
-        <v>2362.8874392</v>
+        <v>2413.233667834885</v>
       </c>
       <c r="I58" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J58" t="n">
-        <v>240.25</v>
+        <v>248.3776092529297</v>
       </c>
       <c r="K58" t="n">
-        <v>-4.6724853515625</v>
+        <v>-10.18879699707031</v>
       </c>
       <c r="L58" t="n">
-        <v>0.195999999999998</v>
+        <v>0.2920000000000016</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.02084587485287711</v>
+        <v>-0.02387682334404917</v>
       </c>
       <c r="N58" t="n">
-        <v>-0.009855059386403436</v>
+        <v>-0.04429668777860325</v>
       </c>
       <c r="O58" t="n">
-        <v>2209.662734404973</v>
+        <v>2530.943274469212</v>
       </c>
       <c r="P58" t="n">
-        <v>1937.533884</v>
+        <v>1986.784568159841</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>1281</v>
+        <v>1251</v>
       </c>
       <c r="B59" t="n">
         <v>11.4</v>
       </c>
       <c r="C59" t="n">
-        <v>54.79200096130371</v>
+        <v>56.33999862670898</v>
       </c>
       <c r="D59" t="n">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="E59" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F59" t="n">
         <v>3100</v>
       </c>
       <c r="G59" t="n">
-        <v>148.539</v>
+        <v>148.112</v>
       </c>
       <c r="H59" t="n">
-        <v>2309.561646879759</v>
+        <v>2391.835776610387</v>
       </c>
       <c r="I59" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J59" t="n">
-        <v>231.6484069824219</v>
+        <v>244.9224853515625</v>
       </c>
       <c r="K59" t="n">
-        <v>-8.601593017578125</v>
+        <v>-3.455123901367188</v>
       </c>
       <c r="L59" t="n">
-        <v>0.2309999999999945</v>
+        <v>0.2649999999999864</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.02208551349112576</v>
+        <v>-0.02110053345580174</v>
       </c>
       <c r="N59" t="n">
-        <v>-0.04602035927973624</v>
+        <v>0.01575952281122348</v>
       </c>
       <c r="O59" t="n">
-        <v>2341.064430059331</v>
+        <v>2236.656546314985</v>
       </c>
       <c r="P59" t="n">
-        <v>1885.414987623861</v>
+        <v>1965.847223407026</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>1298</v>
+        <v>1265</v>
       </c>
       <c r="B60" t="n">
         <v>11.6</v>
       </c>
       <c r="C60" t="n">
-        <v>54.03600082397461</v>
+        <v>55.8</v>
       </c>
       <c r="D60" t="n">
-        <v>5847</v>
+        <v>5753</v>
       </c>
       <c r="E60" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F60" t="n">
-        <v>3147</v>
+        <v>3153</v>
       </c>
       <c r="G60" t="n">
-        <v>148.801</v>
+        <v>148.308</v>
       </c>
       <c r="H60" t="n">
-        <v>2270.175077974908</v>
+        <v>2362.8874392</v>
       </c>
       <c r="I60" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J60" t="n">
-        <v>225.3001098632812</v>
+        <v>240.25</v>
       </c>
       <c r="K60" t="n">
-        <v>-6.348297119140625</v>
+        <v>-4.6724853515625</v>
       </c>
       <c r="L60" t="n">
-        <v>0.2620000000000005</v>
+        <v>0.195999999999998</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.02131350887970681</v>
+        <v>-0.01998983134729031</v>
       </c>
       <c r="N60" t="n">
-        <v>-0.01594495128752563</v>
+        <v>-0.009855059386403436</v>
       </c>
       <c r="O60" t="n">
-        <v>2259.231941248922</v>
+        <v>2118.922122812773</v>
       </c>
       <c r="P60" t="n">
-        <v>1846.952021830372</v>
+        <v>1937.533884</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>1315</v>
+        <v>1281</v>
       </c>
       <c r="B61" t="n">
         <v>11.8</v>
       </c>
       <c r="C61" t="n">
-        <v>53.13600082397461</v>
+        <v>54.79200096130371</v>
       </c>
       <c r="D61" t="n">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="E61" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F61" t="n">
         <v>3200</v>
       </c>
       <c r="G61" t="n">
-        <v>149.048</v>
+        <v>148.539</v>
       </c>
       <c r="H61" t="n">
-        <v>2223.965608554917</v>
+        <v>2309.561646879759</v>
       </c>
       <c r="I61" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J61" t="n">
-        <v>217.8576049804688</v>
+        <v>231.6484069824219</v>
       </c>
       <c r="K61" t="n">
-        <v>-7.4425048828125</v>
+        <v>-8.601593017578125</v>
       </c>
       <c r="L61" t="n">
-        <v>0.2470000000000141</v>
+        <v>0.2309999999999945</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.02129816978966673</v>
+        <v>-0.02105246482183033</v>
       </c>
       <c r="N61" t="n">
-        <v>-0.02708183673710371</v>
+        <v>-0.04602035927973624</v>
       </c>
       <c r="O61" t="n">
-        <v>2257.605997704673</v>
+        <v>2231.561271114014</v>
       </c>
       <c r="P61" t="n">
-        <v>1801.862677053884</v>
+        <v>1885.414987623861</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>1335</v>
+        <v>1298</v>
       </c>
       <c r="B62" t="n">
         <v>12</v>
       </c>
       <c r="C62" t="n">
-        <v>51.76800041198731</v>
+        <v>54.03600082397461</v>
       </c>
       <c r="D62" t="n">
-        <v>5952</v>
+        <v>5847</v>
       </c>
       <c r="E62" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F62" t="n">
-        <v>3252</v>
+        <v>3247</v>
       </c>
       <c r="G62" t="n">
-        <v>149.412</v>
+        <v>148.801</v>
       </c>
       <c r="H62" t="n">
-        <v>2155.141308532984</v>
+        <v>2270.175077974908</v>
       </c>
       <c r="I62" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J62" t="n">
-        <v>206.7844085693359</v>
+        <v>225.3001098632812</v>
       </c>
       <c r="K62" t="n">
-        <v>-11.07319641113281</v>
+        <v>-6.348297119140625</v>
       </c>
       <c r="L62" t="n">
-        <v>0.3640000000000043</v>
+        <v>0.2620000000000005</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.02220741188885031</v>
+        <v>-0.02033269071773958</v>
       </c>
       <c r="N62" t="n">
-        <v>-0.04169002354681328</v>
+        <v>-0.01594495128752563</v>
       </c>
       <c r="O62" t="n">
-        <v>2353.985660218133</v>
+        <v>2155.265216080395</v>
       </c>
       <c r="P62" t="n">
-        <v>1734.78384528721</v>
+        <v>1846.952021830372</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>1351</v>
+        <v>1315</v>
       </c>
       <c r="B63" t="n">
         <v>12.2</v>
       </c>
       <c r="C63" t="n">
-        <v>51.3</v>
+        <v>53.13600082397461</v>
       </c>
       <c r="D63" t="n">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="E63" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F63" t="n">
         <v>3300</v>
       </c>
       <c r="G63" t="n">
-        <v>149.643</v>
+        <v>149.048</v>
       </c>
       <c r="H63" t="n">
-        <v>2131.9877682</v>
+        <v>2223.965608554917</v>
       </c>
       <c r="I63" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J63" t="n">
-        <v>203.0625</v>
+        <v>217.8576049804688</v>
       </c>
       <c r="K63" t="n">
-        <v>-3.721908569335938</v>
+        <v>-7.4425048828125</v>
       </c>
       <c r="L63" t="n">
-        <v>0.2309999999999945</v>
+        <v>0.2470000000000141</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.02012649497931746</v>
+        <v>-0.02028448882839677</v>
       </c>
       <c r="N63" t="n">
-        <v>0.005768444541114377</v>
+        <v>-0.02708183673710371</v>
       </c>
       <c r="O63" t="n">
-        <v>2133.408467807651</v>
+        <v>2150.155815810057</v>
       </c>
       <c r="P63" t="n">
-        <v>1712.239314</v>
+        <v>1801.862677053884</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>1386</v>
+        <v>1335</v>
       </c>
       <c r="B64" t="n">
         <v>12.4</v>
       </c>
       <c r="C64" t="n">
-        <v>50.29200096130371</v>
+        <v>51.76800041198731</v>
       </c>
       <c r="D64" t="n">
-        <v>6100</v>
+        <v>5952</v>
       </c>
       <c r="E64" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F64" t="n">
-        <v>3400</v>
+        <v>3352</v>
       </c>
       <c r="G64" t="n">
-        <v>149.847</v>
+        <v>149.412</v>
       </c>
       <c r="H64" t="n">
-        <v>2082.796808096472</v>
+        <v>2155.141308532984</v>
       </c>
       <c r="I64" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="J64" t="n">
-        <v>195.1609039306641</v>
+        <v>206.7844085693359</v>
       </c>
       <c r="K64" t="n">
-        <v>-7.901596069335938</v>
+        <v>-11.07319641113281</v>
       </c>
       <c r="L64" t="n">
-        <v>0.2040000000000077</v>
+        <v>0.3640000000000043</v>
       </c>
       <c r="M64" t="n">
-        <v>-0.01977288121263044</v>
+        <v>-0.02106041100666014</v>
       </c>
       <c r="N64" t="n">
-        <v>-0.02062835770516954</v>
+        <v>-0.04169002354681328</v>
       </c>
       <c r="O64" t="n">
-        <v>2095.925408538827</v>
+        <v>2232.403566705975</v>
       </c>
       <c r="P64" t="n">
-        <v>1664.380624761007</v>
+        <v>1734.78384528721</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>1402</v>
+        <v>1351</v>
       </c>
       <c r="B65" t="n">
         <v>12.6</v>
       </c>
       <c r="C65" t="n">
-        <v>49.86000137329102</v>
+        <v>51.3</v>
       </c>
       <c r="D65" t="n">
-        <v>6154</v>
+        <v>6000</v>
       </c>
       <c r="E65" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F65" t="n">
-        <v>3454</v>
+        <v>3400</v>
       </c>
       <c r="G65" t="n">
-        <v>149.983</v>
+        <v>149.643</v>
       </c>
       <c r="H65" t="n">
-        <v>2061.998499133709</v>
+        <v>2131.9877682</v>
       </c>
       <c r="I65" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J65" t="n">
-        <v>191.822509765625</v>
+        <v>203.0625</v>
       </c>
       <c r="K65" t="n">
-        <v>-3.338394165039062</v>
+        <v>-3.721908569335938</v>
       </c>
       <c r="L65" t="n">
-        <v>0.1359999999999957</v>
+        <v>0.2309999999999945</v>
       </c>
       <c r="M65" t="n">
-        <v>-0.01865377021623851</v>
+        <v>-0.0191789174865023</v>
       </c>
       <c r="N65" t="n">
-        <v>-0.007602880983066833</v>
+        <v>0.005768444541114377</v>
       </c>
       <c r="O65" t="n">
-        <v>1977.299642921282</v>
+        <v>2032.965253569243</v>
       </c>
       <c r="P65" t="n">
-        <v>1644.161886155104</v>
+        <v>1712.239314</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>1418</v>
+        <v>1386</v>
       </c>
       <c r="B66" t="n">
         <v>12.8</v>
       </c>
       <c r="C66" t="n">
-        <v>49.42799835205079</v>
+        <v>50.29200096130371</v>
       </c>
       <c r="D66" t="n">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="E66" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="F66" t="n">
         <v>3500</v>
       </c>
       <c r="G66" t="n">
-        <v>149.987</v>
+        <v>149.847</v>
       </c>
       <c r="H66" t="n">
-        <v>2041.370145557624</v>
+        <v>2082.796808096472</v>
       </c>
       <c r="I66" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="J66" t="n">
-        <v>188.5128936767578</v>
+        <v>195.1609039306641</v>
       </c>
       <c r="K66" t="n">
-        <v>-3.309616088867188</v>
+        <v>-7.901596069335938</v>
       </c>
       <c r="L66" t="n">
-        <v>0.003999999999990678</v>
+        <v>0.2040000000000077</v>
       </c>
       <c r="M66" t="n">
-        <v>-0.0192393081830079</v>
+        <v>-0.01882945018393157</v>
       </c>
       <c r="N66" t="n">
-        <v>-0.03516932992411199</v>
+        <v>-0.02062835770516954</v>
       </c>
       <c r="O66" t="n">
-        <v>2039.366667398837</v>
+        <v>1995.921719496746</v>
       </c>
       <c r="P66" t="n">
-        <v>1624.118265880908</v>
+        <v>1664.380624761007</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>1441</v>
+        <v>1402</v>
       </c>
       <c r="B67" t="n">
         <v>13</v>
       </c>
       <c r="C67" t="n">
-        <v>48.92400054931641</v>
+        <v>49.86000137329102</v>
       </c>
       <c r="D67" t="n">
-        <v>6245</v>
+        <v>6154</v>
       </c>
       <c r="E67" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F67" t="n">
-        <v>3545</v>
+        <v>3554</v>
       </c>
       <c r="G67" t="n">
-        <v>150.114</v>
+        <v>149.983</v>
       </c>
       <c r="H67" t="n">
-        <v>2017.519017014876</v>
+        <v>2061.998499133709</v>
       </c>
       <c r="I67" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J67" t="n">
-        <v>184.6881103515625</v>
+        <v>191.822509765625</v>
       </c>
       <c r="K67" t="n">
-        <v>-3.824783325195312</v>
+        <v>-3.338394165039062</v>
       </c>
       <c r="L67" t="n">
-        <v>0.1270000000000095</v>
+        <v>0.1359999999999957</v>
       </c>
       <c r="M67" t="n">
-        <v>-0.01869337443619305</v>
+        <v>-0.01779831154037118</v>
       </c>
       <c r="N67" t="n">
-        <v>-0.01637872457763987</v>
+        <v>-0.007602880983066833</v>
       </c>
       <c r="O67" t="n">
-        <v>1981.497690236463</v>
+        <v>1886.621023279345</v>
       </c>
       <c r="P67" t="n">
-        <v>1600.955837924742</v>
+        <v>1644.161886155104</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>1459</v>
+        <v>1418</v>
       </c>
       <c r="B68" t="n">
         <v>13.2</v>
       </c>
       <c r="C68" t="n">
-        <v>48.34800109863281</v>
+        <v>49.42799835205079</v>
       </c>
       <c r="D68" t="n">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="E68" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F68" t="n">
         <v>3600</v>
       </c>
       <c r="G68" t="n">
-        <v>150.245</v>
+        <v>149.987</v>
       </c>
       <c r="H68" t="n">
-        <v>1990.544022183465</v>
+        <v>2041.370145557624</v>
       </c>
       <c r="I68" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J68" t="n">
-        <v>180.3649139404297</v>
+        <v>188.5128936767578</v>
       </c>
       <c r="K68" t="n">
-        <v>-4.323196411132812</v>
+        <v>-3.309616088867188</v>
       </c>
       <c r="L68" t="n">
-        <v>0.1310000000000002</v>
+        <v>0.003999999999990678</v>
       </c>
       <c r="M68" t="n">
-        <v>-0.01822895150611345</v>
+        <v>-0.01828289499181548</v>
       </c>
       <c r="N68" t="n">
-        <v>-0.01725873238251095</v>
+        <v>-0.03516932992411199</v>
       </c>
       <c r="O68" t="n">
-        <v>1932.268859648026</v>
+        <v>1937.986869132441</v>
       </c>
       <c r="P68" t="n">
-        <v>1574.776529274347</v>
+        <v>1624.118265880908</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>1479</v>
+        <v>1441</v>
       </c>
       <c r="B69" t="n">
         <v>13.4</v>
       </c>
       <c r="C69" t="n">
-        <v>47.37599945068359</v>
+        <v>48.92400054931641</v>
       </c>
       <c r="D69" t="n">
-        <v>6348</v>
+        <v>6245</v>
       </c>
       <c r="E69" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F69" t="n">
-        <v>3648</v>
+        <v>3645</v>
       </c>
       <c r="G69" t="n">
-        <v>150.541</v>
+        <v>150.114</v>
       </c>
       <c r="H69" t="n">
-        <v>1945.709391578822</v>
+        <v>2017.519017014876</v>
       </c>
       <c r="I69" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J69" t="n">
-        <v>173.1855926513672</v>
+        <v>184.6881103515625</v>
       </c>
       <c r="K69" t="n">
-        <v>-7.1793212890625</v>
+        <v>-3.824783325195312</v>
       </c>
       <c r="L69" t="n">
-        <v>0.2959999999999923</v>
+        <v>0.1270000000000095</v>
       </c>
       <c r="M69" t="n">
-        <v>-0.01781678412966381</v>
+        <v>-0.01776268173593012</v>
       </c>
       <c r="N69" t="n">
-        <v>-0.01771384204408806</v>
+        <v>-0.01637872457763987</v>
       </c>
       <c r="O69" t="n">
-        <v>1888.579117744364</v>
+        <v>1882.844264008593</v>
       </c>
       <c r="P69" t="n">
-        <v>1531.305417053099</v>
+        <v>1600.955837924742</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>1498</v>
+        <v>1459</v>
       </c>
       <c r="B70" t="n">
         <v>13.6</v>
       </c>
       <c r="C70" t="n">
-        <v>46.54800109863282</v>
+        <v>48.34800109863281</v>
       </c>
       <c r="D70" t="n">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="E70" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F70" t="n">
         <v>3700</v>
       </c>
       <c r="G70" t="n">
-        <v>150.703</v>
+        <v>150.245</v>
       </c>
       <c r="H70" t="n">
-        <v>1908.196362396819</v>
+        <v>1990.544022183465</v>
       </c>
       <c r="I70" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J70" t="n">
-        <v>167.1849060058594</v>
+        <v>180.3649139404297</v>
       </c>
       <c r="K70" t="n">
-        <v>-6.000686645507812</v>
+        <v>-4.323196411132812</v>
       </c>
       <c r="L70" t="n">
-        <v>0.1620000000000061</v>
+        <v>0.1310000000000002</v>
       </c>
       <c r="M70" t="n">
-        <v>-0.01806165127494139</v>
+        <v>-0.01731449582235117</v>
       </c>
       <c r="N70" t="n">
-        <v>-0.02886690715020102</v>
+        <v>-0.01725873238251095</v>
       </c>
       <c r="O70" t="n">
-        <v>1914.535035143787</v>
+        <v>1835.336557169224</v>
       </c>
       <c r="P70" t="n">
-        <v>1494.974496537043</v>
+        <v>1574.776529274347</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>1518</v>
+        <v>1479</v>
       </c>
       <c r="B71" t="n">
         <v>13.8</v>
       </c>
       <c r="C71" t="n">
-        <v>45.68399848937988</v>
+        <v>47.37599945068359</v>
       </c>
       <c r="D71" t="n">
-        <v>6449</v>
+        <v>6348</v>
       </c>
       <c r="E71" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F71" t="n">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="G71" t="n">
-        <v>150.927</v>
+        <v>150.541</v>
       </c>
       <c r="H71" t="n">
-        <v>1869.718437527841</v>
+        <v>1945.709391578822</v>
       </c>
       <c r="I71" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J71" t="n">
-        <v>161.0360870361328</v>
+        <v>173.1855926513672</v>
       </c>
       <c r="K71" t="n">
-        <v>-6.148818969726562</v>
+        <v>-7.1793212890625</v>
       </c>
       <c r="L71" t="n">
-        <v>0.2239999999999895</v>
+        <v>0.2959999999999923</v>
       </c>
       <c r="M71" t="n">
-        <v>-0.01782600380762308</v>
+        <v>-0.01691252921792431</v>
       </c>
       <c r="N71" t="n">
-        <v>-0.02043577308346516</v>
+        <v>-0.01771384204408806</v>
       </c>
       <c r="O71" t="n">
-        <v>1889.556403608046</v>
+        <v>1792.728097099977</v>
       </c>
       <c r="P71" t="n">
-        <v>1457.750285907789</v>
+        <v>1531.305417053099</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>1538</v>
+        <v>1498</v>
       </c>
       <c r="B72" t="n">
         <v>14</v>
       </c>
       <c r="C72" t="n">
-        <v>44.96399917602539</v>
+        <v>46.54800109863282</v>
       </c>
       <c r="D72" t="n">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="E72" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F72" t="n">
         <v>3800</v>
       </c>
       <c r="G72" t="n">
-        <v>151.136</v>
+        <v>150.703</v>
       </c>
       <c r="H72" t="n">
-        <v>1838.173435660852</v>
+        <v>1908.196362396819</v>
       </c>
       <c r="I72" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J72" t="n">
-        <v>156.0000915527344</v>
+        <v>167.1849060058594</v>
       </c>
       <c r="K72" t="n">
-        <v>-5.035995483398438</v>
+        <v>-6.000686645507812</v>
       </c>
       <c r="L72" t="n">
-        <v>0.2090000000000032</v>
+        <v>0.1620000000000061</v>
       </c>
       <c r="M72" t="n">
-        <v>-0.01710590659956355</v>
+        <v>-0.01709526683905559</v>
       </c>
       <c r="N72" t="n">
-        <v>-0.01144631162044285</v>
+        <v>-0.02886690715020102</v>
       </c>
       <c r="O72" t="n">
-        <v>1813.226099553736</v>
+        <v>1812.098284939892</v>
       </c>
       <c r="P72" t="n">
-        <v>1427.26580319344</v>
+        <v>1494.974496537043</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>1558</v>
+        <v>1518</v>
       </c>
       <c r="B73" t="n">
         <v>14.2</v>
       </c>
       <c r="C73" t="n">
-        <v>44.31600151062012</v>
+        <v>45.68399848937988</v>
       </c>
       <c r="D73" t="n">
-        <v>6551</v>
+        <v>6449</v>
       </c>
       <c r="E73" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F73" t="n">
-        <v>3851</v>
+        <v>3849</v>
       </c>
       <c r="G73" t="n">
-        <v>151.268</v>
+        <v>150.927</v>
       </c>
       <c r="H73" t="n">
-        <v>1810.187039403757</v>
+        <v>1869.718437527841</v>
       </c>
       <c r="I73" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J73" t="n">
-        <v>151.5361175537109</v>
+        <v>161.0360870361328</v>
       </c>
       <c r="K73" t="n">
-        <v>-4.463973999023438</v>
+        <v>-6.148818969726562</v>
       </c>
       <c r="L73" t="n">
-        <v>0.132000000000005</v>
+        <v>0.2239999999999895</v>
       </c>
       <c r="M73" t="n">
-        <v>-0.01688119665862051</v>
+        <v>-0.0168518768864522</v>
       </c>
       <c r="N73" t="n">
-        <v>-0.01981106584318115</v>
+        <v>-0.02043577308346516</v>
       </c>
       <c r="O73" t="n">
-        <v>1789.406845813774</v>
+        <v>1786.298949963933</v>
       </c>
       <c r="P73" t="n">
-        <v>1400.246122506529</v>
+        <v>1457.750285907789</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>1579</v>
+        <v>1538</v>
       </c>
       <c r="B74" t="n">
         <v>14.4</v>
       </c>
       <c r="C74" t="n">
-        <v>43.3439998626709</v>
+        <v>44.96399917602539</v>
       </c>
       <c r="D74" t="n">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="E74" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F74" t="n">
         <v>3900</v>
       </c>
       <c r="G74" t="n">
-        <v>151.472</v>
+        <v>151.136</v>
       </c>
       <c r="H74" t="n">
-        <v>1768.924912933206</v>
+        <v>1838.173435660852</v>
       </c>
       <c r="I74" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J74" t="n">
-        <v>144.9615936279297</v>
+        <v>156.0000915527344</v>
       </c>
       <c r="K74" t="n">
-        <v>-6.57452392578125</v>
+        <v>-5.035995483398438</v>
       </c>
       <c r="L74" t="n">
-        <v>0.2040000000000077</v>
+        <v>0.2090000000000032</v>
       </c>
       <c r="M74" t="n">
-        <v>-0.01714557574222613</v>
+        <v>-0.01617778859145182</v>
       </c>
       <c r="N74" t="n">
-        <v>-0.02855713670897163</v>
+        <v>-0.01144631162044285</v>
       </c>
       <c r="O74" t="n">
-        <v>1817.43102867597</v>
+        <v>1714.845590693893</v>
       </c>
       <c r="P74" t="n">
-        <v>1360.45583862652</v>
+        <v>1427.26580319344</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>1600</v>
+        <v>1558</v>
       </c>
       <c r="B75" t="n">
         <v>14.6</v>
       </c>
       <c r="C75" t="n">
-        <v>42.5879997253418</v>
+        <v>44.31600151062012</v>
       </c>
       <c r="D75" t="n">
-        <v>6650</v>
+        <v>6551</v>
       </c>
       <c r="E75" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F75" t="n">
-        <v>3950</v>
+        <v>3951</v>
       </c>
       <c r="G75" t="n">
-        <v>151.683</v>
+        <v>151.268</v>
       </c>
       <c r="H75" t="n">
-        <v>1737.42761361185</v>
+        <v>1810.187039403757</v>
       </c>
       <c r="I75" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J75" t="n">
-        <v>139.9488983154297</v>
+        <v>151.5361175537109</v>
       </c>
       <c r="K75" t="n">
-        <v>-5.0126953125</v>
+        <v>-4.463973999023438</v>
       </c>
       <c r="L75" t="n">
-        <v>0.2109999999999843</v>
+        <v>0.132000000000005</v>
       </c>
       <c r="M75" t="n">
-        <v>-0.01646296113402416</v>
+        <v>-0.01594334184644703</v>
       </c>
       <c r="N75" t="n">
-        <v>-0.01107204746462555</v>
+        <v>-0.01981106584318115</v>
       </c>
       <c r="O75" t="n">
-        <v>1745.073880206561</v>
+        <v>1689.994235723385</v>
       </c>
       <c r="P75" t="n">
-        <v>1330.121358059257</v>
+        <v>1400.246122506529</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>1622</v>
+        <v>1579</v>
       </c>
       <c r="B76" t="n">
         <v>14.8</v>
       </c>
       <c r="C76" t="n">
-        <v>41.6879997253418</v>
+        <v>43.3439998626709</v>
       </c>
       <c r="D76" t="n">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="E76" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F76" t="n">
         <v>4000</v>
       </c>
       <c r="G76" t="n">
-        <v>151.892</v>
+        <v>151.472</v>
       </c>
       <c r="H76" t="n">
-        <v>1700.610130085181</v>
+        <v>1768.924912933206</v>
       </c>
       <c r="I76" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J76" t="n">
-        <v>134.0964050292969</v>
+        <v>144.9615936279297</v>
       </c>
       <c r="K76" t="n">
-        <v>-5.852493286132812</v>
+        <v>-6.57452392578125</v>
       </c>
       <c r="L76" t="n">
-        <v>0.2090000000000032</v>
+        <v>0.2040000000000077</v>
       </c>
       <c r="M76" t="n">
-        <v>-0.0162797656217105</v>
+        <v>-0.01614382251830712</v>
       </c>
       <c r="N76" t="n">
-        <v>-0.01984021588019546</v>
+        <v>-0.02855713670897163</v>
       </c>
       <c r="O76" t="n">
-        <v>1725.655155901313</v>
+        <v>1711.245186940555</v>
       </c>
       <c r="P76" t="n">
-        <v>1294.70877965142</v>
+        <v>1360.45583862652</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>1644</v>
+        <v>1600</v>
       </c>
       <c r="B77" t="n">
         <v>15</v>
       </c>
       <c r="C77" t="n">
-        <v>40.89599876403809</v>
+        <v>42.5879997253418</v>
       </c>
       <c r="D77" t="n">
-        <v>6749</v>
+        <v>6650</v>
       </c>
       <c r="E77" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F77" t="n">
-        <v>4049</v>
+        <v>4050</v>
       </c>
       <c r="G77" t="n">
-        <v>152.065</v>
+        <v>151.683</v>
       </c>
       <c r="H77" t="n">
-        <v>1668.821480714665</v>
+        <v>1737.42761361185</v>
       </c>
       <c r="I77" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J77" t="n">
-        <v>129.0495910644531</v>
+        <v>139.9488983154297</v>
       </c>
       <c r="K77" t="n">
-        <v>-5.04681396484375</v>
+        <v>-5.0126953125</v>
       </c>
       <c r="L77" t="n">
-        <v>0.1730000000000018</v>
+        <v>0.2109999999999843</v>
       </c>
       <c r="M77" t="n">
-        <v>-0.01605483259835282</v>
+        <v>-0.01550436583072538</v>
       </c>
       <c r="N77" t="n">
-        <v>-0.01882328458542876</v>
+        <v>-0.01107204746462555</v>
       </c>
       <c r="O77" t="n">
-        <v>1701.812255425399</v>
+        <v>1643.46277805689</v>
       </c>
       <c r="P77" t="n">
-        <v>1264.174968003558</v>
+        <v>1330.121358059257</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>1668</v>
+        <v>1622</v>
       </c>
       <c r="B78" t="n">
         <v>15.2</v>
       </c>
       <c r="C78" t="n">
-        <v>39.99599876403808</v>
+        <v>41.6879997253418</v>
       </c>
       <c r="D78" t="n">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="E78" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F78" t="n">
         <v>4100</v>
       </c>
       <c r="G78" t="n">
-        <v>152.336</v>
+        <v>151.892</v>
       </c>
       <c r="H78" t="n">
-        <v>1633.392121544653</v>
+        <v>1700.610130085181</v>
       </c>
       <c r="I78" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J78" t="n">
-        <v>123.4320907592773</v>
+        <v>134.0964050292969</v>
       </c>
       <c r="K78" t="n">
-        <v>-5.617500305175781</v>
+        <v>-5.852493286132812</v>
       </c>
       <c r="L78" t="n">
-        <v>0.271000000000015</v>
+        <v>0.2090000000000032</v>
       </c>
       <c r="M78" t="n">
-        <v>-0.01516934529203831</v>
+        <v>-0.01530756908075332</v>
       </c>
       <c r="N78" t="n">
-        <v>-0.005896506876489406</v>
+        <v>-0.01984021588019546</v>
       </c>
       <c r="O78" t="n">
-        <v>1607.950600956061</v>
+        <v>1622.602322559852</v>
       </c>
       <c r="P78" t="n">
-        <v>1230.192604168291</v>
+        <v>1294.70877965142</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>1689</v>
+        <v>1644</v>
       </c>
       <c r="B79" t="n">
         <v>15.4</v>
       </c>
       <c r="C79" t="n">
-        <v>38.88000068664551</v>
+        <v>40.89599876403809</v>
       </c>
       <c r="D79" t="n">
-        <v>6854</v>
+        <v>6749</v>
       </c>
       <c r="E79" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F79" t="n">
-        <v>4154</v>
+        <v>4149</v>
       </c>
       <c r="G79" t="n">
-        <v>152.524</v>
+        <v>152.065</v>
       </c>
       <c r="H79" t="n">
-        <v>1590.485228482269</v>
+        <v>1668.821480714665</v>
       </c>
       <c r="I79" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J79" t="n">
-        <v>116.640007019043</v>
+        <v>129.0495910644531</v>
       </c>
       <c r="K79" t="n">
-        <v>-6.792083740234375</v>
+        <v>-5.04681396484375</v>
       </c>
       <c r="L79" t="n">
-        <v>0.1879999999999882</v>
+        <v>0.1730000000000018</v>
       </c>
       <c r="M79" t="n">
-        <v>-0.01560312810480161</v>
+        <v>-0.01507402425567318</v>
       </c>
       <c r="N79" t="n">
-        <v>-0.0306695384752679</v>
+        <v>-0.01882328458542876</v>
       </c>
       <c r="O79" t="n">
-        <v>1653.931579108971</v>
+        <v>1597.846571101357</v>
       </c>
       <c r="P79" t="n">
-        <v>1189.111075156578</v>
+        <v>1264.174968003558</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>1710</v>
+        <v>1668</v>
       </c>
       <c r="B80" t="n">
         <v>15.6</v>
       </c>
       <c r="C80" t="n">
-        <v>38.4120002746582</v>
+        <v>39.99599876403808</v>
       </c>
       <c r="D80" t="n">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="E80" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F80" t="n">
         <v>4200</v>
       </c>
       <c r="G80" t="n">
-        <v>152.774</v>
+        <v>152.336</v>
       </c>
       <c r="H80" t="n">
-        <v>1572.829843583255</v>
+        <v>1633.392121544653</v>
       </c>
       <c r="I80" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J80" t="n">
-        <v>113.8488998413086</v>
+        <v>123.4320907592773</v>
       </c>
       <c r="K80" t="n">
-        <v>-2.791107177734375</v>
+        <v>-5.617500305175781</v>
       </c>
       <c r="L80" t="n">
-        <v>0.25</v>
+        <v>0.271000000000015</v>
       </c>
       <c r="M80" t="n">
-        <v>-0.01343415729919588</v>
+        <v>-0.01425516916876425</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01995925340034416</v>
+        <v>-0.005896506876489406</v>
       </c>
       <c r="O80" t="n">
-        <v>1424.020673714763</v>
+        <v>1511.047931889011</v>
       </c>
       <c r="P80" t="n">
-        <v>1172.231412428306</v>
+        <v>1230.192604168291</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>1736</v>
+        <v>1689</v>
       </c>
       <c r="B81" t="n">
         <v>15.8</v>
       </c>
       <c r="C81" t="n">
-        <v>37.08000068664551</v>
+        <v>38.88000068664551</v>
       </c>
       <c r="D81" t="n">
-        <v>6947</v>
+        <v>6854</v>
       </c>
       <c r="E81" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F81" t="n">
-        <v>4247</v>
+        <v>4254</v>
       </c>
       <c r="G81" t="n">
-        <v>153.075</v>
+        <v>152.524</v>
       </c>
       <c r="H81" t="n">
-        <v>1523.672739515615</v>
+        <v>1590.485228482269</v>
       </c>
       <c r="I81" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J81" t="n">
-        <v>106.0900039672852</v>
+        <v>116.640007019043</v>
       </c>
       <c r="K81" t="n">
-        <v>-7.758895874023438</v>
+        <v>-6.792083740234375</v>
       </c>
       <c r="L81" t="n">
-        <v>0.3009999999999877</v>
+        <v>0.1879999999999882</v>
       </c>
       <c r="M81" t="n">
-        <v>-0.01354594452072044</v>
+        <v>-0.01460380513210379</v>
       </c>
       <c r="N81" t="n">
-        <v>-0.02327187501470378</v>
+        <v>-0.0306695384752679</v>
       </c>
       <c r="O81" t="n">
-        <v>1435.870119196367</v>
+        <v>1548.003344003002</v>
       </c>
       <c r="P81" t="n">
-        <v>1125.315265195763</v>
+        <v>1189.111075156578</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>1763</v>
+        <v>1710</v>
       </c>
       <c r="B82" t="n">
         <v>16</v>
       </c>
       <c r="C82" t="n">
-        <v>36.1439998626709</v>
+        <v>38.4120002746582</v>
       </c>
       <c r="D82" t="n">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="E82" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F82" t="n">
         <v>4300</v>
       </c>
       <c r="G82" t="n">
-        <v>153.199</v>
+        <v>152.774</v>
       </c>
       <c r="H82" t="n">
-        <v>1490.097421226529</v>
+        <v>1572.829843583255</v>
       </c>
       <c r="I82" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J82" t="n">
-        <v>100.8015975952148</v>
+        <v>113.8488998413086</v>
       </c>
       <c r="K82" t="n">
-        <v>-5.288406372070312</v>
+        <v>-2.791107177734375</v>
       </c>
       <c r="L82" t="n">
-        <v>0.1240000000000236</v>
+        <v>0.25</v>
       </c>
       <c r="M82" t="n">
-        <v>-0.01390743610298772</v>
+        <v>-0.01265060870418235</v>
       </c>
       <c r="N82" t="n">
-        <v>-0.02823808076178415</v>
+        <v>0.01995925340034416</v>
       </c>
       <c r="O82" t="n">
-        <v>1474.188226916698</v>
+        <v>1340.964522643329</v>
       </c>
       <c r="P82" t="n">
-        <v>1093.344012995173</v>
+        <v>1172.231412428306</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>1810</v>
+        <v>1736</v>
       </c>
       <c r="B83" t="n">
         <v>16.2</v>
       </c>
       <c r="C83" t="n">
-        <v>33.76800041198731</v>
+        <v>37.08000068664551</v>
       </c>
       <c r="D83" t="n">
-        <v>7100</v>
+        <v>6947</v>
       </c>
       <c r="E83" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="F83" t="n">
-        <v>4400</v>
+        <v>4347</v>
       </c>
       <c r="G83" t="n">
-        <v>153.673</v>
+        <v>153.075</v>
       </c>
       <c r="H83" t="n">
-        <v>1408.454536333064</v>
+        <v>1523.672739515615</v>
       </c>
       <c r="I83" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="J83" t="n">
-        <v>87.98440551757812</v>
+        <v>106.0900039672852</v>
       </c>
       <c r="K83" t="n">
-        <v>-12.81719207763672</v>
+        <v>-7.758895874023438</v>
       </c>
       <c r="L83" t="n">
-        <v>0.4739999999999895</v>
+        <v>0.3009999999999877</v>
       </c>
       <c r="M83" t="n">
-        <v>-0.01386030380279039</v>
+        <v>-0.01271091803907481</v>
       </c>
       <c r="N83" t="n">
-        <v>-0.02021860189761852</v>
+        <v>-0.02327187501470378</v>
       </c>
       <c r="O83" t="n">
-        <v>1469.192203095782</v>
+        <v>1347.35731214193</v>
       </c>
       <c r="P83" t="n">
-        <v>1015.881737522317</v>
+        <v>1125.315265195763</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>1837</v>
+        <v>1763</v>
       </c>
       <c r="B84" t="n">
         <v>16.4</v>
       </c>
       <c r="C84" t="n">
-        <v>33.08399848937989</v>
+        <v>36.1439998626709</v>
       </c>
       <c r="D84" t="n">
-        <v>7147</v>
+        <v>7000</v>
       </c>
       <c r="E84" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F84" t="n">
-        <v>4447</v>
+        <v>4400</v>
       </c>
       <c r="G84" t="n">
-        <v>153.91</v>
+        <v>153.199</v>
       </c>
       <c r="H84" t="n">
-        <v>1385.905178974304</v>
+        <v>1490.097421226529</v>
       </c>
       <c r="I84" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J84" t="n">
-        <v>84.45609283447266</v>
+        <v>100.8015975952148</v>
       </c>
       <c r="K84" t="n">
-        <v>-3.528312683105469</v>
+        <v>-5.288406372070312</v>
       </c>
       <c r="L84" t="n">
-        <v>0.2369999999999948</v>
+        <v>0.1240000000000236</v>
       </c>
       <c r="M84" t="n">
-        <v>-0.01237041549190451</v>
+        <v>-0.0129922829640749</v>
       </c>
       <c r="N84" t="n">
-        <v>0.009132161339904668</v>
+        <v>-0.02823808076178415</v>
       </c>
       <c r="O84" t="n">
-        <v>1311.264042141878</v>
+        <v>1377.181994191939</v>
       </c>
       <c r="P84" t="n">
-        <v>994.5648185043473</v>
+        <v>1093.344012995173</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>1865</v>
+        <v>1810</v>
       </c>
       <c r="B85" t="n">
         <v>16.6</v>
       </c>
       <c r="C85" t="n">
-        <v>32.6879997253418</v>
+        <v>33.76800041198731</v>
       </c>
       <c r="D85" t="n">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="E85" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="F85" t="n">
         <v>4500</v>
       </c>
       <c r="G85" t="n">
-        <v>154.063</v>
+        <v>153.673</v>
       </c>
       <c r="H85" t="n">
-        <v>1373.045292818488</v>
+        <v>1408.454536333064</v>
       </c>
       <c r="I85" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="J85" t="n">
-        <v>82.44639587402344</v>
+        <v>87.98440551757812</v>
       </c>
       <c r="K85" t="n">
-        <v>-2.009696960449219</v>
+        <v>-12.81719207763672</v>
       </c>
       <c r="L85" t="n">
-        <v>0.1529999999999916</v>
+        <v>0.4739999999999895</v>
       </c>
       <c r="M85" t="n">
-        <v>-0.01100776697984116</v>
+        <v>-0.0129140448107034</v>
       </c>
       <c r="N85" t="n">
-        <v>0.007757041846953213</v>
+        <v>-0.02021860189761852</v>
       </c>
       <c r="O85" t="n">
-        <v>1166.823299863163</v>
+        <v>1368.888749934561</v>
       </c>
       <c r="P85" t="n">
-        <v>982.4243555730511</v>
+        <v>1015.881737522317</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>1893</v>
+        <v>1837</v>
       </c>
       <c r="B86" t="n">
         <v>16.8</v>
       </c>
       <c r="C86" t="n">
-        <v>31.31999931335449</v>
+        <v>33.08399848937989</v>
       </c>
       <c r="D86" t="n">
-        <v>7250</v>
+        <v>7147</v>
       </c>
       <c r="E86" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F86" t="n">
-        <v>4550</v>
+        <v>4547</v>
       </c>
       <c r="G86" t="n">
-        <v>154.267</v>
+        <v>153.91</v>
       </c>
       <c r="H86" t="n">
-        <v>1329.719945753676</v>
+        <v>1385.905178974304</v>
       </c>
       <c r="I86" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J86" t="n">
-        <v>75.68999481201172</v>
+        <v>84.45609283447266</v>
       </c>
       <c r="K86" t="n">
-        <v>-6.756401062011719</v>
+        <v>-3.528312683105469</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2040000000000077</v>
+        <v>0.2369999999999948</v>
       </c>
       <c r="M86" t="n">
-        <v>-0.01152393408280418</v>
+        <v>-0.01156499500631691</v>
       </c>
       <c r="N86" t="n">
-        <v>-0.02980476533709689</v>
+        <v>0.009132161339904668</v>
       </c>
       <c r="O86" t="n">
-        <v>1221.537012777243</v>
+        <v>1225.889470669592</v>
       </c>
       <c r="P86" t="n">
-        <v>941.6176469988477</v>
+        <v>994.5648185043473</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>1922</v>
+        <v>1865</v>
       </c>
       <c r="B87" t="n">
         <v>17</v>
       </c>
       <c r="C87" t="n">
-        <v>30.52799835205078</v>
+        <v>32.6879997253418</v>
       </c>
       <c r="D87" t="n">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="E87" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F87" t="n">
         <v>4600</v>
       </c>
       <c r="G87" t="n">
-        <v>154.443</v>
+        <v>154.063</v>
       </c>
       <c r="H87" t="n">
-        <v>1305.41654059729</v>
+        <v>1373.045292818488</v>
       </c>
       <c r="I87" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J87" t="n">
-        <v>71.91039276123047</v>
+        <v>82.44639587402344</v>
       </c>
       <c r="K87" t="n">
-        <v>-3.77960205078125</v>
+        <v>-2.009696960449219</v>
       </c>
       <c r="L87" t="n">
-        <v>0.1760000000000161</v>
+        <v>0.1529999999999916</v>
       </c>
       <c r="M87" t="n">
-        <v>-0.01084186352114007</v>
+        <v>-0.01032667471873374</v>
       </c>
       <c r="N87" t="n">
-        <v>-0.005219416734224609</v>
+        <v>0.007757041846953213</v>
       </c>
       <c r="O87" t="n">
-        <v>1149.237533240847</v>
+        <v>1094.627520185776</v>
       </c>
       <c r="P87" t="n">
-        <v>918.7960444934561</v>
+        <v>982.4243555730511</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>1953</v>
+        <v>1893</v>
       </c>
       <c r="B88" t="n">
         <v>17.2</v>
       </c>
       <c r="C88" t="n">
-        <v>29.9879997253418</v>
+        <v>31.31999931335449</v>
       </c>
       <c r="D88" t="n">
-        <v>7348</v>
+        <v>7250</v>
       </c>
       <c r="E88" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F88" t="n">
-        <v>4648</v>
+        <v>4650</v>
       </c>
       <c r="G88" t="n">
-        <v>154.553</v>
+        <v>154.267</v>
       </c>
       <c r="H88" t="n">
-        <v>1289.17393183848</v>
+        <v>1329.719945753676</v>
       </c>
       <c r="I88" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J88" t="n">
-        <v>69.38890075683594</v>
+        <v>75.68999481201172</v>
       </c>
       <c r="K88" t="n">
-        <v>-2.521492004394531</v>
+        <v>-6.756401062011719</v>
       </c>
       <c r="L88" t="n">
-        <v>0.1099999999999852</v>
+        <v>0.2040000000000077</v>
       </c>
       <c r="M88" t="n">
-        <v>-0.01018120486700601</v>
+        <v>-0.01073843632582429</v>
       </c>
       <c r="N88" t="n">
-        <v>-0.005056815297351543</v>
+        <v>-0.02980476533709689</v>
       </c>
       <c r="O88" t="n">
-        <v>1079.207715902637</v>
+        <v>1138.274250537374</v>
       </c>
       <c r="P88" t="n">
-        <v>903.5736923495404</v>
+        <v>941.6176469988477</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>1980</v>
+        <v>1922</v>
       </c>
       <c r="B89" t="n">
         <v>17.4</v>
       </c>
       <c r="C89" t="n">
-        <v>29.4120002746582</v>
+        <v>30.52799835205078</v>
       </c>
       <c r="D89" t="n">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="E89" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F89" t="n">
         <v>4700</v>
       </c>
       <c r="G89" t="n">
-        <v>154.574</v>
+        <v>154.443</v>
       </c>
       <c r="H89" t="n">
-        <v>1272.141436849948</v>
+        <v>1305.41654059729</v>
       </c>
       <c r="I89" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J89" t="n">
-        <v>66.7489013671875</v>
+        <v>71.91039276123047</v>
       </c>
       <c r="K89" t="n">
-        <v>-2.639999389648438</v>
+        <v>-3.77960205078125</v>
       </c>
       <c r="L89" t="n">
-        <v>0.02100000000001501</v>
+        <v>0.1760000000000161</v>
       </c>
       <c r="M89" t="n">
-        <v>-0.0103360045544845</v>
+        <v>-0.01009928701354476</v>
       </c>
       <c r="N89" t="n">
-        <v>-0.02164712765808281</v>
+        <v>-0.005219416734224609</v>
       </c>
       <c r="O89" t="n">
-        <v>1095.616482775357</v>
+        <v>1070.524423435745</v>
       </c>
       <c r="P89" t="n">
-        <v>887.6383565066753</v>
+        <v>918.7960444934561</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>2013</v>
+        <v>1953</v>
       </c>
       <c r="B90" t="n">
         <v>17.6</v>
       </c>
       <c r="C90" t="n">
-        <v>28.54799938201904</v>
+        <v>29.9879997253418</v>
       </c>
       <c r="D90" t="n">
-        <v>7446</v>
+        <v>7348</v>
       </c>
       <c r="E90" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F90" t="n">
-        <v>4746</v>
+        <v>4748</v>
       </c>
       <c r="G90" t="n">
-        <v>154.68</v>
+        <v>154.553</v>
       </c>
       <c r="H90" t="n">
-        <v>1247.159707572171</v>
+        <v>1289.17393183848</v>
       </c>
       <c r="I90" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J90" t="n">
-        <v>62.8848991394043</v>
+        <v>69.38890075683594</v>
       </c>
       <c r="K90" t="n">
-        <v>-3.864002227783203</v>
+        <v>-2.521492004394531</v>
       </c>
       <c r="L90" t="n">
-        <v>0.1059999999999945</v>
+        <v>0.1099999999999852</v>
       </c>
       <c r="M90" t="n">
-        <v>-0.01044459041514309</v>
+        <v>-0.009478571544246975</v>
       </c>
       <c r="N90" t="n">
-        <v>-0.02067393725851418</v>
+        <v>-0.005056815297351543</v>
       </c>
       <c r="O90" t="n">
-        <v>1107.126584005167</v>
+        <v>1004.728583690179</v>
       </c>
       <c r="P90" t="n">
-        <v>864.3195635302529</v>
+        <v>903.5736923495404</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>2069</v>
+        <v>1980</v>
       </c>
       <c r="B91" t="n">
         <v>17.8</v>
       </c>
       <c r="C91" t="n">
-        <v>27</v>
+        <v>29.4120002746582</v>
       </c>
       <c r="D91" t="n">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="E91" t="n">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="F91" t="n">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="G91" t="n">
-        <v>154.94</v>
+        <v>154.574</v>
       </c>
       <c r="H91" t="n">
-        <v>1204.10262</v>
+        <v>1272.141436849948</v>
       </c>
       <c r="I91" t="n">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="J91" t="n">
-        <v>56.25</v>
+        <v>66.7489013671875</v>
       </c>
       <c r="K91" t="n">
-        <v>-6.634899139404297</v>
+        <v>-2.639999389648438</v>
       </c>
       <c r="L91" t="n">
-        <v>0.2599999999999909</v>
+        <v>0.02100000000001501</v>
       </c>
       <c r="M91" t="n">
-        <v>-0.009864139511953893</v>
+        <v>-0.009571143922059462</v>
       </c>
       <c r="N91" t="n">
-        <v>-0.005917033471479823</v>
+        <v>-0.02164712765808281</v>
       </c>
       <c r="O91" t="n">
-        <v>1045.598788267113</v>
+        <v>1014.541255738303</v>
       </c>
       <c r="P91" t="n">
-        <v>824.2935</v>
+        <v>887.6383565066753</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>2144</v>
+        <v>2013</v>
       </c>
       <c r="B92" t="n">
         <v>18</v>
       </c>
       <c r="C92" t="n">
-        <v>24.62400054931641</v>
+        <v>28.54799938201904</v>
       </c>
       <c r="D92" t="n">
-        <v>7700</v>
+        <v>7446</v>
       </c>
       <c r="E92" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="F92" t="n">
-        <v>5000</v>
+        <v>4846</v>
       </c>
       <c r="G92" t="n">
-        <v>155.24</v>
+        <v>154.68</v>
       </c>
       <c r="H92" t="n">
-        <v>1142.264414055019</v>
+        <v>1247.159707572171</v>
       </c>
       <c r="I92" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="J92" t="n">
-        <v>46.78560256958008</v>
+        <v>62.8848991394043</v>
       </c>
       <c r="K92" t="n">
-        <v>-9.464397430419922</v>
+        <v>-3.864002227783203</v>
       </c>
       <c r="L92" t="n">
-        <v>0.3000000000000114</v>
+        <v>0.1059999999999945</v>
       </c>
       <c r="M92" t="n">
-        <v>-0.00994186839195983</v>
+        <v>-0.009623603660584712</v>
       </c>
       <c r="N92" t="n">
-        <v>-0.01955783620870233</v>
+        <v>-0.02067393725851418</v>
       </c>
       <c r="O92" t="n">
-        <v>1053.838049547742</v>
+        <v>1020.101988021979</v>
       </c>
       <c r="P92" t="n">
-        <v>767.2364139479355</v>
+        <v>864.3195635302529</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>2215</v>
+        <v>2069</v>
       </c>
       <c r="B93" t="n">
         <v>18.2</v>
       </c>
       <c r="C93" t="n">
-        <v>24.3</v>
+        <v>27</v>
       </c>
       <c r="D93" t="n">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="E93" t="n">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="F93" t="n">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="G93" t="n">
-        <v>155.39</v>
+        <v>154.94</v>
       </c>
       <c r="H93" t="n">
-        <v>1134.2306322</v>
+        <v>1204.10262</v>
       </c>
       <c r="I93" t="n">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="J93" t="n">
-        <v>45.5625</v>
+        <v>56.25</v>
       </c>
       <c r="K93" t="n">
-        <v>-1.223102569580078</v>
+        <v>-6.634899139404297</v>
       </c>
       <c r="L93" t="n">
-        <v>0.1499999999999773</v>
+        <v>0.2599999999999909</v>
       </c>
       <c r="M93" t="n">
-        <v>-0.008761149504159977</v>
+        <v>-0.009075225555866925</v>
       </c>
       <c r="N93" t="n">
-        <v>0.007766562623795619</v>
+        <v>-0.005917033471479823</v>
       </c>
       <c r="O93" t="n">
-        <v>928.6818474409575</v>
+        <v>961.9739089218941</v>
       </c>
       <c r="P93" t="n">
-        <v>759.8666940000001</v>
+        <v>824.2935</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>2293</v>
+        <v>2144</v>
       </c>
       <c r="B94" t="n">
         <v>18.4</v>
       </c>
       <c r="C94" t="n">
-        <v>22.82400054931641</v>
+        <v>24.62400054931641</v>
       </c>
       <c r="D94" t="n">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="E94" t="n">
         <v>100</v>
       </c>
       <c r="F94" t="n">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="G94" t="n">
-        <v>155.51</v>
+        <v>155.24</v>
       </c>
       <c r="H94" t="n">
-        <v>1098.843284161696</v>
+        <v>1142.264414055019</v>
       </c>
       <c r="I94" t="n">
         <v>100</v>
       </c>
       <c r="J94" t="n">
+        <v>46.78560256958008</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-9.464397430419922</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.3000000000000114</v>
+      </c>
+      <c r="M94" t="n">
+        <v>-0.009099892567872398</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-0.01955783620870233</v>
+      </c>
+      <c r="O94" t="n">
+        <v>964.5886121944743</v>
+      </c>
+      <c r="P94" t="n">
+        <v>767.2364139479355</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>2215</v>
+      </c>
+      <c r="B95" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C95" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>7800</v>
+      </c>
+      <c r="E95" t="n">
+        <v>100</v>
+      </c>
+      <c r="F95" t="n">
+        <v>5200</v>
+      </c>
+      <c r="G95" t="n">
+        <v>155.39</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1134.2306322</v>
+      </c>
+      <c r="I95" t="n">
+        <v>100</v>
+      </c>
+      <c r="J95" t="n">
+        <v>45.5625</v>
+      </c>
+      <c r="K95" t="n">
+        <v>-1.223102569580078</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.1499999999999773</v>
+      </c>
+      <c r="M95" t="n">
+        <v>-0.008030648547612275</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.007766562623795619</v>
+      </c>
+      <c r="O95" t="n">
+        <v>851.248746046901</v>
+      </c>
+      <c r="P95" t="n">
+        <v>759.8666940000001</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>2293</v>
+      </c>
+      <c r="B96" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C96" t="n">
+        <v>22.82400054931641</v>
+      </c>
+      <c r="D96" t="n">
+        <v>7900</v>
+      </c>
+      <c r="E96" t="n">
+        <v>100</v>
+      </c>
+      <c r="F96" t="n">
+        <v>5300</v>
+      </c>
+      <c r="G96" t="n">
+        <v>155.51</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1098.843284161696</v>
+      </c>
+      <c r="I96" t="n">
+        <v>100</v>
+      </c>
+      <c r="J96" t="n">
         <v>40.19560241699219</v>
       </c>
-      <c r="K94" t="n">
+      <c r="K96" t="n">
         <v>-5.366897583007812</v>
       </c>
-      <c r="L94" t="n">
+      <c r="L96" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="M94" t="n">
-        <v>-0.008701397172050887</v>
-      </c>
-      <c r="N94" t="n">
+      <c r="M96" t="n">
+        <v>-0.007933866696192532</v>
+      </c>
+      <c r="N96" t="n">
         <v>-0.01572882753768015</v>
       </c>
-      <c r="O94" t="n">
-        <v>922.3481002373941</v>
-      </c>
-      <c r="P94" t="n">
+      <c r="O96" t="n">
+        <v>840.9898697964084</v>
+      </c>
+      <c r="P96" t="n">
         <v>727.5412275792833</v>
       </c>
     </row>
